--- a/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDEC26-875A-49AF-9994-F03A53EEB826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB759DD-29A7-4154-9D75-7568CA826BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9072" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver.43.1.3" sheetId="6" r:id="rId1"/>
@@ -4269,456 +4269,71 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -4738,6 +4353,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4746,12 +4364,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4764,18 +4376,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="5" fontId="6" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4794,53 +4394,453 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5317,18 +5317,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="260" t="s">
+      <c r="E2" s="329" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5343,19 +5343,19 @@
       <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="263"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="332"/>
       <c r="I3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="261"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="263"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="332"/>
       <c r="O3" s="83" t="s">
         <v>26</v>
       </c>
@@ -5365,24 +5365,24 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="265"/>
+      <c r="B4" s="333"/>
+      <c r="C4" s="334"/>
       <c r="D4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="266"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="269" t="s">
+      <c r="E4" s="335"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="270"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="271"/>
-      <c r="L4" s="269" t="s">
+      <c r="I4" s="339"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="338" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="270"/>
+      <c r="M4" s="339"/>
       <c r="N4" s="72"/>
       <c r="O4" s="79" t="s">
         <v>77</v>
@@ -5408,36 +5408,36 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="274"/>
+      <c r="A5" s="341"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="342"/>
+      <c r="P5" s="343"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="253"/>
+      <c r="B6" s="346"/>
       <c r="C6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="254" t="s">
+      <c r="D6" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="255"/>
-      <c r="F6" s="253"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="346"/>
       <c r="G6" s="61" t="s">
         <v>7</v>
       </c>
@@ -5450,18 +5450,18 @@
       <c r="J6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="256" t="s">
+      <c r="K6" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="257"/>
+      <c r="L6" s="350"/>
       <c r="M6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="249" t="s">
+      <c r="N6" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="251"/>
+      <c r="O6" s="352"/>
+      <c r="P6" s="353"/>
       <c r="Q6" s="149" t="s">
         <v>79</v>
       </c>
@@ -5494,27 +5494,27 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
+      <c r="A7" s="354"/>
+      <c r="B7" s="355"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
+      <c r="D7" s="356"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="358"/>
       <c r="G7" s="40"/>
       <c r="H7" s="46" t="s">
         <v>144</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="75"/>
-      <c r="K7" s="219">
+      <c r="K7" s="325">
         <f t="shared" ref="K7:K26" si="0">IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="220"/>
+      <c r="L7" s="326"/>
       <c r="M7" s="99"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="223"/>
+      <c r="N7" s="359"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="361"/>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7:Q27" ca="1" si="1">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
@@ -5556,27 +5556,27 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A8" s="214"/>
-      <c r="B8" s="215"/>
+      <c r="A8" s="354"/>
+      <c r="B8" s="355"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="218"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="358"/>
       <c r="G8" s="40"/>
       <c r="H8" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="219">
+      <c r="K8" s="325">
         <f t="shared" ref="K8" si="10">IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="220"/>
+      <c r="L8" s="326"/>
       <c r="M8" s="99"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="222"/>
-      <c r="P8" s="223"/>
+      <c r="N8" s="359"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="361"/>
       <c r="Q8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -5618,31 +5618,31 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A9" s="214" t="s">
+      <c r="A9" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="215"/>
+      <c r="B9" s="355"/>
       <c r="C9" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="358"/>
       <c r="G9" s="40"/>
       <c r="H9" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="75"/>
-      <c r="K9" s="219">
+      <c r="K9" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="220"/>
+      <c r="L9" s="326"/>
       <c r="M9" s="99"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="223"/>
+      <c r="N9" s="359"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="361"/>
       <c r="Q9" s="1" t="str">
         <f t="shared" ref="Q9:Q11" ca="1" si="12">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
         <v/>
@@ -5684,31 +5684,31 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="215"/>
+      <c r="B10" s="355"/>
       <c r="C10" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="216"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="358"/>
       <c r="G10" s="40"/>
       <c r="H10" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="75"/>
-      <c r="K10" s="219">
+      <c r="K10" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="220"/>
+      <c r="L10" s="326"/>
       <c r="M10" s="99"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="222"/>
-      <c r="P10" s="223"/>
+      <c r="N10" s="359"/>
+      <c r="O10" s="360"/>
+      <c r="P10" s="361"/>
       <c r="Q10" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -5750,31 +5750,31 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="215"/>
+      <c r="B11" s="355"/>
       <c r="C11" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="218"/>
+      <c r="D11" s="356"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="358"/>
       <c r="G11" s="40"/>
       <c r="H11" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="75"/>
-      <c r="K11" s="219">
+      <c r="K11" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="220"/>
+      <c r="L11" s="326"/>
       <c r="M11" s="99"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="222"/>
-      <c r="P11" s="223"/>
+      <c r="N11" s="359"/>
+      <c r="O11" s="360"/>
+      <c r="P11" s="361"/>
       <c r="Q11" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -5816,31 +5816,31 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="215"/>
+      <c r="B12" s="355"/>
       <c r="C12" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="358"/>
       <c r="G12" s="40"/>
       <c r="H12" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="75"/>
-      <c r="K12" s="219">
+      <c r="K12" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="220"/>
+      <c r="L12" s="326"/>
       <c r="M12" s="99"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="223"/>
+      <c r="N12" s="359"/>
+      <c r="O12" s="360"/>
+      <c r="P12" s="361"/>
       <c r="Q12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -5882,31 +5882,31 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A13" s="214" t="s">
+      <c r="A13" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="215"/>
+      <c r="B13" s="355"/>
       <c r="C13" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
+      <c r="D13" s="356"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="358"/>
       <c r="G13" s="40"/>
       <c r="H13" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="75"/>
-      <c r="K13" s="219">
+      <c r="K13" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="220"/>
+      <c r="L13" s="326"/>
       <c r="M13" s="99"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="222"/>
-      <c r="P13" s="223"/>
+      <c r="N13" s="359"/>
+      <c r="O13" s="360"/>
+      <c r="P13" s="361"/>
       <c r="Q13" s="1" t="str">
         <f t="shared" ref="Q13:Q14" ca="1" si="20">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
         <v/>
@@ -5948,31 +5948,31 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="215"/>
+      <c r="B14" s="355"/>
       <c r="C14" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="218"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="358"/>
       <c r="G14" s="40"/>
       <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="75"/>
-      <c r="K14" s="219">
+      <c r="K14" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="220"/>
+      <c r="L14" s="326"/>
       <c r="M14" s="99"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="222"/>
-      <c r="P14" s="223"/>
+      <c r="N14" s="359"/>
+      <c r="O14" s="360"/>
+      <c r="P14" s="361"/>
       <c r="Q14" s="1" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -6014,31 +6014,31 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="215"/>
+      <c r="B15" s="355"/>
       <c r="C15" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="218"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="358"/>
       <c r="G15" s="40"/>
       <c r="H15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="75"/>
-      <c r="K15" s="219">
+      <c r="K15" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="220"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="99"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="223"/>
+      <c r="N15" s="359"/>
+      <c r="O15" s="360"/>
+      <c r="P15" s="361"/>
       <c r="Q15" s="1" t="str">
         <f t="shared" ref="Q15:Q21" ca="1" si="28">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
         <v/>
@@ -6080,31 +6080,31 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="215"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="218"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="357"/>
+      <c r="F16" s="358"/>
       <c r="G16" s="40"/>
       <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="75"/>
-      <c r="K16" s="219">
+      <c r="K16" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="220"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="99"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="223"/>
+      <c r="N16" s="359"/>
+      <c r="O16" s="360"/>
+      <c r="P16" s="361"/>
       <c r="Q16" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6146,31 +6146,31 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="215"/>
+      <c r="B17" s="355"/>
       <c r="C17" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="218"/>
+      <c r="D17" s="356"/>
+      <c r="E17" s="357"/>
+      <c r="F17" s="358"/>
       <c r="G17" s="40"/>
       <c r="H17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="75"/>
-      <c r="K17" s="219">
+      <c r="K17" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="220"/>
+      <c r="L17" s="326"/>
       <c r="M17" s="99"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="223"/>
+      <c r="N17" s="359"/>
+      <c r="O17" s="360"/>
+      <c r="P17" s="361"/>
       <c r="Q17" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6212,31 +6212,31 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="215"/>
+      <c r="B18" s="355"/>
       <c r="C18" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="218"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="358"/>
       <c r="G18" s="40"/>
       <c r="H18" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="219">
+      <c r="K18" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="220"/>
+      <c r="L18" s="326"/>
       <c r="M18" s="99"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="222"/>
-      <c r="P18" s="223"/>
+      <c r="N18" s="359"/>
+      <c r="O18" s="360"/>
+      <c r="P18" s="361"/>
       <c r="Q18" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6278,31 +6278,31 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="215"/>
+      <c r="B19" s="355"/>
       <c r="C19" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="218"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="358"/>
       <c r="G19" s="40"/>
       <c r="H19" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="75"/>
-      <c r="K19" s="219">
+      <c r="K19" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="220"/>
+      <c r="L19" s="326"/>
       <c r="M19" s="99"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="223"/>
+      <c r="N19" s="359"/>
+      <c r="O19" s="360"/>
+      <c r="P19" s="361"/>
       <c r="Q19" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6344,31 +6344,31 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="215"/>
+      <c r="B20" s="355"/>
       <c r="C20" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="218"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="357"/>
+      <c r="F20" s="358"/>
       <c r="G20" s="40"/>
       <c r="H20" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="75"/>
-      <c r="K20" s="219">
+      <c r="K20" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="220"/>
+      <c r="L20" s="326"/>
       <c r="M20" s="99"/>
-      <c r="N20" s="221"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="223"/>
+      <c r="N20" s="359"/>
+      <c r="O20" s="360"/>
+      <c r="P20" s="361"/>
       <c r="Q20" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6410,31 +6410,31 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="215"/>
+      <c r="B21" s="355"/>
       <c r="C21" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="216"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="218"/>
+      <c r="D21" s="356"/>
+      <c r="E21" s="357"/>
+      <c r="F21" s="358"/>
       <c r="G21" s="40"/>
       <c r="H21" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="75"/>
-      <c r="K21" s="219">
+      <c r="K21" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="220"/>
+      <c r="L21" s="326"/>
       <c r="M21" s="99"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="223"/>
+      <c r="N21" s="359"/>
+      <c r="O21" s="360"/>
+      <c r="P21" s="361"/>
       <c r="Q21" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6476,31 +6476,31 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="215"/>
+      <c r="B22" s="355"/>
       <c r="C22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="216"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="218"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="357"/>
+      <c r="F22" s="358"/>
       <c r="G22" s="40"/>
       <c r="H22" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="75"/>
-      <c r="K22" s="219">
+      <c r="K22" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="220"/>
+      <c r="L22" s="326"/>
       <c r="M22" s="99"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="223"/>
+      <c r="N22" s="359"/>
+      <c r="O22" s="360"/>
+      <c r="P22" s="361"/>
       <c r="Q22" s="1" t="str">
         <f t="shared" ref="Q22:Q25" ca="1" si="36">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
@@ -6542,31 +6542,31 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="355"/>
       <c r="C23" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="216"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="218"/>
+      <c r="D23" s="356"/>
+      <c r="E23" s="357"/>
+      <c r="F23" s="358"/>
       <c r="G23" s="40"/>
       <c r="H23" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="75"/>
-      <c r="K23" s="219">
+      <c r="K23" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="220"/>
+      <c r="L23" s="326"/>
       <c r="M23" s="99"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="222"/>
-      <c r="P23" s="223"/>
+      <c r="N23" s="359"/>
+      <c r="O23" s="360"/>
+      <c r="P23" s="361"/>
       <c r="Q23" s="1" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -6608,31 +6608,31 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="215"/>
+      <c r="B24" s="355"/>
       <c r="C24" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="216"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="218"/>
+      <c r="D24" s="356"/>
+      <c r="E24" s="357"/>
+      <c r="F24" s="358"/>
       <c r="G24" s="40"/>
       <c r="H24" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="75"/>
-      <c r="K24" s="219">
+      <c r="K24" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="220"/>
+      <c r="L24" s="326"/>
       <c r="M24" s="99"/>
-      <c r="N24" s="221"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="223"/>
+      <c r="N24" s="359"/>
+      <c r="O24" s="360"/>
+      <c r="P24" s="361"/>
       <c r="Q24" s="1" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -6674,31 +6674,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="215"/>
+      <c r="B25" s="355"/>
       <c r="C25" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="216"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="218"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="357"/>
+      <c r="F25" s="358"/>
       <c r="G25" s="40"/>
       <c r="H25" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="75"/>
-      <c r="K25" s="219">
+      <c r="K25" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="220"/>
+      <c r="L25" s="326"/>
       <c r="M25" s="99"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="222"/>
-      <c r="P25" s="223"/>
+      <c r="N25" s="359"/>
+      <c r="O25" s="360"/>
+      <c r="P25" s="361"/>
       <c r="Q25" s="1" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -6740,31 +6740,31 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A26" s="214" t="s">
+      <c r="A26" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="215"/>
+      <c r="B26" s="355"/>
       <c r="C26" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="216"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="218"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="357"/>
+      <c r="F26" s="358"/>
       <c r="G26" s="40"/>
       <c r="H26" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="75"/>
-      <c r="K26" s="219">
+      <c r="K26" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="220"/>
+      <c r="L26" s="326"/>
       <c r="M26" s="99"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="222"/>
-      <c r="P26" s="223"/>
+      <c r="N26" s="359"/>
+      <c r="O26" s="360"/>
+      <c r="P26" s="361"/>
       <c r="Q26" s="1" t="str">
         <f t="shared" ref="Q26" ca="1" si="44">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
         <v/>
@@ -6806,27 +6806,27 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A27" s="214"/>
-      <c r="B27" s="215"/>
+      <c r="A27" s="354"/>
+      <c r="B27" s="355"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="218"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="357"/>
+      <c r="F27" s="358"/>
       <c r="G27" s="42"/>
       <c r="H27" s="47" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="76"/>
-      <c r="K27" s="219">
+      <c r="K27" s="325">
         <f t="shared" ref="K27" si="52">IFERROR(ROUNDDOWN(G27*ROUNDDOWN(I27,4)*J27,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L27" s="220"/>
+      <c r="L27" s="326"/>
       <c r="M27" s="100"/>
-      <c r="N27" s="258"/>
-      <c r="O27" s="258"/>
-      <c r="P27" s="259"/>
+      <c r="N27" s="362"/>
+      <c r="O27" s="362"/>
+      <c r="P27" s="363"/>
       <c r="Q27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -6868,66 +6868,66 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A28" s="232" t="s">
+      <c r="A28" s="372" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="234"/>
+      <c r="B28" s="373"/>
+      <c r="C28" s="373"/>
+      <c r="D28" s="373"/>
+      <c r="E28" s="373"/>
+      <c r="F28" s="374"/>
       <c r="G28" s="101">
         <f>SUM(G7:G27)</f>
         <v>0</v>
       </c>
       <c r="H28" s="102"/>
-      <c r="I28" s="235">
+      <c r="I28" s="375">
         <f>SUM(K7:K27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="236"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="237"/>
+      <c r="J28" s="376"/>
+      <c r="K28" s="376"/>
+      <c r="L28" s="377"/>
       <c r="M28" s="69"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
+      <c r="N28" s="378"/>
+      <c r="O28" s="378"/>
+      <c r="P28" s="379"/>
       <c r="Q28" s="1">
         <f>IF(C28&lt;&gt;0,IF(A28=$G$95,VLOOKUP(C28,$G$97:$G$105,1,TRUE),IF(A28=$H$95,VLOOKUP(C28,$H$97:$H$107,1,TRUE),IF(A28=$I$95,VLOOKUP(C28,$I$97:$I$105,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A29" s="240"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="241"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="241"/>
-      <c r="O29" s="241"/>
-      <c r="P29" s="242"/>
+      <c r="A29" s="317"/>
+      <c r="B29" s="318"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="318"/>
+      <c r="J29" s="318"/>
+      <c r="K29" s="318"/>
+      <c r="L29" s="318"/>
+      <c r="M29" s="318"/>
+      <c r="N29" s="318"/>
+      <c r="O29" s="318"/>
+      <c r="P29" s="319"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="364" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="244"/>
+      <c r="B30" s="365"/>
       <c r="C30" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="245" t="s">
+      <c r="D30" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="244"/>
+      <c r="E30" s="367"/>
+      <c r="F30" s="365"/>
       <c r="G30" s="66" t="s">
         <v>7</v>
       </c>
@@ -6940,41 +6940,41 @@
       <c r="J30" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="247" t="s">
+      <c r="K30" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="248"/>
+      <c r="L30" s="369"/>
       <c r="M30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="249" t="s">
+      <c r="N30" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="250"/>
-      <c r="P30" s="251"/>
+      <c r="O30" s="352"/>
+      <c r="P30" s="353"/>
     </row>
     <row r="31" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A31" s="224"/>
-      <c r="B31" s="225"/>
+      <c r="A31" s="370"/>
+      <c r="B31" s="371"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="228"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="324"/>
       <c r="G31" s="5"/>
       <c r="H31" s="49" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="75"/>
-      <c r="K31" s="219">
+      <c r="K31" s="325">
         <f t="shared" ref="K31:K32" si="54">IFERROR(ROUNDDOWN(G31*ROUNDDOWN(I31,4)*J31,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="220"/>
+      <c r="L31" s="326"/>
       <c r="M31" s="99"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="231"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="262"/>
+      <c r="P31" s="263"/>
       <c r="Q31" s="1" t="str">
         <f t="shared" ref="Q31:Q32" ca="1" si="55">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
         <v/>
@@ -7016,27 +7016,27 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A32" s="289"/>
-      <c r="B32" s="290"/>
+      <c r="A32" s="320"/>
+      <c r="B32" s="321"/>
       <c r="C32" s="95"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="228"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="323"/>
+      <c r="F32" s="324"/>
       <c r="G32" s="38"/>
       <c r="H32" s="50" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="78"/>
-      <c r="K32" s="219">
+      <c r="K32" s="325">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="L32" s="220"/>
+      <c r="L32" s="326"/>
       <c r="M32" s="99"/>
-      <c r="N32" s="291"/>
-      <c r="O32" s="291"/>
-      <c r="P32" s="292"/>
+      <c r="N32" s="327"/>
+      <c r="O32" s="327"/>
+      <c r="P32" s="328"/>
       <c r="Q32" s="1" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -7078,65 +7078,65 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="276" t="s">
+      <c r="A33" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="277"/>
-      <c r="C33" s="277"/>
-      <c r="D33" s="277"/>
-      <c r="E33" s="277"/>
-      <c r="F33" s="278"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="310"/>
+      <c r="F33" s="311"/>
       <c r="G33" s="103">
         <f>SUM(G31:G32)</f>
         <v>0</v>
       </c>
       <c r="H33" s="104"/>
-      <c r="I33" s="279">
+      <c r="I33" s="312">
         <f>SUM(K31:K32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="280"/>
-      <c r="K33" s="280"/>
-      <c r="L33" s="281"/>
+      <c r="J33" s="313"/>
+      <c r="K33" s="313"/>
+      <c r="L33" s="314"/>
       <c r="M33" s="70"/>
-      <c r="N33" s="282"/>
-      <c r="O33" s="282"/>
-      <c r="P33" s="283"/>
+      <c r="N33" s="315"/>
+      <c r="O33" s="315"/>
+      <c r="P33" s="316"/>
       <c r="Q33" s="1">
         <f>IF(C33&lt;&gt;0,IF(A33=$G$95,VLOOKUP(C33,$G$97:$G$105,1,TRUE),IF(A33=$H$95,VLOOKUP(C33,$H$97:$H$107,1,TRUE),IF(A33=$I$95,VLOOKUP(C33,$I$97:$I$105,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A34" s="240"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="241"/>
-      <c r="H34" s="241"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="241"/>
-      <c r="L34" s="241"/>
-      <c r="M34" s="241"/>
-      <c r="N34" s="241"/>
-      <c r="O34" s="241"/>
-      <c r="P34" s="242"/>
+      <c r="A34" s="317"/>
+      <c r="B34" s="318"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="318"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
+      <c r="L34" s="318"/>
+      <c r="M34" s="318"/>
+      <c r="N34" s="318"/>
+      <c r="O34" s="318"/>
+      <c r="P34" s="319"/>
     </row>
     <row r="35" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A35" s="284" t="s">
+      <c r="A35" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="285"/>
+      <c r="B35" s="303"/>
       <c r="C35" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="286" t="s">
+      <c r="D35" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="285"/>
+      <c r="E35" s="303"/>
       <c r="F35" s="57" t="s">
         <v>16</v>
       </c>
@@ -7152,25 +7152,25 @@
       <c r="J35" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="286" t="s">
+      <c r="K35" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="285"/>
+      <c r="L35" s="303"/>
       <c r="M35" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="286" t="s">
+      <c r="N35" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="287"/>
-      <c r="P35" s="288"/>
+      <c r="O35" s="305"/>
+      <c r="P35" s="306"/>
     </row>
     <row r="36" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="283"/>
+      <c r="B36" s="284"/>
       <c r="C36" s="51"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="208"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="284"/>
       <c r="F36" s="52"/>
       <c r="G36" s="7"/>
       <c r="H36" s="55" t="s">
@@ -7178,15 +7178,15 @@
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="77"/>
-      <c r="K36" s="210">
+      <c r="K36" s="286">
         <f t="shared" ref="K36:K48" si="65">IFERROR(ROUNDDOWN(G36*ROUNDDOWN(I36,4)*J36,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="211"/>
+      <c r="L36" s="287"/>
       <c r="M36" s="99"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="212"/>
-      <c r="P36" s="213"/>
+      <c r="N36" s="288"/>
+      <c r="O36" s="288"/>
+      <c r="P36" s="289"/>
       <c r="Q36" s="1" t="str">
         <f t="shared" ref="Q36:Q48" ca="1" si="66">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
         <v/>
@@ -7228,11 +7228,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A37" s="207"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="283"/>
+      <c r="B37" s="284"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="208"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="284"/>
       <c r="F37" s="52"/>
       <c r="G37" s="7"/>
       <c r="H37" s="55" t="s">
@@ -7240,15 +7240,15 @@
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="77"/>
-      <c r="K37" s="210">
+      <c r="K37" s="286">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="L37" s="211"/>
+      <c r="L37" s="287"/>
       <c r="M37" s="99"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="213"/>
+      <c r="N37" s="288"/>
+      <c r="O37" s="288"/>
+      <c r="P37" s="289"/>
       <c r="Q37" s="1" t="str">
         <f t="shared" ca="1" si="66"/>
         <v/>
@@ -7290,15 +7290,15 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="208"/>
+      <c r="B38" s="284"/>
       <c r="C38" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="208"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="52"/>
       <c r="G38" s="7"/>
       <c r="H38" s="55" t="s">
@@ -7306,15 +7306,15 @@
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="77"/>
-      <c r="K38" s="210">
+      <c r="K38" s="286">
         <f t="shared" ref="K38:K39" si="75">IFERROR(ROUNDDOWN(G38*ROUNDDOWN(I38,4)*J38,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L38" s="211"/>
+      <c r="L38" s="287"/>
       <c r="M38" s="99"/>
-      <c r="N38" s="212"/>
-      <c r="O38" s="212"/>
-      <c r="P38" s="213"/>
+      <c r="N38" s="288"/>
+      <c r="O38" s="288"/>
+      <c r="P38" s="289"/>
       <c r="Q38" s="1" t="str">
         <f t="shared" ref="Q38:Q39" ca="1" si="76">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
         <v/>
@@ -7356,15 +7356,15 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A39" s="207" t="s">
+      <c r="A39" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="208"/>
+      <c r="B39" s="284"/>
       <c r="C39" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="208"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="284"/>
       <c r="F39" s="52"/>
       <c r="G39" s="7"/>
       <c r="H39" s="55" t="s">
@@ -7372,15 +7372,15 @@
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="77"/>
-      <c r="K39" s="210">
+      <c r="K39" s="286">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="L39" s="211"/>
+      <c r="L39" s="287"/>
       <c r="M39" s="99"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="212"/>
-      <c r="P39" s="213"/>
+      <c r="N39" s="288"/>
+      <c r="O39" s="288"/>
+      <c r="P39" s="289"/>
       <c r="Q39" s="1" t="str">
         <f t="shared" ca="1" si="76"/>
         <v/>
@@ -7422,15 +7422,15 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="208"/>
+      <c r="B40" s="284"/>
       <c r="C40" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="209"/>
-      <c r="E40" s="208"/>
+      <c r="D40" s="285"/>
+      <c r="E40" s="284"/>
       <c r="F40" s="52"/>
       <c r="G40" s="7"/>
       <c r="H40" s="55" t="s">
@@ -7438,15 +7438,15 @@
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="77"/>
-      <c r="K40" s="210">
+      <c r="K40" s="286">
         <f t="shared" ref="K40:K46" si="85">IFERROR(ROUNDDOWN(G40*ROUNDDOWN(I40,4)*J40,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L40" s="211"/>
+      <c r="L40" s="287"/>
       <c r="M40" s="99"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="212"/>
-      <c r="P40" s="213"/>
+      <c r="N40" s="288"/>
+      <c r="O40" s="288"/>
+      <c r="P40" s="289"/>
       <c r="Q40" s="1" t="str">
         <f t="shared" ref="Q40:Q46" ca="1" si="86">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
         <v/>
@@ -7488,15 +7488,15 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="208"/>
+      <c r="B41" s="284"/>
       <c r="C41" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="209"/>
-      <c r="E41" s="208"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="284"/>
       <c r="F41" s="52"/>
       <c r="G41" s="7"/>
       <c r="H41" s="55" t="s">
@@ -7504,15 +7504,15 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="77"/>
-      <c r="K41" s="210">
+      <c r="K41" s="286">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L41" s="211"/>
+      <c r="L41" s="287"/>
       <c r="M41" s="99"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="212"/>
-      <c r="P41" s="213"/>
+      <c r="N41" s="288"/>
+      <c r="O41" s="288"/>
+      <c r="P41" s="289"/>
       <c r="Q41" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7554,15 +7554,15 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A42" s="207" t="s">
+      <c r="A42" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="208"/>
+      <c r="B42" s="284"/>
       <c r="C42" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="208"/>
+      <c r="D42" s="285"/>
+      <c r="E42" s="284"/>
       <c r="F42" s="52"/>
       <c r="G42" s="7"/>
       <c r="H42" s="55" t="s">
@@ -7570,15 +7570,15 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="77"/>
-      <c r="K42" s="210">
+      <c r="K42" s="286">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L42" s="211"/>
+      <c r="L42" s="287"/>
       <c r="M42" s="99"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="213"/>
+      <c r="N42" s="288"/>
+      <c r="O42" s="288"/>
+      <c r="P42" s="289"/>
       <c r="Q42" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7620,15 +7620,15 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="208"/>
+      <c r="B43" s="284"/>
       <c r="C43" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="209"/>
-      <c r="E43" s="208"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="284"/>
       <c r="F43" s="52"/>
       <c r="G43" s="7"/>
       <c r="H43" s="55" t="s">
@@ -7636,15 +7636,15 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="77"/>
-      <c r="K43" s="210">
+      <c r="K43" s="286">
         <f t="shared" ref="K43" si="95">IFERROR(ROUNDDOWN(G43*ROUNDDOWN(I43,4)*J43,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L43" s="211"/>
+      <c r="L43" s="287"/>
       <c r="M43" s="99"/>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
-      <c r="P43" s="213"/>
+      <c r="N43" s="288"/>
+      <c r="O43" s="288"/>
+      <c r="P43" s="289"/>
       <c r="Q43" s="1" t="str">
         <f t="shared" ref="Q43" ca="1" si="96">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
         <v/>
@@ -7686,15 +7686,15 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="208"/>
+      <c r="B44" s="284"/>
       <c r="C44" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="209"/>
-      <c r="E44" s="208"/>
+      <c r="D44" s="285"/>
+      <c r="E44" s="284"/>
       <c r="F44" s="52"/>
       <c r="G44" s="7"/>
       <c r="H44" s="55" t="s">
@@ -7702,15 +7702,15 @@
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="77"/>
-      <c r="K44" s="210">
+      <c r="K44" s="286">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L44" s="211"/>
+      <c r="L44" s="287"/>
       <c r="M44" s="99"/>
-      <c r="N44" s="212"/>
-      <c r="O44" s="212"/>
-      <c r="P44" s="213"/>
+      <c r="N44" s="288"/>
+      <c r="O44" s="288"/>
+      <c r="P44" s="289"/>
       <c r="Q44" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7752,15 +7752,15 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="208"/>
+      <c r="B45" s="284"/>
       <c r="C45" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="209"/>
-      <c r="E45" s="208"/>
+      <c r="D45" s="285"/>
+      <c r="E45" s="284"/>
       <c r="F45" s="52"/>
       <c r="G45" s="7"/>
       <c r="H45" s="55" t="s">
@@ -7768,15 +7768,15 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="77"/>
-      <c r="K45" s="210">
+      <c r="K45" s="286">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L45" s="211"/>
+      <c r="L45" s="287"/>
       <c r="M45" s="99"/>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="213"/>
+      <c r="N45" s="288"/>
+      <c r="O45" s="288"/>
+      <c r="P45" s="289"/>
       <c r="Q45" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7818,15 +7818,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="208"/>
+      <c r="B46" s="284"/>
       <c r="C46" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="209"/>
-      <c r="E46" s="208"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="284"/>
       <c r="F46" s="52"/>
       <c r="G46" s="7"/>
       <c r="H46" s="55" t="s">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="77"/>
-      <c r="K46" s="210">
+      <c r="K46" s="286">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L46" s="211"/>
+      <c r="L46" s="287"/>
       <c r="M46" s="99"/>
-      <c r="N46" s="212"/>
-      <c r="O46" s="212"/>
-      <c r="P46" s="213"/>
+      <c r="N46" s="288"/>
+      <c r="O46" s="288"/>
+      <c r="P46" s="289"/>
       <c r="Q46" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7884,15 +7884,15 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A47" s="207" t="s">
+      <c r="A47" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="208"/>
+      <c r="B47" s="284"/>
       <c r="C47" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="209"/>
-      <c r="E47" s="208"/>
+      <c r="D47" s="285"/>
+      <c r="E47" s="284"/>
       <c r="F47" s="52"/>
       <c r="G47" s="7"/>
       <c r="H47" s="55" t="s">
@@ -7900,15 +7900,15 @@
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="210">
+      <c r="K47" s="286">
         <f t="shared" ref="K47" si="105">IFERROR(ROUNDDOWN(G47*ROUNDDOWN(I47,4)*J47,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L47" s="211"/>
+      <c r="L47" s="287"/>
       <c r="M47" s="99"/>
-      <c r="N47" s="212"/>
-      <c r="O47" s="212"/>
-      <c r="P47" s="213"/>
+      <c r="N47" s="288"/>
+      <c r="O47" s="288"/>
+      <c r="P47" s="289"/>
       <c r="Q47" s="1" t="str">
         <f t="shared" ref="Q47" ca="1" si="106">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
         <v/>
@@ -7950,11 +7950,11 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="207"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="283"/>
+      <c r="B48" s="284"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="209"/>
-      <c r="E48" s="208"/>
+      <c r="D48" s="285"/>
+      <c r="E48" s="284"/>
       <c r="F48" s="54"/>
       <c r="G48" s="10"/>
       <c r="H48" s="56" t="s">
@@ -7962,15 +7962,15 @@
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="78"/>
-      <c r="K48" s="210">
+      <c r="K48" s="286">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="L48" s="211"/>
+      <c r="L48" s="287"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="305"/>
-      <c r="O48" s="305"/>
-      <c r="P48" s="306"/>
+      <c r="N48" s="307"/>
+      <c r="O48" s="307"/>
+      <c r="P48" s="308"/>
       <c r="Q48" s="1" t="str">
         <f t="shared" ca="1" si="66"/>
         <v/>
@@ -8012,61 +8012,61 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="293" t="s">
+      <c r="A49" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="294"/>
-      <c r="C49" s="294"/>
-      <c r="D49" s="294"/>
-      <c r="E49" s="294"/>
-      <c r="F49" s="295"/>
+      <c r="B49" s="291"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="292"/>
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="296">
+      <c r="I49" s="293">
         <f>SUM(K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="297"/>
-      <c r="K49" s="297"/>
-      <c r="L49" s="298"/>
+      <c r="J49" s="294"/>
+      <c r="K49" s="294"/>
+      <c r="L49" s="295"/>
       <c r="M49" s="71"/>
-      <c r="N49" s="299">
+      <c r="N49" s="296">
         <f>SUMIF(F36:F48,"&lt;&gt;"&amp;hdn_payoff_circle,K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="300"/>
-      <c r="P49" s="301"/>
+      <c r="O49" s="297"/>
+      <c r="P49" s="298"/>
     </row>
     <row r="50" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A50" s="302"/>
-      <c r="B50" s="303"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
-      <c r="G50" s="303"/>
-      <c r="H50" s="303"/>
-      <c r="I50" s="303"/>
-      <c r="J50" s="303"/>
-      <c r="K50" s="303"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="303"/>
-      <c r="N50" s="303"/>
-      <c r="O50" s="303"/>
-      <c r="P50" s="304"/>
+      <c r="A50" s="299"/>
+      <c r="B50" s="300"/>
+      <c r="C50" s="300"/>
+      <c r="D50" s="300"/>
+      <c r="E50" s="300"/>
+      <c r="F50" s="300"/>
+      <c r="G50" s="300"/>
+      <c r="H50" s="300"/>
+      <c r="I50" s="300"/>
+      <c r="J50" s="300"/>
+      <c r="K50" s="300"/>
+      <c r="L50" s="300"/>
+      <c r="M50" s="300"/>
+      <c r="N50" s="300"/>
+      <c r="O50" s="300"/>
+      <c r="P50" s="301"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="284" t="s">
+      <c r="A51" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="285"/>
+      <c r="B51" s="303"/>
       <c r="C51" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="286" t="s">
+      <c r="D51" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="285"/>
+      <c r="E51" s="303"/>
       <c r="F51" s="59"/>
       <c r="G51" s="59" t="s">
         <v>17</v>
@@ -8080,26 +8080,26 @@
       <c r="J51" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="286" t="s">
+      <c r="K51" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="285"/>
+      <c r="L51" s="303"/>
       <c r="M51" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="286" t="s">
+      <c r="N51" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="O51" s="287"/>
-      <c r="P51" s="288"/>
+      <c r="O51" s="305"/>
+      <c r="P51" s="306"/>
       <c r="S51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A52" s="207"/>
-      <c r="B52" s="208"/>
+      <c r="A52" s="283"/>
+      <c r="B52" s="284"/>
       <c r="C52" s="51"/>
-      <c r="D52" s="209"/>
-      <c r="E52" s="208"/>
+      <c r="D52" s="285"/>
+      <c r="E52" s="284"/>
       <c r="F52" s="52"/>
       <c r="G52" s="117"/>
       <c r="H52" s="55" t="s">
@@ -8107,15 +8107,15 @@
       </c>
       <c r="I52" s="115"/>
       <c r="J52" s="116"/>
-      <c r="K52" s="210">
+      <c r="K52" s="286">
         <f t="shared" ref="K52:K74" si="115">IFERROR(ROUNDDOWN(G52*ROUNDDOWN(I52,4)*J52,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L52" s="211"/>
+      <c r="L52" s="287"/>
       <c r="M52" s="99"/>
-      <c r="N52" s="212"/>
-      <c r="O52" s="212"/>
-      <c r="P52" s="213"/>
+      <c r="N52" s="288"/>
+      <c r="O52" s="288"/>
+      <c r="P52" s="289"/>
       <c r="Q52" s="1" t="str">
         <f t="shared" ref="Q52:Q76" ca="1" si="116">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
         <v/>
@@ -8157,11 +8157,11 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A53" s="207"/>
-      <c r="B53" s="208"/>
+      <c r="A53" s="283"/>
+      <c r="B53" s="284"/>
       <c r="C53" s="51"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="208"/>
+      <c r="D53" s="285"/>
+      <c r="E53" s="284"/>
       <c r="F53" s="52"/>
       <c r="G53" s="117"/>
       <c r="H53" s="55" t="s">
@@ -8169,15 +8169,15 @@
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="116"/>
-      <c r="K53" s="210">
+      <c r="K53" s="286">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L53" s="211"/>
+      <c r="L53" s="287"/>
       <c r="M53" s="99"/>
-      <c r="N53" s="212"/>
-      <c r="O53" s="212"/>
-      <c r="P53" s="213"/>
+      <c r="N53" s="288"/>
+      <c r="O53" s="288"/>
+      <c r="P53" s="289"/>
       <c r="Q53" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -8219,15 +8219,15 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A54" s="207" t="s">
+      <c r="A54" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="208"/>
+      <c r="B54" s="284"/>
       <c r="C54" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="209"/>
-      <c r="E54" s="208"/>
+      <c r="D54" s="285"/>
+      <c r="E54" s="284"/>
       <c r="F54" s="52"/>
       <c r="G54" s="117"/>
       <c r="H54" s="55" t="s">
@@ -8235,15 +8235,15 @@
       </c>
       <c r="I54" s="115"/>
       <c r="J54" s="116"/>
-      <c r="K54" s="210">
+      <c r="K54" s="286">
         <f t="shared" ref="K54:K63" si="125">IFERROR(ROUNDDOWN(G54*ROUNDDOWN(I54,4)*J54,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L54" s="211"/>
+      <c r="L54" s="287"/>
       <c r="M54" s="99"/>
-      <c r="N54" s="212"/>
-      <c r="O54" s="212"/>
-      <c r="P54" s="213"/>
+      <c r="N54" s="288"/>
+      <c r="O54" s="288"/>
+      <c r="P54" s="289"/>
       <c r="Q54" s="1" t="str">
         <f t="shared" ref="Q54:Q63" ca="1" si="126">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
         <v/>
@@ -8285,15 +8285,15 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A55" s="207" t="s">
+      <c r="A55" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="208"/>
+      <c r="B55" s="284"/>
       <c r="C55" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="209"/>
-      <c r="E55" s="208"/>
+      <c r="D55" s="285"/>
+      <c r="E55" s="284"/>
       <c r="F55" s="52"/>
       <c r="G55" s="117"/>
       <c r="H55" s="55" t="s">
@@ -8301,15 +8301,15 @@
       </c>
       <c r="I55" s="115"/>
       <c r="J55" s="116"/>
-      <c r="K55" s="210">
+      <c r="K55" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L55" s="211"/>
+      <c r="L55" s="287"/>
       <c r="M55" s="99"/>
-      <c r="N55" s="212"/>
-      <c r="O55" s="212"/>
-      <c r="P55" s="213"/>
+      <c r="N55" s="288"/>
+      <c r="O55" s="288"/>
+      <c r="P55" s="289"/>
       <c r="Q55" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8351,15 +8351,15 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="208"/>
+      <c r="B56" s="284"/>
       <c r="C56" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="209"/>
-      <c r="E56" s="208"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="284"/>
       <c r="F56" s="52"/>
       <c r="G56" s="117"/>
       <c r="H56" s="55" t="s">
@@ -8367,15 +8367,15 @@
       </c>
       <c r="I56" s="115"/>
       <c r="J56" s="116"/>
-      <c r="K56" s="210">
+      <c r="K56" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L56" s="211"/>
+      <c r="L56" s="287"/>
       <c r="M56" s="99"/>
-      <c r="N56" s="212"/>
-      <c r="O56" s="212"/>
-      <c r="P56" s="213"/>
+      <c r="N56" s="288"/>
+      <c r="O56" s="288"/>
+      <c r="P56" s="289"/>
       <c r="Q56" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8417,15 +8417,15 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A57" s="207" t="s">
+      <c r="A57" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="208"/>
+      <c r="B57" s="284"/>
       <c r="C57" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="209"/>
-      <c r="E57" s="208"/>
+      <c r="D57" s="285"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="52"/>
       <c r="G57" s="117"/>
       <c r="H57" s="55" t="s">
@@ -8433,15 +8433,15 @@
       </c>
       <c r="I57" s="115"/>
       <c r="J57" s="116"/>
-      <c r="K57" s="210">
+      <c r="K57" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L57" s="211"/>
+      <c r="L57" s="287"/>
       <c r="M57" s="99"/>
-      <c r="N57" s="212"/>
-      <c r="O57" s="212"/>
-      <c r="P57" s="213"/>
+      <c r="N57" s="288"/>
+      <c r="O57" s="288"/>
+      <c r="P57" s="289"/>
       <c r="Q57" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8483,15 +8483,15 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A58" s="207" t="s">
+      <c r="A58" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="208"/>
+      <c r="B58" s="284"/>
       <c r="C58" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="209"/>
-      <c r="E58" s="208"/>
+      <c r="D58" s="285"/>
+      <c r="E58" s="284"/>
       <c r="F58" s="52"/>
       <c r="G58" s="117"/>
       <c r="H58" s="55" t="s">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="I58" s="115"/>
       <c r="J58" s="116"/>
-      <c r="K58" s="210">
+      <c r="K58" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L58" s="211"/>
+      <c r="L58" s="287"/>
       <c r="M58" s="99"/>
-      <c r="N58" s="212"/>
-      <c r="O58" s="212"/>
-      <c r="P58" s="213"/>
+      <c r="N58" s="288"/>
+      <c r="O58" s="288"/>
+      <c r="P58" s="289"/>
       <c r="Q58" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8549,15 +8549,15 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A59" s="207" t="s">
+      <c r="A59" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="208"/>
+      <c r="B59" s="284"/>
       <c r="C59" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="209"/>
-      <c r="E59" s="208"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="284"/>
       <c r="F59" s="52"/>
       <c r="G59" s="117"/>
       <c r="H59" s="55" t="s">
@@ -8565,15 +8565,15 @@
       </c>
       <c r="I59" s="115"/>
       <c r="J59" s="116"/>
-      <c r="K59" s="210">
+      <c r="K59" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L59" s="211"/>
+      <c r="L59" s="287"/>
       <c r="M59" s="99"/>
-      <c r="N59" s="212"/>
-      <c r="O59" s="212"/>
-      <c r="P59" s="213"/>
+      <c r="N59" s="288"/>
+      <c r="O59" s="288"/>
+      <c r="P59" s="289"/>
       <c r="Q59" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8615,15 +8615,15 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A60" s="207" t="s">
+      <c r="A60" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="208"/>
+      <c r="B60" s="284"/>
       <c r="C60" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="209"/>
-      <c r="E60" s="208"/>
+      <c r="D60" s="285"/>
+      <c r="E60" s="284"/>
       <c r="F60" s="52"/>
       <c r="G60" s="117"/>
       <c r="H60" s="55" t="s">
@@ -8631,15 +8631,15 @@
       </c>
       <c r="I60" s="115"/>
       <c r="J60" s="116"/>
-      <c r="K60" s="210">
+      <c r="K60" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L60" s="211"/>
+      <c r="L60" s="287"/>
       <c r="M60" s="99"/>
-      <c r="N60" s="212"/>
-      <c r="O60" s="212"/>
-      <c r="P60" s="213"/>
+      <c r="N60" s="288"/>
+      <c r="O60" s="288"/>
+      <c r="P60" s="289"/>
       <c r="Q60" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8681,15 +8681,15 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A61" s="207" t="s">
+      <c r="A61" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="208"/>
+      <c r="B61" s="284"/>
       <c r="C61" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="209"/>
-      <c r="E61" s="208"/>
+      <c r="D61" s="285"/>
+      <c r="E61" s="284"/>
       <c r="F61" s="52"/>
       <c r="G61" s="117"/>
       <c r="H61" s="55" t="s">
@@ -8697,15 +8697,15 @@
       </c>
       <c r="I61" s="115"/>
       <c r="J61" s="116"/>
-      <c r="K61" s="210">
+      <c r="K61" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L61" s="211"/>
+      <c r="L61" s="287"/>
       <c r="M61" s="99"/>
-      <c r="N61" s="212"/>
-      <c r="O61" s="212"/>
-      <c r="P61" s="213"/>
+      <c r="N61" s="288"/>
+      <c r="O61" s="288"/>
+      <c r="P61" s="289"/>
       <c r="Q61" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8747,15 +8747,15 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A62" s="207" t="s">
+      <c r="A62" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="208"/>
+      <c r="B62" s="284"/>
       <c r="C62" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="209"/>
-      <c r="E62" s="208"/>
+      <c r="D62" s="285"/>
+      <c r="E62" s="284"/>
       <c r="F62" s="52"/>
       <c r="G62" s="117"/>
       <c r="H62" s="55" t="s">
@@ -8763,15 +8763,15 @@
       </c>
       <c r="I62" s="115"/>
       <c r="J62" s="116"/>
-      <c r="K62" s="210">
+      <c r="K62" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L62" s="211"/>
+      <c r="L62" s="287"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="212"/>
-      <c r="O62" s="212"/>
-      <c r="P62" s="213"/>
+      <c r="N62" s="288"/>
+      <c r="O62" s="288"/>
+      <c r="P62" s="289"/>
       <c r="Q62" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8813,15 +8813,15 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A63" s="207" t="s">
+      <c r="A63" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="208"/>
+      <c r="B63" s="284"/>
       <c r="C63" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="209"/>
-      <c r="E63" s="208"/>
+      <c r="D63" s="285"/>
+      <c r="E63" s="284"/>
       <c r="F63" s="52"/>
       <c r="G63" s="117"/>
       <c r="H63" s="55" t="s">
@@ -8829,15 +8829,15 @@
       </c>
       <c r="I63" s="115"/>
       <c r="J63" s="116"/>
-      <c r="K63" s="210">
+      <c r="K63" s="286">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L63" s="211"/>
+      <c r="L63" s="287"/>
       <c r="M63" s="99"/>
-      <c r="N63" s="212"/>
-      <c r="O63" s="212"/>
-      <c r="P63" s="213"/>
+      <c r="N63" s="288"/>
+      <c r="O63" s="288"/>
+      <c r="P63" s="289"/>
       <c r="Q63" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8879,15 +8879,15 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A64" s="207" t="s">
+      <c r="A64" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="208"/>
+      <c r="B64" s="284"/>
       <c r="C64" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="209"/>
-      <c r="E64" s="208"/>
+      <c r="D64" s="285"/>
+      <c r="E64" s="284"/>
       <c r="F64" s="52"/>
       <c r="G64" s="117"/>
       <c r="H64" s="55" t="s">
@@ -8895,15 +8895,15 @@
       </c>
       <c r="I64" s="115"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="210">
+      <c r="K64" s="286">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L64" s="211"/>
+      <c r="L64" s="287"/>
       <c r="M64" s="99"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="212"/>
-      <c r="P64" s="213"/>
+      <c r="N64" s="288"/>
+      <c r="O64" s="288"/>
+      <c r="P64" s="289"/>
       <c r="Q64" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -8945,15 +8945,15 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A65" s="207" t="s">
+      <c r="A65" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="208"/>
+      <c r="B65" s="284"/>
       <c r="C65" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="209"/>
-      <c r="E65" s="208"/>
+      <c r="D65" s="285"/>
+      <c r="E65" s="284"/>
       <c r="F65" s="52"/>
       <c r="G65" s="117"/>
       <c r="H65" s="55" t="s">
@@ -8961,15 +8961,15 @@
       </c>
       <c r="I65" s="115"/>
       <c r="J65" s="116"/>
-      <c r="K65" s="210">
+      <c r="K65" s="286">
         <f t="shared" ref="K65:K66" si="135">IFERROR(ROUNDDOWN(G65*ROUNDDOWN(I65,4)*J65,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L65" s="211"/>
+      <c r="L65" s="287"/>
       <c r="M65" s="99"/>
-      <c r="N65" s="212"/>
-      <c r="O65" s="212"/>
-      <c r="P65" s="213"/>
+      <c r="N65" s="288"/>
+      <c r="O65" s="288"/>
+      <c r="P65" s="289"/>
       <c r="Q65" s="1" t="str">
         <f t="shared" ref="Q65:Q66" ca="1" si="136">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
         <v/>
@@ -9011,15 +9011,15 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A66" s="207" t="s">
+      <c r="A66" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="208"/>
+      <c r="B66" s="284"/>
       <c r="C66" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="209"/>
-      <c r="E66" s="208"/>
+      <c r="D66" s="285"/>
+      <c r="E66" s="284"/>
       <c r="F66" s="52"/>
       <c r="G66" s="117"/>
       <c r="H66" s="55" t="s">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="I66" s="115"/>
       <c r="J66" s="116"/>
-      <c r="K66" s="210">
+      <c r="K66" s="286">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="L66" s="211"/>
+      <c r="L66" s="287"/>
       <c r="M66" s="99"/>
-      <c r="N66" s="212"/>
-      <c r="O66" s="212"/>
-      <c r="P66" s="213"/>
+      <c r="N66" s="288"/>
+      <c r="O66" s="288"/>
+      <c r="P66" s="289"/>
       <c r="Q66" s="1" t="str">
         <f t="shared" ca="1" si="136"/>
         <v/>
@@ -9077,15 +9077,15 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A67" s="207" t="s">
+      <c r="A67" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="208"/>
+      <c r="B67" s="284"/>
       <c r="C67" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="209"/>
-      <c r="E67" s="208"/>
+      <c r="D67" s="285"/>
+      <c r="E67" s="284"/>
       <c r="F67" s="52"/>
       <c r="G67" s="117"/>
       <c r="H67" s="55" t="s">
@@ -9093,15 +9093,15 @@
       </c>
       <c r="I67" s="115"/>
       <c r="J67" s="116"/>
-      <c r="K67" s="210">
+      <c r="K67" s="286">
         <f t="shared" ref="K67:K70" si="145">IFERROR(ROUNDDOWN(G67*ROUNDDOWN(I67,4)*J67,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L67" s="211"/>
+      <c r="L67" s="287"/>
       <c r="M67" s="99"/>
-      <c r="N67" s="212"/>
-      <c r="O67" s="212"/>
-      <c r="P67" s="213"/>
+      <c r="N67" s="288"/>
+      <c r="O67" s="288"/>
+      <c r="P67" s="289"/>
       <c r="Q67" s="1" t="str">
         <f t="shared" ref="Q67:Q70" ca="1" si="146">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
         <v/>
@@ -9143,15 +9143,15 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A68" s="207" t="s">
+      <c r="A68" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="208"/>
+      <c r="B68" s="284"/>
       <c r="C68" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="209"/>
-      <c r="E68" s="208"/>
+      <c r="D68" s="285"/>
+      <c r="E68" s="284"/>
       <c r="F68" s="52"/>
       <c r="G68" s="117"/>
       <c r="H68" s="55" t="s">
@@ -9159,15 +9159,15 @@
       </c>
       <c r="I68" s="115"/>
       <c r="J68" s="116"/>
-      <c r="K68" s="210">
+      <c r="K68" s="286">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L68" s="211"/>
+      <c r="L68" s="287"/>
       <c r="M68" s="99"/>
-      <c r="N68" s="212"/>
-      <c r="O68" s="212"/>
-      <c r="P68" s="213"/>
+      <c r="N68" s="288"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="289"/>
       <c r="Q68" s="1" t="str">
         <f t="shared" ca="1" si="146"/>
         <v/>
@@ -9209,15 +9209,15 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A69" s="207" t="s">
+      <c r="A69" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="208"/>
+      <c r="B69" s="284"/>
       <c r="C69" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="209"/>
-      <c r="E69" s="208"/>
+      <c r="D69" s="285"/>
+      <c r="E69" s="284"/>
       <c r="F69" s="52"/>
       <c r="G69" s="117"/>
       <c r="H69" s="55" t="s">
@@ -9225,15 +9225,15 @@
       </c>
       <c r="I69" s="115"/>
       <c r="J69" s="116"/>
-      <c r="K69" s="210">
+      <c r="K69" s="286">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L69" s="211"/>
+      <c r="L69" s="287"/>
       <c r="M69" s="99"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="212"/>
-      <c r="P69" s="213"/>
+      <c r="N69" s="288"/>
+      <c r="O69" s="288"/>
+      <c r="P69" s="289"/>
       <c r="Q69" s="1" t="str">
         <f t="shared" ca="1" si="146"/>
         <v/>
@@ -9275,15 +9275,15 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A70" s="207" t="s">
+      <c r="A70" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="208"/>
+      <c r="B70" s="284"/>
       <c r="C70" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="209"/>
-      <c r="E70" s="208"/>
+      <c r="D70" s="285"/>
+      <c r="E70" s="284"/>
       <c r="F70" s="52"/>
       <c r="G70" s="117"/>
       <c r="H70" s="55" t="s">
@@ -9291,15 +9291,15 @@
       </c>
       <c r="I70" s="115"/>
       <c r="J70" s="116"/>
-      <c r="K70" s="210">
+      <c r="K70" s="286">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L70" s="211"/>
+      <c r="L70" s="287"/>
       <c r="M70" s="99"/>
-      <c r="N70" s="212"/>
-      <c r="O70" s="212"/>
-      <c r="P70" s="213"/>
+      <c r="N70" s="288"/>
+      <c r="O70" s="288"/>
+      <c r="P70" s="289"/>
       <c r="Q70" s="1" t="str">
         <f t="shared" ca="1" si="146"/>
         <v/>
@@ -9341,15 +9341,15 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A71" s="207" t="s">
+      <c r="A71" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="208"/>
+      <c r="B71" s="284"/>
       <c r="C71" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="209"/>
-      <c r="E71" s="208"/>
+      <c r="D71" s="285"/>
+      <c r="E71" s="284"/>
       <c r="F71" s="52"/>
       <c r="G71" s="117"/>
       <c r="H71" s="55" t="s">
@@ -9357,15 +9357,15 @@
       </c>
       <c r="I71" s="115"/>
       <c r="J71" s="116"/>
-      <c r="K71" s="210">
+      <c r="K71" s="286">
         <f t="shared" ref="K71:K72" si="155">IFERROR(ROUNDDOWN(G71*ROUNDDOWN(I71,4)*J71,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L71" s="211"/>
+      <c r="L71" s="287"/>
       <c r="M71" s="99"/>
-      <c r="N71" s="212"/>
-      <c r="O71" s="212"/>
-      <c r="P71" s="213"/>
+      <c r="N71" s="288"/>
+      <c r="O71" s="288"/>
+      <c r="P71" s="289"/>
       <c r="Q71" s="1" t="str">
         <f t="shared" ref="Q71:Q72" ca="1" si="156">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
         <v/>
@@ -9407,15 +9407,15 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A72" s="207" t="s">
+      <c r="A72" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="208"/>
+      <c r="B72" s="284"/>
       <c r="C72" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="209"/>
-      <c r="E72" s="208"/>
+      <c r="D72" s="285"/>
+      <c r="E72" s="284"/>
       <c r="F72" s="52"/>
       <c r="G72" s="117"/>
       <c r="H72" s="55" t="s">
@@ -9423,15 +9423,15 @@
       </c>
       <c r="I72" s="115"/>
       <c r="J72" s="116"/>
-      <c r="K72" s="210">
+      <c r="K72" s="286">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="L72" s="211"/>
+      <c r="L72" s="287"/>
       <c r="M72" s="99"/>
-      <c r="N72" s="212"/>
-      <c r="O72" s="212"/>
-      <c r="P72" s="213"/>
+      <c r="N72" s="288"/>
+      <c r="O72" s="288"/>
+      <c r="P72" s="289"/>
       <c r="Q72" s="1" t="str">
         <f t="shared" ca="1" si="156"/>
         <v/>
@@ -9473,15 +9473,15 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A73" s="207" t="s">
+      <c r="A73" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="208"/>
+      <c r="B73" s="284"/>
       <c r="C73" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="209"/>
-      <c r="E73" s="208"/>
+      <c r="D73" s="285"/>
+      <c r="E73" s="284"/>
       <c r="F73" s="52"/>
       <c r="G73" s="117"/>
       <c r="H73" s="55" t="s">
@@ -9489,15 +9489,15 @@
       </c>
       <c r="I73" s="115"/>
       <c r="J73" s="116"/>
-      <c r="K73" s="210">
+      <c r="K73" s="286">
         <f t="shared" ref="K73" si="165">IFERROR(ROUNDDOWN(G73*ROUNDDOWN(I73,4)*J73,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L73" s="211"/>
+      <c r="L73" s="287"/>
       <c r="M73" s="99"/>
-      <c r="N73" s="212"/>
-      <c r="O73" s="212"/>
-      <c r="P73" s="213"/>
+      <c r="N73" s="288"/>
+      <c r="O73" s="288"/>
+      <c r="P73" s="289"/>
       <c r="Q73" s="1" t="str">
         <f t="shared" ref="Q73" ca="1" si="166">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
         <v/>
@@ -9539,11 +9539,11 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A74" s="307"/>
-      <c r="B74" s="308"/>
+      <c r="A74" s="248"/>
+      <c r="B74" s="249"/>
       <c r="C74" s="123"/>
-      <c r="D74" s="309"/>
-      <c r="E74" s="308"/>
+      <c r="D74" s="250"/>
+      <c r="E74" s="249"/>
       <c r="F74" s="124"/>
       <c r="G74" s="125"/>
       <c r="H74" s="126" t="s">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="I74" s="127"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="310">
+      <c r="K74" s="251">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L74" s="311"/>
+      <c r="L74" s="252"/>
       <c r="M74" s="199"/>
-      <c r="N74" s="312"/>
-      <c r="O74" s="312"/>
-      <c r="P74" s="313"/>
+      <c r="N74" s="253"/>
+      <c r="O74" s="253"/>
+      <c r="P74" s="254"/>
       <c r="Q74" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -9601,11 +9601,11 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A75" s="314"/>
-      <c r="B75" s="315"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="256"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="316"/>
-      <c r="E75" s="317"/>
+      <c r="D75" s="257"/>
+      <c r="E75" s="258"/>
       <c r="F75" s="205"/>
       <c r="G75" s="119"/>
       <c r="H75" s="120" t="s">
@@ -9613,15 +9613,15 @@
       </c>
       <c r="I75" s="121"/>
       <c r="J75" s="122"/>
-      <c r="K75" s="318">
+      <c r="K75" s="259">
         <f t="shared" ref="K75:K76" si="179">IFERROR(ROUNDDOWN(G75*IF(AND(LEFT(A75,4)="401:",LEFT(C75,2)="1:",F75&lt;&gt;""),IF(D75&lt;&gt;0&amp;G75&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F75*retailprice,4),""),IF(AND(LEFT(A75,5)="1224:",LEFT(C75,2)="3:",F75&lt;&gt;""),ROUNDDOWN(F75*tariff_total,4),ROUNDDOWN(I75,4)))*J75,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L75" s="319"/>
+      <c r="L75" s="260"/>
       <c r="M75" s="200"/>
-      <c r="N75" s="229"/>
-      <c r="O75" s="230"/>
-      <c r="P75" s="231"/>
+      <c r="N75" s="261"/>
+      <c r="O75" s="262"/>
+      <c r="P75" s="263"/>
       <c r="Q75" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -9663,11 +9663,11 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A76" s="328"/>
-      <c r="B76" s="329"/>
+      <c r="A76" s="272"/>
+      <c r="B76" s="273"/>
       <c r="C76" s="198"/>
-      <c r="D76" s="330"/>
-      <c r="E76" s="331"/>
+      <c r="D76" s="274"/>
+      <c r="E76" s="275"/>
       <c r="F76" s="206"/>
       <c r="G76" s="94"/>
       <c r="H76" s="88" t="s">
@@ -9675,15 +9675,15 @@
       </c>
       <c r="I76" s="92"/>
       <c r="J76" s="106"/>
-      <c r="K76" s="332">
+      <c r="K76" s="276">
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="L76" s="333"/>
+      <c r="L76" s="277"/>
       <c r="M76" s="107"/>
-      <c r="N76" s="334"/>
-      <c r="O76" s="335"/>
-      <c r="P76" s="336"/>
+      <c r="N76" s="278"/>
+      <c r="O76" s="279"/>
+      <c r="P76" s="280"/>
       <c r="Q76" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -9738,48 +9738,48 @@
       <c r="K77" s="87"/>
       <c r="L77" s="87"/>
       <c r="M77" s="13"/>
-      <c r="N77" s="337"/>
-      <c r="O77" s="337"/>
-      <c r="P77" s="338"/>
+      <c r="N77" s="234"/>
+      <c r="O77" s="234"/>
+      <c r="P77" s="281"/>
     </row>
     <row r="78" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A78" s="339" t="s">
+      <c r="A78" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="322"/>
+      <c r="B78" s="266"/>
       <c r="C78" s="170">
         <f>I28</f>
         <v>0</v>
       </c>
       <c r="D78" s="167"/>
-      <c r="E78" s="320" t="s">
+      <c r="E78" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="321"/>
-      <c r="G78" s="322"/>
-      <c r="H78" s="323">
+      <c r="F78" s="265"/>
+      <c r="G78" s="266"/>
+      <c r="H78" s="267">
         <f>I33</f>
         <v>0</v>
       </c>
-      <c r="I78" s="324"/>
+      <c r="I78" s="268"/>
       <c r="J78" s="171"/>
       <c r="K78" s="108"/>
-      <c r="L78" s="325" t="s">
+      <c r="L78" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="M78" s="326"/>
-      <c r="N78" s="327">
+      <c r="M78" s="270"/>
+      <c r="N78" s="271">
         <f>C78+H78</f>
         <v>0</v>
       </c>
-      <c r="O78" s="324"/>
+      <c r="O78" s="268"/>
       <c r="P78" s="168"/>
     </row>
     <row r="79" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A79" s="369" t="s">
+      <c r="A79" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="370"/>
+      <c r="B79" s="217"/>
       <c r="C79" s="172">
         <f>C78-K84</f>
         <v>0</v>
@@ -9788,30 +9788,30 @@
         <f>IF(C78=0,0,C79/C78)</f>
         <v>0</v>
       </c>
-      <c r="E79" s="371" t="s">
+      <c r="E79" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="372"/>
-      <c r="G79" s="373"/>
-      <c r="H79" s="374">
+      <c r="F79" s="219"/>
+      <c r="G79" s="220"/>
+      <c r="H79" s="221">
         <f>H78-N49</f>
         <v>0</v>
       </c>
-      <c r="I79" s="375"/>
+      <c r="I79" s="222"/>
       <c r="J79" s="174"/>
       <c r="K79" s="173">
         <f>IF(H78=0,0,H79/H78)</f>
         <v>0</v>
       </c>
-      <c r="L79" s="371" t="s">
+      <c r="L79" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="M79" s="373"/>
-      <c r="N79" s="376">
+      <c r="M79" s="220"/>
+      <c r="N79" s="223">
         <f>C79+H79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="375"/>
+      <c r="O79" s="222"/>
       <c r="P79" s="175">
         <f>IF(N78=0,0,N79/N78)</f>
         <v>0</v>
@@ -9828,16 +9828,16 @@
       <c r="H80" s="176"/>
       <c r="I80" s="176"/>
       <c r="J80" s="177"/>
-      <c r="K80" s="377" t="s">
+      <c r="K80" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="L80" s="378"/>
-      <c r="M80" s="379"/>
-      <c r="N80" s="348">
+      <c r="L80" s="225"/>
+      <c r="M80" s="226"/>
+      <c r="N80" s="227">
         <f>ROUNDDOWN((N78*P80),0)</f>
         <v>0</v>
       </c>
-      <c r="O80" s="349"/>
+      <c r="O80" s="228"/>
       <c r="P80" s="178">
         <v>6.08E-2</v>
       </c>
@@ -9853,32 +9853,32 @@
       <c r="H81" s="179"/>
       <c r="I81" s="180"/>
       <c r="J81" s="181"/>
-      <c r="K81" s="357" t="s">
+      <c r="K81" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="L81" s="364"/>
-      <c r="M81" s="358"/>
-      <c r="N81" s="355">
+      <c r="L81" s="208"/>
+      <c r="M81" s="209"/>
+      <c r="N81" s="210">
         <f>N79-N80</f>
         <v>0</v>
       </c>
-      <c r="O81" s="356"/>
+      <c r="O81" s="211"/>
       <c r="P81" s="182">
         <f>IF(N78=0,0,N81/N78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A82" s="365" t="s">
+      <c r="A82" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="366"/>
-      <c r="C82" s="367" t="s">
+      <c r="B82" s="213"/>
+      <c r="C82" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="367"/>
-      <c r="E82" s="367"/>
-      <c r="F82" s="367"/>
+      <c r="D82" s="214"/>
+      <c r="E82" s="214"/>
+      <c r="F82" s="214"/>
       <c r="G82" s="183">
         <f>$P$4</f>
         <v>0</v>
@@ -9889,27 +9889,27 @@
         <v>0</v>
       </c>
       <c r="J82" s="185"/>
-      <c r="K82" s="368">
+      <c r="K82" s="215">
         <f>SUMIF(F52:F76,"&lt;&gt;"&amp;hdn_payoff_circle,K52:K76)</f>
         <v>0</v>
       </c>
-      <c r="L82" s="368"/>
+      <c r="L82" s="215"/>
       <c r="M82" s="186"/>
-      <c r="N82" s="367"/>
-      <c r="O82" s="367"/>
+      <c r="N82" s="214"/>
+      <c r="O82" s="214"/>
       <c r="P82" s="187"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A83" s="345" t="s">
+      <c r="A83" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="346"/>
-      <c r="C83" s="347" t="s">
+      <c r="B83" s="236"/>
+      <c r="C83" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="347"/>
-      <c r="E83" s="347"/>
-      <c r="F83" s="347"/>
+      <c r="D83" s="237"/>
+      <c r="E83" s="237"/>
+      <c r="F83" s="237"/>
       <c r="G83" s="188">
         <f>$P$4</f>
         <v>0</v>
@@ -9920,27 +9920,27 @@
         <v>0</v>
       </c>
       <c r="J83" s="191"/>
-      <c r="K83" s="348">
+      <c r="K83" s="227">
         <f>SUMIF(F36:F76,hdn_payoff_circle,K36:K76)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="349"/>
+      <c r="L83" s="228"/>
       <c r="M83" s="192"/>
-      <c r="N83" s="350"/>
-      <c r="O83" s="351"/>
+      <c r="N83" s="238"/>
+      <c r="O83" s="239"/>
       <c r="P83" s="193"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="352" t="s">
+      <c r="A84" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="353"/>
-      <c r="C84" s="354" t="s">
+      <c r="B84" s="241"/>
+      <c r="C84" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="354"/>
-      <c r="E84" s="354"/>
-      <c r="F84" s="354"/>
+      <c r="D84" s="242"/>
+      <c r="E84" s="242"/>
+      <c r="F84" s="242"/>
       <c r="G84" s="194">
         <f>$P$4</f>
         <v>0</v>
@@ -9951,60 +9951,60 @@
         <v>0</v>
       </c>
       <c r="J84" s="197"/>
-      <c r="K84" s="355">
+      <c r="K84" s="210">
         <f>SUM(K82:K83)</f>
         <v>0</v>
       </c>
-      <c r="L84" s="356"/>
-      <c r="M84" s="357" t="s">
+      <c r="L84" s="211"/>
+      <c r="M84" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="N84" s="358"/>
-      <c r="O84" s="359">
+      <c r="N84" s="209"/>
+      <c r="O84" s="243">
         <f>N49</f>
         <v>0</v>
       </c>
-      <c r="P84" s="360"/>
+      <c r="P84" s="244"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A85" s="343"/>
-      <c r="B85" s="343"/>
-      <c r="C85" s="343"/>
-      <c r="D85" s="343"/>
-      <c r="E85" s="343"/>
-      <c r="F85" s="343"/>
-      <c r="G85" s="343"/>
+      <c r="A85" s="232"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
+      <c r="D85" s="232"/>
+      <c r="E85" s="232"/>
+      <c r="F85" s="232"/>
+      <c r="G85" s="232"/>
       <c r="H85" s="89"/>
-      <c r="I85" s="344" t="s">
+      <c r="I85" s="233" t="s">
         <v>80</v>
       </c>
-      <c r="J85" s="344"/>
-      <c r="K85" s="344"/>
-      <c r="L85" s="344"/>
-      <c r="M85" s="344"/>
-      <c r="N85" s="344"/>
-      <c r="O85" s="344"/>
-      <c r="P85" s="344"/>
+      <c r="J85" s="233"/>
+      <c r="K85" s="233"/>
+      <c r="L85" s="233"/>
+      <c r="M85" s="233"/>
+      <c r="N85" s="233"/>
+      <c r="O85" s="233"/>
+      <c r="P85" s="233"/>
     </row>
     <row r="86" spans="1:25" ht="9" customHeight="1">
-      <c r="A86" s="337" t="s">
+      <c r="A86" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="337"/>
-      <c r="C86" s="337"/>
-      <c r="D86" s="337"/>
-      <c r="E86" s="337"/>
-      <c r="F86" s="337"/>
-      <c r="G86" s="337"/>
-      <c r="H86" s="337"/>
-      <c r="I86" s="337"/>
-      <c r="J86" s="337"/>
-      <c r="K86" s="337"/>
-      <c r="L86" s="337"/>
-      <c r="M86" s="337"/>
-      <c r="N86" s="337"/>
-      <c r="O86" s="337"/>
-      <c r="P86" s="337"/>
+      <c r="B86" s="234"/>
+      <c r="C86" s="234"/>
+      <c r="D86" s="234"/>
+      <c r="E86" s="234"/>
+      <c r="F86" s="234"/>
+      <c r="G86" s="234"/>
+      <c r="H86" s="234"/>
+      <c r="I86" s="234"/>
+      <c r="J86" s="234"/>
+      <c r="K86" s="234"/>
+      <c r="L86" s="234"/>
+      <c r="M86" s="234"/>
+      <c r="N86" s="234"/>
+      <c r="O86" s="234"/>
+      <c r="P86" s="234"/>
       <c r="Q86" s="129"/>
       <c r="R86" s="129"/>
       <c r="S86" s="129"/>
@@ -10221,7 +10221,7 @@
       <c r="X95" s="36"/>
     </row>
     <row r="96" spans="1:25" s="18" customFormat="1">
-      <c r="A96" s="361" t="s">
+      <c r="A96" s="245" t="s">
         <v>107</v>
       </c>
       <c r="B96" s="17"/>
@@ -10243,7 +10243,7 @@
       <c r="U96" s="130"/>
     </row>
     <row r="97" spans="1:21" s="18" customFormat="1">
-      <c r="A97" s="362"/>
+      <c r="A97" s="246"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -10265,7 +10265,7 @@
       <c r="U97" s="130"/>
     </row>
     <row r="98" spans="1:21" s="18" customFormat="1">
-      <c r="A98" s="362"/>
+      <c r="A98" s="246"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -10287,7 +10287,7 @@
       <c r="R98" s="20"/>
     </row>
     <row r="99" spans="1:21" s="18" customFormat="1">
-      <c r="A99" s="362"/>
+      <c r="A99" s="246"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -10309,7 +10309,7 @@
       <c r="R99" s="20"/>
     </row>
     <row r="100" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A100" s="362"/>
+      <c r="A100" s="246"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -10330,7 +10330,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A101" s="362"/>
+      <c r="A101" s="246"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -10349,7 +10349,7 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A102" s="362"/>
+      <c r="A102" s="246"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -10368,7 +10368,7 @@
       <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A103" s="362"/>
+      <c r="A103" s="246"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -10387,7 +10387,7 @@
       <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:21" s="18" customFormat="1">
-      <c r="A104" s="362"/>
+      <c r="A104" s="246"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -10406,7 +10406,7 @@
       <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="1:21" s="18" customFormat="1">
-      <c r="A105" s="362"/>
+      <c r="A105" s="246"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -10425,7 +10425,7 @@
       <c r="Q105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="18" customFormat="1">
-      <c r="A106" s="362"/>
+      <c r="A106" s="246"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -10444,7 +10444,7 @@
       <c r="Q106" s="14"/>
     </row>
     <row r="107" spans="1:21" s="18" customFormat="1">
-      <c r="A107" s="362"/>
+      <c r="A107" s="246"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -10463,7 +10463,7 @@
       <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:21" s="18" customFormat="1">
-      <c r="A108" s="362"/>
+      <c r="A108" s="246"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -10482,7 +10482,7 @@
       <c r="Q108" s="14"/>
     </row>
     <row r="109" spans="1:21" s="18" customFormat="1">
-      <c r="A109" s="362"/>
+      <c r="A109" s="246"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -10501,7 +10501,7 @@
       <c r="Q109" s="14"/>
     </row>
     <row r="110" spans="1:21" s="18" customFormat="1">
-      <c r="A110" s="362"/>
+      <c r="A110" s="246"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -10520,7 +10520,7 @@
       <c r="Q110" s="14"/>
     </row>
     <row r="111" spans="1:21" s="18" customFormat="1">
-      <c r="A111" s="362"/>
+      <c r="A111" s="246"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -10539,7 +10539,7 @@
       <c r="Q111" s="14"/>
     </row>
     <row r="112" spans="1:21" s="18" customFormat="1">
-      <c r="A112" s="362"/>
+      <c r="A112" s="246"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -10558,7 +10558,7 @@
       <c r="Q112" s="14"/>
     </row>
     <row r="113" spans="1:17" s="18" customFormat="1">
-      <c r="A113" s="362"/>
+      <c r="A113" s="246"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -10577,7 +10577,7 @@
       <c r="Q113" s="17"/>
     </row>
     <row r="114" spans="1:17" s="18" customFormat="1">
-      <c r="A114" s="362"/>
+      <c r="A114" s="246"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -10596,7 +10596,7 @@
       <c r="Q114" s="17"/>
     </row>
     <row r="115" spans="1:17" s="18" customFormat="1">
-      <c r="A115" s="362"/>
+      <c r="A115" s="246"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -10615,7 +10615,7 @@
       <c r="Q115" s="17"/>
     </row>
     <row r="116" spans="1:17" s="18" customFormat="1">
-      <c r="A116" s="362"/>
+      <c r="A116" s="246"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -10634,7 +10634,7 @@
       <c r="Q116" s="17"/>
     </row>
     <row r="117" spans="1:17" s="18" customFormat="1">
-      <c r="A117" s="362"/>
+      <c r="A117" s="246"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -10653,7 +10653,7 @@
       <c r="Q117" s="17"/>
     </row>
     <row r="118" spans="1:17" s="18" customFormat="1">
-      <c r="A118" s="362"/>
+      <c r="A118" s="246"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -10672,7 +10672,7 @@
       <c r="Q118" s="17"/>
     </row>
     <row r="119" spans="1:17" s="18" customFormat="1">
-      <c r="A119" s="362"/>
+      <c r="A119" s="246"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -10691,7 +10691,7 @@
       <c r="Q119" s="17"/>
     </row>
     <row r="120" spans="1:17" s="18" customFormat="1">
-      <c r="A120" s="362"/>
+      <c r="A120" s="246"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -10710,7 +10710,7 @@
       <c r="Q120" s="17"/>
     </row>
     <row r="121" spans="1:17" s="18" customFormat="1">
-      <c r="A121" s="362"/>
+      <c r="A121" s="246"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -10729,7 +10729,7 @@
       <c r="Q121" s="17"/>
     </row>
     <row r="122" spans="1:17" s="18" customFormat="1">
-      <c r="A122" s="362"/>
+      <c r="A122" s="246"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -10748,7 +10748,7 @@
       <c r="Q122" s="17"/>
     </row>
     <row r="123" spans="1:17" s="18" customFormat="1">
-      <c r="A123" s="362"/>
+      <c r="A123" s="246"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -10767,7 +10767,7 @@
       <c r="Q123" s="17"/>
     </row>
     <row r="124" spans="1:17" s="18" customFormat="1">
-      <c r="A124" s="362"/>
+      <c r="A124" s="246"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -10786,7 +10786,7 @@
       <c r="Q124" s="17"/>
     </row>
     <row r="125" spans="1:17" s="18" customFormat="1">
-      <c r="A125" s="362"/>
+      <c r="A125" s="246"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -10805,7 +10805,7 @@
       <c r="Q125" s="17"/>
     </row>
     <row r="126" spans="1:17" s="18" customFormat="1">
-      <c r="A126" s="363"/>
+      <c r="A126" s="247"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -10824,7 +10824,7 @@
       <c r="Q126" s="17"/>
     </row>
     <row r="127" spans="1:17" s="18" customFormat="1">
-      <c r="A127" s="340" t="s">
+      <c r="A127" s="229" t="s">
         <v>108</v>
       </c>
       <c r="B127" s="17"/>
@@ -10845,7 +10845,7 @@
       <c r="Q127" s="17"/>
     </row>
     <row r="128" spans="1:17" s="18" customFormat="1">
-      <c r="A128" s="341"/>
+      <c r="A128" s="230"/>
       <c r="B128" s="138"/>
       <c r="C128" s="138"/>
       <c r="D128" s="138"/>
@@ -10864,7 +10864,7 @@
       <c r="Q128" s="17"/>
     </row>
     <row r="129" spans="1:17" s="18" customFormat="1">
-      <c r="A129" s="341"/>
+      <c r="A129" s="230"/>
       <c r="B129" s="138"/>
       <c r="C129" s="138"/>
       <c r="D129" s="138"/>
@@ -10883,7 +10883,7 @@
       <c r="Q129" s="17"/>
     </row>
     <row r="130" spans="1:17" s="18" customFormat="1">
-      <c r="A130" s="341"/>
+      <c r="A130" s="230"/>
       <c r="B130" s="138"/>
       <c r="C130" s="138"/>
       <c r="D130" s="138"/>
@@ -10902,7 +10902,7 @@
       <c r="Q130" s="17"/>
     </row>
     <row r="131" spans="1:17" s="18" customFormat="1">
-      <c r="A131" s="341"/>
+      <c r="A131" s="230"/>
       <c r="B131" s="138"/>
       <c r="C131" s="138"/>
       <c r="D131" s="138"/>
@@ -10921,7 +10921,7 @@
       <c r="Q131" s="17"/>
     </row>
     <row r="132" spans="1:17" s="18" customFormat="1">
-      <c r="A132" s="341"/>
+      <c r="A132" s="230"/>
       <c r="B132" s="138"/>
       <c r="C132" s="138"/>
       <c r="D132" s="138"/>
@@ -10940,7 +10940,7 @@
       <c r="Q132" s="17"/>
     </row>
     <row r="133" spans="1:17" s="18" customFormat="1">
-      <c r="A133" s="341"/>
+      <c r="A133" s="230"/>
       <c r="B133" s="138"/>
       <c r="C133" s="138"/>
       <c r="D133" s="138"/>
@@ -10959,7 +10959,7 @@
       <c r="Q133" s="17"/>
     </row>
     <row r="134" spans="1:17" s="18" customFormat="1">
-      <c r="A134" s="341"/>
+      <c r="A134" s="230"/>
       <c r="B134" s="138"/>
       <c r="C134" s="138"/>
       <c r="D134" s="138"/>
@@ -10978,7 +10978,7 @@
       <c r="Q134" s="17"/>
     </row>
     <row r="135" spans="1:17" s="18" customFormat="1">
-      <c r="A135" s="341"/>
+      <c r="A135" s="230"/>
       <c r="B135" s="138"/>
       <c r="C135" s="138"/>
       <c r="D135" s="138"/>
@@ -10997,7 +10997,7 @@
       <c r="Q135" s="17"/>
     </row>
     <row r="136" spans="1:17" s="18" customFormat="1">
-      <c r="A136" s="341"/>
+      <c r="A136" s="230"/>
       <c r="B136" s="138"/>
       <c r="C136" s="138"/>
       <c r="D136" s="138"/>
@@ -11016,7 +11016,7 @@
       <c r="Q136" s="17"/>
     </row>
     <row r="137" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A137" s="341"/>
+      <c r="A137" s="230"/>
       <c r="B137" s="138"/>
       <c r="C137" s="138"/>
       <c r="D137" s="138"/>
@@ -11035,7 +11035,7 @@
       <c r="Q137" s="17"/>
     </row>
     <row r="138" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A138" s="341"/>
+      <c r="A138" s="230"/>
       <c r="B138" s="138"/>
       <c r="C138" s="138"/>
       <c r="D138" s="138"/>
@@ -11054,7 +11054,7 @@
       <c r="Q138" s="17"/>
     </row>
     <row r="139" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A139" s="341"/>
+      <c r="A139" s="230"/>
       <c r="B139" s="138"/>
       <c r="C139" s="138"/>
       <c r="D139" s="138"/>
@@ -11073,7 +11073,7 @@
       <c r="Q139" s="17"/>
     </row>
     <row r="140" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A140" s="341"/>
+      <c r="A140" s="230"/>
       <c r="B140" s="138"/>
       <c r="C140" s="138"/>
       <c r="D140" s="138"/>
@@ -11092,7 +11092,7 @@
       <c r="Q140" s="17"/>
     </row>
     <row r="141" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A141" s="341"/>
+      <c r="A141" s="230"/>
       <c r="B141" s="138"/>
       <c r="C141" s="138"/>
       <c r="D141" s="138"/>
@@ -11111,7 +11111,7 @@
       <c r="Q141" s="17"/>
     </row>
     <row r="142" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A142" s="341"/>
+      <c r="A142" s="230"/>
       <c r="B142" s="138"/>
       <c r="C142" s="138"/>
       <c r="D142" s="138"/>
@@ -11130,7 +11130,7 @@
       <c r="Q142" s="17"/>
     </row>
     <row r="143" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A143" s="341"/>
+      <c r="A143" s="230"/>
       <c r="B143" s="138"/>
       <c r="C143" s="138"/>
       <c r="D143" s="138"/>
@@ -11149,7 +11149,7 @@
       <c r="Q143" s="17"/>
     </row>
     <row r="144" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A144" s="341"/>
+      <c r="A144" s="230"/>
       <c r="B144" s="138"/>
       <c r="C144" s="138"/>
       <c r="D144" s="138"/>
@@ -11168,7 +11168,7 @@
       <c r="Q144" s="17"/>
     </row>
     <row r="145" spans="1:20" s="18" customFormat="1">
-      <c r="A145" s="341"/>
+      <c r="A145" s="230"/>
       <c r="B145" s="138"/>
       <c r="C145" s="138"/>
       <c r="D145" s="138"/>
@@ -11187,7 +11187,7 @@
       <c r="Q145" s="17"/>
     </row>
     <row r="146" spans="1:20" s="18" customFormat="1">
-      <c r="A146" s="341"/>
+      <c r="A146" s="230"/>
       <c r="B146" s="138"/>
       <c r="C146" s="138"/>
       <c r="D146" s="138"/>
@@ -11206,7 +11206,7 @@
       <c r="Q146" s="17"/>
     </row>
     <row r="147" spans="1:20" s="18" customFormat="1">
-      <c r="A147" s="341"/>
+      <c r="A147" s="230"/>
       <c r="B147" s="138"/>
       <c r="C147" s="138"/>
       <c r="D147" s="138"/>
@@ -11225,7 +11225,7 @@
       <c r="Q147" s="17"/>
     </row>
     <row r="148" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A148" s="341"/>
+      <c r="A148" s="230"/>
       <c r="B148" s="138"/>
       <c r="C148" s="138"/>
       <c r="D148" s="138"/>
@@ -11244,7 +11244,7 @@
       <c r="Q148" s="17"/>
     </row>
     <row r="149" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A149" s="341"/>
+      <c r="A149" s="230"/>
       <c r="B149" s="138"/>
       <c r="C149" s="138"/>
       <c r="D149" s="138"/>
@@ -11266,7 +11266,7 @@
       <c r="T149" s="133"/>
     </row>
     <row r="150" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A150" s="341"/>
+      <c r="A150" s="230"/>
       <c r="B150" s="138"/>
       <c r="C150" s="138"/>
       <c r="D150" s="138"/>
@@ -11288,7 +11288,7 @@
       <c r="T150" s="133"/>
     </row>
     <row r="151" spans="1:20" s="18" customFormat="1" ht="13.2">
-      <c r="A151" s="341"/>
+      <c r="A151" s="230"/>
       <c r="B151" s="138"/>
       <c r="C151" s="138"/>
       <c r="D151" s="138"/>
@@ -11310,7 +11310,7 @@
       <c r="T151" s="133"/>
     </row>
     <row r="152" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A152" s="341"/>
+      <c r="A152" s="230"/>
       <c r="B152" s="138"/>
       <c r="C152" s="138"/>
       <c r="D152" s="138"/>
@@ -11332,7 +11332,7 @@
       <c r="T152" s="133"/>
     </row>
     <row r="153" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A153" s="341"/>
+      <c r="A153" s="230"/>
       <c r="B153" s="138"/>
       <c r="C153" s="138"/>
       <c r="D153" s="138"/>
@@ -11354,7 +11354,7 @@
       <c r="T153" s="133"/>
     </row>
     <row r="154" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A154" s="341"/>
+      <c r="A154" s="230"/>
       <c r="B154" s="138"/>
       <c r="C154" s="138"/>
       <c r="D154" s="138"/>
@@ -11376,7 +11376,7 @@
       <c r="T154" s="133"/>
     </row>
     <row r="155" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A155" s="341"/>
+      <c r="A155" s="230"/>
       <c r="B155" s="138"/>
       <c r="C155" s="138"/>
       <c r="D155" s="138"/>
@@ -11398,7 +11398,7 @@
       <c r="T155" s="133"/>
     </row>
     <row r="156" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A156" s="341"/>
+      <c r="A156" s="230"/>
       <c r="B156" s="138"/>
       <c r="C156" s="138"/>
       <c r="D156" s="138"/>
@@ -11420,7 +11420,7 @@
       <c r="T156" s="133"/>
     </row>
     <row r="157" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A157" s="341"/>
+      <c r="A157" s="230"/>
       <c r="B157" s="138"/>
       <c r="C157" s="138"/>
       <c r="D157" s="138"/>
@@ -11442,7 +11442,7 @@
       <c r="T157" s="133"/>
     </row>
     <row r="158" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A158" s="341"/>
+      <c r="A158" s="230"/>
       <c r="B158" s="138"/>
       <c r="C158" s="157"/>
       <c r="D158" s="157"/>
@@ -11464,7 +11464,7 @@
       <c r="T158" s="133"/>
     </row>
     <row r="159" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A159" s="341"/>
+      <c r="A159" s="230"/>
       <c r="B159" s="138"/>
       <c r="C159" s="157"/>
       <c r="D159" s="157"/>
@@ -11486,7 +11486,7 @@
       <c r="T159" s="133"/>
     </row>
     <row r="160" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A160" s="341"/>
+      <c r="A160" s="230"/>
       <c r="B160" s="138"/>
       <c r="C160" s="157"/>
       <c r="D160" s="157"/>
@@ -11508,7 +11508,7 @@
       <c r="T160" s="133"/>
     </row>
     <row r="161" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A161" s="341"/>
+      <c r="A161" s="230"/>
       <c r="B161" s="138"/>
       <c r="C161" s="157"/>
       <c r="D161" s="157"/>
@@ -11530,7 +11530,7 @@
       <c r="T161" s="133"/>
     </row>
     <row r="162" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A162" s="341"/>
+      <c r="A162" s="230"/>
       <c r="B162" s="138"/>
       <c r="C162" s="157"/>
       <c r="D162" s="157"/>
@@ -11552,7 +11552,7 @@
       <c r="T162" s="133"/>
     </row>
     <row r="163" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A163" s="341"/>
+      <c r="A163" s="230"/>
       <c r="B163" s="138"/>
       <c r="C163" s="157"/>
       <c r="D163" s="157"/>
@@ -11574,7 +11574,7 @@
       <c r="T163" s="133"/>
     </row>
     <row r="164" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A164" s="341"/>
+      <c r="A164" s="230"/>
       <c r="B164" s="138"/>
       <c r="C164" s="157"/>
       <c r="D164" s="157"/>
@@ -11596,7 +11596,7 @@
       <c r="T164" s="133"/>
     </row>
     <row r="165" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A165" s="341"/>
+      <c r="A165" s="230"/>
       <c r="B165" s="138"/>
       <c r="C165" s="157"/>
       <c r="D165" s="157"/>
@@ -11618,7 +11618,7 @@
       <c r="T165" s="133"/>
     </row>
     <row r="166" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A166" s="341"/>
+      <c r="A166" s="230"/>
       <c r="B166" s="138"/>
       <c r="C166" s="157"/>
       <c r="D166" s="157"/>
@@ -11640,7 +11640,7 @@
       <c r="T166" s="133"/>
     </row>
     <row r="167" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A167" s="342"/>
+      <c r="A167" s="231"/>
       <c r="B167" s="138"/>
       <c r="C167" s="157"/>
       <c r="D167" s="157"/>
@@ -12162,51 +12162,252 @@
     <sortCondition ref="H192:H194"/>
   </sortState>
   <mergeCells count="315">
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="A127:A167"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="A96:A126"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="K36:L36"/>
@@ -12231,252 +12432,51 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A127:A167"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="A96:A126"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:O80"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="14">
@@ -12518,7 +12518,7 @@
       <formula1>OFFSET(hdn_list_payoff_blank,0,0,2,1)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.31496062992125984" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="61" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB759DD-29A7-4154-9D75-7568CA826BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9EE848-72CE-49CD-8C13-08650F48E6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4269,71 +4269,456 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -4353,9 +4738,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4364,6 +4746,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4376,6 +4764,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="5" fontId="6" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4394,453 +4794,53 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5274,8 +5274,8 @@
   </sheetPr>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A39" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C73"/>
+    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A53" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -5317,18 +5317,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="329" t="s">
+      <c r="E2" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5343,19 +5343,19 @@
       <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="330"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="332"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="330"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="332"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="263"/>
       <c r="O3" s="83" t="s">
         <v>26</v>
       </c>
@@ -5365,24 +5365,24 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="334"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="265"/>
       <c r="D4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="335"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="338" t="s">
+      <c r="E4" s="266"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="339"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="338" t="s">
+      <c r="I4" s="270"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
+      <c r="L4" s="269" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="339"/>
+      <c r="M4" s="270"/>
       <c r="N4" s="72"/>
       <c r="O4" s="79" t="s">
         <v>77</v>
@@ -5408,36 +5408,36 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="341"/>
-      <c r="B5" s="342"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="342"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="342"/>
-      <c r="H5" s="342"/>
-      <c r="I5" s="342"/>
-      <c r="J5" s="342"/>
-      <c r="K5" s="342"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="342"/>
-      <c r="N5" s="342"/>
-      <c r="O5" s="342"/>
-      <c r="P5" s="343"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="274"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="346"/>
+      <c r="B6" s="253"/>
       <c r="C6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="347" t="s">
+      <c r="D6" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="348"/>
-      <c r="F6" s="346"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="253"/>
       <c r="G6" s="61" t="s">
         <v>7</v>
       </c>
@@ -5450,18 +5450,18 @@
       <c r="J6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="349" t="s">
+      <c r="K6" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="350"/>
+      <c r="L6" s="257"/>
       <c r="M6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="351" t="s">
+      <c r="N6" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="352"/>
-      <c r="P6" s="353"/>
+      <c r="O6" s="250"/>
+      <c r="P6" s="251"/>
       <c r="Q6" s="149" t="s">
         <v>79</v>
       </c>
@@ -5494,27 +5494,27 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A7" s="354"/>
-      <c r="B7" s="355"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="356"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="358"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="218"/>
       <c r="G7" s="40"/>
       <c r="H7" s="46" t="s">
         <v>144</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="75"/>
-      <c r="K7" s="325">
+      <c r="K7" s="219">
         <f t="shared" ref="K7:K26" si="0">IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="326"/>
+      <c r="L7" s="220"/>
       <c r="M7" s="99"/>
-      <c r="N7" s="359"/>
-      <c r="O7" s="360"/>
-      <c r="P7" s="361"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="223"/>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7:Q27" ca="1" si="1">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
@@ -5556,27 +5556,27 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A8" s="354"/>
-      <c r="B8" s="355"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="357"/>
-      <c r="F8" s="358"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
       <c r="G8" s="40"/>
       <c r="H8" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="325">
+      <c r="K8" s="219">
         <f t="shared" ref="K8" si="10">IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="326"/>
+      <c r="L8" s="220"/>
       <c r="M8" s="99"/>
-      <c r="N8" s="359"/>
-      <c r="O8" s="360"/>
-      <c r="P8" s="361"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="223"/>
       <c r="Q8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -5618,31 +5618,31 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A9" s="354" t="s">
+      <c r="A9" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="355"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="356"/>
-      <c r="E9" s="357"/>
-      <c r="F9" s="358"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="218"/>
       <c r="G9" s="40"/>
       <c r="H9" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="75"/>
-      <c r="K9" s="325">
+      <c r="K9" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="326"/>
+      <c r="L9" s="220"/>
       <c r="M9" s="99"/>
-      <c r="N9" s="359"/>
-      <c r="O9" s="360"/>
-      <c r="P9" s="361"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="222"/>
+      <c r="P9" s="223"/>
       <c r="Q9" s="1" t="str">
         <f t="shared" ref="Q9:Q11" ca="1" si="12">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
         <v/>
@@ -5684,31 +5684,31 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="355"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="356"/>
-      <c r="E10" s="357"/>
-      <c r="F10" s="358"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
       <c r="G10" s="40"/>
       <c r="H10" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="75"/>
-      <c r="K10" s="325">
+      <c r="K10" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="326"/>
+      <c r="L10" s="220"/>
       <c r="M10" s="99"/>
-      <c r="N10" s="359"/>
-      <c r="O10" s="360"/>
-      <c r="P10" s="361"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="223"/>
       <c r="Q10" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -5750,31 +5750,31 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="355"/>
+      <c r="B11" s="215"/>
       <c r="C11" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="356"/>
-      <c r="E11" s="357"/>
-      <c r="F11" s="358"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
       <c r="G11" s="40"/>
       <c r="H11" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="75"/>
-      <c r="K11" s="325">
+      <c r="K11" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="326"/>
+      <c r="L11" s="220"/>
       <c r="M11" s="99"/>
-      <c r="N11" s="359"/>
-      <c r="O11" s="360"/>
-      <c r="P11" s="361"/>
+      <c r="N11" s="221"/>
+      <c r="O11" s="222"/>
+      <c r="P11" s="223"/>
       <c r="Q11" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -5816,31 +5816,31 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="355"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="356"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="358"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
       <c r="G12" s="40"/>
       <c r="H12" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="75"/>
-      <c r="K12" s="325">
+      <c r="K12" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="326"/>
+      <c r="L12" s="220"/>
       <c r="M12" s="99"/>
-      <c r="N12" s="359"/>
-      <c r="O12" s="360"/>
-      <c r="P12" s="361"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="222"/>
+      <c r="P12" s="223"/>
       <c r="Q12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -5882,31 +5882,31 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="355"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="356"/>
-      <c r="E13" s="357"/>
-      <c r="F13" s="358"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
       <c r="G13" s="40"/>
       <c r="H13" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="75"/>
-      <c r="K13" s="325">
+      <c r="K13" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="326"/>
+      <c r="L13" s="220"/>
       <c r="M13" s="99"/>
-      <c r="N13" s="359"/>
-      <c r="O13" s="360"/>
-      <c r="P13" s="361"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="222"/>
+      <c r="P13" s="223"/>
       <c r="Q13" s="1" t="str">
         <f t="shared" ref="Q13:Q14" ca="1" si="20">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
         <v/>
@@ -5948,31 +5948,31 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A14" s="354" t="s">
+      <c r="A14" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="355"/>
+      <c r="B14" s="215"/>
       <c r="C14" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="356"/>
-      <c r="E14" s="357"/>
-      <c r="F14" s="358"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="218"/>
       <c r="G14" s="40"/>
       <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="75"/>
-      <c r="K14" s="325">
+      <c r="K14" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="326"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="99"/>
-      <c r="N14" s="359"/>
-      <c r="O14" s="360"/>
-      <c r="P14" s="361"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="222"/>
+      <c r="P14" s="223"/>
       <c r="Q14" s="1" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -6014,31 +6014,31 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="355"/>
+      <c r="B15" s="215"/>
       <c r="C15" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="356"/>
-      <c r="E15" s="357"/>
-      <c r="F15" s="358"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
       <c r="G15" s="40"/>
       <c r="H15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="75"/>
-      <c r="K15" s="325">
+      <c r="K15" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="326"/>
+      <c r="L15" s="220"/>
       <c r="M15" s="99"/>
-      <c r="N15" s="359"/>
-      <c r="O15" s="360"/>
-      <c r="P15" s="361"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="223"/>
       <c r="Q15" s="1" t="str">
         <f t="shared" ref="Q15:Q21" ca="1" si="28">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
         <v/>
@@ -6080,31 +6080,31 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A16" s="354" t="s">
+      <c r="A16" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="355"/>
+      <c r="B16" s="215"/>
       <c r="C16" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="356"/>
-      <c r="E16" s="357"/>
-      <c r="F16" s="358"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="218"/>
       <c r="G16" s="40"/>
       <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="75"/>
-      <c r="K16" s="325">
+      <c r="K16" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="326"/>
+      <c r="L16" s="220"/>
       <c r="M16" s="99"/>
-      <c r="N16" s="359"/>
-      <c r="O16" s="360"/>
-      <c r="P16" s="361"/>
+      <c r="N16" s="221"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="223"/>
       <c r="Q16" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6146,31 +6146,31 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A17" s="354" t="s">
+      <c r="A17" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="355"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="356"/>
-      <c r="E17" s="357"/>
-      <c r="F17" s="358"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="218"/>
       <c r="G17" s="40"/>
       <c r="H17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="75"/>
-      <c r="K17" s="325">
+      <c r="K17" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="326"/>
+      <c r="L17" s="220"/>
       <c r="M17" s="99"/>
-      <c r="N17" s="359"/>
-      <c r="O17" s="360"/>
-      <c r="P17" s="361"/>
+      <c r="N17" s="221"/>
+      <c r="O17" s="222"/>
+      <c r="P17" s="223"/>
       <c r="Q17" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6212,31 +6212,31 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A18" s="354" t="s">
+      <c r="A18" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="355"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="356"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="358"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="218"/>
       <c r="G18" s="40"/>
       <c r="H18" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="325">
+      <c r="K18" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="326"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="99"/>
-      <c r="N18" s="359"/>
-      <c r="O18" s="360"/>
-      <c r="P18" s="361"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="222"/>
+      <c r="P18" s="223"/>
       <c r="Q18" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6278,31 +6278,31 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A19" s="354" t="s">
+      <c r="A19" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="355"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="356"/>
-      <c r="E19" s="357"/>
-      <c r="F19" s="358"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="218"/>
       <c r="G19" s="40"/>
       <c r="H19" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="75"/>
-      <c r="K19" s="325">
+      <c r="K19" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="326"/>
+      <c r="L19" s="220"/>
       <c r="M19" s="99"/>
-      <c r="N19" s="359"/>
-      <c r="O19" s="360"/>
-      <c r="P19" s="361"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="222"/>
+      <c r="P19" s="223"/>
       <c r="Q19" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6344,31 +6344,31 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A20" s="354" t="s">
+      <c r="A20" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="355"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="356"/>
-      <c r="E20" s="357"/>
-      <c r="F20" s="358"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="218"/>
       <c r="G20" s="40"/>
       <c r="H20" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="75"/>
-      <c r="K20" s="325">
+      <c r="K20" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="326"/>
+      <c r="L20" s="220"/>
       <c r="M20" s="99"/>
-      <c r="N20" s="359"/>
-      <c r="O20" s="360"/>
-      <c r="P20" s="361"/>
+      <c r="N20" s="221"/>
+      <c r="O20" s="222"/>
+      <c r="P20" s="223"/>
       <c r="Q20" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6410,31 +6410,31 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A21" s="354" t="s">
+      <c r="A21" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="355"/>
+      <c r="B21" s="215"/>
       <c r="C21" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="356"/>
-      <c r="E21" s="357"/>
-      <c r="F21" s="358"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="218"/>
       <c r="G21" s="40"/>
       <c r="H21" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="75"/>
-      <c r="K21" s="325">
+      <c r="K21" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="326"/>
+      <c r="L21" s="220"/>
       <c r="M21" s="99"/>
-      <c r="N21" s="359"/>
-      <c r="O21" s="360"/>
-      <c r="P21" s="361"/>
+      <c r="N21" s="221"/>
+      <c r="O21" s="222"/>
+      <c r="P21" s="223"/>
       <c r="Q21" s="1" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -6476,31 +6476,31 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A22" s="354" t="s">
+      <c r="A22" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="355"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="356"/>
-      <c r="E22" s="357"/>
-      <c r="F22" s="358"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="218"/>
       <c r="G22" s="40"/>
       <c r="H22" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="75"/>
-      <c r="K22" s="325">
+      <c r="K22" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="326"/>
+      <c r="L22" s="220"/>
       <c r="M22" s="99"/>
-      <c r="N22" s="359"/>
-      <c r="O22" s="360"/>
-      <c r="P22" s="361"/>
+      <c r="N22" s="221"/>
+      <c r="O22" s="222"/>
+      <c r="P22" s="223"/>
       <c r="Q22" s="1" t="str">
         <f t="shared" ref="Q22:Q25" ca="1" si="36">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
@@ -6542,31 +6542,31 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A23" s="354" t="s">
+      <c r="A23" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="355"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="356"/>
-      <c r="E23" s="357"/>
-      <c r="F23" s="358"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="218"/>
       <c r="G23" s="40"/>
       <c r="H23" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="75"/>
-      <c r="K23" s="325">
+      <c r="K23" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="326"/>
+      <c r="L23" s="220"/>
       <c r="M23" s="99"/>
-      <c r="N23" s="359"/>
-      <c r="O23" s="360"/>
-      <c r="P23" s="361"/>
+      <c r="N23" s="221"/>
+      <c r="O23" s="222"/>
+      <c r="P23" s="223"/>
       <c r="Q23" s="1" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -6608,31 +6608,31 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A24" s="354" t="s">
+      <c r="A24" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="355"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="356"/>
-      <c r="E24" s="357"/>
-      <c r="F24" s="358"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="218"/>
       <c r="G24" s="40"/>
       <c r="H24" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="75"/>
-      <c r="K24" s="325">
+      <c r="K24" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="326"/>
+      <c r="L24" s="220"/>
       <c r="M24" s="99"/>
-      <c r="N24" s="359"/>
-      <c r="O24" s="360"/>
-      <c r="P24" s="361"/>
+      <c r="N24" s="221"/>
+      <c r="O24" s="222"/>
+      <c r="P24" s="223"/>
       <c r="Q24" s="1" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -6674,31 +6674,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A25" s="354" t="s">
+      <c r="A25" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="355"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="356"/>
-      <c r="E25" s="357"/>
-      <c r="F25" s="358"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="218"/>
       <c r="G25" s="40"/>
       <c r="H25" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="75"/>
-      <c r="K25" s="325">
+      <c r="K25" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="326"/>
+      <c r="L25" s="220"/>
       <c r="M25" s="99"/>
-      <c r="N25" s="359"/>
-      <c r="O25" s="360"/>
-      <c r="P25" s="361"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="222"/>
+      <c r="P25" s="223"/>
       <c r="Q25" s="1" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -6740,31 +6740,31 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A26" s="354" t="s">
+      <c r="A26" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="355"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="356"/>
-      <c r="E26" s="357"/>
-      <c r="F26" s="358"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="218"/>
       <c r="G26" s="40"/>
       <c r="H26" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="75"/>
-      <c r="K26" s="325">
+      <c r="K26" s="219">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="326"/>
+      <c r="L26" s="220"/>
       <c r="M26" s="99"/>
-      <c r="N26" s="359"/>
-      <c r="O26" s="360"/>
-      <c r="P26" s="361"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="222"/>
+      <c r="P26" s="223"/>
       <c r="Q26" s="1" t="str">
         <f t="shared" ref="Q26" ca="1" si="44">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
         <v/>
@@ -6806,27 +6806,27 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A27" s="354"/>
-      <c r="B27" s="355"/>
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="357"/>
-      <c r="F27" s="358"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="218"/>
       <c r="G27" s="42"/>
       <c r="H27" s="47" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="76"/>
-      <c r="K27" s="325">
+      <c r="K27" s="219">
         <f t="shared" ref="K27" si="52">IFERROR(ROUNDDOWN(G27*ROUNDDOWN(I27,4)*J27,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L27" s="326"/>
+      <c r="L27" s="220"/>
       <c r="M27" s="100"/>
-      <c r="N27" s="362"/>
-      <c r="O27" s="362"/>
-      <c r="P27" s="363"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
+      <c r="P27" s="259"/>
       <c r="Q27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -6868,66 +6868,66 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A28" s="372" t="s">
+      <c r="A28" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="373"/>
-      <c r="C28" s="373"/>
-      <c r="D28" s="373"/>
-      <c r="E28" s="373"/>
-      <c r="F28" s="374"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="234"/>
       <c r="G28" s="101">
         <f>SUM(G7:G27)</f>
         <v>0</v>
       </c>
       <c r="H28" s="102"/>
-      <c r="I28" s="375">
+      <c r="I28" s="235">
         <f>SUM(K7:K27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="376"/>
-      <c r="K28" s="376"/>
-      <c r="L28" s="377"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="237"/>
       <c r="M28" s="69"/>
-      <c r="N28" s="378"/>
-      <c r="O28" s="378"/>
-      <c r="P28" s="379"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
       <c r="Q28" s="1">
         <f>IF(C28&lt;&gt;0,IF(A28=$G$95,VLOOKUP(C28,$G$97:$G$105,1,TRUE),IF(A28=$H$95,VLOOKUP(C28,$H$97:$H$107,1,TRUE),IF(A28=$I$95,VLOOKUP(C28,$I$97:$I$105,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A29" s="317"/>
-      <c r="B29" s="318"/>
-      <c r="C29" s="318"/>
-      <c r="D29" s="318"/>
-      <c r="E29" s="318"/>
-      <c r="F29" s="318"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="318"/>
-      <c r="I29" s="318"/>
-      <c r="J29" s="318"/>
-      <c r="K29" s="318"/>
-      <c r="L29" s="318"/>
-      <c r="M29" s="318"/>
-      <c r="N29" s="318"/>
-      <c r="O29" s="318"/>
-      <c r="P29" s="319"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="241"/>
+      <c r="J29" s="241"/>
+      <c r="K29" s="241"/>
+      <c r="L29" s="241"/>
+      <c r="M29" s="241"/>
+      <c r="N29" s="241"/>
+      <c r="O29" s="241"/>
+      <c r="P29" s="242"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="364" t="s">
+      <c r="A30" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="365"/>
+      <c r="B30" s="244"/>
       <c r="C30" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="366" t="s">
+      <c r="D30" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="367"/>
-      <c r="F30" s="365"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="244"/>
       <c r="G30" s="66" t="s">
         <v>7</v>
       </c>
@@ -6940,41 +6940,41 @@
       <c r="J30" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="368" t="s">
+      <c r="K30" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="369"/>
+      <c r="L30" s="248"/>
       <c r="M30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="351" t="s">
+      <c r="N30" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="352"/>
-      <c r="P30" s="353"/>
+      <c r="O30" s="250"/>
+      <c r="P30" s="251"/>
     </row>
     <row r="31" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A31" s="370"/>
-      <c r="B31" s="371"/>
+      <c r="A31" s="224"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="324"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="228"/>
       <c r="G31" s="5"/>
       <c r="H31" s="49" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="75"/>
-      <c r="K31" s="325">
+      <c r="K31" s="219">
         <f t="shared" ref="K31:K32" si="54">IFERROR(ROUNDDOWN(G31*ROUNDDOWN(I31,4)*J31,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="326"/>
+      <c r="L31" s="220"/>
       <c r="M31" s="99"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="262"/>
-      <c r="P31" s="263"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
       <c r="Q31" s="1" t="str">
         <f t="shared" ref="Q31:Q32" ca="1" si="55">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
         <v/>
@@ -7016,27 +7016,27 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A32" s="320"/>
-      <c r="B32" s="321"/>
+      <c r="A32" s="289"/>
+      <c r="B32" s="290"/>
       <c r="C32" s="95"/>
-      <c r="D32" s="322"/>
-      <c r="E32" s="323"/>
-      <c r="F32" s="324"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="228"/>
       <c r="G32" s="38"/>
       <c r="H32" s="50" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="78"/>
-      <c r="K32" s="325">
+      <c r="K32" s="219">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="L32" s="326"/>
+      <c r="L32" s="220"/>
       <c r="M32" s="99"/>
-      <c r="N32" s="327"/>
-      <c r="O32" s="327"/>
-      <c r="P32" s="328"/>
+      <c r="N32" s="291"/>
+      <c r="O32" s="291"/>
+      <c r="P32" s="292"/>
       <c r="Q32" s="1" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -7078,65 +7078,65 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="309" t="s">
+      <c r="A33" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="310"/>
-      <c r="C33" s="310"/>
-      <c r="D33" s="310"/>
-      <c r="E33" s="310"/>
-      <c r="F33" s="311"/>
+      <c r="B33" s="277"/>
+      <c r="C33" s="277"/>
+      <c r="D33" s="277"/>
+      <c r="E33" s="277"/>
+      <c r="F33" s="278"/>
       <c r="G33" s="103">
         <f>SUM(G31:G32)</f>
         <v>0</v>
       </c>
       <c r="H33" s="104"/>
-      <c r="I33" s="312">
+      <c r="I33" s="279">
         <f>SUM(K31:K32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="313"/>
-      <c r="K33" s="313"/>
-      <c r="L33" s="314"/>
+      <c r="J33" s="280"/>
+      <c r="K33" s="280"/>
+      <c r="L33" s="281"/>
       <c r="M33" s="70"/>
-      <c r="N33" s="315"/>
-      <c r="O33" s="315"/>
-      <c r="P33" s="316"/>
+      <c r="N33" s="282"/>
+      <c r="O33" s="282"/>
+      <c r="P33" s="283"/>
       <c r="Q33" s="1">
         <f>IF(C33&lt;&gt;0,IF(A33=$G$95,VLOOKUP(C33,$G$97:$G$105,1,TRUE),IF(A33=$H$95,VLOOKUP(C33,$H$97:$H$107,1,TRUE),IF(A33=$I$95,VLOOKUP(C33,$I$97:$I$105,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A34" s="317"/>
-      <c r="B34" s="318"/>
-      <c r="C34" s="318"/>
-      <c r="D34" s="318"/>
-      <c r="E34" s="318"/>
-      <c r="F34" s="318"/>
-      <c r="G34" s="318"/>
-      <c r="H34" s="318"/>
-      <c r="I34" s="318"/>
-      <c r="J34" s="318"/>
-      <c r="K34" s="318"/>
-      <c r="L34" s="318"/>
-      <c r="M34" s="318"/>
-      <c r="N34" s="318"/>
-      <c r="O34" s="318"/>
-      <c r="P34" s="319"/>
+      <c r="A34" s="240"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="241"/>
+      <c r="G34" s="241"/>
+      <c r="H34" s="241"/>
+      <c r="I34" s="241"/>
+      <c r="J34" s="241"/>
+      <c r="K34" s="241"/>
+      <c r="L34" s="241"/>
+      <c r="M34" s="241"/>
+      <c r="N34" s="241"/>
+      <c r="O34" s="241"/>
+      <c r="P34" s="242"/>
     </row>
     <row r="35" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A35" s="302" t="s">
+      <c r="A35" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="303"/>
+      <c r="B35" s="285"/>
       <c r="C35" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="304" t="s">
+      <c r="D35" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="303"/>
+      <c r="E35" s="285"/>
       <c r="F35" s="57" t="s">
         <v>16</v>
       </c>
@@ -7152,25 +7152,25 @@
       <c r="J35" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="304" t="s">
+      <c r="K35" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="303"/>
+      <c r="L35" s="285"/>
       <c r="M35" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="304" t="s">
+      <c r="N35" s="286" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="305"/>
-      <c r="P35" s="306"/>
+      <c r="O35" s="287"/>
+      <c r="P35" s="288"/>
     </row>
     <row r="36" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A36" s="283"/>
-      <c r="B36" s="284"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="51"/>
-      <c r="D36" s="285"/>
-      <c r="E36" s="284"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="208"/>
       <c r="F36" s="52"/>
       <c r="G36" s="7"/>
       <c r="H36" s="55" t="s">
@@ -7178,15 +7178,15 @@
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="77"/>
-      <c r="K36" s="286">
+      <c r="K36" s="210">
         <f t="shared" ref="K36:K48" si="65">IFERROR(ROUNDDOWN(G36*ROUNDDOWN(I36,4)*J36,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="287"/>
+      <c r="L36" s="211"/>
       <c r="M36" s="99"/>
-      <c r="N36" s="288"/>
-      <c r="O36" s="288"/>
-      <c r="P36" s="289"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="212"/>
+      <c r="P36" s="213"/>
       <c r="Q36" s="1" t="str">
         <f t="shared" ref="Q36:Q48" ca="1" si="66">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
         <v/>
@@ -7228,11 +7228,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A37" s="283"/>
-      <c r="B37" s="284"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="285"/>
-      <c r="E37" s="284"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="208"/>
       <c r="F37" s="52"/>
       <c r="G37" s="7"/>
       <c r="H37" s="55" t="s">
@@ -7240,15 +7240,15 @@
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="77"/>
-      <c r="K37" s="286">
+      <c r="K37" s="210">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="L37" s="287"/>
+      <c r="L37" s="211"/>
       <c r="M37" s="99"/>
-      <c r="N37" s="288"/>
-      <c r="O37" s="288"/>
-      <c r="P37" s="289"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="212"/>
+      <c r="P37" s="213"/>
       <c r="Q37" s="1" t="str">
         <f t="shared" ca="1" si="66"/>
         <v/>
@@ -7290,15 +7290,15 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A38" s="283" t="s">
+      <c r="A38" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="284"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="285"/>
-      <c r="E38" s="284"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="208"/>
       <c r="F38" s="52"/>
       <c r="G38" s="7"/>
       <c r="H38" s="55" t="s">
@@ -7306,15 +7306,15 @@
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="77"/>
-      <c r="K38" s="286">
+      <c r="K38" s="210">
         <f t="shared" ref="K38:K39" si="75">IFERROR(ROUNDDOWN(G38*ROUNDDOWN(I38,4)*J38,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L38" s="287"/>
+      <c r="L38" s="211"/>
       <c r="M38" s="99"/>
-      <c r="N38" s="288"/>
-      <c r="O38" s="288"/>
-      <c r="P38" s="289"/>
+      <c r="N38" s="212"/>
+      <c r="O38" s="212"/>
+      <c r="P38" s="213"/>
       <c r="Q38" s="1" t="str">
         <f t="shared" ref="Q38:Q39" ca="1" si="76">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
         <v/>
@@ -7356,15 +7356,15 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A39" s="283" t="s">
+      <c r="A39" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="284"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="285"/>
-      <c r="E39" s="284"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="208"/>
       <c r="F39" s="52"/>
       <c r="G39" s="7"/>
       <c r="H39" s="55" t="s">
@@ -7372,15 +7372,15 @@
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="77"/>
-      <c r="K39" s="286">
+      <c r="K39" s="210">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="L39" s="287"/>
+      <c r="L39" s="211"/>
       <c r="M39" s="99"/>
-      <c r="N39" s="288"/>
-      <c r="O39" s="288"/>
-      <c r="P39" s="289"/>
+      <c r="N39" s="212"/>
+      <c r="O39" s="212"/>
+      <c r="P39" s="213"/>
       <c r="Q39" s="1" t="str">
         <f t="shared" ca="1" si="76"/>
         <v/>
@@ -7422,15 +7422,15 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A40" s="283" t="s">
+      <c r="A40" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="284"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="285"/>
-      <c r="E40" s="284"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="208"/>
       <c r="F40" s="52"/>
       <c r="G40" s="7"/>
       <c r="H40" s="55" t="s">
@@ -7438,15 +7438,15 @@
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="77"/>
-      <c r="K40" s="286">
+      <c r="K40" s="210">
         <f t="shared" ref="K40:K46" si="85">IFERROR(ROUNDDOWN(G40*ROUNDDOWN(I40,4)*J40,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L40" s="287"/>
+      <c r="L40" s="211"/>
       <c r="M40" s="99"/>
-      <c r="N40" s="288"/>
-      <c r="O40" s="288"/>
-      <c r="P40" s="289"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="212"/>
+      <c r="P40" s="213"/>
       <c r="Q40" s="1" t="str">
         <f t="shared" ref="Q40:Q46" ca="1" si="86">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
         <v/>
@@ -7488,15 +7488,15 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A41" s="283" t="s">
+      <c r="A41" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="284"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="284"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="208"/>
       <c r="F41" s="52"/>
       <c r="G41" s="7"/>
       <c r="H41" s="55" t="s">
@@ -7504,15 +7504,15 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="77"/>
-      <c r="K41" s="286">
+      <c r="K41" s="210">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L41" s="287"/>
+      <c r="L41" s="211"/>
       <c r="M41" s="99"/>
-      <c r="N41" s="288"/>
-      <c r="O41" s="288"/>
-      <c r="P41" s="289"/>
+      <c r="N41" s="212"/>
+      <c r="O41" s="212"/>
+      <c r="P41" s="213"/>
       <c r="Q41" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7554,15 +7554,15 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A42" s="283" t="s">
+      <c r="A42" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="284"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="284"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="208"/>
       <c r="F42" s="52"/>
       <c r="G42" s="7"/>
       <c r="H42" s="55" t="s">
@@ -7570,15 +7570,15 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="77"/>
-      <c r="K42" s="286">
+      <c r="K42" s="210">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L42" s="287"/>
+      <c r="L42" s="211"/>
       <c r="M42" s="99"/>
-      <c r="N42" s="288"/>
-      <c r="O42" s="288"/>
-      <c r="P42" s="289"/>
+      <c r="N42" s="212"/>
+      <c r="O42" s="212"/>
+      <c r="P42" s="213"/>
       <c r="Q42" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7620,15 +7620,15 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A43" s="283" t="s">
+      <c r="A43" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="284"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="285"/>
-      <c r="E43" s="284"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="208"/>
       <c r="F43" s="52"/>
       <c r="G43" s="7"/>
       <c r="H43" s="55" t="s">
@@ -7636,15 +7636,15 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="77"/>
-      <c r="K43" s="286">
+      <c r="K43" s="210">
         <f t="shared" ref="K43" si="95">IFERROR(ROUNDDOWN(G43*ROUNDDOWN(I43,4)*J43,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L43" s="287"/>
+      <c r="L43" s="211"/>
       <c r="M43" s="99"/>
-      <c r="N43" s="288"/>
-      <c r="O43" s="288"/>
-      <c r="P43" s="289"/>
+      <c r="N43" s="212"/>
+      <c r="O43" s="212"/>
+      <c r="P43" s="213"/>
       <c r="Q43" s="1" t="str">
         <f t="shared" ref="Q43" ca="1" si="96">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
         <v/>
@@ -7686,15 +7686,15 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A44" s="283" t="s">
+      <c r="A44" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="284"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="285"/>
-      <c r="E44" s="284"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="208"/>
       <c r="F44" s="52"/>
       <c r="G44" s="7"/>
       <c r="H44" s="55" t="s">
@@ -7702,15 +7702,15 @@
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="77"/>
-      <c r="K44" s="286">
+      <c r="K44" s="210">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L44" s="287"/>
+      <c r="L44" s="211"/>
       <c r="M44" s="99"/>
-      <c r="N44" s="288"/>
-      <c r="O44" s="288"/>
-      <c r="P44" s="289"/>
+      <c r="N44" s="212"/>
+      <c r="O44" s="212"/>
+      <c r="P44" s="213"/>
       <c r="Q44" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7752,15 +7752,15 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A45" s="283" t="s">
+      <c r="A45" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="284"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="285"/>
-      <c r="E45" s="284"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="208"/>
       <c r="F45" s="52"/>
       <c r="G45" s="7"/>
       <c r="H45" s="55" t="s">
@@ -7768,15 +7768,15 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="77"/>
-      <c r="K45" s="286">
+      <c r="K45" s="210">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L45" s="287"/>
+      <c r="L45" s="211"/>
       <c r="M45" s="99"/>
-      <c r="N45" s="288"/>
-      <c r="O45" s="288"/>
-      <c r="P45" s="289"/>
+      <c r="N45" s="212"/>
+      <c r="O45" s="212"/>
+      <c r="P45" s="213"/>
       <c r="Q45" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7818,15 +7818,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A46" s="283" t="s">
+      <c r="A46" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="284"/>
+      <c r="B46" s="208"/>
       <c r="C46" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="285"/>
-      <c r="E46" s="284"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="208"/>
       <c r="F46" s="52"/>
       <c r="G46" s="7"/>
       <c r="H46" s="55" t="s">
@@ -7834,15 +7834,15 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="77"/>
-      <c r="K46" s="286">
+      <c r="K46" s="210">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="L46" s="287"/>
+      <c r="L46" s="211"/>
       <c r="M46" s="99"/>
-      <c r="N46" s="288"/>
-      <c r="O46" s="288"/>
-      <c r="P46" s="289"/>
+      <c r="N46" s="212"/>
+      <c r="O46" s="212"/>
+      <c r="P46" s="213"/>
       <c r="Q46" s="1" t="str">
         <f t="shared" ca="1" si="86"/>
         <v/>
@@ -7884,15 +7884,15 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A47" s="283" t="s">
+      <c r="A47" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="284"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="285"/>
-      <c r="E47" s="284"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="208"/>
       <c r="F47" s="52"/>
       <c r="G47" s="7"/>
       <c r="H47" s="55" t="s">
@@ -7900,15 +7900,15 @@
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="286">
+      <c r="K47" s="210">
         <f t="shared" ref="K47" si="105">IFERROR(ROUNDDOWN(G47*ROUNDDOWN(I47,4)*J47,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L47" s="287"/>
+      <c r="L47" s="211"/>
       <c r="M47" s="99"/>
-      <c r="N47" s="288"/>
-      <c r="O47" s="288"/>
-      <c r="P47" s="289"/>
+      <c r="N47" s="212"/>
+      <c r="O47" s="212"/>
+      <c r="P47" s="213"/>
       <c r="Q47" s="1" t="str">
         <f t="shared" ref="Q47" ca="1" si="106">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
         <v/>
@@ -7950,11 +7950,11 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="283"/>
-      <c r="B48" s="284"/>
+      <c r="A48" s="207"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="285"/>
-      <c r="E48" s="284"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="208"/>
       <c r="F48" s="54"/>
       <c r="G48" s="10"/>
       <c r="H48" s="56" t="s">
@@ -7962,15 +7962,15 @@
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="78"/>
-      <c r="K48" s="286">
+      <c r="K48" s="210">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="L48" s="287"/>
+      <c r="L48" s="211"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="307"/>
-      <c r="O48" s="307"/>
-      <c r="P48" s="308"/>
+      <c r="N48" s="305"/>
+      <c r="O48" s="305"/>
+      <c r="P48" s="306"/>
       <c r="Q48" s="1" t="str">
         <f t="shared" ca="1" si="66"/>
         <v/>
@@ -8012,61 +8012,61 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="290" t="s">
+      <c r="A49" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="291"/>
-      <c r="C49" s="291"/>
-      <c r="D49" s="291"/>
-      <c r="E49" s="291"/>
-      <c r="F49" s="292"/>
+      <c r="B49" s="294"/>
+      <c r="C49" s="294"/>
+      <c r="D49" s="294"/>
+      <c r="E49" s="294"/>
+      <c r="F49" s="295"/>
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="293">
+      <c r="I49" s="296">
         <f>SUM(K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="294"/>
-      <c r="K49" s="294"/>
-      <c r="L49" s="295"/>
+      <c r="J49" s="297"/>
+      <c r="K49" s="297"/>
+      <c r="L49" s="298"/>
       <c r="M49" s="71"/>
-      <c r="N49" s="296">
+      <c r="N49" s="299">
         <f>SUMIF(F36:F48,"&lt;&gt;"&amp;hdn_payoff_circle,K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="297"/>
-      <c r="P49" s="298"/>
+      <c r="O49" s="300"/>
+      <c r="P49" s="301"/>
     </row>
     <row r="50" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A50" s="299"/>
-      <c r="B50" s="300"/>
-      <c r="C50" s="300"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="300"/>
-      <c r="F50" s="300"/>
-      <c r="G50" s="300"/>
-      <c r="H50" s="300"/>
-      <c r="I50" s="300"/>
-      <c r="J50" s="300"/>
-      <c r="K50" s="300"/>
-      <c r="L50" s="300"/>
-      <c r="M50" s="300"/>
-      <c r="N50" s="300"/>
-      <c r="O50" s="300"/>
-      <c r="P50" s="301"/>
+      <c r="A50" s="302"/>
+      <c r="B50" s="303"/>
+      <c r="C50" s="303"/>
+      <c r="D50" s="303"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
+      <c r="G50" s="303"/>
+      <c r="H50" s="303"/>
+      <c r="I50" s="303"/>
+      <c r="J50" s="303"/>
+      <c r="K50" s="303"/>
+      <c r="L50" s="303"/>
+      <c r="M50" s="303"/>
+      <c r="N50" s="303"/>
+      <c r="O50" s="303"/>
+      <c r="P50" s="304"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="302" t="s">
+      <c r="A51" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="303"/>
+      <c r="B51" s="285"/>
       <c r="C51" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="304" t="s">
+      <c r="D51" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="303"/>
+      <c r="E51" s="285"/>
       <c r="F51" s="59"/>
       <c r="G51" s="59" t="s">
         <v>17</v>
@@ -8080,26 +8080,26 @@
       <c r="J51" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="304" t="s">
+      <c r="K51" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="303"/>
+      <c r="L51" s="285"/>
       <c r="M51" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="304" t="s">
+      <c r="N51" s="286" t="s">
         <v>52</v>
       </c>
-      <c r="O51" s="305"/>
-      <c r="P51" s="306"/>
+      <c r="O51" s="287"/>
+      <c r="P51" s="288"/>
       <c r="S51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A52" s="283"/>
-      <c r="B52" s="284"/>
+      <c r="A52" s="207"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="51"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="284"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="208"/>
       <c r="F52" s="52"/>
       <c r="G52" s="117"/>
       <c r="H52" s="55" t="s">
@@ -8107,15 +8107,15 @@
       </c>
       <c r="I52" s="115"/>
       <c r="J52" s="116"/>
-      <c r="K52" s="286">
+      <c r="K52" s="210">
         <f t="shared" ref="K52:K74" si="115">IFERROR(ROUNDDOWN(G52*ROUNDDOWN(I52,4)*J52,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L52" s="287"/>
+      <c r="L52" s="211"/>
       <c r="M52" s="99"/>
-      <c r="N52" s="288"/>
-      <c r="O52" s="288"/>
-      <c r="P52" s="289"/>
+      <c r="N52" s="212"/>
+      <c r="O52" s="212"/>
+      <c r="P52" s="213"/>
       <c r="Q52" s="1" t="str">
         <f t="shared" ref="Q52:Q76" ca="1" si="116">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
         <v/>
@@ -8157,11 +8157,11 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A53" s="283"/>
-      <c r="B53" s="284"/>
+      <c r="A53" s="207"/>
+      <c r="B53" s="208"/>
       <c r="C53" s="51"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="284"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="208"/>
       <c r="F53" s="52"/>
       <c r="G53" s="117"/>
       <c r="H53" s="55" t="s">
@@ -8169,15 +8169,15 @@
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="116"/>
-      <c r="K53" s="286">
+      <c r="K53" s="210">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L53" s="287"/>
+      <c r="L53" s="211"/>
       <c r="M53" s="99"/>
-      <c r="N53" s="288"/>
-      <c r="O53" s="288"/>
-      <c r="P53" s="289"/>
+      <c r="N53" s="212"/>
+      <c r="O53" s="212"/>
+      <c r="P53" s="213"/>
       <c r="Q53" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -8219,15 +8219,15 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A54" s="283" t="s">
+      <c r="A54" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="284"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="285"/>
-      <c r="E54" s="284"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="208"/>
       <c r="F54" s="52"/>
       <c r="G54" s="117"/>
       <c r="H54" s="55" t="s">
@@ -8235,15 +8235,15 @@
       </c>
       <c r="I54" s="115"/>
       <c r="J54" s="116"/>
-      <c r="K54" s="286">
+      <c r="K54" s="210">
         <f t="shared" ref="K54:K63" si="125">IFERROR(ROUNDDOWN(G54*ROUNDDOWN(I54,4)*J54,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L54" s="287"/>
+      <c r="L54" s="211"/>
       <c r="M54" s="99"/>
-      <c r="N54" s="288"/>
-      <c r="O54" s="288"/>
-      <c r="P54" s="289"/>
+      <c r="N54" s="212"/>
+      <c r="O54" s="212"/>
+      <c r="P54" s="213"/>
       <c r="Q54" s="1" t="str">
         <f t="shared" ref="Q54:Q63" ca="1" si="126">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
         <v/>
@@ -8285,15 +8285,15 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A55" s="283" t="s">
+      <c r="A55" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="284"/>
+      <c r="B55" s="208"/>
       <c r="C55" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="285"/>
-      <c r="E55" s="284"/>
+      <c r="D55" s="209"/>
+      <c r="E55" s="208"/>
       <c r="F55" s="52"/>
       <c r="G55" s="117"/>
       <c r="H55" s="55" t="s">
@@ -8301,15 +8301,15 @@
       </c>
       <c r="I55" s="115"/>
       <c r="J55" s="116"/>
-      <c r="K55" s="286">
+      <c r="K55" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L55" s="287"/>
+      <c r="L55" s="211"/>
       <c r="M55" s="99"/>
-      <c r="N55" s="288"/>
-      <c r="O55" s="288"/>
-      <c r="P55" s="289"/>
+      <c r="N55" s="212"/>
+      <c r="O55" s="212"/>
+      <c r="P55" s="213"/>
       <c r="Q55" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8351,15 +8351,15 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A56" s="283" t="s">
+      <c r="A56" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="284"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="285"/>
-      <c r="E56" s="284"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="208"/>
       <c r="F56" s="52"/>
       <c r="G56" s="117"/>
       <c r="H56" s="55" t="s">
@@ -8367,15 +8367,15 @@
       </c>
       <c r="I56" s="115"/>
       <c r="J56" s="116"/>
-      <c r="K56" s="286">
+      <c r="K56" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L56" s="287"/>
+      <c r="L56" s="211"/>
       <c r="M56" s="99"/>
-      <c r="N56" s="288"/>
-      <c r="O56" s="288"/>
-      <c r="P56" s="289"/>
+      <c r="N56" s="212"/>
+      <c r="O56" s="212"/>
+      <c r="P56" s="213"/>
       <c r="Q56" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8417,15 +8417,15 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A57" s="283" t="s">
+      <c r="A57" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="284"/>
+      <c r="B57" s="208"/>
       <c r="C57" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="285"/>
-      <c r="E57" s="284"/>
+      <c r="D57" s="209"/>
+      <c r="E57" s="208"/>
       <c r="F57" s="52"/>
       <c r="G57" s="117"/>
       <c r="H57" s="55" t="s">
@@ -8433,15 +8433,15 @@
       </c>
       <c r="I57" s="115"/>
       <c r="J57" s="116"/>
-      <c r="K57" s="286">
+      <c r="K57" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L57" s="287"/>
+      <c r="L57" s="211"/>
       <c r="M57" s="99"/>
-      <c r="N57" s="288"/>
-      <c r="O57" s="288"/>
-      <c r="P57" s="289"/>
+      <c r="N57" s="212"/>
+      <c r="O57" s="212"/>
+      <c r="P57" s="213"/>
       <c r="Q57" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8483,15 +8483,15 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A58" s="283" t="s">
+      <c r="A58" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="284"/>
+      <c r="B58" s="208"/>
       <c r="C58" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="285"/>
-      <c r="E58" s="284"/>
+      <c r="D58" s="209"/>
+      <c r="E58" s="208"/>
       <c r="F58" s="52"/>
       <c r="G58" s="117"/>
       <c r="H58" s="55" t="s">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="I58" s="115"/>
       <c r="J58" s="116"/>
-      <c r="K58" s="286">
+      <c r="K58" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L58" s="287"/>
+      <c r="L58" s="211"/>
       <c r="M58" s="99"/>
-      <c r="N58" s="288"/>
-      <c r="O58" s="288"/>
-      <c r="P58" s="289"/>
+      <c r="N58" s="212"/>
+      <c r="O58" s="212"/>
+      <c r="P58" s="213"/>
       <c r="Q58" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8549,15 +8549,15 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A59" s="283" t="s">
+      <c r="A59" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="284"/>
+      <c r="B59" s="208"/>
       <c r="C59" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="285"/>
-      <c r="E59" s="284"/>
+      <c r="D59" s="209"/>
+      <c r="E59" s="208"/>
       <c r="F59" s="52"/>
       <c r="G59" s="117"/>
       <c r="H59" s="55" t="s">
@@ -8565,15 +8565,15 @@
       </c>
       <c r="I59" s="115"/>
       <c r="J59" s="116"/>
-      <c r="K59" s="286">
+      <c r="K59" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L59" s="287"/>
+      <c r="L59" s="211"/>
       <c r="M59" s="99"/>
-      <c r="N59" s="288"/>
-      <c r="O59" s="288"/>
-      <c r="P59" s="289"/>
+      <c r="N59" s="212"/>
+      <c r="O59" s="212"/>
+      <c r="P59" s="213"/>
       <c r="Q59" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8615,15 +8615,15 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A60" s="283" t="s">
+      <c r="A60" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="284"/>
+      <c r="B60" s="208"/>
       <c r="C60" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="285"/>
-      <c r="E60" s="284"/>
+      <c r="D60" s="209"/>
+      <c r="E60" s="208"/>
       <c r="F60" s="52"/>
       <c r="G60" s="117"/>
       <c r="H60" s="55" t="s">
@@ -8631,15 +8631,15 @@
       </c>
       <c r="I60" s="115"/>
       <c r="J60" s="116"/>
-      <c r="K60" s="286">
+      <c r="K60" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L60" s="287"/>
+      <c r="L60" s="211"/>
       <c r="M60" s="99"/>
-      <c r="N60" s="288"/>
-      <c r="O60" s="288"/>
-      <c r="P60" s="289"/>
+      <c r="N60" s="212"/>
+      <c r="O60" s="212"/>
+      <c r="P60" s="213"/>
       <c r="Q60" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8681,15 +8681,15 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A61" s="283" t="s">
+      <c r="A61" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="284"/>
+      <c r="B61" s="208"/>
       <c r="C61" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="285"/>
-      <c r="E61" s="284"/>
+      <c r="D61" s="209"/>
+      <c r="E61" s="208"/>
       <c r="F61" s="52"/>
       <c r="G61" s="117"/>
       <c r="H61" s="55" t="s">
@@ -8697,15 +8697,15 @@
       </c>
       <c r="I61" s="115"/>
       <c r="J61" s="116"/>
-      <c r="K61" s="286">
+      <c r="K61" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L61" s="287"/>
+      <c r="L61" s="211"/>
       <c r="M61" s="99"/>
-      <c r="N61" s="288"/>
-      <c r="O61" s="288"/>
-      <c r="P61" s="289"/>
+      <c r="N61" s="212"/>
+      <c r="O61" s="212"/>
+      <c r="P61" s="213"/>
       <c r="Q61" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8747,15 +8747,15 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A62" s="283" t="s">
+      <c r="A62" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="284"/>
+      <c r="B62" s="208"/>
       <c r="C62" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="285"/>
-      <c r="E62" s="284"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="208"/>
       <c r="F62" s="52"/>
       <c r="G62" s="117"/>
       <c r="H62" s="55" t="s">
@@ -8763,15 +8763,15 @@
       </c>
       <c r="I62" s="115"/>
       <c r="J62" s="116"/>
-      <c r="K62" s="286">
+      <c r="K62" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L62" s="287"/>
+      <c r="L62" s="211"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="288"/>
-      <c r="O62" s="288"/>
-      <c r="P62" s="289"/>
+      <c r="N62" s="212"/>
+      <c r="O62" s="212"/>
+      <c r="P62" s="213"/>
       <c r="Q62" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8813,15 +8813,15 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A63" s="283" t="s">
+      <c r="A63" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="284"/>
+      <c r="B63" s="208"/>
       <c r="C63" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="285"/>
-      <c r="E63" s="284"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="208"/>
       <c r="F63" s="52"/>
       <c r="G63" s="117"/>
       <c r="H63" s="55" t="s">
@@ -8829,15 +8829,15 @@
       </c>
       <c r="I63" s="115"/>
       <c r="J63" s="116"/>
-      <c r="K63" s="286">
+      <c r="K63" s="210">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L63" s="287"/>
+      <c r="L63" s="211"/>
       <c r="M63" s="99"/>
-      <c r="N63" s="288"/>
-      <c r="O63" s="288"/>
-      <c r="P63" s="289"/>
+      <c r="N63" s="212"/>
+      <c r="O63" s="212"/>
+      <c r="P63" s="213"/>
       <c r="Q63" s="1" t="str">
         <f t="shared" ca="1" si="126"/>
         <v/>
@@ -8879,15 +8879,15 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A64" s="283" t="s">
+      <c r="A64" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="284"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="285"/>
-      <c r="E64" s="284"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="208"/>
       <c r="F64" s="52"/>
       <c r="G64" s="117"/>
       <c r="H64" s="55" t="s">
@@ -8895,15 +8895,15 @@
       </c>
       <c r="I64" s="115"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="286">
+      <c r="K64" s="210">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L64" s="287"/>
+      <c r="L64" s="211"/>
       <c r="M64" s="99"/>
-      <c r="N64" s="288"/>
-      <c r="O64" s="288"/>
-      <c r="P64" s="289"/>
+      <c r="N64" s="212"/>
+      <c r="O64" s="212"/>
+      <c r="P64" s="213"/>
       <c r="Q64" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -8945,15 +8945,15 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A65" s="283" t="s">
+      <c r="A65" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="284"/>
+      <c r="B65" s="208"/>
       <c r="C65" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="285"/>
-      <c r="E65" s="284"/>
+      <c r="D65" s="209"/>
+      <c r="E65" s="208"/>
       <c r="F65" s="52"/>
       <c r="G65" s="117"/>
       <c r="H65" s="55" t="s">
@@ -8961,15 +8961,15 @@
       </c>
       <c r="I65" s="115"/>
       <c r="J65" s="116"/>
-      <c r="K65" s="286">
+      <c r="K65" s="210">
         <f t="shared" ref="K65:K66" si="135">IFERROR(ROUNDDOWN(G65*ROUNDDOWN(I65,4)*J65,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L65" s="287"/>
+      <c r="L65" s="211"/>
       <c r="M65" s="99"/>
-      <c r="N65" s="288"/>
-      <c r="O65" s="288"/>
-      <c r="P65" s="289"/>
+      <c r="N65" s="212"/>
+      <c r="O65" s="212"/>
+      <c r="P65" s="213"/>
       <c r="Q65" s="1" t="str">
         <f t="shared" ref="Q65:Q66" ca="1" si="136">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
         <v/>
@@ -9011,15 +9011,15 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A66" s="283" t="s">
+      <c r="A66" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="284"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="285"/>
-      <c r="E66" s="284"/>
+      <c r="D66" s="209"/>
+      <c r="E66" s="208"/>
       <c r="F66" s="52"/>
       <c r="G66" s="117"/>
       <c r="H66" s="55" t="s">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="I66" s="115"/>
       <c r="J66" s="116"/>
-      <c r="K66" s="286">
+      <c r="K66" s="210">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="L66" s="287"/>
+      <c r="L66" s="211"/>
       <c r="M66" s="99"/>
-      <c r="N66" s="288"/>
-      <c r="O66" s="288"/>
-      <c r="P66" s="289"/>
+      <c r="N66" s="212"/>
+      <c r="O66" s="212"/>
+      <c r="P66" s="213"/>
       <c r="Q66" s="1" t="str">
         <f t="shared" ca="1" si="136"/>
         <v/>
@@ -9077,15 +9077,15 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A67" s="283" t="s">
+      <c r="A67" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="284"/>
+      <c r="B67" s="208"/>
       <c r="C67" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="285"/>
-      <c r="E67" s="284"/>
+      <c r="D67" s="209"/>
+      <c r="E67" s="208"/>
       <c r="F67" s="52"/>
       <c r="G67" s="117"/>
       <c r="H67" s="55" t="s">
@@ -9093,15 +9093,15 @@
       </c>
       <c r="I67" s="115"/>
       <c r="J67" s="116"/>
-      <c r="K67" s="286">
+      <c r="K67" s="210">
         <f t="shared" ref="K67:K70" si="145">IFERROR(ROUNDDOWN(G67*ROUNDDOWN(I67,4)*J67,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L67" s="287"/>
+      <c r="L67" s="211"/>
       <c r="M67" s="99"/>
-      <c r="N67" s="288"/>
-      <c r="O67" s="288"/>
-      <c r="P67" s="289"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="212"/>
+      <c r="P67" s="213"/>
       <c r="Q67" s="1" t="str">
         <f t="shared" ref="Q67:Q70" ca="1" si="146">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
         <v/>
@@ -9143,15 +9143,15 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A68" s="283" t="s">
+      <c r="A68" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="284"/>
+      <c r="B68" s="208"/>
       <c r="C68" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="285"/>
-      <c r="E68" s="284"/>
+      <c r="D68" s="209"/>
+      <c r="E68" s="208"/>
       <c r="F68" s="52"/>
       <c r="G68" s="117"/>
       <c r="H68" s="55" t="s">
@@ -9159,15 +9159,15 @@
       </c>
       <c r="I68" s="115"/>
       <c r="J68" s="116"/>
-      <c r="K68" s="286">
+      <c r="K68" s="210">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L68" s="287"/>
+      <c r="L68" s="211"/>
       <c r="M68" s="99"/>
-      <c r="N68" s="288"/>
-      <c r="O68" s="288"/>
-      <c r="P68" s="289"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="212"/>
+      <c r="P68" s="213"/>
       <c r="Q68" s="1" t="str">
         <f t="shared" ca="1" si="146"/>
         <v/>
@@ -9209,15 +9209,15 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A69" s="283" t="s">
+      <c r="A69" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="284"/>
+      <c r="B69" s="208"/>
       <c r="C69" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="285"/>
-      <c r="E69" s="284"/>
+      <c r="D69" s="209"/>
+      <c r="E69" s="208"/>
       <c r="F69" s="52"/>
       <c r="G69" s="117"/>
       <c r="H69" s="55" t="s">
@@ -9225,15 +9225,15 @@
       </c>
       <c r="I69" s="115"/>
       <c r="J69" s="116"/>
-      <c r="K69" s="286">
+      <c r="K69" s="210">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L69" s="287"/>
+      <c r="L69" s="211"/>
       <c r="M69" s="99"/>
-      <c r="N69" s="288"/>
-      <c r="O69" s="288"/>
-      <c r="P69" s="289"/>
+      <c r="N69" s="212"/>
+      <c r="O69" s="212"/>
+      <c r="P69" s="213"/>
       <c r="Q69" s="1" t="str">
         <f t="shared" ca="1" si="146"/>
         <v/>
@@ -9275,15 +9275,15 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A70" s="283" t="s">
+      <c r="A70" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="284"/>
+      <c r="B70" s="208"/>
       <c r="C70" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="285"/>
-      <c r="E70" s="284"/>
+      <c r="D70" s="209"/>
+      <c r="E70" s="208"/>
       <c r="F70" s="52"/>
       <c r="G70" s="117"/>
       <c r="H70" s="55" t="s">
@@ -9291,15 +9291,15 @@
       </c>
       <c r="I70" s="115"/>
       <c r="J70" s="116"/>
-      <c r="K70" s="286">
+      <c r="K70" s="210">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L70" s="287"/>
+      <c r="L70" s="211"/>
       <c r="M70" s="99"/>
-      <c r="N70" s="288"/>
-      <c r="O70" s="288"/>
-      <c r="P70" s="289"/>
+      <c r="N70" s="212"/>
+      <c r="O70" s="212"/>
+      <c r="P70" s="213"/>
       <c r="Q70" s="1" t="str">
         <f t="shared" ca="1" si="146"/>
         <v/>
@@ -9341,15 +9341,15 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A71" s="283" t="s">
+      <c r="A71" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="284"/>
+      <c r="B71" s="208"/>
       <c r="C71" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="285"/>
-      <c r="E71" s="284"/>
+      <c r="D71" s="209"/>
+      <c r="E71" s="208"/>
       <c r="F71" s="52"/>
       <c r="G71" s="117"/>
       <c r="H71" s="55" t="s">
@@ -9357,15 +9357,15 @@
       </c>
       <c r="I71" s="115"/>
       <c r="J71" s="116"/>
-      <c r="K71" s="286">
+      <c r="K71" s="210">
         <f t="shared" ref="K71:K72" si="155">IFERROR(ROUNDDOWN(G71*ROUNDDOWN(I71,4)*J71,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L71" s="287"/>
+      <c r="L71" s="211"/>
       <c r="M71" s="99"/>
-      <c r="N71" s="288"/>
-      <c r="O71" s="288"/>
-      <c r="P71" s="289"/>
+      <c r="N71" s="212"/>
+      <c r="O71" s="212"/>
+      <c r="P71" s="213"/>
       <c r="Q71" s="1" t="str">
         <f t="shared" ref="Q71:Q72" ca="1" si="156">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
         <v/>
@@ -9407,15 +9407,15 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A72" s="283" t="s">
+      <c r="A72" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="284"/>
+      <c r="B72" s="208"/>
       <c r="C72" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="285"/>
-      <c r="E72" s="284"/>
+      <c r="D72" s="209"/>
+      <c r="E72" s="208"/>
       <c r="F72" s="52"/>
       <c r="G72" s="117"/>
       <c r="H72" s="55" t="s">
@@ -9423,15 +9423,15 @@
       </c>
       <c r="I72" s="115"/>
       <c r="J72" s="116"/>
-      <c r="K72" s="286">
+      <c r="K72" s="210">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="L72" s="287"/>
+      <c r="L72" s="211"/>
       <c r="M72" s="99"/>
-      <c r="N72" s="288"/>
-      <c r="O72" s="288"/>
-      <c r="P72" s="289"/>
+      <c r="N72" s="212"/>
+      <c r="O72" s="212"/>
+      <c r="P72" s="213"/>
       <c r="Q72" s="1" t="str">
         <f t="shared" ca="1" si="156"/>
         <v/>
@@ -9473,15 +9473,15 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A73" s="283" t="s">
+      <c r="A73" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="284"/>
+      <c r="B73" s="208"/>
       <c r="C73" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="285"/>
-      <c r="E73" s="284"/>
+      <c r="D73" s="209"/>
+      <c r="E73" s="208"/>
       <c r="F73" s="52"/>
       <c r="G73" s="117"/>
       <c r="H73" s="55" t="s">
@@ -9489,15 +9489,15 @@
       </c>
       <c r="I73" s="115"/>
       <c r="J73" s="116"/>
-      <c r="K73" s="286">
+      <c r="K73" s="210">
         <f t="shared" ref="K73" si="165">IFERROR(ROUNDDOWN(G73*ROUNDDOWN(I73,4)*J73,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L73" s="287"/>
+      <c r="L73" s="211"/>
       <c r="M73" s="99"/>
-      <c r="N73" s="288"/>
-      <c r="O73" s="288"/>
-      <c r="P73" s="289"/>
+      <c r="N73" s="212"/>
+      <c r="O73" s="212"/>
+      <c r="P73" s="213"/>
       <c r="Q73" s="1" t="str">
         <f t="shared" ref="Q73" ca="1" si="166">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
         <v/>
@@ -9539,11 +9539,11 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A74" s="248"/>
-      <c r="B74" s="249"/>
+      <c r="A74" s="307"/>
+      <c r="B74" s="308"/>
       <c r="C74" s="123"/>
-      <c r="D74" s="250"/>
-      <c r="E74" s="249"/>
+      <c r="D74" s="309"/>
+      <c r="E74" s="308"/>
       <c r="F74" s="124"/>
       <c r="G74" s="125"/>
       <c r="H74" s="126" t="s">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="I74" s="127"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="251">
+      <c r="K74" s="310">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L74" s="252"/>
+      <c r="L74" s="311"/>
       <c r="M74" s="199"/>
-      <c r="N74" s="253"/>
-      <c r="O74" s="253"/>
-      <c r="P74" s="254"/>
+      <c r="N74" s="312"/>
+      <c r="O74" s="312"/>
+      <c r="P74" s="313"/>
       <c r="Q74" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -9601,11 +9601,11 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A75" s="255"/>
-      <c r="B75" s="256"/>
+      <c r="A75" s="314"/>
+      <c r="B75" s="315"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="257"/>
-      <c r="E75" s="258"/>
+      <c r="D75" s="316"/>
+      <c r="E75" s="317"/>
       <c r="F75" s="205"/>
       <c r="G75" s="119"/>
       <c r="H75" s="120" t="s">
@@ -9613,15 +9613,15 @@
       </c>
       <c r="I75" s="121"/>
       <c r="J75" s="122"/>
-      <c r="K75" s="259">
+      <c r="K75" s="318">
         <f t="shared" ref="K75:K76" si="179">IFERROR(ROUNDDOWN(G75*IF(AND(LEFT(A75,4)="401:",LEFT(C75,2)="1:",F75&lt;&gt;""),IF(D75&lt;&gt;0&amp;G75&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F75*retailprice,4),""),IF(AND(LEFT(A75,5)="1224:",LEFT(C75,2)="3:",F75&lt;&gt;""),ROUNDDOWN(F75*tariff_total,4),ROUNDDOWN(I75,4)))*J75,2),"")</f>
         <v>0</v>
       </c>
-      <c r="L75" s="260"/>
+      <c r="L75" s="319"/>
       <c r="M75" s="200"/>
-      <c r="N75" s="261"/>
-      <c r="O75" s="262"/>
-      <c r="P75" s="263"/>
+      <c r="N75" s="229"/>
+      <c r="O75" s="230"/>
+      <c r="P75" s="231"/>
       <c r="Q75" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -9663,11 +9663,11 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A76" s="272"/>
-      <c r="B76" s="273"/>
+      <c r="A76" s="328"/>
+      <c r="B76" s="329"/>
       <c r="C76" s="198"/>
-      <c r="D76" s="274"/>
-      <c r="E76" s="275"/>
+      <c r="D76" s="330"/>
+      <c r="E76" s="331"/>
       <c r="F76" s="206"/>
       <c r="G76" s="94"/>
       <c r="H76" s="88" t="s">
@@ -9675,15 +9675,15 @@
       </c>
       <c r="I76" s="92"/>
       <c r="J76" s="106"/>
-      <c r="K76" s="276">
+      <c r="K76" s="332">
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="L76" s="277"/>
+      <c r="L76" s="333"/>
       <c r="M76" s="107"/>
-      <c r="N76" s="278"/>
-      <c r="O76" s="279"/>
-      <c r="P76" s="280"/>
+      <c r="N76" s="334"/>
+      <c r="O76" s="335"/>
+      <c r="P76" s="336"/>
       <c r="Q76" s="1" t="str">
         <f t="shared" ca="1" si="116"/>
         <v/>
@@ -9738,48 +9738,48 @@
       <c r="K77" s="87"/>
       <c r="L77" s="87"/>
       <c r="M77" s="13"/>
-      <c r="N77" s="234"/>
-      <c r="O77" s="234"/>
-      <c r="P77" s="281"/>
+      <c r="N77" s="337"/>
+      <c r="O77" s="337"/>
+      <c r="P77" s="338"/>
     </row>
     <row r="78" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A78" s="282" t="s">
+      <c r="A78" s="339" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="266"/>
+      <c r="B78" s="322"/>
       <c r="C78" s="170">
         <f>I28</f>
         <v>0</v>
       </c>
       <c r="D78" s="167"/>
-      <c r="E78" s="264" t="s">
+      <c r="E78" s="320" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="265"/>
-      <c r="G78" s="266"/>
-      <c r="H78" s="267">
+      <c r="F78" s="321"/>
+      <c r="G78" s="322"/>
+      <c r="H78" s="323">
         <f>I33</f>
         <v>0</v>
       </c>
-      <c r="I78" s="268"/>
+      <c r="I78" s="324"/>
       <c r="J78" s="171"/>
       <c r="K78" s="108"/>
-      <c r="L78" s="269" t="s">
+      <c r="L78" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="M78" s="270"/>
-      <c r="N78" s="271">
+      <c r="M78" s="326"/>
+      <c r="N78" s="327">
         <f>C78+H78</f>
         <v>0</v>
       </c>
-      <c r="O78" s="268"/>
+      <c r="O78" s="324"/>
       <c r="P78" s="168"/>
     </row>
     <row r="79" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A79" s="216" t="s">
+      <c r="A79" s="369" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="217"/>
+      <c r="B79" s="370"/>
       <c r="C79" s="172">
         <f>C78-K84</f>
         <v>0</v>
@@ -9788,30 +9788,30 @@
         <f>IF(C78=0,0,C79/C78)</f>
         <v>0</v>
       </c>
-      <c r="E79" s="218" t="s">
+      <c r="E79" s="371" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="219"/>
-      <c r="G79" s="220"/>
-      <c r="H79" s="221">
+      <c r="F79" s="372"/>
+      <c r="G79" s="373"/>
+      <c r="H79" s="374">
         <f>H78-N49</f>
         <v>0</v>
       </c>
-      <c r="I79" s="222"/>
+      <c r="I79" s="375"/>
       <c r="J79" s="174"/>
       <c r="K79" s="173">
         <f>IF(H78=0,0,H79/H78)</f>
         <v>0</v>
       </c>
-      <c r="L79" s="218" t="s">
+      <c r="L79" s="371" t="s">
         <v>45</v>
       </c>
-      <c r="M79" s="220"/>
-      <c r="N79" s="223">
+      <c r="M79" s="373"/>
+      <c r="N79" s="376">
         <f>C79+H79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="222"/>
+      <c r="O79" s="375"/>
       <c r="P79" s="175">
         <f>IF(N78=0,0,N79/N78)</f>
         <v>0</v>
@@ -9828,16 +9828,16 @@
       <c r="H80" s="176"/>
       <c r="I80" s="176"/>
       <c r="J80" s="177"/>
-      <c r="K80" s="224" t="s">
+      <c r="K80" s="377" t="s">
         <v>42</v>
       </c>
-      <c r="L80" s="225"/>
-      <c r="M80" s="226"/>
-      <c r="N80" s="227">
+      <c r="L80" s="378"/>
+      <c r="M80" s="379"/>
+      <c r="N80" s="348">
         <f>ROUNDDOWN((N78*P80),0)</f>
         <v>0</v>
       </c>
-      <c r="O80" s="228"/>
+      <c r="O80" s="349"/>
       <c r="P80" s="178">
         <v>6.08E-2</v>
       </c>
@@ -9853,32 +9853,32 @@
       <c r="H81" s="179"/>
       <c r="I81" s="180"/>
       <c r="J81" s="181"/>
-      <c r="K81" s="207" t="s">
+      <c r="K81" s="357" t="s">
         <v>44</v>
       </c>
-      <c r="L81" s="208"/>
-      <c r="M81" s="209"/>
-      <c r="N81" s="210">
+      <c r="L81" s="364"/>
+      <c r="M81" s="358"/>
+      <c r="N81" s="355">
         <f>N79-N80</f>
         <v>0</v>
       </c>
-      <c r="O81" s="211"/>
+      <c r="O81" s="356"/>
       <c r="P81" s="182">
         <f>IF(N78=0,0,N81/N78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A82" s="212" t="s">
+      <c r="A82" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="213"/>
-      <c r="C82" s="214" t="s">
+      <c r="B82" s="366"/>
+      <c r="C82" s="367" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="214"/>
-      <c r="E82" s="214"/>
-      <c r="F82" s="214"/>
+      <c r="D82" s="367"/>
+      <c r="E82" s="367"/>
+      <c r="F82" s="367"/>
       <c r="G82" s="183">
         <f>$P$4</f>
         <v>0</v>
@@ -9889,27 +9889,27 @@
         <v>0</v>
       </c>
       <c r="J82" s="185"/>
-      <c r="K82" s="215">
+      <c r="K82" s="368">
         <f>SUMIF(F52:F76,"&lt;&gt;"&amp;hdn_payoff_circle,K52:K76)</f>
         <v>0</v>
       </c>
-      <c r="L82" s="215"/>
+      <c r="L82" s="368"/>
       <c r="M82" s="186"/>
-      <c r="N82" s="214"/>
-      <c r="O82" s="214"/>
+      <c r="N82" s="367"/>
+      <c r="O82" s="367"/>
       <c r="P82" s="187"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A83" s="235" t="s">
+      <c r="A83" s="345" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="236"/>
-      <c r="C83" s="237" t="s">
+      <c r="B83" s="346"/>
+      <c r="C83" s="347" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="237"/>
-      <c r="E83" s="237"/>
-      <c r="F83" s="237"/>
+      <c r="D83" s="347"/>
+      <c r="E83" s="347"/>
+      <c r="F83" s="347"/>
       <c r="G83" s="188">
         <f>$P$4</f>
         <v>0</v>
@@ -9920,27 +9920,27 @@
         <v>0</v>
       </c>
       <c r="J83" s="191"/>
-      <c r="K83" s="227">
+      <c r="K83" s="348">
         <f>SUMIF(F36:F76,hdn_payoff_circle,K36:K76)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="228"/>
+      <c r="L83" s="349"/>
       <c r="M83" s="192"/>
-      <c r="N83" s="238"/>
-      <c r="O83" s="239"/>
+      <c r="N83" s="350"/>
+      <c r="O83" s="351"/>
       <c r="P83" s="193"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="240" t="s">
+      <c r="A84" s="352" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="241"/>
-      <c r="C84" s="242" t="s">
+      <c r="B84" s="353"/>
+      <c r="C84" s="354" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="242"/>
-      <c r="E84" s="242"/>
-      <c r="F84" s="242"/>
+      <c r="D84" s="354"/>
+      <c r="E84" s="354"/>
+      <c r="F84" s="354"/>
       <c r="G84" s="194">
         <f>$P$4</f>
         <v>0</v>
@@ -9951,60 +9951,60 @@
         <v>0</v>
       </c>
       <c r="J84" s="197"/>
-      <c r="K84" s="210">
+      <c r="K84" s="355">
         <f>SUM(K82:K83)</f>
         <v>0</v>
       </c>
-      <c r="L84" s="211"/>
-      <c r="M84" s="207" t="s">
+      <c r="L84" s="356"/>
+      <c r="M84" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="N84" s="209"/>
-      <c r="O84" s="243">
+      <c r="N84" s="358"/>
+      <c r="O84" s="359">
         <f>N49</f>
         <v>0</v>
       </c>
-      <c r="P84" s="244"/>
+      <c r="P84" s="360"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A85" s="232"/>
-      <c r="B85" s="232"/>
-      <c r="C85" s="232"/>
-      <c r="D85" s="232"/>
-      <c r="E85" s="232"/>
-      <c r="F85" s="232"/>
-      <c r="G85" s="232"/>
+      <c r="A85" s="343"/>
+      <c r="B85" s="343"/>
+      <c r="C85" s="343"/>
+      <c r="D85" s="343"/>
+      <c r="E85" s="343"/>
+      <c r="F85" s="343"/>
+      <c r="G85" s="343"/>
       <c r="H85" s="89"/>
-      <c r="I85" s="233" t="s">
+      <c r="I85" s="344" t="s">
         <v>80</v>
       </c>
-      <c r="J85" s="233"/>
-      <c r="K85" s="233"/>
-      <c r="L85" s="233"/>
-      <c r="M85" s="233"/>
-      <c r="N85" s="233"/>
-      <c r="O85" s="233"/>
-      <c r="P85" s="233"/>
-    </row>
-    <row r="86" spans="1:25" ht="9" customHeight="1">
-      <c r="A86" s="234" t="s">
+      <c r="J85" s="344"/>
+      <c r="K85" s="344"/>
+      <c r="L85" s="344"/>
+      <c r="M85" s="344"/>
+      <c r="N85" s="344"/>
+      <c r="O85" s="344"/>
+      <c r="P85" s="344"/>
+    </row>
+    <row r="86" spans="1:25" ht="9" hidden="1" customHeight="1">
+      <c r="A86" s="337" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="234"/>
-      <c r="C86" s="234"/>
-      <c r="D86" s="234"/>
-      <c r="E86" s="234"/>
-      <c r="F86" s="234"/>
-      <c r="G86" s="234"/>
-      <c r="H86" s="234"/>
-      <c r="I86" s="234"/>
-      <c r="J86" s="234"/>
-      <c r="K86" s="234"/>
-      <c r="L86" s="234"/>
-      <c r="M86" s="234"/>
-      <c r="N86" s="234"/>
-      <c r="O86" s="234"/>
-      <c r="P86" s="234"/>
+      <c r="B86" s="337"/>
+      <c r="C86" s="337"/>
+      <c r="D86" s="337"/>
+      <c r="E86" s="337"/>
+      <c r="F86" s="337"/>
+      <c r="G86" s="337"/>
+      <c r="H86" s="337"/>
+      <c r="I86" s="337"/>
+      <c r="J86" s="337"/>
+      <c r="K86" s="337"/>
+      <c r="L86" s="337"/>
+      <c r="M86" s="337"/>
+      <c r="N86" s="337"/>
+      <c r="O86" s="337"/>
+      <c r="P86" s="337"/>
       <c r="Q86" s="129"/>
       <c r="R86" s="129"/>
       <c r="S86" s="129"/>
@@ -10015,7 +10015,7 @@
       <c r="X86" s="129"/>
       <c r="Y86" s="129"/>
     </row>
-    <row r="87" spans="1:25" ht="32.4">
+    <row r="87" spans="1:25" ht="32.4" hidden="1">
       <c r="A87" s="98"/>
       <c r="B87" s="202">
         <f>ROW(pulldown_company)-ROW(pulldown_level2)</f>
@@ -10048,7 +10048,7 @@
       <c r="X87" s="129"/>
       <c r="Y87" s="129"/>
     </row>
-    <row r="88" spans="1:25" ht="13.95" customHeight="1">
+    <row r="88" spans="1:25" ht="13.95" hidden="1" customHeight="1">
       <c r="A88" s="158"/>
       <c r="B88" s="202">
         <f>COUNTIF(169:169,"*:*")</f>
@@ -10079,7 +10079,7 @@
       <c r="X88" s="158"/>
       <c r="Y88" s="158"/>
     </row>
-    <row r="89" spans="1:25" ht="21.6">
+    <row r="89" spans="1:25" ht="21.6" hidden="1">
       <c r="A89" s="98"/>
       <c r="B89" s="202">
         <f>ROW(pulldown_dept_member)-ROW(pulldown_company)-1</f>
@@ -10110,7 +10110,7 @@
       <c r="X89" s="129"/>
       <c r="Y89" s="129"/>
     </row>
-    <row r="90" spans="1:25" ht="13.95" customHeight="1">
+    <row r="90" spans="1:25" ht="13.95" hidden="1" customHeight="1">
       <c r="A90" s="98"/>
       <c r="B90" s="203">
         <f>SUM(K52:L74)+order_f_fixedcost</f>
@@ -10138,7 +10138,7 @@
       <c r="O90" s="98"/>
       <c r="P90" s="98"/>
     </row>
-    <row r="91" spans="1:25" ht="13.95" customHeight="1">
+    <row r="91" spans="1:25" ht="13.95" hidden="1" customHeight="1">
       <c r="A91" s="98"/>
       <c r="B91" s="202">
         <v>4</v>
@@ -10160,7 +10160,7 @@
       <c r="O91" s="98"/>
       <c r="P91" s="98"/>
     </row>
-    <row r="92" spans="1:25" ht="9" customHeight="1">
+    <row r="92" spans="1:25" ht="9" hidden="1" customHeight="1">
       <c r="A92" s="129"/>
       <c r="B92" s="145"/>
       <c r="C92" s="146"/>
@@ -10178,7 +10178,7 @@
       <c r="O92" s="129"/>
       <c r="P92" s="129"/>
     </row>
-    <row r="93" spans="1:25" ht="14.1" customHeight="1">
+    <row r="93" spans="1:25" ht="14.1" hidden="1" customHeight="1">
       <c r="A93" s="149" t="s">
         <v>109</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" s="149" t="s">
         <v>102</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:25" s="18" customFormat="1" ht="32.4">
+    <row r="95" spans="1:25" s="18" customFormat="1" ht="32.4" hidden="1">
       <c r="A95" s="150" t="s">
         <v>106</v>
       </c>
@@ -10220,8 +10220,8 @@
       <c r="R95" s="153"/>
       <c r="X95" s="36"/>
     </row>
-    <row r="96" spans="1:25" s="18" customFormat="1">
-      <c r="A96" s="245" t="s">
+    <row r="96" spans="1:25" s="18" customFormat="1" hidden="1">
+      <c r="A96" s="361" t="s">
         <v>107</v>
       </c>
       <c r="B96" s="17"/>
@@ -10242,8 +10242,8 @@
       <c r="Q96" s="14"/>
       <c r="U96" s="130"/>
     </row>
-    <row r="97" spans="1:21" s="18" customFormat="1">
-      <c r="A97" s="246"/>
+    <row r="97" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A97" s="362"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -10264,8 +10264,8 @@
       </c>
       <c r="U97" s="130"/>
     </row>
-    <row r="98" spans="1:21" s="18" customFormat="1">
-      <c r="A98" s="246"/>
+    <row r="98" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A98" s="362"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -10286,8 +10286,8 @@
       </c>
       <c r="R98" s="20"/>
     </row>
-    <row r="99" spans="1:21" s="18" customFormat="1">
-      <c r="A99" s="246"/>
+    <row r="99" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A99" s="362"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -10308,8 +10308,8 @@
       </c>
       <c r="R99" s="20"/>
     </row>
-    <row r="100" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A100" s="246"/>
+    <row r="100" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A100" s="362"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -10329,8 +10329,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A101" s="246"/>
+    <row r="101" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A101" s="362"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -10348,8 +10348,8 @@
       <c r="P101" s="19"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A102" s="246"/>
+    <row r="102" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A102" s="362"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -10367,8 +10367,8 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:21" s="18" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A103" s="246"/>
+    <row r="103" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+      <c r="A103" s="362"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -10386,8 +10386,8 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="14"/>
     </row>
-    <row r="104" spans="1:21" s="18" customFormat="1">
-      <c r="A104" s="246"/>
+    <row r="104" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A104" s="362"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -10405,8 +10405,8 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="1:21" s="18" customFormat="1">
-      <c r="A105" s="246"/>
+    <row r="105" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A105" s="362"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -10424,8 +10424,8 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="14"/>
     </row>
-    <row r="106" spans="1:21" s="18" customFormat="1">
-      <c r="A106" s="246"/>
+    <row r="106" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A106" s="362"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -10443,8 +10443,8 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="1:21" s="18" customFormat="1">
-      <c r="A107" s="246"/>
+    <row r="107" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A107" s="362"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -10462,8 +10462,8 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="1:21" s="18" customFormat="1">
-      <c r="A108" s="246"/>
+    <row r="108" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A108" s="362"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -10481,8 +10481,8 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="1:21" s="18" customFormat="1">
-      <c r="A109" s="246"/>
+    <row r="109" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A109" s="362"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -10500,8 +10500,8 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="1:21" s="18" customFormat="1">
-      <c r="A110" s="246"/>
+    <row r="110" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A110" s="362"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -10519,8 +10519,8 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="1:21" s="18" customFormat="1">
-      <c r="A111" s="246"/>
+    <row r="111" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A111" s="362"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -10538,8 +10538,8 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="1:21" s="18" customFormat="1">
-      <c r="A112" s="246"/>
+    <row r="112" spans="1:21" s="18" customFormat="1" hidden="1">
+      <c r="A112" s="362"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -10557,8 +10557,8 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="1:17" s="18" customFormat="1">
-      <c r="A113" s="246"/>
+    <row r="113" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A113" s="362"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -10576,8 +10576,8 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" s="18" customFormat="1">
-      <c r="A114" s="246"/>
+    <row r="114" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A114" s="362"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -10595,8 +10595,8 @@
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" s="18" customFormat="1">
-      <c r="A115" s="246"/>
+    <row r="115" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A115" s="362"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -10614,8 +10614,8 @@
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" s="18" customFormat="1">
-      <c r="A116" s="246"/>
+    <row r="116" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A116" s="362"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -10633,8 +10633,8 @@
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" s="18" customFormat="1">
-      <c r="A117" s="246"/>
+    <row r="117" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A117" s="362"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -10652,8 +10652,8 @@
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" s="18" customFormat="1">
-      <c r="A118" s="246"/>
+    <row r="118" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A118" s="362"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -10671,8 +10671,8 @@
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" s="18" customFormat="1">
-      <c r="A119" s="246"/>
+    <row r="119" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A119" s="362"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -10690,8 +10690,8 @@
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" s="18" customFormat="1">
-      <c r="A120" s="246"/>
+    <row r="120" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A120" s="362"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -10709,8 +10709,8 @@
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" s="18" customFormat="1">
-      <c r="A121" s="246"/>
+    <row r="121" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A121" s="362"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -10728,8 +10728,8 @@
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" s="18" customFormat="1">
-      <c r="A122" s="246"/>
+    <row r="122" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A122" s="362"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -10747,8 +10747,8 @@
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
     </row>
-    <row r="123" spans="1:17" s="18" customFormat="1">
-      <c r="A123" s="246"/>
+    <row r="123" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A123" s="362"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -10766,8 +10766,8 @@
       <c r="P123" s="17"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" s="18" customFormat="1">
-      <c r="A124" s="246"/>
+    <row r="124" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A124" s="362"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -10785,8 +10785,8 @@
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" s="18" customFormat="1">
-      <c r="A125" s="246"/>
+    <row r="125" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A125" s="362"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -10804,8 +10804,8 @@
       <c r="P125" s="17"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" s="18" customFormat="1">
-      <c r="A126" s="247"/>
+    <row r="126" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A126" s="363"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -10823,8 +10823,8 @@
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" s="18" customFormat="1">
-      <c r="A127" s="229" t="s">
+    <row r="127" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A127" s="340" t="s">
         <v>108</v>
       </c>
       <c r="B127" s="17"/>
@@ -10844,8 +10844,8 @@
       <c r="P127" s="17"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" s="18" customFormat="1">
-      <c r="A128" s="230"/>
+    <row r="128" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A128" s="341"/>
       <c r="B128" s="138"/>
       <c r="C128" s="138"/>
       <c r="D128" s="138"/>
@@ -10863,8 +10863,8 @@
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" s="18" customFormat="1">
-      <c r="A129" s="230"/>
+    <row r="129" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A129" s="341"/>
       <c r="B129" s="138"/>
       <c r="C129" s="138"/>
       <c r="D129" s="138"/>
@@ -10882,8 +10882,8 @@
       <c r="P129" s="17"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="18" customFormat="1">
-      <c r="A130" s="230"/>
+    <row r="130" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A130" s="341"/>
       <c r="B130" s="138"/>
       <c r="C130" s="138"/>
       <c r="D130" s="138"/>
@@ -10901,8 +10901,8 @@
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
     </row>
-    <row r="131" spans="1:17" s="18" customFormat="1">
-      <c r="A131" s="230"/>
+    <row r="131" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A131" s="341"/>
       <c r="B131" s="138"/>
       <c r="C131" s="138"/>
       <c r="D131" s="138"/>
@@ -10920,8 +10920,8 @@
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
     </row>
-    <row r="132" spans="1:17" s="18" customFormat="1">
-      <c r="A132" s="230"/>
+    <row r="132" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A132" s="341"/>
       <c r="B132" s="138"/>
       <c r="C132" s="138"/>
       <c r="D132" s="138"/>
@@ -10939,8 +10939,8 @@
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" s="18" customFormat="1">
-      <c r="A133" s="230"/>
+    <row r="133" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A133" s="341"/>
       <c r="B133" s="138"/>
       <c r="C133" s="138"/>
       <c r="D133" s="138"/>
@@ -10958,8 +10958,8 @@
       <c r="P133" s="17"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" s="18" customFormat="1">
-      <c r="A134" s="230"/>
+    <row r="134" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A134" s="341"/>
       <c r="B134" s="138"/>
       <c r="C134" s="138"/>
       <c r="D134" s="138"/>
@@ -10977,8 +10977,8 @@
       <c r="P134" s="17"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" s="18" customFormat="1">
-      <c r="A135" s="230"/>
+    <row r="135" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A135" s="341"/>
       <c r="B135" s="138"/>
       <c r="C135" s="138"/>
       <c r="D135" s="138"/>
@@ -10996,8 +10996,8 @@
       <c r="P135" s="17"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" s="18" customFormat="1">
-      <c r="A136" s="230"/>
+    <row r="136" spans="1:17" s="18" customFormat="1" hidden="1">
+      <c r="A136" s="341"/>
       <c r="B136" s="138"/>
       <c r="C136" s="138"/>
       <c r="D136" s="138"/>
@@ -11015,8 +11015,8 @@
       <c r="P136" s="17"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A137" s="230"/>
+    <row r="137" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A137" s="341"/>
       <c r="B137" s="138"/>
       <c r="C137" s="138"/>
       <c r="D137" s="138"/>
@@ -11034,8 +11034,8 @@
       <c r="P137" s="17"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A138" s="230"/>
+    <row r="138" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A138" s="341"/>
       <c r="B138" s="138"/>
       <c r="C138" s="138"/>
       <c r="D138" s="138"/>
@@ -11053,8 +11053,8 @@
       <c r="P138" s="17"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A139" s="230"/>
+    <row r="139" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A139" s="341"/>
       <c r="B139" s="138"/>
       <c r="C139" s="138"/>
       <c r="D139" s="138"/>
@@ -11072,8 +11072,8 @@
       <c r="P139" s="17"/>
       <c r="Q139" s="17"/>
     </row>
-    <row r="140" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A140" s="230"/>
+    <row r="140" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A140" s="341"/>
       <c r="B140" s="138"/>
       <c r="C140" s="138"/>
       <c r="D140" s="138"/>
@@ -11091,8 +11091,8 @@
       <c r="P140" s="17"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A141" s="230"/>
+    <row r="141" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A141" s="341"/>
       <c r="B141" s="138"/>
       <c r="C141" s="138"/>
       <c r="D141" s="138"/>
@@ -11110,8 +11110,8 @@
       <c r="P141" s="17"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A142" s="230"/>
+    <row r="142" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A142" s="341"/>
       <c r="B142" s="138"/>
       <c r="C142" s="138"/>
       <c r="D142" s="138"/>
@@ -11129,8 +11129,8 @@
       <c r="P142" s="17"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A143" s="230"/>
+    <row r="143" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A143" s="341"/>
       <c r="B143" s="138"/>
       <c r="C143" s="138"/>
       <c r="D143" s="138"/>
@@ -11148,8 +11148,8 @@
       <c r="P143" s="17"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" s="18" customFormat="1" ht="13.2">
-      <c r="A144" s="230"/>
+    <row r="144" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A144" s="341"/>
       <c r="B144" s="138"/>
       <c r="C144" s="138"/>
       <c r="D144" s="138"/>
@@ -11167,8 +11167,8 @@
       <c r="P144" s="17"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:20" s="18" customFormat="1">
-      <c r="A145" s="230"/>
+    <row r="145" spans="1:20" s="18" customFormat="1" hidden="1">
+      <c r="A145" s="341"/>
       <c r="B145" s="138"/>
       <c r="C145" s="138"/>
       <c r="D145" s="138"/>
@@ -11186,8 +11186,8 @@
       <c r="P145" s="17"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:20" s="18" customFormat="1">
-      <c r="A146" s="230"/>
+    <row r="146" spans="1:20" s="18" customFormat="1" hidden="1">
+      <c r="A146" s="341"/>
       <c r="B146" s="138"/>
       <c r="C146" s="138"/>
       <c r="D146" s="138"/>
@@ -11205,8 +11205,8 @@
       <c r="P146" s="17"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:20" s="18" customFormat="1">
-      <c r="A147" s="230"/>
+    <row r="147" spans="1:20" s="18" customFormat="1" hidden="1">
+      <c r="A147" s="341"/>
       <c r="B147" s="138"/>
       <c r="C147" s="138"/>
       <c r="D147" s="138"/>
@@ -11224,8 +11224,8 @@
       <c r="P147" s="17"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A148" s="230"/>
+    <row r="148" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A148" s="341"/>
       <c r="B148" s="138"/>
       <c r="C148" s="138"/>
       <c r="D148" s="138"/>
@@ -11243,8 +11243,8 @@
       <c r="P148" s="17"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A149" s="230"/>
+    <row r="149" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A149" s="341"/>
       <c r="B149" s="138"/>
       <c r="C149" s="138"/>
       <c r="D149" s="138"/>
@@ -11265,8 +11265,8 @@
       <c r="S149" s="133"/>
       <c r="T149" s="133"/>
     </row>
-    <row r="150" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A150" s="230"/>
+    <row r="150" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A150" s="341"/>
       <c r="B150" s="138"/>
       <c r="C150" s="138"/>
       <c r="D150" s="138"/>
@@ -11287,8 +11287,8 @@
       <c r="S150" s="133"/>
       <c r="T150" s="133"/>
     </row>
-    <row r="151" spans="1:20" s="18" customFormat="1" ht="13.2">
-      <c r="A151" s="230"/>
+    <row r="151" spans="1:20" s="18" customFormat="1" ht="13.2" hidden="1">
+      <c r="A151" s="341"/>
       <c r="B151" s="138"/>
       <c r="C151" s="138"/>
       <c r="D151" s="138"/>
@@ -11309,8 +11309,8 @@
       <c r="S151" s="133"/>
       <c r="T151" s="133"/>
     </row>
-    <row r="152" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A152" s="230"/>
+    <row r="152" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A152" s="341"/>
       <c r="B152" s="138"/>
       <c r="C152" s="138"/>
       <c r="D152" s="138"/>
@@ -11331,8 +11331,8 @@
       <c r="S152" s="133"/>
       <c r="T152" s="133"/>
     </row>
-    <row r="153" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A153" s="230"/>
+    <row r="153" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A153" s="341"/>
       <c r="B153" s="138"/>
       <c r="C153" s="138"/>
       <c r="D153" s="138"/>
@@ -11353,8 +11353,8 @@
       <c r="S153" s="133"/>
       <c r="T153" s="133"/>
     </row>
-    <row r="154" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A154" s="230"/>
+    <row r="154" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A154" s="341"/>
       <c r="B154" s="138"/>
       <c r="C154" s="138"/>
       <c r="D154" s="138"/>
@@ -11375,8 +11375,8 @@
       <c r="S154" s="133"/>
       <c r="T154" s="133"/>
     </row>
-    <row r="155" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A155" s="230"/>
+    <row r="155" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A155" s="341"/>
       <c r="B155" s="138"/>
       <c r="C155" s="138"/>
       <c r="D155" s="138"/>
@@ -11397,8 +11397,8 @@
       <c r="S155" s="133"/>
       <c r="T155" s="133"/>
     </row>
-    <row r="156" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A156" s="230"/>
+    <row r="156" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A156" s="341"/>
       <c r="B156" s="138"/>
       <c r="C156" s="138"/>
       <c r="D156" s="138"/>
@@ -11419,8 +11419,8 @@
       <c r="S156" s="133"/>
       <c r="T156" s="133"/>
     </row>
-    <row r="157" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A157" s="230"/>
+    <row r="157" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A157" s="341"/>
       <c r="B157" s="138"/>
       <c r="C157" s="138"/>
       <c r="D157" s="138"/>
@@ -11441,8 +11441,8 @@
       <c r="S157" s="133"/>
       <c r="T157" s="133"/>
     </row>
-    <row r="158" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A158" s="230"/>
+    <row r="158" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A158" s="341"/>
       <c r="B158" s="138"/>
       <c r="C158" s="157"/>
       <c r="D158" s="157"/>
@@ -11463,8 +11463,8 @@
       <c r="S158" s="133"/>
       <c r="T158" s="133"/>
     </row>
-    <row r="159" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A159" s="230"/>
+    <row r="159" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A159" s="341"/>
       <c r="B159" s="138"/>
       <c r="C159" s="157"/>
       <c r="D159" s="157"/>
@@ -11485,8 +11485,8 @@
       <c r="S159" s="133"/>
       <c r="T159" s="133"/>
     </row>
-    <row r="160" spans="1:20" s="18" customFormat="1" ht="12">
-      <c r="A160" s="230"/>
+    <row r="160" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A160" s="341"/>
       <c r="B160" s="138"/>
       <c r="C160" s="157"/>
       <c r="D160" s="157"/>
@@ -11507,8 +11507,8 @@
       <c r="S160" s="133"/>
       <c r="T160" s="133"/>
     </row>
-    <row r="161" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A161" s="230"/>
+    <row r="161" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A161" s="341"/>
       <c r="B161" s="138"/>
       <c r="C161" s="157"/>
       <c r="D161" s="157"/>
@@ -11529,8 +11529,8 @@
       <c r="S161" s="133"/>
       <c r="T161" s="133"/>
     </row>
-    <row r="162" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A162" s="230"/>
+    <row r="162" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A162" s="341"/>
       <c r="B162" s="138"/>
       <c r="C162" s="157"/>
       <c r="D162" s="157"/>
@@ -11551,8 +11551,8 @@
       <c r="S162" s="133"/>
       <c r="T162" s="133"/>
     </row>
-    <row r="163" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A163" s="230"/>
+    <row r="163" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A163" s="341"/>
       <c r="B163" s="138"/>
       <c r="C163" s="157"/>
       <c r="D163" s="157"/>
@@ -11573,8 +11573,8 @@
       <c r="S163" s="133"/>
       <c r="T163" s="133"/>
     </row>
-    <row r="164" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A164" s="230"/>
+    <row r="164" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A164" s="341"/>
       <c r="B164" s="138"/>
       <c r="C164" s="157"/>
       <c r="D164" s="157"/>
@@ -11595,8 +11595,8 @@
       <c r="S164" s="133"/>
       <c r="T164" s="133"/>
     </row>
-    <row r="165" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A165" s="230"/>
+    <row r="165" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A165" s="341"/>
       <c r="B165" s="138"/>
       <c r="C165" s="157"/>
       <c r="D165" s="157"/>
@@ -11617,8 +11617,8 @@
       <c r="S165" s="133"/>
       <c r="T165" s="133"/>
     </row>
-    <row r="166" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A166" s="230"/>
+    <row r="166" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A166" s="341"/>
       <c r="B166" s="138"/>
       <c r="C166" s="157"/>
       <c r="D166" s="157"/>
@@ -11639,8 +11639,8 @@
       <c r="S166" s="133"/>
       <c r="T166" s="133"/>
     </row>
-    <row r="167" spans="1:27" s="18" customFormat="1" ht="12">
-      <c r="A167" s="231"/>
+    <row r="167" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
+      <c r="A167" s="342"/>
       <c r="B167" s="138"/>
       <c r="C167" s="157"/>
       <c r="D167" s="157"/>
@@ -11661,7 +11661,7 @@
       <c r="S167" s="133"/>
       <c r="T167" s="133"/>
     </row>
-    <row r="168" spans="1:27" s="18" customFormat="1" ht="13.2">
+    <row r="168" spans="1:27" s="18" customFormat="1" ht="13.2" hidden="1">
       <c r="A168" s="147" t="s">
         <v>88</v>
       </c>
@@ -11687,7 +11687,7 @@
       <c r="O168" s="133"/>
       <c r="P168" s="133"/>
     </row>
-    <row r="169" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="169" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A169" s="17"/>
       <c r="B169" s="17">
         <v>1</v>
@@ -11707,7 +11707,7 @@
       <c r="P169" s="133"/>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="170" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A170" s="17" t="s">
         <v>28</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="P170" s="133"/>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="171" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A171" s="17" t="s">
         <v>31</v>
       </c>
@@ -11753,7 +11753,7 @@
       <c r="P171" s="133"/>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="172" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A172" s="17" t="s">
         <v>55</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="P172" s="133"/>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="173" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="33"/>
@@ -11795,7 +11795,7 @@
       <c r="P173" s="133"/>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="174" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="35"/>
@@ -11814,7 +11814,7 @@
       <c r="P174" s="133"/>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:27" s="18" customFormat="1" ht="12">
+    <row r="175" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
       <c r="A175" s="17"/>
       <c r="B175" s="90"/>
       <c r="C175" s="32"/>
@@ -11834,7 +11834,7 @@
       <c r="Q175" s="1"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:27" ht="12">
+    <row r="176" spans="1:27" ht="12" hidden="1">
       <c r="A176" s="97"/>
       <c r="B176" s="91"/>
       <c r="C176" s="32"/>
@@ -11857,7 +11857,7 @@
       <c r="Z176" s="18"/>
       <c r="AA176" s="18"/>
     </row>
-    <row r="177" spans="1:16" ht="12">
+    <row r="177" spans="1:16" ht="12" hidden="1">
       <c r="A177" s="97"/>
       <c r="B177" s="34"/>
       <c r="C177" s="32"/>
@@ -11875,7 +11875,7 @@
       <c r="O177" s="136"/>
       <c r="P177" s="136"/>
     </row>
-    <row r="178" spans="1:16" ht="12">
+    <row r="178" spans="1:16" ht="12" hidden="1">
       <c r="A178" s="97"/>
       <c r="B178" s="35"/>
       <c r="C178" s="32"/>
@@ -11890,7 +11890,7 @@
       <c r="L178" s="29"/>
       <c r="M178" s="17"/>
     </row>
-    <row r="179" spans="1:16" ht="12">
+    <row r="179" spans="1:16" ht="12" hidden="1">
       <c r="A179" s="97"/>
       <c r="B179" s="91"/>
       <c r="C179" s="34"/>
@@ -11905,7 +11905,7 @@
       <c r="L179" s="29"/>
       <c r="M179" s="17"/>
     </row>
-    <row r="180" spans="1:16" ht="12">
+    <row r="180" spans="1:16" ht="12" hidden="1">
       <c r="A180" s="97"/>
       <c r="B180" s="91"/>
       <c r="C180" s="34"/>
@@ -11920,7 +11920,7 @@
       <c r="L180" s="29"/>
       <c r="M180" s="17"/>
     </row>
-    <row r="181" spans="1:16" ht="12">
+    <row r="181" spans="1:16" ht="12" hidden="1">
       <c r="A181" s="97"/>
       <c r="B181" s="91"/>
       <c r="C181" s="32"/>
@@ -11935,7 +11935,7 @@
       <c r="L181" s="17"/>
       <c r="M181" s="17"/>
     </row>
-    <row r="182" spans="1:16" ht="12">
+    <row r="182" spans="1:16" ht="12" hidden="1">
       <c r="A182" s="97"/>
       <c r="B182" s="91"/>
       <c r="C182" s="34"/>
@@ -11950,7 +11950,7 @@
       <c r="L182" s="17"/>
       <c r="M182" s="17"/>
     </row>
-    <row r="183" spans="1:16" ht="12">
+    <row r="183" spans="1:16" ht="12" hidden="1">
       <c r="A183" s="97"/>
       <c r="B183" s="34"/>
       <c r="C183" s="91"/>
@@ -11965,7 +11965,7 @@
       <c r="L183" s="97"/>
       <c r="M183" s="97"/>
     </row>
-    <row r="184" spans="1:16" ht="12">
+    <row r="184" spans="1:16" ht="12" hidden="1">
       <c r="A184" s="97"/>
       <c r="B184" s="34"/>
       <c r="C184" s="91"/>
@@ -11980,7 +11980,7 @@
       <c r="L184" s="97"/>
       <c r="M184" s="97"/>
     </row>
-    <row r="185" spans="1:16" ht="12">
+    <row r="185" spans="1:16" ht="12" hidden="1">
       <c r="A185" s="97"/>
       <c r="B185" s="91"/>
       <c r="C185" s="97"/>
@@ -12162,6 +12162,297 @@
     <sortCondition ref="H192:H194"/>
   </sortState>
   <mergeCells count="315">
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A127:A167"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="A96:A126"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="K62:L62"/>
@@ -12186,297 +12477,6 @@
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="N45:P45"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A127:A167"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="A96:A126"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:O80"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="14">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9EE848-72CE-49CD-8C13-08650F48E6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F21D05-B6D3-4F45-B326-7B7AE8E3E017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4269,456 +4269,71 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -4738,6 +4353,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4746,12 +4364,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4764,18 +4376,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="5" fontId="6" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4794,53 +4394,453 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5274,9 +5274,7 @@
   </sheetPr>
   <dimension ref="A1:AA213"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A53" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD185"/>
-    </sheetView>
+    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
@@ -5317,18 +5315,18 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="260" t="s">
+      <c r="E2" s="329" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5343,19 +5341,19 @@
       <c r="C3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="263"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="332"/>
       <c r="I3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="261"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="263"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="332"/>
       <c r="O3" s="83" t="s">
         <v>26</v>
       </c>
@@ -5365,24 +5363,24 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="265"/>
+      <c r="B4" s="333"/>
+      <c r="C4" s="334"/>
       <c r="D4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="266"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="269" t="s">
+      <c r="E4" s="335"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="270"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="271"/>
-      <c r="L4" s="269" t="s">
+      <c r="I4" s="339"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="338" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="270"/>
+      <c r="M4" s="339"/>
       <c r="N4" s="72"/>
       <c r="O4" s="79" t="s">
         <v>77</v>
@@ -5408,36 +5406,36 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="274"/>
+      <c r="A5" s="341"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="342"/>
+      <c r="P5" s="343"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="253"/>
+      <c r="B6" s="346"/>
       <c r="C6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="254" t="s">
+      <c r="D6" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="255"/>
-      <c r="F6" s="253"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="346"/>
       <c r="G6" s="61" t="s">
         <v>7</v>
       </c>
@@ -5450,18 +5448,18 @@
       <c r="J6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="256" t="s">
+      <c r="K6" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="257"/>
+      <c r="L6" s="350"/>
       <c r="M6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="249" t="s">
+      <c r="N6" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="251"/>
+      <c r="O6" s="352"/>
+      <c r="P6" s="353"/>
       <c r="Q6" s="149" t="s">
         <v>79</v>
       </c>
@@ -5494,1440 +5492,1440 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
+      <c r="A7" s="354"/>
+      <c r="B7" s="355"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
+      <c r="D7" s="356"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="358"/>
       <c r="G7" s="40"/>
       <c r="H7" s="46" t="s">
         <v>144</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="75"/>
-      <c r="K7" s="219">
-        <f t="shared" ref="K7:K26" si="0">IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="220"/>
+      <c r="K7" s="325">
+        <f>IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="326"/>
       <c r="M7" s="99"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="223"/>
+      <c r="N7" s="359"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="361"/>
       <c r="Q7" s="1" t="str">
-        <f t="shared" ref="Q7:Q27" ca="1" si="1">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q7:Q27" ca="1" si="0">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R7" s="1" t="str">
-        <f t="shared" ref="R7:R27" ca="1" si="2">IFERROR(VLOOKUP(D7,OFFSET(pulldown_company,0,U7+X7,Z7,1),1,FALSE),"")</f>
+        <f t="shared" ref="R7:R27" ca="1" si="1">IFERROR(VLOOKUP(D7,OFFSET(pulldown_company,0,U7+X7,Z7,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S7" s="1">
-        <f t="shared" ref="S7:S27" ca="1" si="3">IFERROR(VLOOKUP(H7,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S7:S27" ca="1" si="2">IFERROR(VLOOKUP(H7,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7:U27" ca="1" si="4">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U7:U27" ca="1" si="3">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" ref="V7:V27" ca="1" si="5">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V7:V27" ca="1" si="4">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" ref="W7:W26" ca="1" si="6">(V7-U7)+1</f>
+        <f t="shared" ref="W7:W26" ca="1" si="5">(V7-U7)+1</f>
         <v>1</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" ref="X7:X27" ca="1" si="7">IFERROR(MATCH(A7,OFFSET(pulldown_level1,0,U7,1,W7),0)-1,0)</f>
+        <f t="shared" ref="X7:X27" ca="1" si="6">IFERROR(MATCH(A7,OFFSET(pulldown_level1,0,U7,1,W7),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" ref="Y7:Y27" ca="1" si="8">IF(X7=0,1,COUNTA(OFFSET(pulldown_level2,0,U7+X7,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y7:Y27" ca="1" si="7">IF(X7=0,1,COUNTA(OFFSET(pulldown_level2,0,U7+X7,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" ref="Z7:Z27" ca="1" si="9">IF(X7=0,1,COUNTA(OFFSET(pulldown_company,0,U7+X7,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z7:Z27" ca="1" si="8">IF(X7=0,1,COUNTA(OFFSET(pulldown_company,0,U7+X7,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A8" s="214"/>
-      <c r="B8" s="215"/>
+      <c r="A8" s="354"/>
+      <c r="B8" s="355"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="218"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="358"/>
       <c r="G8" s="40"/>
       <c r="H8" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="219">
-        <f t="shared" ref="K8" si="10">IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="220"/>
+      <c r="K8" s="325">
+        <f>IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="326"/>
       <c r="M8" s="99"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="222"/>
-      <c r="P8" s="223"/>
+      <c r="N8" s="359"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="361"/>
       <c r="Q8" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="S8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8" ca="1" si="11">(V8-U8)+1</f>
+        <f t="shared" ref="W8" ca="1" si="9">(V8-U8)+1</f>
         <v>1</v>
       </c>
       <c r="X8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z8" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A9" s="214" t="s">
+      <c r="A9" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="215"/>
+      <c r="B9" s="355"/>
       <c r="C9" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="358"/>
       <c r="G9" s="40"/>
       <c r="H9" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="75"/>
-      <c r="K9" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="220"/>
+      <c r="K9" s="325">
+        <f>IFERROR(ROUNDDOWN(G9*ROUNDDOWN(I9,4)*J9,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="326"/>
       <c r="M9" s="99"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="223"/>
+      <c r="N9" s="359"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="361"/>
       <c r="Q9" s="1" t="str">
-        <f t="shared" ref="Q9:Q11" ca="1" si="12">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q9:Q11" ca="1" si="10">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" ref="R9:R11" ca="1" si="13">IFERROR(VLOOKUP(D9,OFFSET(pulldown_company,0,U9+X9,Z9,1),1,FALSE),"")</f>
+        <f t="shared" ref="R9:R11" ca="1" si="11">IFERROR(VLOOKUP(D9,OFFSET(pulldown_company,0,U9+X9,Z9,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S9" s="1">
-        <f t="shared" ref="S9:S11" ca="1" si="14">IFERROR(VLOOKUP(H9,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S9:S11" ca="1" si="12">IFERROR(VLOOKUP(H9,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" ref="U9:U11" ca="1" si="15">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U9:U11" ca="1" si="13">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" ref="V9:V11" ca="1" si="16">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V9:V11" ca="1" si="14">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" ref="X9:X11" ca="1" si="17">IFERROR(MATCH(A9,OFFSET(pulldown_level1,0,U9,1,W9),0)-1,0)</f>
+        <f t="shared" ref="X9:X11" ca="1" si="15">IFERROR(MATCH(A9,OFFSET(pulldown_level1,0,U9,1,W9),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:Y11" ca="1" si="18">IF(X9=0,1,COUNTA(OFFSET(pulldown_level2,0,U9+X9,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y9:Y11" ca="1" si="16">IF(X9=0,1,COUNTA(OFFSET(pulldown_level2,0,U9+X9,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" ref="Z9:Z11" ca="1" si="19">IF(X9=0,1,COUNTA(OFFSET(pulldown_company,0,U9+X9,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z9:Z11" ca="1" si="17">IF(X9=0,1,COUNTA(OFFSET(pulldown_company,0,U9+X9,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="215"/>
+      <c r="B10" s="355"/>
       <c r="C10" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="216"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="358"/>
       <c r="G10" s="40"/>
       <c r="H10" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="75"/>
-      <c r="K10" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="220"/>
+      <c r="K10" s="325">
+        <f>IFERROR(ROUNDDOWN(G10*ROUNDDOWN(I10,4)*J10,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="326"/>
       <c r="M10" s="99"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="222"/>
-      <c r="P10" s="223"/>
+      <c r="N10" s="359"/>
+      <c r="O10" s="360"/>
+      <c r="P10" s="361"/>
       <c r="Q10" s="1" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R10" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="Y10" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="215"/>
+      <c r="B11" s="355"/>
       <c r="C11" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="218"/>
+      <c r="D11" s="356"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="358"/>
       <c r="G11" s="40"/>
       <c r="H11" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="75"/>
-      <c r="K11" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="220"/>
+      <c r="K11" s="325">
+        <f>IFERROR(ROUNDDOWN(G11*ROUNDDOWN(I11,4)*J11,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="326"/>
       <c r="M11" s="99"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="222"/>
-      <c r="P11" s="223"/>
+      <c r="N11" s="359"/>
+      <c r="O11" s="360"/>
+      <c r="P11" s="361"/>
       <c r="Q11" s="1" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R11" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Y11" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="215"/>
+      <c r="B12" s="355"/>
       <c r="C12" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="358"/>
       <c r="G12" s="40"/>
       <c r="H12" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="75"/>
-      <c r="K12" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="220"/>
+      <c r="K12" s="325">
+        <f>IFERROR(ROUNDDOWN(G12*ROUNDDOWN(I12,4)*J12,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="326"/>
       <c r="M12" s="99"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="223"/>
+      <c r="N12" s="359"/>
+      <c r="O12" s="360"/>
+      <c r="P12" s="361"/>
       <c r="Q12" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="R12" s="1" t="str">
+      <c r="S12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A13" s="214" t="s">
+      <c r="A13" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="215"/>
+      <c r="B13" s="355"/>
       <c r="C13" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
+      <c r="D13" s="356"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="358"/>
       <c r="G13" s="40"/>
       <c r="H13" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="75"/>
-      <c r="K13" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="220"/>
+      <c r="K13" s="325">
+        <f>IFERROR(ROUNDDOWN(G13*ROUNDDOWN(I13,4)*J13,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="326"/>
       <c r="M13" s="99"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="222"/>
-      <c r="P13" s="223"/>
+      <c r="N13" s="359"/>
+      <c r="O13" s="360"/>
+      <c r="P13" s="361"/>
       <c r="Q13" s="1" t="str">
-        <f t="shared" ref="Q13:Q14" ca="1" si="20">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q13:Q14" ca="1" si="18">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" ref="R13:R14" ca="1" si="21">IFERROR(VLOOKUP(D13,OFFSET(pulldown_company,0,U13+X13,Z13,1),1,FALSE),"")</f>
+        <f t="shared" ref="R13:R14" ca="1" si="19">IFERROR(VLOOKUP(D13,OFFSET(pulldown_company,0,U13+X13,Z13,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S13" s="1">
-        <f t="shared" ref="S13:S14" ca="1" si="22">IFERROR(VLOOKUP(H13,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S13:S14" ca="1" si="20">IFERROR(VLOOKUP(H13,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13:U14" ca="1" si="23">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U13:U14" ca="1" si="21">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13:V14" ca="1" si="24">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V13:V14" ca="1" si="22">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" ref="X13:X14" ca="1" si="25">IFERROR(MATCH(A13,OFFSET(pulldown_level1,0,U13,1,W13),0)-1,0)</f>
+        <f t="shared" ref="X13:X14" ca="1" si="23">IFERROR(MATCH(A13,OFFSET(pulldown_level1,0,U13,1,W13),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" ref="Y13:Y14" ca="1" si="26">IF(X13=0,1,COUNTA(OFFSET(pulldown_level2,0,U13+X13,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y13:Y14" ca="1" si="24">IF(X13=0,1,COUNTA(OFFSET(pulldown_level2,0,U13+X13,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" ref="Z13:Z14" ca="1" si="27">IF(X13=0,1,COUNTA(OFFSET(pulldown_company,0,U13+X13,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z13:Z14" ca="1" si="25">IF(X13=0,1,COUNTA(OFFSET(pulldown_company,0,U13+X13,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="215"/>
+      <c r="B14" s="355"/>
       <c r="C14" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="218"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="358"/>
       <c r="G14" s="40"/>
       <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="75"/>
-      <c r="K14" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="220"/>
+      <c r="K14" s="325">
+        <f>IFERROR(ROUNDDOWN(G14*ROUNDDOWN(I14,4)*J14,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="326"/>
       <c r="M14" s="99"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="222"/>
-      <c r="P14" s="223"/>
+      <c r="N14" s="359"/>
+      <c r="O14" s="360"/>
+      <c r="P14" s="361"/>
       <c r="Q14" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="R14" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Y14" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <f t="shared" ca="1" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1">
-        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="215"/>
+      <c r="B15" s="355"/>
       <c r="C15" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="218"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="358"/>
       <c r="G15" s="40"/>
       <c r="H15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="75"/>
-      <c r="K15" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="220"/>
+      <c r="K15" s="325">
+        <f>IFERROR(ROUNDDOWN(G15*ROUNDDOWN(I15,4)*J15,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="326"/>
       <c r="M15" s="99"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="223"/>
+      <c r="N15" s="359"/>
+      <c r="O15" s="360"/>
+      <c r="P15" s="361"/>
       <c r="Q15" s="1" t="str">
-        <f t="shared" ref="Q15:Q21" ca="1" si="28">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q15:Q21" ca="1" si="26">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" ref="R15:R21" ca="1" si="29">IFERROR(VLOOKUP(D15,OFFSET(pulldown_company,0,U15+X15,Z15,1),1,FALSE),"")</f>
+        <f t="shared" ref="R15:R21" ca="1" si="27">IFERROR(VLOOKUP(D15,OFFSET(pulldown_company,0,U15+X15,Z15,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S15" s="1">
-        <f t="shared" ref="S15:S21" ca="1" si="30">IFERROR(VLOOKUP(H15,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S15:S21" ca="1" si="28">IFERROR(VLOOKUP(H15,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" ref="U15:U21" ca="1" si="31">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U15:U21" ca="1" si="29">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" ref="V15:V21" ca="1" si="32">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V15:V21" ca="1" si="30">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" ref="X15:X21" ca="1" si="33">IFERROR(MATCH(A15,OFFSET(pulldown_level1,0,U15,1,W15),0)-1,0)</f>
+        <f t="shared" ref="X15:X21" ca="1" si="31">IFERROR(MATCH(A15,OFFSET(pulldown_level1,0,U15,1,W15),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" ref="Y15:Y21" ca="1" si="34">IF(X15=0,1,COUNTA(OFFSET(pulldown_level2,0,U15+X15,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y15:Y21" ca="1" si="32">IF(X15=0,1,COUNTA(OFFSET(pulldown_level2,0,U15+X15,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:Z21" ca="1" si="35">IF(X15=0,1,COUNTA(OFFSET(pulldown_company,0,U15+X15,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z15:Z21" ca="1" si="33">IF(X15=0,1,COUNTA(OFFSET(pulldown_company,0,U15+X15,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="215"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="218"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="357"/>
+      <c r="F16" s="358"/>
       <c r="G16" s="40"/>
       <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="75"/>
-      <c r="K16" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="220"/>
+      <c r="K16" s="325">
+        <f>IFERROR(ROUNDDOWN(G16*ROUNDDOWN(I16,4)*J16,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="326"/>
       <c r="M16" s="99"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="223"/>
+      <c r="N16" s="359"/>
+      <c r="O16" s="360"/>
+      <c r="P16" s="361"/>
       <c r="Q16" s="1" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="S16" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R16" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
         <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
-      <c r="V16" s="1">
+      <c r="Y16" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1">
-        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="215"/>
+      <c r="B17" s="355"/>
       <c r="C17" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="218"/>
+      <c r="D17" s="356"/>
+      <c r="E17" s="357"/>
+      <c r="F17" s="358"/>
       <c r="G17" s="40"/>
       <c r="H17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="75"/>
-      <c r="K17" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="220"/>
+      <c r="K17" s="325">
+        <f>IFERROR(ROUNDDOWN(G17*ROUNDDOWN(I17,4)*J17,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="326"/>
       <c r="M17" s="99"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="223"/>
+      <c r="N17" s="359"/>
+      <c r="O17" s="360"/>
+      <c r="P17" s="361"/>
       <c r="Q17" s="1" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R17" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
         <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="Y17" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Z17" s="1">
-        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="215"/>
+      <c r="B18" s="355"/>
       <c r="C18" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="218"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="358"/>
       <c r="G18" s="40"/>
       <c r="H18" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="220"/>
+      <c r="K18" s="325">
+        <f>IFERROR(ROUNDDOWN(G18*ROUNDDOWN(I18,4)*J18,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="326"/>
       <c r="M18" s="99"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="222"/>
-      <c r="P18" s="223"/>
+      <c r="N18" s="359"/>
+      <c r="O18" s="360"/>
+      <c r="P18" s="361"/>
       <c r="Q18" s="1" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R18" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
         <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1">
-        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="215"/>
+      <c r="B19" s="355"/>
       <c r="C19" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="218"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="358"/>
       <c r="G19" s="40"/>
       <c r="H19" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="75"/>
-      <c r="K19" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="220"/>
+      <c r="K19" s="325">
+        <f>IFERROR(ROUNDDOWN(G19*ROUNDDOWN(I19,4)*J19,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="326"/>
       <c r="M19" s="99"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="223"/>
+      <c r="N19" s="359"/>
+      <c r="O19" s="360"/>
+      <c r="P19" s="361"/>
       <c r="Q19" s="1" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
         <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Y19" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Z19" s="1">
-        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="215"/>
+      <c r="B20" s="355"/>
       <c r="C20" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="218"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="357"/>
+      <c r="F20" s="358"/>
       <c r="G20" s="40"/>
       <c r="H20" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="75"/>
-      <c r="K20" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="220"/>
+      <c r="K20" s="325">
+        <f>IFERROR(ROUNDDOWN(G20*ROUNDDOWN(I20,4)*J20,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="326"/>
       <c r="M20" s="99"/>
-      <c r="N20" s="221"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="223"/>
+      <c r="N20" s="359"/>
+      <c r="O20" s="360"/>
+      <c r="P20" s="361"/>
       <c r="Q20" s="1" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R20" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
         <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Y20" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Z20" s="1">
-        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="215"/>
+      <c r="B21" s="355"/>
       <c r="C21" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="216"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="218"/>
+      <c r="D21" s="356"/>
+      <c r="E21" s="357"/>
+      <c r="F21" s="358"/>
       <c r="G21" s="40"/>
       <c r="H21" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="75"/>
-      <c r="K21" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="220"/>
+      <c r="K21" s="325">
+        <f>IFERROR(ROUNDDOWN(G21*ROUNDDOWN(I21,4)*J21,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="326"/>
       <c r="M21" s="99"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="223"/>
+      <c r="N21" s="359"/>
+      <c r="O21" s="360"/>
+      <c r="P21" s="361"/>
       <c r="Q21" s="1" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="S21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="R21" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
-      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
         <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
-      <c r="V21" s="1">
+      <c r="Y21" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1">
-        <f t="shared" ca="1" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Z21" s="1">
-        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="215"/>
+      <c r="B22" s="355"/>
       <c r="C22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="216"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="218"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="357"/>
+      <c r="F22" s="358"/>
       <c r="G22" s="40"/>
       <c r="H22" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="75"/>
-      <c r="K22" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="220"/>
+      <c r="K22" s="325">
+        <f>IFERROR(ROUNDDOWN(G22*ROUNDDOWN(I22,4)*J22,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="326"/>
       <c r="M22" s="99"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="223"/>
+      <c r="N22" s="359"/>
+      <c r="O22" s="360"/>
+      <c r="P22" s="361"/>
       <c r="Q22" s="1" t="str">
-        <f t="shared" ref="Q22:Q25" ca="1" si="36">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q22:Q25" ca="1" si="34">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R22" s="1" t="str">
-        <f t="shared" ref="R22:R25" ca="1" si="37">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
+        <f t="shared" ref="R22:R25" ca="1" si="35">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="S22:S25" ca="1" si="38">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S22:S25" ca="1" si="36">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" ref="U22:U25" ca="1" si="39">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U22:U25" ca="1" si="37">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" ref="V22:V25" ca="1" si="40">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V22:V25" ca="1" si="38">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" ref="X22:X25" ca="1" si="41">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
+        <f t="shared" ref="X22:X25" ca="1" si="39">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" ref="Y22:Y25" ca="1" si="42">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y22:Y25" ca="1" si="40">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" ref="Z22:Z25" ca="1" si="43">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z22:Z25" ca="1" si="41">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="355"/>
       <c r="C23" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="216"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="218"/>
+      <c r="D23" s="356"/>
+      <c r="E23" s="357"/>
+      <c r="F23" s="358"/>
       <c r="G23" s="40"/>
       <c r="H23" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="75"/>
-      <c r="K23" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="220"/>
+      <c r="K23" s="325">
+        <f>IFERROR(ROUNDDOWN(G23*ROUNDDOWN(I23,4)*J23,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="326"/>
       <c r="M23" s="99"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="222"/>
-      <c r="P23" s="223"/>
+      <c r="N23" s="359"/>
+      <c r="O23" s="360"/>
+      <c r="P23" s="361"/>
       <c r="Q23" s="1" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="S23" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R23" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="V23" s="1">
+      <c r="Y23" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="1">
-        <f t="shared" ca="1" si="43"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="215"/>
+      <c r="B24" s="355"/>
       <c r="C24" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="216"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="218"/>
+      <c r="D24" s="356"/>
+      <c r="E24" s="357"/>
+      <c r="F24" s="358"/>
       <c r="G24" s="40"/>
       <c r="H24" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="75"/>
-      <c r="K24" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="220"/>
+      <c r="K24" s="325">
+        <f>IFERROR(ROUNDDOWN(G24*ROUNDDOWN(I24,4)*J24,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="326"/>
       <c r="M24" s="99"/>
-      <c r="N24" s="221"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="223"/>
+      <c r="N24" s="359"/>
+      <c r="O24" s="360"/>
+      <c r="P24" s="361"/>
       <c r="Q24" s="1" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="S24" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R24" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="V24" s="1">
+      <c r="Y24" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="1">
-        <f t="shared" ca="1" si="43"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="215"/>
+      <c r="B25" s="355"/>
       <c r="C25" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="216"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="218"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="357"/>
+      <c r="F25" s="358"/>
       <c r="G25" s="40"/>
       <c r="H25" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="75"/>
-      <c r="K25" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="220"/>
+      <c r="K25" s="325">
+        <f>IFERROR(ROUNDDOWN(G25*ROUNDDOWN(I25,4)*J25,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="326"/>
       <c r="M25" s="99"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="222"/>
-      <c r="P25" s="223"/>
+      <c r="N25" s="359"/>
+      <c r="O25" s="360"/>
+      <c r="P25" s="361"/>
       <c r="Q25" s="1" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="S25" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R25" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
-      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
         <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
-      <c r="V25" s="1">
+      <c r="Y25" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <f t="shared" ca="1" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" ca="1" si="43"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A26" s="214" t="s">
+      <c r="A26" s="354" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="215"/>
+      <c r="B26" s="355"/>
       <c r="C26" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="216"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="218"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="357"/>
+      <c r="F26" s="358"/>
       <c r="G26" s="40"/>
       <c r="H26" s="46" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="75"/>
-      <c r="K26" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="220"/>
+      <c r="K26" s="325">
+        <f>IFERROR(ROUNDDOWN(G26*ROUNDDOWN(I26,4)*J26,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="326"/>
       <c r="M26" s="99"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="222"/>
-      <c r="P26" s="223"/>
+      <c r="N26" s="359"/>
+      <c r="O26" s="360"/>
+      <c r="P26" s="361"/>
       <c r="Q26" s="1" t="str">
-        <f t="shared" ref="Q26" ca="1" si="44">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q26" ca="1" si="42">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R26" s="1" t="str">
-        <f t="shared" ref="R26" ca="1" si="45">IFERROR(VLOOKUP(D26,OFFSET(pulldown_company,0,U26+X26,Z26,1),1,FALSE),"")</f>
+        <f t="shared" ref="R26" ca="1" si="43">IFERROR(VLOOKUP(D26,OFFSET(pulldown_company,0,U26+X26,Z26,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ref="S26" ca="1" si="46">IFERROR(VLOOKUP(H26,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S26" ca="1" si="44">IFERROR(VLOOKUP(H26,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>1</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ref="U26" ca="1" si="47">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U26" ca="1" si="45">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26" ca="1" si="48">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V26" ca="1" si="46">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" ref="X26" ca="1" si="49">IFERROR(MATCH(A26,OFFSET(pulldown_level1,0,U26,1,W26),0)-1,0)</f>
+        <f t="shared" ref="X26" ca="1" si="47">IFERROR(MATCH(A26,OFFSET(pulldown_level1,0,U26,1,W26),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" ref="Y26" ca="1" si="50">IF(X26=0,1,COUNTA(OFFSET(pulldown_level2,0,U26+X26,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y26" ca="1" si="48">IF(X26=0,1,COUNTA(OFFSET(pulldown_level2,0,U26+X26,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" ref="Z26" ca="1" si="51">IF(X26=0,1,COUNTA(OFFSET(pulldown_company,0,U26+X26,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z26" ca="1" si="49">IF(X26=0,1,COUNTA(OFFSET(pulldown_company,0,U26+X26,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A27" s="214"/>
-      <c r="B27" s="215"/>
+      <c r="A27" s="354"/>
+      <c r="B27" s="355"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="218"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="357"/>
+      <c r="F27" s="358"/>
       <c r="G27" s="42"/>
       <c r="H27" s="47" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="43"/>
       <c r="J27" s="76"/>
-      <c r="K27" s="219">
-        <f t="shared" ref="K27" si="52">IFERROR(ROUNDDOWN(G27*ROUNDDOWN(I27,4)*J27,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="220"/>
+      <c r="K27" s="325">
+        <f>IFERROR(ROUNDDOWN(G27*ROUNDDOWN(I27,4)*J27,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="326"/>
       <c r="M27" s="100"/>
-      <c r="N27" s="258"/>
-      <c r="O27" s="258"/>
-      <c r="P27" s="259"/>
+      <c r="N27" s="362"/>
+      <c r="O27" s="362"/>
+      <c r="P27" s="363"/>
       <c r="Q27" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="R27" s="1" t="str">
+      <c r="S27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="V27" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" ca="1" si="53">(V27-U27)+1</f>
+        <f t="shared" ref="W27" ca="1" si="50">(V27-U27)+1</f>
         <v>1</v>
       </c>
       <c r="X27" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A28" s="232" t="s">
+      <c r="A28" s="372" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="234"/>
+      <c r="B28" s="373"/>
+      <c r="C28" s="373"/>
+      <c r="D28" s="373"/>
+      <c r="E28" s="373"/>
+      <c r="F28" s="374"/>
       <c r="G28" s="101">
         <f>SUM(G7:G27)</f>
         <v>0</v>
       </c>
       <c r="H28" s="102"/>
-      <c r="I28" s="235">
+      <c r="I28" s="375">
         <f>SUM(K7:K27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="236"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="237"/>
+      <c r="J28" s="376"/>
+      <c r="K28" s="376"/>
+      <c r="L28" s="377"/>
       <c r="M28" s="69"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
+      <c r="N28" s="378"/>
+      <c r="O28" s="378"/>
+      <c r="P28" s="379"/>
       <c r="Q28" s="1">
         <f>IF(C28&lt;&gt;0,IF(A28=$G$95,VLOOKUP(C28,$G$97:$G$105,1,TRUE),IF(A28=$H$95,VLOOKUP(C28,$H$97:$H$107,1,TRUE),IF(A28=$I$95,VLOOKUP(C28,$I$97:$I$105,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A29" s="240"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="241"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="241"/>
-      <c r="O29" s="241"/>
-      <c r="P29" s="242"/>
+      <c r="A29" s="317"/>
+      <c r="B29" s="318"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="318"/>
+      <c r="J29" s="318"/>
+      <c r="K29" s="318"/>
+      <c r="L29" s="318"/>
+      <c r="M29" s="318"/>
+      <c r="N29" s="318"/>
+      <c r="O29" s="318"/>
+      <c r="P29" s="319"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="364" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="244"/>
+      <c r="B30" s="365"/>
       <c r="C30" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="245" t="s">
+      <c r="D30" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="246"/>
-      <c r="F30" s="244"/>
+      <c r="E30" s="367"/>
+      <c r="F30" s="365"/>
       <c r="G30" s="66" t="s">
         <v>7</v>
       </c>
@@ -6940,203 +6938,203 @@
       <c r="J30" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="247" t="s">
+      <c r="K30" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="248"/>
+      <c r="L30" s="369"/>
       <c r="M30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="249" t="s">
+      <c r="N30" s="351" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="250"/>
-      <c r="P30" s="251"/>
+      <c r="O30" s="352"/>
+      <c r="P30" s="353"/>
     </row>
     <row r="31" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A31" s="224"/>
-      <c r="B31" s="225"/>
+      <c r="A31" s="370"/>
+      <c r="B31" s="371"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="228"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="324"/>
       <c r="G31" s="5"/>
       <c r="H31" s="49" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="75"/>
-      <c r="K31" s="219">
-        <f t="shared" ref="K31:K32" si="54">IFERROR(ROUNDDOWN(G31*ROUNDDOWN(I31,4)*J31,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="220"/>
+      <c r="K31" s="325">
+        <f>IFERROR(ROUNDDOWN(G31*ROUNDDOWN(I31,4)*J31,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="326"/>
       <c r="M31" s="99"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="231"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="262"/>
+      <c r="P31" s="263"/>
       <c r="Q31" s="1" t="str">
-        <f t="shared" ref="Q31:Q32" ca="1" si="55">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q31:Q32" ca="1" si="51">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R31" s="1" t="str">
-        <f t="shared" ref="R31:R32" ca="1" si="56">IFERROR(VLOOKUP(D31,OFFSET(pulldown_company,0,U31+X31,Z31,1),1,FALSE),"")</f>
+        <f t="shared" ref="R31:R32" ca="1" si="52">IFERROR(VLOOKUP(D31,OFFSET(pulldown_company,0,U31+X31,Z31,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S31" s="1">
-        <f t="shared" ref="S31:S32" ca="1" si="57">IFERROR(VLOOKUP(H31,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S31:S32" ca="1" si="53">IFERROR(VLOOKUP(H31,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T31" s="1">
         <v>2</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" ref="U31:U32" ca="1" si="58">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U31:U32" ca="1" si="54">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V32" ca="1" si="59">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V31:V32" ca="1" si="55">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" ca="1" si="60">(V31-U31)+1</f>
+        <f t="shared" ref="W31" ca="1" si="56">(V31-U31)+1</f>
         <v>1</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" ref="X31:X32" ca="1" si="61">IFERROR(MATCH(A31,OFFSET(pulldown_level1,0,U31,1,W31),0)-1,0)</f>
+        <f t="shared" ref="X31:X32" ca="1" si="57">IFERROR(MATCH(A31,OFFSET(pulldown_level1,0,U31,1,W31),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y32" ca="1" si="62">IF(X31=0,1,COUNTA(OFFSET(pulldown_level2,0,U31+X31,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y31:Y32" ca="1" si="58">IF(X31=0,1,COUNTA(OFFSET(pulldown_level2,0,U31+X31,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" ref="Z31:Z32" ca="1" si="63">IF(X31=0,1,COUNTA(OFFSET(pulldown_company,0,U31+X31,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z31:Z32" ca="1" si="59">IF(X31=0,1,COUNTA(OFFSET(pulldown_company,0,U31+X31,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A32" s="289"/>
-      <c r="B32" s="290"/>
+      <c r="A32" s="320"/>
+      <c r="B32" s="321"/>
       <c r="C32" s="95"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="228"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="323"/>
+      <c r="F32" s="324"/>
       <c r="G32" s="38"/>
       <c r="H32" s="50" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="78"/>
-      <c r="K32" s="219">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="220"/>
+      <c r="K32" s="325">
+        <f>IFERROR(ROUNDDOWN(G32*ROUNDDOWN(I32,4)*J32,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="326"/>
       <c r="M32" s="99"/>
-      <c r="N32" s="291"/>
-      <c r="O32" s="291"/>
-      <c r="P32" s="292"/>
+      <c r="N32" s="327"/>
+      <c r="O32" s="327"/>
+      <c r="P32" s="328"/>
       <c r="Q32" s="1" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R32" s="1" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="S32" s="1">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="53"/>
         <v>1</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1">
+        <f t="shared" ca="1" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" ca="1" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" ref="W32" ca="1" si="60">(V32-U32)+1</f>
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <f t="shared" ca="1" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" ref="W32" ca="1" si="64">(V32-U32)+1</f>
-        <v>1</v>
-      </c>
-      <c r="X32" s="1">
-        <f t="shared" ca="1" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1">
-        <f t="shared" ca="1" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="Z32" s="1">
-        <f t="shared" ca="1" si="63"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="276" t="s">
+      <c r="A33" s="309" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="277"/>
-      <c r="C33" s="277"/>
-      <c r="D33" s="277"/>
-      <c r="E33" s="277"/>
-      <c r="F33" s="278"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="310"/>
+      <c r="F33" s="311"/>
       <c r="G33" s="103">
         <f>SUM(G31:G32)</f>
         <v>0</v>
       </c>
       <c r="H33" s="104"/>
-      <c r="I33" s="279">
+      <c r="I33" s="312">
         <f>SUM(K31:K32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="280"/>
-      <c r="K33" s="280"/>
-      <c r="L33" s="281"/>
+      <c r="J33" s="313"/>
+      <c r="K33" s="313"/>
+      <c r="L33" s="314"/>
       <c r="M33" s="70"/>
-      <c r="N33" s="282"/>
-      <c r="O33" s="282"/>
-      <c r="P33" s="283"/>
+      <c r="N33" s="315"/>
+      <c r="O33" s="315"/>
+      <c r="P33" s="316"/>
       <c r="Q33" s="1">
         <f>IF(C33&lt;&gt;0,IF(A33=$G$95,VLOOKUP(C33,$G$97:$G$105,1,TRUE),IF(A33=$H$95,VLOOKUP(C33,$H$97:$H$107,1,TRUE),IF(A33=$I$95,VLOOKUP(C33,$I$97:$I$105,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A34" s="240"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="241"/>
-      <c r="H34" s="241"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="241"/>
-      <c r="L34" s="241"/>
-      <c r="M34" s="241"/>
-      <c r="N34" s="241"/>
-      <c r="O34" s="241"/>
-      <c r="P34" s="242"/>
+      <c r="A34" s="317"/>
+      <c r="B34" s="318"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="318"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
+      <c r="L34" s="318"/>
+      <c r="M34" s="318"/>
+      <c r="N34" s="318"/>
+      <c r="O34" s="318"/>
+      <c r="P34" s="319"/>
     </row>
     <row r="35" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A35" s="284" t="s">
+      <c r="A35" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="285"/>
+      <c r="B35" s="303"/>
       <c r="C35" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="286" t="s">
+      <c r="D35" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="285"/>
+      <c r="E35" s="303"/>
       <c r="F35" s="57" t="s">
         <v>16</v>
       </c>
@@ -7152,25 +7150,25 @@
       <c r="J35" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="286" t="s">
+      <c r="K35" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="285"/>
+      <c r="L35" s="303"/>
       <c r="M35" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="286" t="s">
+      <c r="N35" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="287"/>
-      <c r="P35" s="288"/>
+      <c r="O35" s="305"/>
+      <c r="P35" s="306"/>
     </row>
     <row r="36" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="208"/>
+      <c r="A36" s="283"/>
+      <c r="B36" s="284"/>
       <c r="C36" s="51"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="208"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="284"/>
       <c r="F36" s="52"/>
       <c r="G36" s="7"/>
       <c r="H36" s="55" t="s">
@@ -7178,61 +7176,61 @@
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="77"/>
-      <c r="K36" s="210">
-        <f t="shared" ref="K36:K48" si="65">IFERROR(ROUNDDOWN(G36*ROUNDDOWN(I36,4)*J36,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="211"/>
+      <c r="K36" s="286">
+        <f>IFERROR(ROUNDDOWN(G36*ROUNDDOWN(I36,4)*J36,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="287"/>
       <c r="M36" s="99"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="212"/>
-      <c r="P36" s="213"/>
+      <c r="N36" s="288"/>
+      <c r="O36" s="288"/>
+      <c r="P36" s="289"/>
       <c r="Q36" s="1" t="str">
-        <f t="shared" ref="Q36:Q48" ca="1" si="66">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q36:Q48" ca="1" si="61">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R36" s="1" t="str">
-        <f t="shared" ref="R36:R48" ca="1" si="67">IFERROR(VLOOKUP(D36,OFFSET(pulldown_company,0,U36+X36,Z36,1),1,FALSE),"")</f>
+        <f t="shared" ref="R36:R48" ca="1" si="62">IFERROR(VLOOKUP(D36,OFFSET(pulldown_company,0,U36+X36,Z36,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S36" s="1">
-        <f t="shared" ref="S36:S48" ca="1" si="68">IFERROR(VLOOKUP(H36,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S36:S48" ca="1" si="63">IFERROR(VLOOKUP(H36,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T36" s="1">
         <v>3</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" ref="U36:U48" ca="1" si="69">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U36:U48" ca="1" si="64">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36:V48" ca="1" si="70">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V36:V48" ca="1" si="65">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" ref="W36:W48" ca="1" si="71">(V36-U36)+1</f>
+        <f t="shared" ref="W36:W48" ca="1" si="66">(V36-U36)+1</f>
         <v>1</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" ref="X36:X48" ca="1" si="72">IFERROR(MATCH(A36,OFFSET(pulldown_level1,0,U36,1,W36),0)-1,0)</f>
+        <f t="shared" ref="X36:X48" ca="1" si="67">IFERROR(MATCH(A36,OFFSET(pulldown_level1,0,U36,1,W36),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" ref="Y36:Y48" ca="1" si="73">IF(X36=0,1,COUNTA(OFFSET(pulldown_level2,0,U36+X36,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y36:Y48" ca="1" si="68">IF(X36=0,1,COUNTA(OFFSET(pulldown_level2,0,U36+X36,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" ref="Z36:Z48" ca="1" si="74">IF(X36=0,1,COUNTA(OFFSET(pulldown_company,0,U36+X36,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z36:Z48" ca="1" si="69">IF(X36=0,1,COUNTA(OFFSET(pulldown_company,0,U36+X36,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A37" s="207"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="283"/>
+      <c r="B37" s="284"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="208"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="284"/>
       <c r="F37" s="52"/>
       <c r="G37" s="7"/>
       <c r="H37" s="55" t="s">
@@ -7240,65 +7238,65 @@
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="77"/>
-      <c r="K37" s="210">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="211"/>
+      <c r="K37" s="286">
+        <f>IFERROR(ROUNDDOWN(G37*ROUNDDOWN(I37,4)*J37,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="287"/>
       <c r="M37" s="99"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="213"/>
+      <c r="N37" s="288"/>
+      <c r="O37" s="288"/>
+      <c r="P37" s="289"/>
       <c r="Q37" s="1" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="R37" s="1" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="S37" s="1">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="63"/>
         <v>1</v>
       </c>
       <c r="T37" s="1">
         <v>3</v>
       </c>
       <c r="U37" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" ca="1" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" ca="1" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" ca="1" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="1">
-        <f t="shared" ca="1" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="X37" s="1">
-        <f t="shared" ca="1" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1">
-        <f t="shared" ca="1" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="Z37" s="1">
-        <f t="shared" ca="1" si="74"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="208"/>
+      <c r="B38" s="284"/>
       <c r="C38" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="208"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="52"/>
       <c r="G38" s="7"/>
       <c r="H38" s="55" t="s">
@@ -7306,65 +7304,65 @@
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="77"/>
-      <c r="K38" s="210">
-        <f t="shared" ref="K38:K39" si="75">IFERROR(ROUNDDOWN(G38*ROUNDDOWN(I38,4)*J38,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="211"/>
+      <c r="K38" s="286">
+        <f>IFERROR(ROUNDDOWN(G38*ROUNDDOWN(I38,4)*J38,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="287"/>
       <c r="M38" s="99"/>
-      <c r="N38" s="212"/>
-      <c r="O38" s="212"/>
-      <c r="P38" s="213"/>
+      <c r="N38" s="288"/>
+      <c r="O38" s="288"/>
+      <c r="P38" s="289"/>
       <c r="Q38" s="1" t="str">
-        <f t="shared" ref="Q38:Q39" ca="1" si="76">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q38:Q39" ca="1" si="70">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R38" s="1" t="str">
-        <f t="shared" ref="R38:R39" ca="1" si="77">IFERROR(VLOOKUP(D38,OFFSET(pulldown_company,0,U38+X38,Z38,1),1,FALSE),"")</f>
+        <f t="shared" ref="R38:R39" ca="1" si="71">IFERROR(VLOOKUP(D38,OFFSET(pulldown_company,0,U38+X38,Z38,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S38" s="1">
-        <f t="shared" ref="S38:S39" ca="1" si="78">IFERROR(VLOOKUP(H38,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S38:S39" ca="1" si="72">IFERROR(VLOOKUP(H38,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T38" s="1">
         <v>3</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" ref="U38:U39" ca="1" si="79">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U38:U39" ca="1" si="73">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" ref="V38:V39" ca="1" si="80">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V38:V39" ca="1" si="74">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" ref="W38:W39" ca="1" si="81">(V38-U38)+1</f>
+        <f t="shared" ref="W38:W39" ca="1" si="75">(V38-U38)+1</f>
         <v>1</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" ref="X38:X39" ca="1" si="82">IFERROR(MATCH(A38,OFFSET(pulldown_level1,0,U38,1,W38),0)-1,0)</f>
+        <f t="shared" ref="X38:X39" ca="1" si="76">IFERROR(MATCH(A38,OFFSET(pulldown_level1,0,U38,1,W38),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" ref="Y38:Y39" ca="1" si="83">IF(X38=0,1,COUNTA(OFFSET(pulldown_level2,0,U38+X38,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y38:Y39" ca="1" si="77">IF(X38=0,1,COUNTA(OFFSET(pulldown_level2,0,U38+X38,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" ref="Z38:Z39" ca="1" si="84">IF(X38=0,1,COUNTA(OFFSET(pulldown_company,0,U38+X38,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z38:Z39" ca="1" si="78">IF(X38=0,1,COUNTA(OFFSET(pulldown_company,0,U38+X38,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A39" s="207" t="s">
+      <c r="A39" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="208"/>
+      <c r="B39" s="284"/>
       <c r="C39" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="208"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="284"/>
       <c r="F39" s="52"/>
       <c r="G39" s="7"/>
       <c r="H39" s="55" t="s">
@@ -7372,65 +7370,65 @@
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="77"/>
-      <c r="K39" s="210">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="211"/>
+      <c r="K39" s="286">
+        <f>IFERROR(ROUNDDOWN(G39*ROUNDDOWN(I39,4)*J39,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="287"/>
       <c r="M39" s="99"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="212"/>
-      <c r="P39" s="213"/>
+      <c r="N39" s="288"/>
+      <c r="O39" s="288"/>
+      <c r="P39" s="289"/>
       <c r="Q39" s="1" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R39" s="1" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="S39" s="1">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="72"/>
         <v>1</v>
       </c>
       <c r="T39" s="1">
         <v>3</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="73"/>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="74"/>
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="75"/>
         <v>1</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="76"/>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="77"/>
         <v>1</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="78"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="208"/>
+      <c r="B40" s="284"/>
       <c r="C40" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="209"/>
-      <c r="E40" s="208"/>
+      <c r="D40" s="285"/>
+      <c r="E40" s="284"/>
       <c r="F40" s="52"/>
       <c r="G40" s="7"/>
       <c r="H40" s="55" t="s">
@@ -7438,65 +7436,65 @@
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="77"/>
-      <c r="K40" s="210">
-        <f t="shared" ref="K40:K46" si="85">IFERROR(ROUNDDOWN(G40*ROUNDDOWN(I40,4)*J40,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="211"/>
+      <c r="K40" s="286">
+        <f>IFERROR(ROUNDDOWN(G40*ROUNDDOWN(I40,4)*J40,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="287"/>
       <c r="M40" s="99"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="212"/>
-      <c r="P40" s="213"/>
+      <c r="N40" s="288"/>
+      <c r="O40" s="288"/>
+      <c r="P40" s="289"/>
       <c r="Q40" s="1" t="str">
-        <f t="shared" ref="Q40:Q46" ca="1" si="86">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q40:Q46" ca="1" si="79">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R40" s="1" t="str">
-        <f t="shared" ref="R40:R46" ca="1" si="87">IFERROR(VLOOKUP(D40,OFFSET(pulldown_company,0,U40+X40,Z40,1),1,FALSE),"")</f>
+        <f t="shared" ref="R40:R46" ca="1" si="80">IFERROR(VLOOKUP(D40,OFFSET(pulldown_company,0,U40+X40,Z40,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S40" s="1">
-        <f t="shared" ref="S40:S46" ca="1" si="88">IFERROR(VLOOKUP(H40,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S40:S46" ca="1" si="81">IFERROR(VLOOKUP(H40,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>3</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" ref="U40:U46" ca="1" si="89">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U40:U46" ca="1" si="82">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" ref="V40:V46" ca="1" si="90">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V40:V46" ca="1" si="83">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" ref="W40:W46" ca="1" si="91">(V40-U40)+1</f>
+        <f t="shared" ref="W40:W46" ca="1" si="84">(V40-U40)+1</f>
         <v>1</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" ref="X40:X46" ca="1" si="92">IFERROR(MATCH(A40,OFFSET(pulldown_level1,0,U40,1,W40),0)-1,0)</f>
+        <f t="shared" ref="X40:X46" ca="1" si="85">IFERROR(MATCH(A40,OFFSET(pulldown_level1,0,U40,1,W40),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" ref="Y40:Y46" ca="1" si="93">IF(X40=0,1,COUNTA(OFFSET(pulldown_level2,0,U40+X40,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y40:Y46" ca="1" si="86">IF(X40=0,1,COUNTA(OFFSET(pulldown_level2,0,U40+X40,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" ref="Z40:Z46" ca="1" si="94">IF(X40=0,1,COUNTA(OFFSET(pulldown_company,0,U40+X40,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z40:Z46" ca="1" si="87">IF(X40=0,1,COUNTA(OFFSET(pulldown_company,0,U40+X40,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="208"/>
+      <c r="B41" s="284"/>
       <c r="C41" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="209"/>
-      <c r="E41" s="208"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="284"/>
       <c r="F41" s="52"/>
       <c r="G41" s="7"/>
       <c r="H41" s="55" t="s">
@@ -7504,65 +7502,65 @@
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="77"/>
-      <c r="K41" s="210">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="211"/>
+      <c r="K41" s="286">
+        <f>IFERROR(ROUNDDOWN(G41*ROUNDDOWN(I41,4)*J41,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="287"/>
       <c r="M41" s="99"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="212"/>
-      <c r="P41" s="213"/>
+      <c r="N41" s="288"/>
+      <c r="O41" s="288"/>
+      <c r="P41" s="289"/>
       <c r="Q41" s="1" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="R41" s="1" t="str">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="81"/>
         <v>1</v>
       </c>
       <c r="T41" s="1">
         <v>3</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="83"/>
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="84"/>
         <v>1</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" ca="1" si="94"/>
+        <f t="shared" ca="1" si="87"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A42" s="207" t="s">
+      <c r="A42" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="208"/>
+      <c r="B42" s="284"/>
       <c r="C42" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="208"/>
+      <c r="D42" s="285"/>
+      <c r="E42" s="284"/>
       <c r="F42" s="52"/>
       <c r="G42" s="7"/>
       <c r="H42" s="55" t="s">
@@ -7570,65 +7568,65 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="77"/>
-      <c r="K42" s="210">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="211"/>
+      <c r="K42" s="286">
+        <f>IFERROR(ROUNDDOWN(G42*ROUNDDOWN(I42,4)*J42,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="287"/>
       <c r="M42" s="99"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="213"/>
+      <c r="N42" s="288"/>
+      <c r="O42" s="288"/>
+      <c r="P42" s="289"/>
       <c r="Q42" s="1" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="R42" s="1" t="str">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="S42" s="1">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="81"/>
         <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>3</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="83"/>
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="84"/>
         <v>1</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" ca="1" si="94"/>
+        <f t="shared" ca="1" si="87"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="208"/>
+      <c r="B43" s="284"/>
       <c r="C43" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="209"/>
-      <c r="E43" s="208"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="284"/>
       <c r="F43" s="52"/>
       <c r="G43" s="7"/>
       <c r="H43" s="55" t="s">
@@ -7636,65 +7634,65 @@
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="77"/>
-      <c r="K43" s="210">
-        <f t="shared" ref="K43" si="95">IFERROR(ROUNDDOWN(G43*ROUNDDOWN(I43,4)*J43,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="211"/>
+      <c r="K43" s="286">
+        <f>IFERROR(ROUNDDOWN(G43*ROUNDDOWN(I43,4)*J43,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="287"/>
       <c r="M43" s="99"/>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
-      <c r="P43" s="213"/>
+      <c r="N43" s="288"/>
+      <c r="O43" s="288"/>
+      <c r="P43" s="289"/>
       <c r="Q43" s="1" t="str">
-        <f t="shared" ref="Q43" ca="1" si="96">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q43" ca="1" si="88">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R43" s="1" t="str">
-        <f t="shared" ref="R43" ca="1" si="97">IFERROR(VLOOKUP(D43,OFFSET(pulldown_company,0,U43+X43,Z43,1),1,FALSE),"")</f>
+        <f t="shared" ref="R43" ca="1" si="89">IFERROR(VLOOKUP(D43,OFFSET(pulldown_company,0,U43+X43,Z43,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S43" s="1">
-        <f t="shared" ref="S43" ca="1" si="98">IFERROR(VLOOKUP(H43,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S43" ca="1" si="90">IFERROR(VLOOKUP(H43,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>3</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" ref="U43" ca="1" si="99">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U43" ca="1" si="91">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" ref="V43" ca="1" si="100">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V43" ca="1" si="92">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" ref="W43" ca="1" si="101">(V43-U43)+1</f>
+        <f t="shared" ref="W43" ca="1" si="93">(V43-U43)+1</f>
         <v>1</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" ref="X43" ca="1" si="102">IFERROR(MATCH(A43,OFFSET(pulldown_level1,0,U43,1,W43),0)-1,0)</f>
+        <f t="shared" ref="X43" ca="1" si="94">IFERROR(MATCH(A43,OFFSET(pulldown_level1,0,U43,1,W43),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" ref="Y43" ca="1" si="103">IF(X43=0,1,COUNTA(OFFSET(pulldown_level2,0,U43+X43,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y43" ca="1" si="95">IF(X43=0,1,COUNTA(OFFSET(pulldown_level2,0,U43+X43,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z43" s="1">
-        <f t="shared" ref="Z43" ca="1" si="104">IF(X43=0,1,COUNTA(OFFSET(pulldown_company,0,U43+X43,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z43" ca="1" si="96">IF(X43=0,1,COUNTA(OFFSET(pulldown_company,0,U43+X43,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="208"/>
+      <c r="B44" s="284"/>
       <c r="C44" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="209"/>
-      <c r="E44" s="208"/>
+      <c r="D44" s="285"/>
+      <c r="E44" s="284"/>
       <c r="F44" s="52"/>
       <c r="G44" s="7"/>
       <c r="H44" s="55" t="s">
@@ -7702,65 +7700,65 @@
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="77"/>
-      <c r="K44" s="210">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="211"/>
+      <c r="K44" s="286">
+        <f>IFERROR(ROUNDDOWN(G44*ROUNDDOWN(I44,4)*J44,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="287"/>
       <c r="M44" s="99"/>
-      <c r="N44" s="212"/>
-      <c r="O44" s="212"/>
-      <c r="P44" s="213"/>
+      <c r="N44" s="288"/>
+      <c r="O44" s="288"/>
+      <c r="P44" s="289"/>
       <c r="Q44" s="1" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="R44" s="1" t="str">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="S44" s="1">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="81"/>
         <v>1</v>
       </c>
       <c r="T44" s="1">
         <v>3</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="83"/>
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="84"/>
         <v>1</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" ca="1" si="94"/>
+        <f t="shared" ca="1" si="87"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="208"/>
+      <c r="B45" s="284"/>
       <c r="C45" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="209"/>
-      <c r="E45" s="208"/>
+      <c r="D45" s="285"/>
+      <c r="E45" s="284"/>
       <c r="F45" s="52"/>
       <c r="G45" s="7"/>
       <c r="H45" s="55" t="s">
@@ -7768,65 +7766,65 @@
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="77"/>
-      <c r="K45" s="210">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="211"/>
+      <c r="K45" s="286">
+        <f>IFERROR(ROUNDDOWN(G45*ROUNDDOWN(I45,4)*J45,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="287"/>
       <c r="M45" s="99"/>
-      <c r="N45" s="212"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="213"/>
+      <c r="N45" s="288"/>
+      <c r="O45" s="288"/>
+      <c r="P45" s="289"/>
       <c r="Q45" s="1" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="R45" s="1" t="str">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="S45" s="1">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="81"/>
         <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="83"/>
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="84"/>
         <v>1</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" ca="1" si="94"/>
+        <f t="shared" ca="1" si="87"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="208"/>
+      <c r="B46" s="284"/>
       <c r="C46" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="209"/>
-      <c r="E46" s="208"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="284"/>
       <c r="F46" s="52"/>
       <c r="G46" s="7"/>
       <c r="H46" s="55" t="s">
@@ -7834,65 +7832,65 @@
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="77"/>
-      <c r="K46" s="210">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="211"/>
+      <c r="K46" s="286">
+        <f>IFERROR(ROUNDDOWN(G46*ROUNDDOWN(I46,4)*J46,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="287"/>
       <c r="M46" s="99"/>
-      <c r="N46" s="212"/>
-      <c r="O46" s="212"/>
-      <c r="P46" s="213"/>
+      <c r="N46" s="288"/>
+      <c r="O46" s="288"/>
+      <c r="P46" s="289"/>
       <c r="Q46" s="1" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="R46" s="1" t="str">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="S46" s="1">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="81"/>
         <v>1</v>
       </c>
       <c r="T46" s="1">
         <v>3</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="83"/>
         <v>0</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="84"/>
         <v>1</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" ca="1" si="94"/>
+        <f t="shared" ca="1" si="87"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A47" s="207" t="s">
+      <c r="A47" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="208"/>
+      <c r="B47" s="284"/>
       <c r="C47" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="209"/>
-      <c r="E47" s="208"/>
+      <c r="D47" s="285"/>
+      <c r="E47" s="284"/>
       <c r="F47" s="52"/>
       <c r="G47" s="7"/>
       <c r="H47" s="55" t="s">
@@ -7900,61 +7898,61 @@
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="77"/>
-      <c r="K47" s="210">
-        <f t="shared" ref="K47" si="105">IFERROR(ROUNDDOWN(G47*ROUNDDOWN(I47,4)*J47,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="211"/>
+      <c r="K47" s="286">
+        <f>IFERROR(ROUNDDOWN(G47*ROUNDDOWN(I47,4)*J47,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="287"/>
       <c r="M47" s="99"/>
-      <c r="N47" s="212"/>
-      <c r="O47" s="212"/>
-      <c r="P47" s="213"/>
+      <c r="N47" s="288"/>
+      <c r="O47" s="288"/>
+      <c r="P47" s="289"/>
       <c r="Q47" s="1" t="str">
-        <f t="shared" ref="Q47" ca="1" si="106">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q47" ca="1" si="97">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R47" s="1" t="str">
-        <f t="shared" ref="R47" ca="1" si="107">IFERROR(VLOOKUP(D47,OFFSET(pulldown_company,0,U47+X47,Z47,1),1,FALSE),"")</f>
+        <f t="shared" ref="R47" ca="1" si="98">IFERROR(VLOOKUP(D47,OFFSET(pulldown_company,0,U47+X47,Z47,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S47" s="1">
-        <f t="shared" ref="S47" ca="1" si="108">IFERROR(VLOOKUP(H47,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S47" ca="1" si="99">IFERROR(VLOOKUP(H47,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>3</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" ref="U47" ca="1" si="109">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U47" ca="1" si="100">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" ref="V47" ca="1" si="110">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V47" ca="1" si="101">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" ref="W47" ca="1" si="111">(V47-U47)+1</f>
+        <f t="shared" ref="W47" ca="1" si="102">(V47-U47)+1</f>
         <v>1</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" ref="X47" ca="1" si="112">IFERROR(MATCH(A47,OFFSET(pulldown_level1,0,U47,1,W47),0)-1,0)</f>
+        <f t="shared" ref="X47" ca="1" si="103">IFERROR(MATCH(A47,OFFSET(pulldown_level1,0,U47,1,W47),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" ref="Y47" ca="1" si="113">IF(X47=0,1,COUNTA(OFFSET(pulldown_level2,0,U47+X47,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y47" ca="1" si="104">IF(X47=0,1,COUNTA(OFFSET(pulldown_level2,0,U47+X47,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" ref="Z47" ca="1" si="114">IF(X47=0,1,COUNTA(OFFSET(pulldown_company,0,U47+X47,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z47" ca="1" si="105">IF(X47=0,1,COUNTA(OFFSET(pulldown_company,0,U47+X47,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="207"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="283"/>
+      <c r="B48" s="284"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="209"/>
-      <c r="E48" s="208"/>
+      <c r="D48" s="285"/>
+      <c r="E48" s="284"/>
       <c r="F48" s="54"/>
       <c r="G48" s="10"/>
       <c r="H48" s="56" t="s">
@@ -7962,111 +7960,111 @@
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="78"/>
-      <c r="K48" s="210">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="211"/>
+      <c r="K48" s="286">
+        <f>IFERROR(ROUNDDOWN(G48*ROUNDDOWN(I48,4)*J48,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="287"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="305"/>
-      <c r="O48" s="305"/>
-      <c r="P48" s="306"/>
+      <c r="N48" s="307"/>
+      <c r="O48" s="307"/>
+      <c r="P48" s="308"/>
       <c r="Q48" s="1" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="R48" s="1" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="S48" s="1">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="T48" s="1">
         <v>3</v>
       </c>
       <c r="U48" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" ca="1" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <f t="shared" ca="1" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" ca="1" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="1">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="1">
-        <f t="shared" ca="1" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="X48" s="1">
-        <f t="shared" ca="1" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="1">
-        <f t="shared" ca="1" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="Z48" s="1">
-        <f t="shared" ca="1" si="74"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="293" t="s">
+      <c r="A49" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="294"/>
-      <c r="C49" s="294"/>
-      <c r="D49" s="294"/>
-      <c r="E49" s="294"/>
-      <c r="F49" s="295"/>
+      <c r="B49" s="291"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="292"/>
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="296">
+      <c r="I49" s="293">
         <f>SUM(K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="297"/>
-      <c r="K49" s="297"/>
-      <c r="L49" s="298"/>
+      <c r="J49" s="294"/>
+      <c r="K49" s="294"/>
+      <c r="L49" s="295"/>
       <c r="M49" s="71"/>
-      <c r="N49" s="299">
+      <c r="N49" s="296">
         <f>SUMIF(F36:F48,"&lt;&gt;"&amp;hdn_payoff_circle,K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="300"/>
-      <c r="P49" s="301"/>
+      <c r="O49" s="297"/>
+      <c r="P49" s="298"/>
     </row>
     <row r="50" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A50" s="302"/>
-      <c r="B50" s="303"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
-      <c r="G50" s="303"/>
-      <c r="H50" s="303"/>
-      <c r="I50" s="303"/>
-      <c r="J50" s="303"/>
-      <c r="K50" s="303"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="303"/>
-      <c r="N50" s="303"/>
-      <c r="O50" s="303"/>
-      <c r="P50" s="304"/>
+      <c r="A50" s="299"/>
+      <c r="B50" s="300"/>
+      <c r="C50" s="300"/>
+      <c r="D50" s="300"/>
+      <c r="E50" s="300"/>
+      <c r="F50" s="300"/>
+      <c r="G50" s="300"/>
+      <c r="H50" s="300"/>
+      <c r="I50" s="300"/>
+      <c r="J50" s="300"/>
+      <c r="K50" s="300"/>
+      <c r="L50" s="300"/>
+      <c r="M50" s="300"/>
+      <c r="N50" s="300"/>
+      <c r="O50" s="300"/>
+      <c r="P50" s="301"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="284" t="s">
+      <c r="A51" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="285"/>
+      <c r="B51" s="303"/>
       <c r="C51" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="286" t="s">
+      <c r="D51" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="285"/>
+      <c r="E51" s="303"/>
       <c r="F51" s="59"/>
       <c r="G51" s="59" t="s">
         <v>17</v>
@@ -8080,26 +8078,26 @@
       <c r="J51" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="286" t="s">
+      <c r="K51" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="285"/>
+      <c r="L51" s="303"/>
       <c r="M51" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="286" t="s">
+      <c r="N51" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="O51" s="287"/>
-      <c r="P51" s="288"/>
+      <c r="O51" s="305"/>
+      <c r="P51" s="306"/>
       <c r="S51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A52" s="207"/>
-      <c r="B52" s="208"/>
+      <c r="A52" s="283"/>
+      <c r="B52" s="284"/>
       <c r="C52" s="51"/>
-      <c r="D52" s="209"/>
-      <c r="E52" s="208"/>
+      <c r="D52" s="285"/>
+      <c r="E52" s="284"/>
       <c r="F52" s="52"/>
       <c r="G52" s="117"/>
       <c r="H52" s="55" t="s">
@@ -8107,61 +8105,61 @@
       </c>
       <c r="I52" s="115"/>
       <c r="J52" s="116"/>
-      <c r="K52" s="210">
-        <f t="shared" ref="K52:K74" si="115">IFERROR(ROUNDDOWN(G52*ROUNDDOWN(I52,4)*J52,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="211"/>
+      <c r="K52" s="286">
+        <f>IFERROR(ROUNDDOWN(G52*ROUNDDOWN(I52,4)*J52,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="287"/>
       <c r="M52" s="99"/>
-      <c r="N52" s="212"/>
-      <c r="O52" s="212"/>
-      <c r="P52" s="213"/>
+      <c r="N52" s="288"/>
+      <c r="O52" s="288"/>
+      <c r="P52" s="289"/>
       <c r="Q52" s="1" t="str">
-        <f t="shared" ref="Q52:Q76" ca="1" si="116">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q52:Q76" ca="1" si="106">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R52" s="1" t="str">
-        <f t="shared" ref="R52:R76" ca="1" si="117">IFERROR(VLOOKUP(D52,OFFSET(pulldown_company,0,U52+X52,Z52,1),1,FALSE),"")</f>
+        <f t="shared" ref="R52:R76" ca="1" si="107">IFERROR(VLOOKUP(D52,OFFSET(pulldown_company,0,U52+X52,Z52,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S52" s="1">
-        <f t="shared" ref="S52:S64" ca="1" si="118">IFERROR(VLOOKUP(H52,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S52:S64" ca="1" si="108">IFERROR(VLOOKUP(H52,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T52" s="1">
         <v>4</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:U64" ca="1" si="119">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U52:U64" ca="1" si="109">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" ref="V52:V64" ca="1" si="120">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V52:V64" ca="1" si="110">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" ref="W52:W76" ca="1" si="121">(V52-U52)+1</f>
+        <f t="shared" ref="W52:W76" ca="1" si="111">(V52-U52)+1</f>
         <v>1</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" ref="X52:X76" ca="1" si="122">IFERROR(MATCH(A52,OFFSET(pulldown_level1,0,U52,1,W52),0)-1,0)</f>
+        <f t="shared" ref="X52:X76" ca="1" si="112">IFERROR(MATCH(A52,OFFSET(pulldown_level1,0,U52,1,W52),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" ref="Y52:Y76" ca="1" si="123">IF(X52=0,1,COUNTA(OFFSET(pulldown_level2,0,U52+X52,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y52:Y76" ca="1" si="113">IF(X52=0,1,COUNTA(OFFSET(pulldown_level2,0,U52+X52,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z52" s="1">
-        <f t="shared" ref="Z52:Z64" ca="1" si="124">IF(X52=0,1,COUNTA(OFFSET(pulldown_company,0,U52+X52,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z52:Z64" ca="1" si="114">IF(X52=0,1,COUNTA(OFFSET(pulldown_company,0,U52+X52,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A53" s="207"/>
-      <c r="B53" s="208"/>
+      <c r="A53" s="283"/>
+      <c r="B53" s="284"/>
       <c r="C53" s="51"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="208"/>
+      <c r="D53" s="285"/>
+      <c r="E53" s="284"/>
       <c r="F53" s="52"/>
       <c r="G53" s="117"/>
       <c r="H53" s="55" t="s">
@@ -8169,65 +8167,65 @@
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="116"/>
-      <c r="K53" s="210">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="211"/>
+      <c r="K53" s="286">
+        <f>IFERROR(ROUNDDOWN(G53*ROUNDDOWN(I53,4)*J53,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="287"/>
       <c r="M53" s="99"/>
-      <c r="N53" s="212"/>
-      <c r="O53" s="212"/>
-      <c r="P53" s="213"/>
+      <c r="N53" s="288"/>
+      <c r="O53" s="288"/>
+      <c r="P53" s="289"/>
       <c r="Q53" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
       <c r="R53" s="1" t="str">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="S53" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="108"/>
         <v>2</v>
       </c>
       <c r="T53" s="1">
         <v>4</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="110"/>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="111"/>
         <v>1</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="113"/>
         <v>1</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" ca="1" si="124"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A54" s="207" t="s">
+      <c r="A54" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="208"/>
+      <c r="B54" s="284"/>
       <c r="C54" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="209"/>
-      <c r="E54" s="208"/>
+      <c r="D54" s="285"/>
+      <c r="E54" s="284"/>
       <c r="F54" s="52"/>
       <c r="G54" s="117"/>
       <c r="H54" s="55" t="s">
@@ -8235,65 +8233,65 @@
       </c>
       <c r="I54" s="115"/>
       <c r="J54" s="116"/>
-      <c r="K54" s="210">
-        <f t="shared" ref="K54:K63" si="125">IFERROR(ROUNDDOWN(G54*ROUNDDOWN(I54,4)*J54,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="211"/>
+      <c r="K54" s="286">
+        <f>IFERROR(ROUNDDOWN(G54*ROUNDDOWN(I54,4)*J54,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="287"/>
       <c r="M54" s="99"/>
-      <c r="N54" s="212"/>
-      <c r="O54" s="212"/>
-      <c r="P54" s="213"/>
+      <c r="N54" s="288"/>
+      <c r="O54" s="288"/>
+      <c r="P54" s="289"/>
       <c r="Q54" s="1" t="str">
-        <f t="shared" ref="Q54:Q63" ca="1" si="126">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q54:Q63" ca="1" si="115">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R54" s="1" t="str">
-        <f t="shared" ref="R54:R63" ca="1" si="127">IFERROR(VLOOKUP(D54,OFFSET(pulldown_company,0,U54+X54,Z54,1),1,FALSE),"")</f>
+        <f t="shared" ref="R54:R63" ca="1" si="116">IFERROR(VLOOKUP(D54,OFFSET(pulldown_company,0,U54+X54,Z54,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S54" s="1">
-        <f t="shared" ref="S54:S63" ca="1" si="128">IFERROR(VLOOKUP(H54,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S54:S63" ca="1" si="117">IFERROR(VLOOKUP(H54,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T54" s="1">
         <v>4</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" ref="U54:U63" ca="1" si="129">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U54:U63" ca="1" si="118">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" ref="V54:V63" ca="1" si="130">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V54:V63" ca="1" si="119">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" ref="W54:W63" ca="1" si="131">(V54-U54)+1</f>
+        <f t="shared" ref="W54:W63" ca="1" si="120">(V54-U54)+1</f>
         <v>1</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" ref="X54:X63" ca="1" si="132">IFERROR(MATCH(A54,OFFSET(pulldown_level1,0,U54,1,W54),0)-1,0)</f>
+        <f t="shared" ref="X54:X63" ca="1" si="121">IFERROR(MATCH(A54,OFFSET(pulldown_level1,0,U54,1,W54),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" ref="Y54:Y63" ca="1" si="133">IF(X54=0,1,COUNTA(OFFSET(pulldown_level2,0,U54+X54,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y54:Y63" ca="1" si="122">IF(X54=0,1,COUNTA(OFFSET(pulldown_level2,0,U54+X54,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" ref="Z54:Z63" ca="1" si="134">IF(X54=0,1,COUNTA(OFFSET(pulldown_company,0,U54+X54,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z54:Z63" ca="1" si="123">IF(X54=0,1,COUNTA(OFFSET(pulldown_company,0,U54+X54,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A55" s="207" t="s">
+      <c r="A55" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="208"/>
+      <c r="B55" s="284"/>
       <c r="C55" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="209"/>
-      <c r="E55" s="208"/>
+      <c r="D55" s="285"/>
+      <c r="E55" s="284"/>
       <c r="F55" s="52"/>
       <c r="G55" s="117"/>
       <c r="H55" s="55" t="s">
@@ -8301,65 +8299,65 @@
       </c>
       <c r="I55" s="115"/>
       <c r="J55" s="116"/>
-      <c r="K55" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="211"/>
+      <c r="K55" s="286">
+        <f>IFERROR(ROUNDDOWN(G55*ROUNDDOWN(I55,4)*J55,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="287"/>
       <c r="M55" s="99"/>
-      <c r="N55" s="212"/>
-      <c r="O55" s="212"/>
-      <c r="P55" s="213"/>
+      <c r="N55" s="288"/>
+      <c r="O55" s="288"/>
+      <c r="P55" s="289"/>
       <c r="Q55" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R55" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S55" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T55" s="1">
         <v>4</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="208"/>
+      <c r="B56" s="284"/>
       <c r="C56" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="209"/>
-      <c r="E56" s="208"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="284"/>
       <c r="F56" s="52"/>
       <c r="G56" s="117"/>
       <c r="H56" s="55" t="s">
@@ -8367,65 +8365,65 @@
       </c>
       <c r="I56" s="115"/>
       <c r="J56" s="116"/>
-      <c r="K56" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="211"/>
+      <c r="K56" s="286">
+        <f>IFERROR(ROUNDDOWN(G56*ROUNDDOWN(I56,4)*J56,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="287"/>
       <c r="M56" s="99"/>
-      <c r="N56" s="212"/>
-      <c r="O56" s="212"/>
-      <c r="P56" s="213"/>
+      <c r="N56" s="288"/>
+      <c r="O56" s="288"/>
+      <c r="P56" s="289"/>
       <c r="Q56" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R56" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S56" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T56" s="1">
         <v>4</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z56" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A57" s="207" t="s">
+      <c r="A57" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="208"/>
+      <c r="B57" s="284"/>
       <c r="C57" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="209"/>
-      <c r="E57" s="208"/>
+      <c r="D57" s="285"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="52"/>
       <c r="G57" s="117"/>
       <c r="H57" s="55" t="s">
@@ -8433,65 +8431,65 @@
       </c>
       <c r="I57" s="115"/>
       <c r="J57" s="116"/>
-      <c r="K57" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="211"/>
+      <c r="K57" s="286">
+        <f>IFERROR(ROUNDDOWN(G57*ROUNDDOWN(I57,4)*J57,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="287"/>
       <c r="M57" s="99"/>
-      <c r="N57" s="212"/>
-      <c r="O57" s="212"/>
-      <c r="P57" s="213"/>
+      <c r="N57" s="288"/>
+      <c r="O57" s="288"/>
+      <c r="P57" s="289"/>
       <c r="Q57" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R57" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S57" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T57" s="1">
         <v>4</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A58" s="207" t="s">
+      <c r="A58" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="208"/>
+      <c r="B58" s="284"/>
       <c r="C58" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="209"/>
-      <c r="E58" s="208"/>
+      <c r="D58" s="285"/>
+      <c r="E58" s="284"/>
       <c r="F58" s="52"/>
       <c r="G58" s="117"/>
       <c r="H58" s="55" t="s">
@@ -8499,65 +8497,65 @@
       </c>
       <c r="I58" s="115"/>
       <c r="J58" s="116"/>
-      <c r="K58" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="211"/>
+      <c r="K58" s="286">
+        <f>IFERROR(ROUNDDOWN(G58*ROUNDDOWN(I58,4)*J58,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="287"/>
       <c r="M58" s="99"/>
-      <c r="N58" s="212"/>
-      <c r="O58" s="212"/>
-      <c r="P58" s="213"/>
+      <c r="N58" s="288"/>
+      <c r="O58" s="288"/>
+      <c r="P58" s="289"/>
       <c r="Q58" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R58" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S58" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T58" s="1">
         <v>4</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z58" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A59" s="207" t="s">
+      <c r="A59" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="208"/>
+      <c r="B59" s="284"/>
       <c r="C59" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="209"/>
-      <c r="E59" s="208"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="284"/>
       <c r="F59" s="52"/>
       <c r="G59" s="117"/>
       <c r="H59" s="55" t="s">
@@ -8565,65 +8563,65 @@
       </c>
       <c r="I59" s="115"/>
       <c r="J59" s="116"/>
-      <c r="K59" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="211"/>
+      <c r="K59" s="286">
+        <f>IFERROR(ROUNDDOWN(G59*ROUNDDOWN(I59,4)*J59,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="287"/>
       <c r="M59" s="99"/>
-      <c r="N59" s="212"/>
-      <c r="O59" s="212"/>
-      <c r="P59" s="213"/>
+      <c r="N59" s="288"/>
+      <c r="O59" s="288"/>
+      <c r="P59" s="289"/>
       <c r="Q59" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R59" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S59" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T59" s="1">
         <v>4</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A60" s="207" t="s">
+      <c r="A60" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="208"/>
+      <c r="B60" s="284"/>
       <c r="C60" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="209"/>
-      <c r="E60" s="208"/>
+      <c r="D60" s="285"/>
+      <c r="E60" s="284"/>
       <c r="F60" s="52"/>
       <c r="G60" s="117"/>
       <c r="H60" s="55" t="s">
@@ -8631,65 +8629,65 @@
       </c>
       <c r="I60" s="115"/>
       <c r="J60" s="116"/>
-      <c r="K60" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="211"/>
+      <c r="K60" s="286">
+        <f>IFERROR(ROUNDDOWN(G60*ROUNDDOWN(I60,4)*J60,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="287"/>
       <c r="M60" s="99"/>
-      <c r="N60" s="212"/>
-      <c r="O60" s="212"/>
-      <c r="P60" s="213"/>
+      <c r="N60" s="288"/>
+      <c r="O60" s="288"/>
+      <c r="P60" s="289"/>
       <c r="Q60" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R60" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S60" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T60" s="1">
         <v>4</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A61" s="207" t="s">
+      <c r="A61" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="208"/>
+      <c r="B61" s="284"/>
       <c r="C61" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="209"/>
-      <c r="E61" s="208"/>
+      <c r="D61" s="285"/>
+      <c r="E61" s="284"/>
       <c r="F61" s="52"/>
       <c r="G61" s="117"/>
       <c r="H61" s="55" t="s">
@@ -8697,65 +8695,65 @@
       </c>
       <c r="I61" s="115"/>
       <c r="J61" s="116"/>
-      <c r="K61" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="211"/>
+      <c r="K61" s="286">
+        <f>IFERROR(ROUNDDOWN(G61*ROUNDDOWN(I61,4)*J61,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="287"/>
       <c r="M61" s="99"/>
-      <c r="N61" s="212"/>
-      <c r="O61" s="212"/>
-      <c r="P61" s="213"/>
+      <c r="N61" s="288"/>
+      <c r="O61" s="288"/>
+      <c r="P61" s="289"/>
       <c r="Q61" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R61" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S61" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T61" s="1">
         <v>4</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A62" s="207" t="s">
+      <c r="A62" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="208"/>
+      <c r="B62" s="284"/>
       <c r="C62" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="209"/>
-      <c r="E62" s="208"/>
+      <c r="D62" s="285"/>
+      <c r="E62" s="284"/>
       <c r="F62" s="52"/>
       <c r="G62" s="117"/>
       <c r="H62" s="55" t="s">
@@ -8763,65 +8761,65 @@
       </c>
       <c r="I62" s="115"/>
       <c r="J62" s="116"/>
-      <c r="K62" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="211"/>
+      <c r="K62" s="286">
+        <f>IFERROR(ROUNDDOWN(G62*ROUNDDOWN(I62,4)*J62,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="287"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="212"/>
-      <c r="O62" s="212"/>
-      <c r="P62" s="213"/>
+      <c r="N62" s="288"/>
+      <c r="O62" s="288"/>
+      <c r="P62" s="289"/>
       <c r="Q62" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S62" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T62" s="1">
         <v>4</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z62" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A63" s="207" t="s">
+      <c r="A63" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="208"/>
+      <c r="B63" s="284"/>
       <c r="C63" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="209"/>
-      <c r="E63" s="208"/>
+      <c r="D63" s="285"/>
+      <c r="E63" s="284"/>
       <c r="F63" s="52"/>
       <c r="G63" s="117"/>
       <c r="H63" s="55" t="s">
@@ -8829,65 +8827,65 @@
       </c>
       <c r="I63" s="115"/>
       <c r="J63" s="116"/>
-      <c r="K63" s="210">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="211"/>
+      <c r="K63" s="286">
+        <f>IFERROR(ROUNDDOWN(G63*ROUNDDOWN(I63,4)*J63,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="287"/>
       <c r="M63" s="99"/>
-      <c r="N63" s="212"/>
-      <c r="O63" s="212"/>
-      <c r="P63" s="213"/>
+      <c r="N63" s="288"/>
+      <c r="O63" s="288"/>
+      <c r="P63" s="289"/>
       <c r="Q63" s="1" t="str">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="115"/>
         <v/>
       </c>
       <c r="R63" s="1" t="str">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="116"/>
         <v/>
       </c>
       <c r="S63" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="117"/>
         <v>2</v>
       </c>
       <c r="T63" s="1">
         <v>4</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="118"/>
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="119"/>
         <v>0</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="120"/>
         <v>1</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="122"/>
         <v>1</v>
       </c>
       <c r="Z63" s="1">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A64" s="207" t="s">
+      <c r="A64" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="208"/>
+      <c r="B64" s="284"/>
       <c r="C64" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="209"/>
-      <c r="E64" s="208"/>
+      <c r="D64" s="285"/>
+      <c r="E64" s="284"/>
       <c r="F64" s="52"/>
       <c r="G64" s="117"/>
       <c r="H64" s="55" t="s">
@@ -8895,65 +8893,65 @@
       </c>
       <c r="I64" s="115"/>
       <c r="J64" s="116"/>
-      <c r="K64" s="210">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="211"/>
+      <c r="K64" s="286">
+        <f>IFERROR(ROUNDDOWN(G64*ROUNDDOWN(I64,4)*J64,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="287"/>
       <c r="M64" s="99"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="212"/>
-      <c r="P64" s="213"/>
+      <c r="N64" s="288"/>
+      <c r="O64" s="288"/>
+      <c r="P64" s="289"/>
       <c r="Q64" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
       <c r="R64" s="1" t="str">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="S64" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="108"/>
         <v>2</v>
       </c>
       <c r="T64" s="1">
         <v>4</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="109"/>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="110"/>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="111"/>
         <v>1</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="113"/>
         <v>1</v>
       </c>
       <c r="Z64" s="1">
-        <f t="shared" ca="1" si="124"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A65" s="207" t="s">
+      <c r="A65" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="208"/>
+      <c r="B65" s="284"/>
       <c r="C65" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="209"/>
-      <c r="E65" s="208"/>
+      <c r="D65" s="285"/>
+      <c r="E65" s="284"/>
       <c r="F65" s="52"/>
       <c r="G65" s="117"/>
       <c r="H65" s="55" t="s">
@@ -8961,65 +8959,65 @@
       </c>
       <c r="I65" s="115"/>
       <c r="J65" s="116"/>
-      <c r="K65" s="210">
-        <f t="shared" ref="K65:K66" si="135">IFERROR(ROUNDDOWN(G65*ROUNDDOWN(I65,4)*J65,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="211"/>
+      <c r="K65" s="286">
+        <f>IFERROR(ROUNDDOWN(G65*ROUNDDOWN(I65,4)*J65,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="287"/>
       <c r="M65" s="99"/>
-      <c r="N65" s="212"/>
-      <c r="O65" s="212"/>
-      <c r="P65" s="213"/>
+      <c r="N65" s="288"/>
+      <c r="O65" s="288"/>
+      <c r="P65" s="289"/>
       <c r="Q65" s="1" t="str">
-        <f t="shared" ref="Q65:Q66" ca="1" si="136">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q65:Q66" ca="1" si="124">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R65" s="1" t="str">
-        <f t="shared" ref="R65:R66" ca="1" si="137">IFERROR(VLOOKUP(D65,OFFSET(pulldown_company,0,U65+X65,Z65,1),1,FALSE),"")</f>
+        <f t="shared" ref="R65:R66" ca="1" si="125">IFERROR(VLOOKUP(D65,OFFSET(pulldown_company,0,U65+X65,Z65,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S65" s="1">
-        <f t="shared" ref="S65:S66" ca="1" si="138">IFERROR(VLOOKUP(H65,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S65:S66" ca="1" si="126">IFERROR(VLOOKUP(H65,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T65" s="1">
         <v>4</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" ref="U65:U66" ca="1" si="139">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U65:U66" ca="1" si="127">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" ref="V65:V66" ca="1" si="140">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V65:V66" ca="1" si="128">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" ref="W65:W66" ca="1" si="141">(V65-U65)+1</f>
+        <f t="shared" ref="W65:W66" ca="1" si="129">(V65-U65)+1</f>
         <v>1</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" ref="X65:X66" ca="1" si="142">IFERROR(MATCH(A65,OFFSET(pulldown_level1,0,U65,1,W65),0)-1,0)</f>
+        <f t="shared" ref="X65:X66" ca="1" si="130">IFERROR(MATCH(A65,OFFSET(pulldown_level1,0,U65,1,W65),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" ref="Y65:Y66" ca="1" si="143">IF(X65=0,1,COUNTA(OFFSET(pulldown_level2,0,U65+X65,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y65:Y66" ca="1" si="131">IF(X65=0,1,COUNTA(OFFSET(pulldown_level2,0,U65+X65,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" ref="Z65:Z66" ca="1" si="144">IF(X65=0,1,COUNTA(OFFSET(pulldown_company,0,U65+X65,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z65:Z66" ca="1" si="132">IF(X65=0,1,COUNTA(OFFSET(pulldown_company,0,U65+X65,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A66" s="207" t="s">
+      <c r="A66" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="208"/>
+      <c r="B66" s="284"/>
       <c r="C66" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="209"/>
-      <c r="E66" s="208"/>
+      <c r="D66" s="285"/>
+      <c r="E66" s="284"/>
       <c r="F66" s="52"/>
       <c r="G66" s="117"/>
       <c r="H66" s="55" t="s">
@@ -9027,65 +9025,65 @@
       </c>
       <c r="I66" s="115"/>
       <c r="J66" s="116"/>
-      <c r="K66" s="210">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="211"/>
+      <c r="K66" s="286">
+        <f>IFERROR(ROUNDDOWN(G66*ROUNDDOWN(I66,4)*J66,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="287"/>
       <c r="M66" s="99"/>
-      <c r="N66" s="212"/>
-      <c r="O66" s="212"/>
-      <c r="P66" s="213"/>
+      <c r="N66" s="288"/>
+      <c r="O66" s="288"/>
+      <c r="P66" s="289"/>
       <c r="Q66" s="1" t="str">
-        <f t="shared" ca="1" si="136"/>
+        <f t="shared" ca="1" si="124"/>
         <v/>
       </c>
       <c r="R66" s="1" t="str">
-        <f t="shared" ca="1" si="137"/>
+        <f t="shared" ca="1" si="125"/>
         <v/>
       </c>
       <c r="S66" s="1">
-        <f t="shared" ca="1" si="138"/>
+        <f t="shared" ca="1" si="126"/>
         <v>2</v>
       </c>
       <c r="T66" s="1">
         <v>4</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" ca="1" si="139"/>
+        <f t="shared" ca="1" si="127"/>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" ca="1" si="140"/>
+        <f t="shared" ca="1" si="128"/>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" ca="1" si="141"/>
+        <f t="shared" ca="1" si="129"/>
         <v>1</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" ca="1" si="142"/>
+        <f t="shared" ca="1" si="130"/>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" ca="1" si="143"/>
+        <f t="shared" ca="1" si="131"/>
         <v>1</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" ca="1" si="144"/>
+        <f t="shared" ca="1" si="132"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A67" s="207" t="s">
+      <c r="A67" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="208"/>
+      <c r="B67" s="284"/>
       <c r="C67" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="209"/>
-      <c r="E67" s="208"/>
+      <c r="D67" s="285"/>
+      <c r="E67" s="284"/>
       <c r="F67" s="52"/>
       <c r="G67" s="117"/>
       <c r="H67" s="55" t="s">
@@ -9093,65 +9091,65 @@
       </c>
       <c r="I67" s="115"/>
       <c r="J67" s="116"/>
-      <c r="K67" s="210">
-        <f t="shared" ref="K67:K70" si="145">IFERROR(ROUNDDOWN(G67*ROUNDDOWN(I67,4)*J67,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="211"/>
+      <c r="K67" s="286">
+        <f>IFERROR(ROUNDDOWN(G67*ROUNDDOWN(I67,4)*J67,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="287"/>
       <c r="M67" s="99"/>
-      <c r="N67" s="212"/>
-      <c r="O67" s="212"/>
-      <c r="P67" s="213"/>
+      <c r="N67" s="288"/>
+      <c r="O67" s="288"/>
+      <c r="P67" s="289"/>
       <c r="Q67" s="1" t="str">
-        <f t="shared" ref="Q67:Q70" ca="1" si="146">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q67:Q70" ca="1" si="133">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R67" s="1" t="str">
-        <f t="shared" ref="R67:R70" ca="1" si="147">IFERROR(VLOOKUP(D67,OFFSET(pulldown_company,0,U67+X67,Z67,1),1,FALSE),"")</f>
+        <f t="shared" ref="R67:R70" ca="1" si="134">IFERROR(VLOOKUP(D67,OFFSET(pulldown_company,0,U67+X67,Z67,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S67" s="1">
-        <f t="shared" ref="S67:S70" ca="1" si="148">IFERROR(VLOOKUP(H67,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S67:S70" ca="1" si="135">IFERROR(VLOOKUP(H67,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T67" s="1">
         <v>4</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" ref="U67:U70" ca="1" si="149">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U67:U70" ca="1" si="136">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" ref="V67:V70" ca="1" si="150">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V67:V70" ca="1" si="137">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" ref="W67:W70" ca="1" si="151">(V67-U67)+1</f>
+        <f t="shared" ref="W67:W70" ca="1" si="138">(V67-U67)+1</f>
         <v>1</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" ref="X67:X70" ca="1" si="152">IFERROR(MATCH(A67,OFFSET(pulldown_level1,0,U67,1,W67),0)-1,0)</f>
+        <f t="shared" ref="X67:X70" ca="1" si="139">IFERROR(MATCH(A67,OFFSET(pulldown_level1,0,U67,1,W67),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" ref="Y67:Y70" ca="1" si="153">IF(X67=0,1,COUNTA(OFFSET(pulldown_level2,0,U67+X67,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y67:Y70" ca="1" si="140">IF(X67=0,1,COUNTA(OFFSET(pulldown_level2,0,U67+X67,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" ref="Z67:Z70" ca="1" si="154">IF(X67=0,1,COUNTA(OFFSET(pulldown_company,0,U67+X67,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z67:Z70" ca="1" si="141">IF(X67=0,1,COUNTA(OFFSET(pulldown_company,0,U67+X67,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A68" s="207" t="s">
+      <c r="A68" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="208"/>
+      <c r="B68" s="284"/>
       <c r="C68" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="209"/>
-      <c r="E68" s="208"/>
+      <c r="D68" s="285"/>
+      <c r="E68" s="284"/>
       <c r="F68" s="52"/>
       <c r="G68" s="117"/>
       <c r="H68" s="55" t="s">
@@ -9159,65 +9157,65 @@
       </c>
       <c r="I68" s="115"/>
       <c r="J68" s="116"/>
-      <c r="K68" s="210">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="211"/>
+      <c r="K68" s="286">
+        <f>IFERROR(ROUNDDOWN(G68*ROUNDDOWN(I68,4)*J68,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="287"/>
       <c r="M68" s="99"/>
-      <c r="N68" s="212"/>
-      <c r="O68" s="212"/>
-      <c r="P68" s="213"/>
+      <c r="N68" s="288"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="289"/>
       <c r="Q68" s="1" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="133"/>
         <v/>
       </c>
       <c r="R68" s="1" t="str">
-        <f t="shared" ca="1" si="147"/>
+        <f t="shared" ca="1" si="134"/>
         <v/>
       </c>
       <c r="S68" s="1">
-        <f t="shared" ca="1" si="148"/>
+        <f t="shared" ca="1" si="135"/>
         <v>2</v>
       </c>
       <c r="T68" s="1">
         <v>4</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ca="1" si="149"/>
+        <f t="shared" ca="1" si="136"/>
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" ca="1" si="150"/>
+        <f t="shared" ca="1" si="137"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" ca="1" si="151"/>
+        <f t="shared" ca="1" si="138"/>
         <v>1</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" ca="1" si="152"/>
+        <f t="shared" ca="1" si="139"/>
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" ca="1" si="153"/>
+        <f t="shared" ca="1" si="140"/>
         <v>1</v>
       </c>
       <c r="Z68" s="1">
-        <f t="shared" ca="1" si="154"/>
+        <f t="shared" ca="1" si="141"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A69" s="207" t="s">
+      <c r="A69" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="208"/>
+      <c r="B69" s="284"/>
       <c r="C69" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="209"/>
-      <c r="E69" s="208"/>
+      <c r="D69" s="285"/>
+      <c r="E69" s="284"/>
       <c r="F69" s="52"/>
       <c r="G69" s="117"/>
       <c r="H69" s="55" t="s">
@@ -9225,65 +9223,65 @@
       </c>
       <c r="I69" s="115"/>
       <c r="J69" s="116"/>
-      <c r="K69" s="210">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="211"/>
+      <c r="K69" s="286">
+        <f>IFERROR(ROUNDDOWN(G69*ROUNDDOWN(I69,4)*J69,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="287"/>
       <c r="M69" s="99"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="212"/>
-      <c r="P69" s="213"/>
+      <c r="N69" s="288"/>
+      <c r="O69" s="288"/>
+      <c r="P69" s="289"/>
       <c r="Q69" s="1" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="133"/>
         <v/>
       </c>
       <c r="R69" s="1" t="str">
-        <f t="shared" ca="1" si="147"/>
+        <f t="shared" ca="1" si="134"/>
         <v/>
       </c>
       <c r="S69" s="1">
-        <f t="shared" ca="1" si="148"/>
+        <f t="shared" ca="1" si="135"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
         <v>4</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" ca="1" si="149"/>
+        <f t="shared" ca="1" si="136"/>
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" ca="1" si="150"/>
+        <f t="shared" ca="1" si="137"/>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" ca="1" si="151"/>
+        <f t="shared" ca="1" si="138"/>
         <v>1</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" ca="1" si="152"/>
+        <f t="shared" ca="1" si="139"/>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" ca="1" si="153"/>
+        <f t="shared" ca="1" si="140"/>
         <v>1</v>
       </c>
       <c r="Z69" s="1">
-        <f t="shared" ca="1" si="154"/>
+        <f t="shared" ca="1" si="141"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A70" s="207" t="s">
+      <c r="A70" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="208"/>
+      <c r="B70" s="284"/>
       <c r="C70" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="209"/>
-      <c r="E70" s="208"/>
+      <c r="D70" s="285"/>
+      <c r="E70" s="284"/>
       <c r="F70" s="52"/>
       <c r="G70" s="117"/>
       <c r="H70" s="55" t="s">
@@ -9291,65 +9289,65 @@
       </c>
       <c r="I70" s="115"/>
       <c r="J70" s="116"/>
-      <c r="K70" s="210">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="211"/>
+      <c r="K70" s="286">
+        <f>IFERROR(ROUNDDOWN(G70*ROUNDDOWN(I70,4)*J70,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="287"/>
       <c r="M70" s="99"/>
-      <c r="N70" s="212"/>
-      <c r="O70" s="212"/>
-      <c r="P70" s="213"/>
+      <c r="N70" s="288"/>
+      <c r="O70" s="288"/>
+      <c r="P70" s="289"/>
       <c r="Q70" s="1" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="133"/>
         <v/>
       </c>
       <c r="R70" s="1" t="str">
-        <f t="shared" ca="1" si="147"/>
+        <f t="shared" ca="1" si="134"/>
         <v/>
       </c>
       <c r="S70" s="1">
-        <f t="shared" ca="1" si="148"/>
+        <f t="shared" ca="1" si="135"/>
         <v>2</v>
       </c>
       <c r="T70" s="1">
         <v>4</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" ca="1" si="149"/>
+        <f t="shared" ca="1" si="136"/>
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" ca="1" si="150"/>
+        <f t="shared" ca="1" si="137"/>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ca="1" si="151"/>
+        <f t="shared" ca="1" si="138"/>
         <v>1</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" ca="1" si="152"/>
+        <f t="shared" ca="1" si="139"/>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" ca="1" si="153"/>
+        <f t="shared" ca="1" si="140"/>
         <v>1</v>
       </c>
       <c r="Z70" s="1">
-        <f t="shared" ca="1" si="154"/>
+        <f t="shared" ca="1" si="141"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A71" s="207" t="s">
+      <c r="A71" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="208"/>
+      <c r="B71" s="284"/>
       <c r="C71" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="209"/>
-      <c r="E71" s="208"/>
+      <c r="D71" s="285"/>
+      <c r="E71" s="284"/>
       <c r="F71" s="52"/>
       <c r="G71" s="117"/>
       <c r="H71" s="55" t="s">
@@ -9357,65 +9355,65 @@
       </c>
       <c r="I71" s="115"/>
       <c r="J71" s="116"/>
-      <c r="K71" s="210">
-        <f t="shared" ref="K71:K72" si="155">IFERROR(ROUNDDOWN(G71*ROUNDDOWN(I71,4)*J71,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="211"/>
+      <c r="K71" s="286">
+        <f>IFERROR(ROUNDDOWN(G71*ROUNDDOWN(I71,4)*J71,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="287"/>
       <c r="M71" s="99"/>
-      <c r="N71" s="212"/>
-      <c r="O71" s="212"/>
-      <c r="P71" s="213"/>
+      <c r="N71" s="288"/>
+      <c r="O71" s="288"/>
+      <c r="P71" s="289"/>
       <c r="Q71" s="1" t="str">
-        <f t="shared" ref="Q71:Q72" ca="1" si="156">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q71:Q72" ca="1" si="142">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R71" s="1" t="str">
-        <f t="shared" ref="R71:R72" ca="1" si="157">IFERROR(VLOOKUP(D71,OFFSET(pulldown_company,0,U71+X71,Z71,1),1,FALSE),"")</f>
+        <f t="shared" ref="R71:R72" ca="1" si="143">IFERROR(VLOOKUP(D71,OFFSET(pulldown_company,0,U71+X71,Z71,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S71" s="1">
-        <f t="shared" ref="S71:S72" ca="1" si="158">IFERROR(VLOOKUP(H71,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S71:S72" ca="1" si="144">IFERROR(VLOOKUP(H71,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T71" s="1">
         <v>4</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:U72" ca="1" si="159">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U71:U72" ca="1" si="145">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" ref="V71:V72" ca="1" si="160">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V71:V72" ca="1" si="146">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" ref="W71:W72" ca="1" si="161">(V71-U71)+1</f>
+        <f t="shared" ref="W71:W72" ca="1" si="147">(V71-U71)+1</f>
         <v>1</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" ref="X71:X72" ca="1" si="162">IFERROR(MATCH(A71,OFFSET(pulldown_level1,0,U71,1,W71),0)-1,0)</f>
+        <f t="shared" ref="X71:X72" ca="1" si="148">IFERROR(MATCH(A71,OFFSET(pulldown_level1,0,U71,1,W71),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" ref="Y71:Y72" ca="1" si="163">IF(X71=0,1,COUNTA(OFFSET(pulldown_level2,0,U71+X71,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y71:Y72" ca="1" si="149">IF(X71=0,1,COUNTA(OFFSET(pulldown_level2,0,U71+X71,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z71" s="1">
-        <f t="shared" ref="Z71:Z72" ca="1" si="164">IF(X71=0,1,COUNTA(OFFSET(pulldown_company,0,U71+X71,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z71:Z72" ca="1" si="150">IF(X71=0,1,COUNTA(OFFSET(pulldown_company,0,U71+X71,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A72" s="207" t="s">
+      <c r="A72" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="208"/>
+      <c r="B72" s="284"/>
       <c r="C72" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="209"/>
-      <c r="E72" s="208"/>
+      <c r="D72" s="285"/>
+      <c r="E72" s="284"/>
       <c r="F72" s="52"/>
       <c r="G72" s="117"/>
       <c r="H72" s="55" t="s">
@@ -9423,65 +9421,65 @@
       </c>
       <c r="I72" s="115"/>
       <c r="J72" s="116"/>
-      <c r="K72" s="210">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="211"/>
+      <c r="K72" s="286">
+        <f>IFERROR(ROUNDDOWN(G72*ROUNDDOWN(I72,4)*J72,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="287"/>
       <c r="M72" s="99"/>
-      <c r="N72" s="212"/>
-      <c r="O72" s="212"/>
-      <c r="P72" s="213"/>
+      <c r="N72" s="288"/>
+      <c r="O72" s="288"/>
+      <c r="P72" s="289"/>
       <c r="Q72" s="1" t="str">
-        <f t="shared" ca="1" si="156"/>
+        <f t="shared" ca="1" si="142"/>
         <v/>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" ca="1" si="157"/>
+        <f t="shared" ca="1" si="143"/>
         <v/>
       </c>
       <c r="S72" s="1">
-        <f t="shared" ca="1" si="158"/>
+        <f t="shared" ca="1" si="144"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
         <v>4</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" ca="1" si="159"/>
+        <f t="shared" ca="1" si="145"/>
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" ca="1" si="160"/>
+        <f t="shared" ca="1" si="146"/>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" ca="1" si="161"/>
+        <f t="shared" ca="1" si="147"/>
         <v>1</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" ca="1" si="162"/>
+        <f t="shared" ca="1" si="148"/>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" ca="1" si="163"/>
+        <f t="shared" ca="1" si="149"/>
         <v>1</v>
       </c>
       <c r="Z72" s="1">
-        <f t="shared" ca="1" si="164"/>
+        <f t="shared" ca="1" si="150"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A73" s="207" t="s">
+      <c r="A73" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="208"/>
+      <c r="B73" s="284"/>
       <c r="C73" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="209"/>
-      <c r="E73" s="208"/>
+      <c r="D73" s="285"/>
+      <c r="E73" s="284"/>
       <c r="F73" s="52"/>
       <c r="G73" s="117"/>
       <c r="H73" s="55" t="s">
@@ -9489,61 +9487,61 @@
       </c>
       <c r="I73" s="115"/>
       <c r="J73" s="116"/>
-      <c r="K73" s="210">
-        <f t="shared" ref="K73" si="165">IFERROR(ROUNDDOWN(G73*ROUNDDOWN(I73,4)*J73,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="211"/>
+      <c r="K73" s="286">
+        <f>IFERROR(ROUNDDOWN(G73*ROUNDDOWN(I73,4)*J73,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="287"/>
       <c r="M73" s="99"/>
-      <c r="N73" s="212"/>
-      <c r="O73" s="212"/>
-      <c r="P73" s="213"/>
+      <c r="N73" s="288"/>
+      <c r="O73" s="288"/>
+      <c r="P73" s="289"/>
       <c r="Q73" s="1" t="str">
-        <f t="shared" ref="Q73" ca="1" si="166">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q73" ca="1" si="151">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R73" s="1" t="str">
-        <f t="shared" ref="R73" ca="1" si="167">IFERROR(VLOOKUP(D73,OFFSET(pulldown_company,0,U73+X73,Z73,1),1,FALSE),"")</f>
+        <f t="shared" ref="R73" ca="1" si="152">IFERROR(VLOOKUP(D73,OFFSET(pulldown_company,0,U73+X73,Z73,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S73" s="1">
-        <f t="shared" ref="S73" ca="1" si="168">IFERROR(VLOOKUP(H73,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S73" ca="1" si="153">IFERROR(VLOOKUP(H73,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T73" s="1">
         <v>4</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" ref="U73" ca="1" si="169">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U73" ca="1" si="154">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" ref="V73" ca="1" si="170">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V73" ca="1" si="155">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" ref="W73" ca="1" si="171">(V73-U73)+1</f>
+        <f t="shared" ref="W73" ca="1" si="156">(V73-U73)+1</f>
         <v>1</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" ref="X73" ca="1" si="172">IFERROR(MATCH(A73,OFFSET(pulldown_level1,0,U73,1,W73),0)-1,0)</f>
+        <f t="shared" ref="X73" ca="1" si="157">IFERROR(MATCH(A73,OFFSET(pulldown_level1,0,U73,1,W73),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" ref="Y73" ca="1" si="173">IF(X73=0,1,COUNTA(OFFSET(pulldown_level2,0,U73+X73,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y73" ca="1" si="158">IF(X73=0,1,COUNTA(OFFSET(pulldown_level2,0,U73+X73,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z73" s="1">
-        <f t="shared" ref="Z73" ca="1" si="174">IF(X73=0,1,COUNTA(OFFSET(pulldown_company,0,U73+X73,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z73" ca="1" si="159">IF(X73=0,1,COUNTA(OFFSET(pulldown_company,0,U73+X73,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A74" s="307"/>
-      <c r="B74" s="308"/>
+      <c r="A74" s="248"/>
+      <c r="B74" s="249"/>
       <c r="C74" s="123"/>
-      <c r="D74" s="309"/>
-      <c r="E74" s="308"/>
+      <c r="D74" s="250"/>
+      <c r="E74" s="249"/>
       <c r="F74" s="124"/>
       <c r="G74" s="125"/>
       <c r="H74" s="126" t="s">
@@ -9551,61 +9549,61 @@
       </c>
       <c r="I74" s="127"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="310">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="311"/>
+      <c r="K74" s="251">
+        <f>IFERROR(ROUNDDOWN(G74*ROUNDDOWN(I74,4)*J74,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="252"/>
       <c r="M74" s="199"/>
-      <c r="N74" s="312"/>
-      <c r="O74" s="312"/>
-      <c r="P74" s="313"/>
+      <c r="N74" s="253"/>
+      <c r="O74" s="253"/>
+      <c r="P74" s="254"/>
       <c r="Q74" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
       <c r="R74" s="1" t="str">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74:S76" ca="1" si="175">IFERROR(VLOOKUP(H74,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S74:S76" ca="1" si="160">IFERROR(VLOOKUP(H74,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T74" s="1">
         <v>4</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" ref="U74:U76" ca="1" si="176">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U74:U76" ca="1" si="161">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74:V76" ca="1" si="177">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V74:V76" ca="1" si="162">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="111"/>
         <v>1</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="113"/>
         <v>1</v>
       </c>
       <c r="Z74" s="1">
-        <f t="shared" ref="Z74:Z76" ca="1" si="178">IF(X74=0,1,COUNTA(OFFSET(pulldown_company,0,U74+X74,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z74:Z76" ca="1" si="163">IF(X74=0,1,COUNTA(OFFSET(pulldown_company,0,U74+X74,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A75" s="314"/>
-      <c r="B75" s="315"/>
+      <c r="A75" s="255"/>
+      <c r="B75" s="256"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="316"/>
-      <c r="E75" s="317"/>
+      <c r="D75" s="257"/>
+      <c r="E75" s="258"/>
       <c r="F75" s="205"/>
       <c r="G75" s="119"/>
       <c r="H75" s="120" t="s">
@@ -9613,61 +9611,61 @@
       </c>
       <c r="I75" s="121"/>
       <c r="J75" s="122"/>
-      <c r="K75" s="318">
-        <f t="shared" ref="K75:K76" si="179">IFERROR(ROUNDDOWN(G75*IF(AND(LEFT(A75,4)="401:",LEFT(C75,2)="1:",F75&lt;&gt;""),IF(D75&lt;&gt;0&amp;G75&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F75*retailprice,4),""),IF(AND(LEFT(A75,5)="1224:",LEFT(C75,2)="3:",F75&lt;&gt;""),ROUNDDOWN(F75*tariff_total,4),ROUNDDOWN(I75,4)))*J75,2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="319"/>
+      <c r="K75" s="259">
+        <f>IFERROR(ROUNDDOWN(G75*IF(AND(LEFT(A75,4)="401:",LEFT(C75,2)="1:",F75&lt;&gt;""),IF(D75&lt;&gt;0&amp;G75&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F75*retailprice,4),""),IF(AND(LEFT(A75,5)="1224:",LEFT(C75,2)="3:",F75&lt;&gt;""),ROUNDDOWN(F75*tariff_total,4),ROUNDDOWN(I75,4)))*J75,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="260"/>
       <c r="M75" s="200"/>
-      <c r="N75" s="229"/>
-      <c r="O75" s="230"/>
-      <c r="P75" s="231"/>
+      <c r="N75" s="261"/>
+      <c r="O75" s="262"/>
+      <c r="P75" s="263"/>
       <c r="Q75" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
       <c r="R75" s="1" t="str">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="S75" s="1">
-        <f t="shared" ca="1" si="175"/>
+        <f t="shared" ca="1" si="160"/>
         <v>1</v>
       </c>
       <c r="T75" s="1">
         <v>5</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" ca="1" si="176"/>
+        <f t="shared" ca="1" si="161"/>
         <v>15</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" ca="1" si="177"/>
+        <f t="shared" ca="1" si="162"/>
         <v>15</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="111"/>
         <v>1</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="113"/>
         <v>1</v>
       </c>
       <c r="Z75" s="1">
-        <f t="shared" ca="1" si="178"/>
+        <f t="shared" ca="1" si="163"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A76" s="328"/>
-      <c r="B76" s="329"/>
+      <c r="A76" s="272"/>
+      <c r="B76" s="273"/>
       <c r="C76" s="198"/>
-      <c r="D76" s="330"/>
-      <c r="E76" s="331"/>
+      <c r="D76" s="274"/>
+      <c r="E76" s="275"/>
       <c r="F76" s="206"/>
       <c r="G76" s="94"/>
       <c r="H76" s="88" t="s">
@@ -9675,52 +9673,52 @@
       </c>
       <c r="I76" s="92"/>
       <c r="J76" s="106"/>
-      <c r="K76" s="332">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="333"/>
+      <c r="K76" s="276">
+        <f>IFERROR(ROUNDDOWN(G76*IF(AND(LEFT(A76,4)="401:",LEFT(C76,2)="1:",F76&lt;&gt;""),IF(D76&lt;&gt;0&amp;G76&lt;&gt;0&amp;retailprice&lt;&gt;0,ROUNDDOWN(F76*retailprice,4),""),IF(AND(LEFT(A76,5)="1224:",LEFT(C76,2)="3:",F76&lt;&gt;""),ROUNDDOWN(F76*tariff_total,4),ROUNDDOWN(I76,4)))*J76,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="277"/>
       <c r="M76" s="107"/>
-      <c r="N76" s="334"/>
-      <c r="O76" s="335"/>
-      <c r="P76" s="336"/>
+      <c r="N76" s="278"/>
+      <c r="O76" s="279"/>
+      <c r="P76" s="280"/>
       <c r="Q76" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="106"/>
         <v/>
       </c>
       <c r="R76" s="1" t="str">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="107"/>
         <v/>
       </c>
       <c r="S76" s="1">
-        <f t="shared" ca="1" si="175"/>
+        <f t="shared" ca="1" si="160"/>
         <v>1</v>
       </c>
       <c r="T76" s="1">
         <v>5</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" ca="1" si="176"/>
+        <f t="shared" ca="1" si="161"/>
         <v>15</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" ca="1" si="177"/>
+        <f t="shared" ca="1" si="162"/>
         <v>15</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="111"/>
         <v>1</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="113"/>
         <v>1</v>
       </c>
       <c r="Z76" s="1">
-        <f t="shared" ca="1" si="178"/>
+        <f t="shared" ca="1" si="163"/>
         <v>1</v>
       </c>
     </row>
@@ -9738,48 +9736,48 @@
       <c r="K77" s="87"/>
       <c r="L77" s="87"/>
       <c r="M77" s="13"/>
-      <c r="N77" s="337"/>
-      <c r="O77" s="337"/>
-      <c r="P77" s="338"/>
+      <c r="N77" s="234"/>
+      <c r="O77" s="234"/>
+      <c r="P77" s="281"/>
     </row>
     <row r="78" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A78" s="339" t="s">
+      <c r="A78" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="322"/>
+      <c r="B78" s="266"/>
       <c r="C78" s="170">
         <f>I28</f>
         <v>0</v>
       </c>
       <c r="D78" s="167"/>
-      <c r="E78" s="320" t="s">
+      <c r="E78" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="321"/>
-      <c r="G78" s="322"/>
-      <c r="H78" s="323">
+      <c r="F78" s="265"/>
+      <c r="G78" s="266"/>
+      <c r="H78" s="267">
         <f>I33</f>
         <v>0</v>
       </c>
-      <c r="I78" s="324"/>
+      <c r="I78" s="268"/>
       <c r="J78" s="171"/>
       <c r="K78" s="108"/>
-      <c r="L78" s="325" t="s">
+      <c r="L78" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="M78" s="326"/>
-      <c r="N78" s="327">
+      <c r="M78" s="270"/>
+      <c r="N78" s="271">
         <f>C78+H78</f>
         <v>0</v>
       </c>
-      <c r="O78" s="324"/>
+      <c r="O78" s="268"/>
       <c r="P78" s="168"/>
     </row>
     <row r="79" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A79" s="369" t="s">
+      <c r="A79" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="370"/>
+      <c r="B79" s="217"/>
       <c r="C79" s="172">
         <f>C78-K84</f>
         <v>0</v>
@@ -9788,30 +9786,30 @@
         <f>IF(C78=0,0,C79/C78)</f>
         <v>0</v>
       </c>
-      <c r="E79" s="371" t="s">
+      <c r="E79" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="372"/>
-      <c r="G79" s="373"/>
-      <c r="H79" s="374">
+      <c r="F79" s="219"/>
+      <c r="G79" s="220"/>
+      <c r="H79" s="221">
         <f>H78-N49</f>
         <v>0</v>
       </c>
-      <c r="I79" s="375"/>
+      <c r="I79" s="222"/>
       <c r="J79" s="174"/>
       <c r="K79" s="173">
         <f>IF(H78=0,0,H79/H78)</f>
         <v>0</v>
       </c>
-      <c r="L79" s="371" t="s">
+      <c r="L79" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="M79" s="373"/>
-      <c r="N79" s="376">
+      <c r="M79" s="220"/>
+      <c r="N79" s="223">
         <f>C79+H79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="375"/>
+      <c r="O79" s="222"/>
       <c r="P79" s="175">
         <f>IF(N78=0,0,N79/N78)</f>
         <v>0</v>
@@ -9828,16 +9826,16 @@
       <c r="H80" s="176"/>
       <c r="I80" s="176"/>
       <c r="J80" s="177"/>
-      <c r="K80" s="377" t="s">
+      <c r="K80" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="L80" s="378"/>
-      <c r="M80" s="379"/>
-      <c r="N80" s="348">
+      <c r="L80" s="225"/>
+      <c r="M80" s="226"/>
+      <c r="N80" s="227">
         <f>ROUNDDOWN((N78*P80),0)</f>
         <v>0</v>
       </c>
-      <c r="O80" s="349"/>
+      <c r="O80" s="228"/>
       <c r="P80" s="178">
         <v>6.08E-2</v>
       </c>
@@ -9853,32 +9851,32 @@
       <c r="H81" s="179"/>
       <c r="I81" s="180"/>
       <c r="J81" s="181"/>
-      <c r="K81" s="357" t="s">
+      <c r="K81" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="L81" s="364"/>
-      <c r="M81" s="358"/>
-      <c r="N81" s="355">
+      <c r="L81" s="208"/>
+      <c r="M81" s="209"/>
+      <c r="N81" s="210">
         <f>N79-N80</f>
         <v>0</v>
       </c>
-      <c r="O81" s="356"/>
+      <c r="O81" s="211"/>
       <c r="P81" s="182">
         <f>IF(N78=0,0,N81/N78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A82" s="365" t="s">
+      <c r="A82" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="366"/>
-      <c r="C82" s="367" t="s">
+      <c r="B82" s="213"/>
+      <c r="C82" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="367"/>
-      <c r="E82" s="367"/>
-      <c r="F82" s="367"/>
+      <c r="D82" s="214"/>
+      <c r="E82" s="214"/>
+      <c r="F82" s="214"/>
       <c r="G82" s="183">
         <f>$P$4</f>
         <v>0</v>
@@ -9889,27 +9887,27 @@
         <v>0</v>
       </c>
       <c r="J82" s="185"/>
-      <c r="K82" s="368">
+      <c r="K82" s="215">
         <f>SUMIF(F52:F76,"&lt;&gt;"&amp;hdn_payoff_circle,K52:K76)</f>
         <v>0</v>
       </c>
-      <c r="L82" s="368"/>
+      <c r="L82" s="215"/>
       <c r="M82" s="186"/>
-      <c r="N82" s="367"/>
-      <c r="O82" s="367"/>
+      <c r="N82" s="214"/>
+      <c r="O82" s="214"/>
       <c r="P82" s="187"/>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A83" s="345" t="s">
+      <c r="A83" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="346"/>
-      <c r="C83" s="347" t="s">
+      <c r="B83" s="236"/>
+      <c r="C83" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="347"/>
-      <c r="E83" s="347"/>
-      <c r="F83" s="347"/>
+      <c r="D83" s="237"/>
+      <c r="E83" s="237"/>
+      <c r="F83" s="237"/>
       <c r="G83" s="188">
         <f>$P$4</f>
         <v>0</v>
@@ -9920,27 +9918,27 @@
         <v>0</v>
       </c>
       <c r="J83" s="191"/>
-      <c r="K83" s="348">
+      <c r="K83" s="227">
         <f>SUMIF(F36:F76,hdn_payoff_circle,K36:K76)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="349"/>
+      <c r="L83" s="228"/>
       <c r="M83" s="192"/>
-      <c r="N83" s="350"/>
-      <c r="O83" s="351"/>
+      <c r="N83" s="238"/>
+      <c r="O83" s="239"/>
       <c r="P83" s="193"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="352" t="s">
+      <c r="A84" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="353"/>
-      <c r="C84" s="354" t="s">
+      <c r="B84" s="241"/>
+      <c r="C84" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="354"/>
-      <c r="E84" s="354"/>
-      <c r="F84" s="354"/>
+      <c r="D84" s="242"/>
+      <c r="E84" s="242"/>
+      <c r="F84" s="242"/>
       <c r="G84" s="194">
         <f>$P$4</f>
         <v>0</v>
@@ -9951,60 +9949,60 @@
         <v>0</v>
       </c>
       <c r="J84" s="197"/>
-      <c r="K84" s="355">
+      <c r="K84" s="210">
         <f>SUM(K82:K83)</f>
         <v>0</v>
       </c>
-      <c r="L84" s="356"/>
-      <c r="M84" s="357" t="s">
+      <c r="L84" s="211"/>
+      <c r="M84" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="N84" s="358"/>
-      <c r="O84" s="359">
+      <c r="N84" s="209"/>
+      <c r="O84" s="243">
         <f>N49</f>
         <v>0</v>
       </c>
-      <c r="P84" s="360"/>
+      <c r="P84" s="244"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A85" s="343"/>
-      <c r="B85" s="343"/>
-      <c r="C85" s="343"/>
-      <c r="D85" s="343"/>
-      <c r="E85" s="343"/>
-      <c r="F85" s="343"/>
-      <c r="G85" s="343"/>
+      <c r="A85" s="232"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
+      <c r="D85" s="232"/>
+      <c r="E85" s="232"/>
+      <c r="F85" s="232"/>
+      <c r="G85" s="232"/>
       <c r="H85" s="89"/>
-      <c r="I85" s="344" t="s">
+      <c r="I85" s="233" t="s">
         <v>80</v>
       </c>
-      <c r="J85" s="344"/>
-      <c r="K85" s="344"/>
-      <c r="L85" s="344"/>
-      <c r="M85" s="344"/>
-      <c r="N85" s="344"/>
-      <c r="O85" s="344"/>
-      <c r="P85" s="344"/>
+      <c r="J85" s="233"/>
+      <c r="K85" s="233"/>
+      <c r="L85" s="233"/>
+      <c r="M85" s="233"/>
+      <c r="N85" s="233"/>
+      <c r="O85" s="233"/>
+      <c r="P85" s="233"/>
     </row>
     <row r="86" spans="1:25" ht="9" hidden="1" customHeight="1">
-      <c r="A86" s="337" t="s">
+      <c r="A86" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="337"/>
-      <c r="C86" s="337"/>
-      <c r="D86" s="337"/>
-      <c r="E86" s="337"/>
-      <c r="F86" s="337"/>
-      <c r="G86" s="337"/>
-      <c r="H86" s="337"/>
-      <c r="I86" s="337"/>
-      <c r="J86" s="337"/>
-      <c r="K86" s="337"/>
-      <c r="L86" s="337"/>
-      <c r="M86" s="337"/>
-      <c r="N86" s="337"/>
-      <c r="O86" s="337"/>
-      <c r="P86" s="337"/>
+      <c r="B86" s="234"/>
+      <c r="C86" s="234"/>
+      <c r="D86" s="234"/>
+      <c r="E86" s="234"/>
+      <c r="F86" s="234"/>
+      <c r="G86" s="234"/>
+      <c r="H86" s="234"/>
+      <c r="I86" s="234"/>
+      <c r="J86" s="234"/>
+      <c r="K86" s="234"/>
+      <c r="L86" s="234"/>
+      <c r="M86" s="234"/>
+      <c r="N86" s="234"/>
+      <c r="O86" s="234"/>
+      <c r="P86" s="234"/>
       <c r="Q86" s="129"/>
       <c r="R86" s="129"/>
       <c r="S86" s="129"/>
@@ -10221,7 +10219,7 @@
       <c r="X95" s="36"/>
     </row>
     <row r="96" spans="1:25" s="18" customFormat="1" hidden="1">
-      <c r="A96" s="361" t="s">
+      <c r="A96" s="245" t="s">
         <v>107</v>
       </c>
       <c r="B96" s="17"/>
@@ -10243,7 +10241,7 @@
       <c r="U96" s="130"/>
     </row>
     <row r="97" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A97" s="362"/>
+      <c r="A97" s="246"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -10265,7 +10263,7 @@
       <c r="U97" s="130"/>
     </row>
     <row r="98" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A98" s="362"/>
+      <c r="A98" s="246"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -10287,7 +10285,7 @@
       <c r="R98" s="20"/>
     </row>
     <row r="99" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A99" s="362"/>
+      <c r="A99" s="246"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -10309,7 +10307,7 @@
       <c r="R99" s="20"/>
     </row>
     <row r="100" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A100" s="362"/>
+      <c r="A100" s="246"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -10330,7 +10328,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A101" s="362"/>
+      <c r="A101" s="246"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -10349,7 +10347,7 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A102" s="362"/>
+      <c r="A102" s="246"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -10368,7 +10366,7 @@
       <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="1:21" s="18" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A103" s="362"/>
+      <c r="A103" s="246"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -10387,7 +10385,7 @@
       <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A104" s="362"/>
+      <c r="A104" s="246"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -10406,7 +10404,7 @@
       <c r="Q104" s="14"/>
     </row>
     <row r="105" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A105" s="362"/>
+      <c r="A105" s="246"/>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -10425,7 +10423,7 @@
       <c r="Q105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A106" s="362"/>
+      <c r="A106" s="246"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -10444,7 +10442,7 @@
       <c r="Q106" s="14"/>
     </row>
     <row r="107" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A107" s="362"/>
+      <c r="A107" s="246"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -10463,7 +10461,7 @@
       <c r="Q107" s="14"/>
     </row>
     <row r="108" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A108" s="362"/>
+      <c r="A108" s="246"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -10482,7 +10480,7 @@
       <c r="Q108" s="14"/>
     </row>
     <row r="109" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A109" s="362"/>
+      <c r="A109" s="246"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -10501,7 +10499,7 @@
       <c r="Q109" s="14"/>
     </row>
     <row r="110" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A110" s="362"/>
+      <c r="A110" s="246"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -10520,7 +10518,7 @@
       <c r="Q110" s="14"/>
     </row>
     <row r="111" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A111" s="362"/>
+      <c r="A111" s="246"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -10539,7 +10537,7 @@
       <c r="Q111" s="14"/>
     </row>
     <row r="112" spans="1:21" s="18" customFormat="1" hidden="1">
-      <c r="A112" s="362"/>
+      <c r="A112" s="246"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -10558,7 +10556,7 @@
       <c r="Q112" s="14"/>
     </row>
     <row r="113" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A113" s="362"/>
+      <c r="A113" s="246"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -10577,7 +10575,7 @@
       <c r="Q113" s="17"/>
     </row>
     <row r="114" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A114" s="362"/>
+      <c r="A114" s="246"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -10596,7 +10594,7 @@
       <c r="Q114" s="17"/>
     </row>
     <row r="115" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A115" s="362"/>
+      <c r="A115" s="246"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -10615,7 +10613,7 @@
       <c r="Q115" s="17"/>
     </row>
     <row r="116" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A116" s="362"/>
+      <c r="A116" s="246"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -10634,7 +10632,7 @@
       <c r="Q116" s="17"/>
     </row>
     <row r="117" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A117" s="362"/>
+      <c r="A117" s="246"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -10653,7 +10651,7 @@
       <c r="Q117" s="17"/>
     </row>
     <row r="118" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A118" s="362"/>
+      <c r="A118" s="246"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -10672,7 +10670,7 @@
       <c r="Q118" s="17"/>
     </row>
     <row r="119" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A119" s="362"/>
+      <c r="A119" s="246"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -10691,7 +10689,7 @@
       <c r="Q119" s="17"/>
     </row>
     <row r="120" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A120" s="362"/>
+      <c r="A120" s="246"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -10710,7 +10708,7 @@
       <c r="Q120" s="17"/>
     </row>
     <row r="121" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A121" s="362"/>
+      <c r="A121" s="246"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -10729,7 +10727,7 @@
       <c r="Q121" s="17"/>
     </row>
     <row r="122" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A122" s="362"/>
+      <c r="A122" s="246"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -10748,7 +10746,7 @@
       <c r="Q122" s="17"/>
     </row>
     <row r="123" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A123" s="362"/>
+      <c r="A123" s="246"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -10767,7 +10765,7 @@
       <c r="Q123" s="17"/>
     </row>
     <row r="124" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A124" s="362"/>
+      <c r="A124" s="246"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -10786,7 +10784,7 @@
       <c r="Q124" s="17"/>
     </row>
     <row r="125" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A125" s="362"/>
+      <c r="A125" s="246"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -10805,7 +10803,7 @@
       <c r="Q125" s="17"/>
     </row>
     <row r="126" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A126" s="363"/>
+      <c r="A126" s="247"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -10824,7 +10822,7 @@
       <c r="Q126" s="17"/>
     </row>
     <row r="127" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A127" s="340" t="s">
+      <c r="A127" s="229" t="s">
         <v>108</v>
       </c>
       <c r="B127" s="17"/>
@@ -10845,7 +10843,7 @@
       <c r="Q127" s="17"/>
     </row>
     <row r="128" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A128" s="341"/>
+      <c r="A128" s="230"/>
       <c r="B128" s="138"/>
       <c r="C128" s="138"/>
       <c r="D128" s="138"/>
@@ -10864,7 +10862,7 @@
       <c r="Q128" s="17"/>
     </row>
     <row r="129" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A129" s="341"/>
+      <c r="A129" s="230"/>
       <c r="B129" s="138"/>
       <c r="C129" s="138"/>
       <c r="D129" s="138"/>
@@ -10883,7 +10881,7 @@
       <c r="Q129" s="17"/>
     </row>
     <row r="130" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A130" s="341"/>
+      <c r="A130" s="230"/>
       <c r="B130" s="138"/>
       <c r="C130" s="138"/>
       <c r="D130" s="138"/>
@@ -10902,7 +10900,7 @@
       <c r="Q130" s="17"/>
     </row>
     <row r="131" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A131" s="341"/>
+      <c r="A131" s="230"/>
       <c r="B131" s="138"/>
       <c r="C131" s="138"/>
       <c r="D131" s="138"/>
@@ -10921,7 +10919,7 @@
       <c r="Q131" s="17"/>
     </row>
     <row r="132" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A132" s="341"/>
+      <c r="A132" s="230"/>
       <c r="B132" s="138"/>
       <c r="C132" s="138"/>
       <c r="D132" s="138"/>
@@ -10940,7 +10938,7 @@
       <c r="Q132" s="17"/>
     </row>
     <row r="133" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A133" s="341"/>
+      <c r="A133" s="230"/>
       <c r="B133" s="138"/>
       <c r="C133" s="138"/>
       <c r="D133" s="138"/>
@@ -10959,7 +10957,7 @@
       <c r="Q133" s="17"/>
     </row>
     <row r="134" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A134" s="341"/>
+      <c r="A134" s="230"/>
       <c r="B134" s="138"/>
       <c r="C134" s="138"/>
       <c r="D134" s="138"/>
@@ -10978,7 +10976,7 @@
       <c r="Q134" s="17"/>
     </row>
     <row r="135" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A135" s="341"/>
+      <c r="A135" s="230"/>
       <c r="B135" s="138"/>
       <c r="C135" s="138"/>
       <c r="D135" s="138"/>
@@ -10997,7 +10995,7 @@
       <c r="Q135" s="17"/>
     </row>
     <row r="136" spans="1:17" s="18" customFormat="1" hidden="1">
-      <c r="A136" s="341"/>
+      <c r="A136" s="230"/>
       <c r="B136" s="138"/>
       <c r="C136" s="138"/>
       <c r="D136" s="138"/>
@@ -11016,7 +11014,7 @@
       <c r="Q136" s="17"/>
     </row>
     <row r="137" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A137" s="341"/>
+      <c r="A137" s="230"/>
       <c r="B137" s="138"/>
       <c r="C137" s="138"/>
       <c r="D137" s="138"/>
@@ -11035,7 +11033,7 @@
       <c r="Q137" s="17"/>
     </row>
     <row r="138" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A138" s="341"/>
+      <c r="A138" s="230"/>
       <c r="B138" s="138"/>
       <c r="C138" s="138"/>
       <c r="D138" s="138"/>
@@ -11054,7 +11052,7 @@
       <c r="Q138" s="17"/>
     </row>
     <row r="139" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A139" s="341"/>
+      <c r="A139" s="230"/>
       <c r="B139" s="138"/>
       <c r="C139" s="138"/>
       <c r="D139" s="138"/>
@@ -11073,7 +11071,7 @@
       <c r="Q139" s="17"/>
     </row>
     <row r="140" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A140" s="341"/>
+      <c r="A140" s="230"/>
       <c r="B140" s="138"/>
       <c r="C140" s="138"/>
       <c r="D140" s="138"/>
@@ -11092,7 +11090,7 @@
       <c r="Q140" s="17"/>
     </row>
     <row r="141" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A141" s="341"/>
+      <c r="A141" s="230"/>
       <c r="B141" s="138"/>
       <c r="C141" s="138"/>
       <c r="D141" s="138"/>
@@ -11111,7 +11109,7 @@
       <c r="Q141" s="17"/>
     </row>
     <row r="142" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A142" s="341"/>
+      <c r="A142" s="230"/>
       <c r="B142" s="138"/>
       <c r="C142" s="138"/>
       <c r="D142" s="138"/>
@@ -11130,7 +11128,7 @@
       <c r="Q142" s="17"/>
     </row>
     <row r="143" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A143" s="341"/>
+      <c r="A143" s="230"/>
       <c r="B143" s="138"/>
       <c r="C143" s="138"/>
       <c r="D143" s="138"/>
@@ -11149,7 +11147,7 @@
       <c r="Q143" s="17"/>
     </row>
     <row r="144" spans="1:17" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A144" s="341"/>
+      <c r="A144" s="230"/>
       <c r="B144" s="138"/>
       <c r="C144" s="138"/>
       <c r="D144" s="138"/>
@@ -11168,7 +11166,7 @@
       <c r="Q144" s="17"/>
     </row>
     <row r="145" spans="1:20" s="18" customFormat="1" hidden="1">
-      <c r="A145" s="341"/>
+      <c r="A145" s="230"/>
       <c r="B145" s="138"/>
       <c r="C145" s="138"/>
       <c r="D145" s="138"/>
@@ -11187,7 +11185,7 @@
       <c r="Q145" s="17"/>
     </row>
     <row r="146" spans="1:20" s="18" customFormat="1" hidden="1">
-      <c r="A146" s="341"/>
+      <c r="A146" s="230"/>
       <c r="B146" s="138"/>
       <c r="C146" s="138"/>
       <c r="D146" s="138"/>
@@ -11206,7 +11204,7 @@
       <c r="Q146" s="17"/>
     </row>
     <row r="147" spans="1:20" s="18" customFormat="1" hidden="1">
-      <c r="A147" s="341"/>
+      <c r="A147" s="230"/>
       <c r="B147" s="138"/>
       <c r="C147" s="138"/>
       <c r="D147" s="138"/>
@@ -11225,7 +11223,7 @@
       <c r="Q147" s="17"/>
     </row>
     <row r="148" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A148" s="341"/>
+      <c r="A148" s="230"/>
       <c r="B148" s="138"/>
       <c r="C148" s="138"/>
       <c r="D148" s="138"/>
@@ -11244,7 +11242,7 @@
       <c r="Q148" s="17"/>
     </row>
     <row r="149" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A149" s="341"/>
+      <c r="A149" s="230"/>
       <c r="B149" s="138"/>
       <c r="C149" s="138"/>
       <c r="D149" s="138"/>
@@ -11266,7 +11264,7 @@
       <c r="T149" s="133"/>
     </row>
     <row r="150" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A150" s="341"/>
+      <c r="A150" s="230"/>
       <c r="B150" s="138"/>
       <c r="C150" s="138"/>
       <c r="D150" s="138"/>
@@ -11288,7 +11286,7 @@
       <c r="T150" s="133"/>
     </row>
     <row r="151" spans="1:20" s="18" customFormat="1" ht="13.2" hidden="1">
-      <c r="A151" s="341"/>
+      <c r="A151" s="230"/>
       <c r="B151" s="138"/>
       <c r="C151" s="138"/>
       <c r="D151" s="138"/>
@@ -11310,7 +11308,7 @@
       <c r="T151" s="133"/>
     </row>
     <row r="152" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A152" s="341"/>
+      <c r="A152" s="230"/>
       <c r="B152" s="138"/>
       <c r="C152" s="138"/>
       <c r="D152" s="138"/>
@@ -11332,7 +11330,7 @@
       <c r="T152" s="133"/>
     </row>
     <row r="153" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A153" s="341"/>
+      <c r="A153" s="230"/>
       <c r="B153" s="138"/>
       <c r="C153" s="138"/>
       <c r="D153" s="138"/>
@@ -11354,7 +11352,7 @@
       <c r="T153" s="133"/>
     </row>
     <row r="154" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A154" s="341"/>
+      <c r="A154" s="230"/>
       <c r="B154" s="138"/>
       <c r="C154" s="138"/>
       <c r="D154" s="138"/>
@@ -11376,7 +11374,7 @@
       <c r="T154" s="133"/>
     </row>
     <row r="155" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A155" s="341"/>
+      <c r="A155" s="230"/>
       <c r="B155" s="138"/>
       <c r="C155" s="138"/>
       <c r="D155" s="138"/>
@@ -11398,7 +11396,7 @@
       <c r="T155" s="133"/>
     </row>
     <row r="156" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A156" s="341"/>
+      <c r="A156" s="230"/>
       <c r="B156" s="138"/>
       <c r="C156" s="138"/>
       <c r="D156" s="138"/>
@@ -11420,7 +11418,7 @@
       <c r="T156" s="133"/>
     </row>
     <row r="157" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A157" s="341"/>
+      <c r="A157" s="230"/>
       <c r="B157" s="138"/>
       <c r="C157" s="138"/>
       <c r="D157" s="138"/>
@@ -11442,7 +11440,7 @@
       <c r="T157" s="133"/>
     </row>
     <row r="158" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A158" s="341"/>
+      <c r="A158" s="230"/>
       <c r="B158" s="138"/>
       <c r="C158" s="157"/>
       <c r="D158" s="157"/>
@@ -11464,7 +11462,7 @@
       <c r="T158" s="133"/>
     </row>
     <row r="159" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A159" s="341"/>
+      <c r="A159" s="230"/>
       <c r="B159" s="138"/>
       <c r="C159" s="157"/>
       <c r="D159" s="157"/>
@@ -11486,7 +11484,7 @@
       <c r="T159" s="133"/>
     </row>
     <row r="160" spans="1:20" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A160" s="341"/>
+      <c r="A160" s="230"/>
       <c r="B160" s="138"/>
       <c r="C160" s="157"/>
       <c r="D160" s="157"/>
@@ -11508,7 +11506,7 @@
       <c r="T160" s="133"/>
     </row>
     <row r="161" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A161" s="341"/>
+      <c r="A161" s="230"/>
       <c r="B161" s="138"/>
       <c r="C161" s="157"/>
       <c r="D161" s="157"/>
@@ -11530,7 +11528,7 @@
       <c r="T161" s="133"/>
     </row>
     <row r="162" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A162" s="341"/>
+      <c r="A162" s="230"/>
       <c r="B162" s="138"/>
       <c r="C162" s="157"/>
       <c r="D162" s="157"/>
@@ -11552,7 +11550,7 @@
       <c r="T162" s="133"/>
     </row>
     <row r="163" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A163" s="341"/>
+      <c r="A163" s="230"/>
       <c r="B163" s="138"/>
       <c r="C163" s="157"/>
       <c r="D163" s="157"/>
@@ -11574,7 +11572,7 @@
       <c r="T163" s="133"/>
     </row>
     <row r="164" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A164" s="341"/>
+      <c r="A164" s="230"/>
       <c r="B164" s="138"/>
       <c r="C164" s="157"/>
       <c r="D164" s="157"/>
@@ -11596,7 +11594,7 @@
       <c r="T164" s="133"/>
     </row>
     <row r="165" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A165" s="341"/>
+      <c r="A165" s="230"/>
       <c r="B165" s="138"/>
       <c r="C165" s="157"/>
       <c r="D165" s="157"/>
@@ -11618,7 +11616,7 @@
       <c r="T165" s="133"/>
     </row>
     <row r="166" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A166" s="341"/>
+      <c r="A166" s="230"/>
       <c r="B166" s="138"/>
       <c r="C166" s="157"/>
       <c r="D166" s="157"/>
@@ -11640,7 +11638,7 @@
       <c r="T166" s="133"/>
     </row>
     <row r="167" spans="1:27" s="18" customFormat="1" ht="12" hidden="1">
-      <c r="A167" s="342"/>
+      <c r="A167" s="231"/>
       <c r="B167" s="138"/>
       <c r="C167" s="157"/>
       <c r="D167" s="157"/>
@@ -12162,51 +12160,252 @@
     <sortCondition ref="H192:H194"/>
   </sortState>
   <mergeCells count="315">
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="A127:A167"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="A96:A126"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="K36:L36"/>
@@ -12231,252 +12430,51 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A127:A167"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="A96:A126"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:O80"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="14">

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F21D05-B6D3-4F45-B326-7B7AE8E3E017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B75B0-CBBF-445B-A149-B58B093B747A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="152">
   <si>
     <t>作成日</t>
   </si>
@@ -2118,7 +2118,12 @@
     <t>1:Injection Mold</t>
   </si>
   <si>
-    <t>1:MassProduct</t>
+    <t>1:Mass Product</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:Mass Product</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -5505,7 +5510,7 @@
       <c r="I7" s="41"/>
       <c r="J7" s="75"/>
       <c r="K7" s="325">
-        <f>IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,0),"")</f>
+        <f t="shared" ref="K7:K27" si="0">IFERROR(ROUNDDOWN(G7*ROUNDDOWN(I7,4)*J7,0),"")</f>
         <v>0</v>
       </c>
       <c r="L7" s="326"/>
@@ -5514,42 +5519,42 @@
       <c r="O7" s="360"/>
       <c r="P7" s="361"/>
       <c r="Q7" s="1" t="str">
-        <f t="shared" ref="Q7:Q27" ca="1" si="0">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q7:Q27" ca="1" si="1">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R7" s="1" t="str">
-        <f t="shared" ref="R7:R27" ca="1" si="1">IFERROR(VLOOKUP(D7,OFFSET(pulldown_company,0,U7+X7,Z7,1),1,FALSE),"")</f>
+        <f t="shared" ref="R7:R27" ca="1" si="2">IFERROR(VLOOKUP(D7,OFFSET(pulldown_company,0,U7+X7,Z7,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S7" s="1">
-        <f t="shared" ref="S7:S27" ca="1" si="2">IFERROR(VLOOKUP(H7,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S7:S27" ca="1" si="3">IFERROR(VLOOKUP(H7,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7:U27" ca="1" si="3">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U7:U27" ca="1" si="4">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" ref="V7:V27" ca="1" si="4">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V7:V27" ca="1" si="5">IFERROR(MATCH(T7,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" ref="W7:W26" ca="1" si="5">(V7-U7)+1</f>
+        <f t="shared" ref="W7:W26" ca="1" si="6">(V7-U7)+1</f>
         <v>1</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" ref="X7:X27" ca="1" si="6">IFERROR(MATCH(A7,OFFSET(pulldown_level1,0,U7,1,W7),0)-1,0)</f>
+        <f t="shared" ref="X7:X27" ca="1" si="7">IFERROR(MATCH(A7,OFFSET(pulldown_level1,0,U7,1,W7),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" ref="Y7:Y27" ca="1" si="7">IF(X7=0,1,COUNTA(OFFSET(pulldown_level2,0,U7+X7,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y7:Y27" ca="1" si="8">IF(X7=0,1,COUNTA(OFFSET(pulldown_level2,0,U7+X7,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" ref="Z7:Z27" ca="1" si="8">IF(X7=0,1,COUNTA(OFFSET(pulldown_company,0,U7+X7,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z7:Z27" ca="1" si="9">IF(X7=0,1,COUNTA(OFFSET(pulldown_company,0,U7+X7,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5567,7 +5572,7 @@
       <c r="I8" s="41"/>
       <c r="J8" s="75"/>
       <c r="K8" s="325">
-        <f>IFERROR(ROUNDDOWN(G8*ROUNDDOWN(I8,4)*J8,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="326"/>
@@ -5576,42 +5581,42 @@
       <c r="O8" s="360"/>
       <c r="P8" s="361"/>
       <c r="Q8" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="R8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
       <c r="S8" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8" ca="1" si="9">(V8-U8)+1</f>
+        <f t="shared" ref="W8" ca="1" si="10">(V8-U8)+1</f>
         <v>1</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -5633,7 +5638,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="75"/>
       <c r="K9" s="325">
-        <f>IFERROR(ROUNDDOWN(G9*ROUNDDOWN(I9,4)*J9,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="326"/>
@@ -5642,42 +5647,42 @@
       <c r="O9" s="360"/>
       <c r="P9" s="361"/>
       <c r="Q9" s="1" t="str">
-        <f t="shared" ref="Q9:Q11" ca="1" si="10">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q9:Q11" ca="1" si="11">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" ref="R9:R11" ca="1" si="11">IFERROR(VLOOKUP(D9,OFFSET(pulldown_company,0,U9+X9,Z9,1),1,FALSE),"")</f>
+        <f t="shared" ref="R9:R11" ca="1" si="12">IFERROR(VLOOKUP(D9,OFFSET(pulldown_company,0,U9+X9,Z9,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S9" s="1">
-        <f t="shared" ref="S9:S11" ca="1" si="12">IFERROR(VLOOKUP(H9,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S9:S11" ca="1" si="13">IFERROR(VLOOKUP(H9,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" ref="U9:U11" ca="1" si="13">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U9:U11" ca="1" si="14">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" ref="V9:V11" ca="1" si="14">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V9:V11" ca="1" si="15">IFERROR(MATCH(T9,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" ref="X9:X11" ca="1" si="15">IFERROR(MATCH(A9,OFFSET(pulldown_level1,0,U9,1,W9),0)-1,0)</f>
+        <f t="shared" ref="X9:X11" ca="1" si="16">IFERROR(MATCH(A9,OFFSET(pulldown_level1,0,U9,1,W9),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:Y11" ca="1" si="16">IF(X9=0,1,COUNTA(OFFSET(pulldown_level2,0,U9+X9,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y9:Y11" ca="1" si="17">IF(X9=0,1,COUNTA(OFFSET(pulldown_level2,0,U9+X9,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" ref="Z9:Z11" ca="1" si="17">IF(X9=0,1,COUNTA(OFFSET(pulldown_company,0,U9+X9,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z9:Z11" ca="1" si="18">IF(X9=0,1,COUNTA(OFFSET(pulldown_company,0,U9+X9,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5699,7 +5704,7 @@
       <c r="I10" s="41"/>
       <c r="J10" s="75"/>
       <c r="K10" s="325">
-        <f>IFERROR(ROUNDDOWN(G10*ROUNDDOWN(I10,4)*J10,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="326"/>
@@ -5708,42 +5713,42 @@
       <c r="O10" s="360"/>
       <c r="P10" s="361"/>
       <c r="Q10" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R10" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
       <c r="S10" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="T10" s="1">
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -5765,7 +5770,7 @@
       <c r="I11" s="41"/>
       <c r="J11" s="75"/>
       <c r="K11" s="325">
-        <f>IFERROR(ROUNDDOWN(G11*ROUNDDOWN(I11,4)*J11,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11" s="326"/>
@@ -5774,42 +5779,42 @@
       <c r="O11" s="360"/>
       <c r="P11" s="361"/>
       <c r="Q11" s="1" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R11" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
       <c r="S11" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>1</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -5831,7 +5836,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="75"/>
       <c r="K12" s="325">
-        <f>IFERROR(ROUNDDOWN(G12*ROUNDDOWN(I12,4)*J12,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" s="326"/>
@@ -5840,42 +5845,42 @@
       <c r="O12" s="360"/>
       <c r="P12" s="361"/>
       <c r="Q12" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="R12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
       <c r="S12" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>1</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -5897,7 +5902,7 @@
       <c r="I13" s="41"/>
       <c r="J13" s="75"/>
       <c r="K13" s="325">
-        <f>IFERROR(ROUNDDOWN(G13*ROUNDDOWN(I13,4)*J13,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="326"/>
@@ -5906,42 +5911,42 @@
       <c r="O13" s="360"/>
       <c r="P13" s="361"/>
       <c r="Q13" s="1" t="str">
-        <f t="shared" ref="Q13:Q14" ca="1" si="18">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q13:Q14" ca="1" si="19">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" ref="R13:R14" ca="1" si="19">IFERROR(VLOOKUP(D13,OFFSET(pulldown_company,0,U13+X13,Z13,1),1,FALSE),"")</f>
+        <f t="shared" ref="R13:R14" ca="1" si="20">IFERROR(VLOOKUP(D13,OFFSET(pulldown_company,0,U13+X13,Z13,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S13" s="1">
-        <f t="shared" ref="S13:S14" ca="1" si="20">IFERROR(VLOOKUP(H13,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S13:S14" ca="1" si="21">IFERROR(VLOOKUP(H13,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13:U14" ca="1" si="21">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U13:U14" ca="1" si="22">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13:V14" ca="1" si="22">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V13:V14" ca="1" si="23">IFERROR(MATCH(T13,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" ref="X13:X14" ca="1" si="23">IFERROR(MATCH(A13,OFFSET(pulldown_level1,0,U13,1,W13),0)-1,0)</f>
+        <f t="shared" ref="X13:X14" ca="1" si="24">IFERROR(MATCH(A13,OFFSET(pulldown_level1,0,U13,1,W13),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" ref="Y13:Y14" ca="1" si="24">IF(X13=0,1,COUNTA(OFFSET(pulldown_level2,0,U13+X13,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y13:Y14" ca="1" si="25">IF(X13=0,1,COUNTA(OFFSET(pulldown_level2,0,U13+X13,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" ref="Z13:Z14" ca="1" si="25">IF(X13=0,1,COUNTA(OFFSET(pulldown_company,0,U13+X13,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z13:Z14" ca="1" si="26">IF(X13=0,1,COUNTA(OFFSET(pulldown_company,0,U13+X13,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5963,7 +5968,7 @@
       <c r="I14" s="41"/>
       <c r="J14" s="75"/>
       <c r="K14" s="325">
-        <f>IFERROR(ROUNDDOWN(G14*ROUNDDOWN(I14,4)*J14,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="326"/>
@@ -5972,42 +5977,42 @@
       <c r="O14" s="360"/>
       <c r="P14" s="361"/>
       <c r="Q14" s="1" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R14" s="1" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
       <c r="S14" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>1</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -6029,7 +6034,7 @@
       <c r="I15" s="41"/>
       <c r="J15" s="75"/>
       <c r="K15" s="325">
-        <f>IFERROR(ROUNDDOWN(G15*ROUNDDOWN(I15,4)*J15,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="326"/>
@@ -6038,42 +6043,42 @@
       <c r="O15" s="360"/>
       <c r="P15" s="361"/>
       <c r="Q15" s="1" t="str">
-        <f t="shared" ref="Q15:Q21" ca="1" si="26">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q15:Q21" ca="1" si="27">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" ref="R15:R21" ca="1" si="27">IFERROR(VLOOKUP(D15,OFFSET(pulldown_company,0,U15+X15,Z15,1),1,FALSE),"")</f>
+        <f t="shared" ref="R15:R21" ca="1" si="28">IFERROR(VLOOKUP(D15,OFFSET(pulldown_company,0,U15+X15,Z15,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S15" s="1">
-        <f t="shared" ref="S15:S21" ca="1" si="28">IFERROR(VLOOKUP(H15,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S15:S21" ca="1" si="29">IFERROR(VLOOKUP(H15,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" ref="U15:U21" ca="1" si="29">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U15:U21" ca="1" si="30">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" ref="V15:V21" ca="1" si="30">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V15:V21" ca="1" si="31">IFERROR(MATCH(T15,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" ref="X15:X21" ca="1" si="31">IFERROR(MATCH(A15,OFFSET(pulldown_level1,0,U15,1,W15),0)-1,0)</f>
+        <f t="shared" ref="X15:X21" ca="1" si="32">IFERROR(MATCH(A15,OFFSET(pulldown_level1,0,U15,1,W15),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" ref="Y15:Y21" ca="1" si="32">IF(X15=0,1,COUNTA(OFFSET(pulldown_level2,0,U15+X15,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y15:Y21" ca="1" si="33">IF(X15=0,1,COUNTA(OFFSET(pulldown_level2,0,U15+X15,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:Z21" ca="1" si="33">IF(X15=0,1,COUNTA(OFFSET(pulldown_company,0,U15+X15,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z15:Z21" ca="1" si="34">IF(X15=0,1,COUNTA(OFFSET(pulldown_company,0,U15+X15,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6095,7 +6100,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="75"/>
       <c r="K16" s="325">
-        <f>IFERROR(ROUNDDOWN(G16*ROUNDDOWN(I16,4)*J16,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="326"/>
@@ -6104,42 +6109,42 @@
       <c r="O16" s="360"/>
       <c r="P16" s="361"/>
       <c r="Q16" s="1" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="R16" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
       <c r="S16" s="1">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>1</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6161,7 +6166,7 @@
       <c r="I17" s="41"/>
       <c r="J17" s="75"/>
       <c r="K17" s="325">
-        <f>IFERROR(ROUNDDOWN(G17*ROUNDDOWN(I17,4)*J17,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="326"/>
@@ -6170,42 +6175,42 @@
       <c r="O17" s="360"/>
       <c r="P17" s="361"/>
       <c r="Q17" s="1" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="R17" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
       <c r="S17" s="1">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6227,7 +6232,7 @@
       <c r="I18" s="41"/>
       <c r="J18" s="75"/>
       <c r="K18" s="325">
-        <f>IFERROR(ROUNDDOWN(G18*ROUNDDOWN(I18,4)*J18,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="326"/>
@@ -6236,42 +6241,42 @@
       <c r="O18" s="360"/>
       <c r="P18" s="361"/>
       <c r="Q18" s="1" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="R18" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
       <c r="S18" s="1">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="T18" s="1">
         <v>1</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6293,7 +6298,7 @@
       <c r="I19" s="41"/>
       <c r="J19" s="75"/>
       <c r="K19" s="325">
-        <f>IFERROR(ROUNDDOWN(G19*ROUNDDOWN(I19,4)*J19,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="326"/>
@@ -6302,42 +6307,42 @@
       <c r="O19" s="360"/>
       <c r="P19" s="361"/>
       <c r="Q19" s="1" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
+      <c r="R19" s="1" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
       <c r="S19" s="1">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="T19" s="1">
         <v>1</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6359,7 +6364,7 @@
       <c r="I20" s="41"/>
       <c r="J20" s="75"/>
       <c r="K20" s="325">
-        <f>IFERROR(ROUNDDOWN(G20*ROUNDDOWN(I20,4)*J20,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="326"/>
@@ -6368,42 +6373,42 @@
       <c r="O20" s="360"/>
       <c r="P20" s="361"/>
       <c r="Q20" s="1" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="R20" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
+      <c r="R20" s="1" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
       <c r="S20" s="1">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="T20" s="1">
         <v>1</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6425,7 +6430,7 @@
       <c r="I21" s="41"/>
       <c r="J21" s="75"/>
       <c r="K21" s="325">
-        <f>IFERROR(ROUNDDOWN(G21*ROUNDDOWN(I21,4)*J21,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="326"/>
@@ -6434,42 +6439,42 @@
       <c r="O21" s="360"/>
       <c r="P21" s="361"/>
       <c r="Q21" s="1" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="R21" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
+      <c r="R21" s="1" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
       <c r="S21" s="1">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="T21" s="1">
         <v>1</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -6491,7 +6496,7 @@
       <c r="I22" s="41"/>
       <c r="J22" s="75"/>
       <c r="K22" s="325">
-        <f>IFERROR(ROUNDDOWN(G22*ROUNDDOWN(I22,4)*J22,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="326"/>
@@ -6500,42 +6505,42 @@
       <c r="O22" s="360"/>
       <c r="P22" s="361"/>
       <c r="Q22" s="1" t="str">
-        <f t="shared" ref="Q22:Q25" ca="1" si="34">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q22:Q25" ca="1" si="35">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R22" s="1" t="str">
-        <f t="shared" ref="R22:R25" ca="1" si="35">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
+        <f t="shared" ref="R22:R25" ca="1" si="36">IFERROR(VLOOKUP(D22,OFFSET(pulldown_company,0,U22+X22,Z22,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="S22:S25" ca="1" si="36">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S22:S25" ca="1" si="37">IFERROR(VLOOKUP(H22,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" ref="U22:U25" ca="1" si="37">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U22:U25" ca="1" si="38">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" ref="V22:V25" ca="1" si="38">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V22:V25" ca="1" si="39">IFERROR(MATCH(T22,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" ref="X22:X25" ca="1" si="39">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
+        <f t="shared" ref="X22:X25" ca="1" si="40">IFERROR(MATCH(A22,OFFSET(pulldown_level1,0,U22,1,W22),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" ref="Y22:Y25" ca="1" si="40">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y22:Y25" ca="1" si="41">IF(X22=0,1,COUNTA(OFFSET(pulldown_level2,0,U22+X22,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" ref="Z22:Z25" ca="1" si="41">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z22:Z25" ca="1" si="42">IF(X22=0,1,COUNTA(OFFSET(pulldown_company,0,U22+X22,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6557,7 +6562,7 @@
       <c r="I23" s="41"/>
       <c r="J23" s="75"/>
       <c r="K23" s="325">
-        <f>IFERROR(ROUNDDOWN(G23*ROUNDDOWN(I23,4)*J23,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="326"/>
@@ -6566,42 +6571,42 @@
       <c r="O23" s="360"/>
       <c r="P23" s="361"/>
       <c r="Q23" s="1" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="R23" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
+      <c r="R23" s="1" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
       <c r="S23" s="1">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
     </row>
@@ -6623,7 +6628,7 @@
       <c r="I24" s="41"/>
       <c r="J24" s="75"/>
       <c r="K24" s="325">
-        <f>IFERROR(ROUNDDOWN(G24*ROUNDDOWN(I24,4)*J24,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="326"/>
@@ -6632,42 +6637,42 @@
       <c r="O24" s="360"/>
       <c r="P24" s="361"/>
       <c r="Q24" s="1" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="R24" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
       <c r="S24" s="1">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>1</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>1</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
     </row>
@@ -6689,7 +6694,7 @@
       <c r="I25" s="41"/>
       <c r="J25" s="75"/>
       <c r="K25" s="325">
-        <f>IFERROR(ROUNDDOWN(G25*ROUNDDOWN(I25,4)*J25,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="326"/>
@@ -6698,42 +6703,42 @@
       <c r="O25" s="360"/>
       <c r="P25" s="361"/>
       <c r="Q25" s="1" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="R25" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
+      <c r="R25" s="1" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
       <c r="S25" s="1">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>1</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1</v>
       </c>
     </row>
@@ -6755,7 +6760,7 @@
       <c r="I26" s="41"/>
       <c r="J26" s="75"/>
       <c r="K26" s="325">
-        <f>IFERROR(ROUNDDOWN(G26*ROUNDDOWN(I26,4)*J26,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="326"/>
@@ -6764,42 +6769,42 @@
       <c r="O26" s="360"/>
       <c r="P26" s="361"/>
       <c r="Q26" s="1" t="str">
-        <f t="shared" ref="Q26" ca="1" si="42">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q26" ca="1" si="43">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R26" s="1" t="str">
-        <f t="shared" ref="R26" ca="1" si="43">IFERROR(VLOOKUP(D26,OFFSET(pulldown_company,0,U26+X26,Z26,1),1,FALSE),"")</f>
+        <f t="shared" ref="R26" ca="1" si="44">IFERROR(VLOOKUP(D26,OFFSET(pulldown_company,0,U26+X26,Z26,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ref="S26" ca="1" si="44">IFERROR(VLOOKUP(H26,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S26" ca="1" si="45">IFERROR(VLOOKUP(H26,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>1</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ref="U26" ca="1" si="45">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U26" ca="1" si="46">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26" ca="1" si="46">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V26" ca="1" si="47">IFERROR(MATCH(T26,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" ref="X26" ca="1" si="47">IFERROR(MATCH(A26,OFFSET(pulldown_level1,0,U26,1,W26),0)-1,0)</f>
+        <f t="shared" ref="X26" ca="1" si="48">IFERROR(MATCH(A26,OFFSET(pulldown_level1,0,U26,1,W26),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" ref="Y26" ca="1" si="48">IF(X26=0,1,COUNTA(OFFSET(pulldown_level2,0,U26+X26,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y26" ca="1" si="49">IF(X26=0,1,COUNTA(OFFSET(pulldown_level2,0,U26+X26,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" ref="Z26" ca="1" si="49">IF(X26=0,1,COUNTA(OFFSET(pulldown_company,0,U26+X26,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z26" ca="1" si="50">IF(X26=0,1,COUNTA(OFFSET(pulldown_company,0,U26+X26,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6817,7 +6822,7 @@
       <c r="I27" s="43"/>
       <c r="J27" s="76"/>
       <c r="K27" s="325">
-        <f>IFERROR(ROUNDDOWN(G27*ROUNDDOWN(I27,4)*J27,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="326"/>
@@ -6826,42 +6831,42 @@
       <c r="O27" s="362"/>
       <c r="P27" s="363"/>
       <c r="Q27" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="R27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
+      <c r="R27" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
       <c r="S27" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="T27" s="1">
         <v>1</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" ca="1" si="50">(V27-U27)+1</f>
+        <f t="shared" ref="W27" ca="1" si="51">(V27-U27)+1</f>
         <v>1</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -6974,42 +6979,42 @@
       <c r="O31" s="262"/>
       <c r="P31" s="263"/>
       <c r="Q31" s="1" t="str">
-        <f t="shared" ref="Q31:Q32" ca="1" si="51">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q31:Q32" ca="1" si="52">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R31" s="1" t="str">
-        <f t="shared" ref="R31:R32" ca="1" si="52">IFERROR(VLOOKUP(D31,OFFSET(pulldown_company,0,U31+X31,Z31,1),1,FALSE),"")</f>
+        <f t="shared" ref="R31:R32" ca="1" si="53">IFERROR(VLOOKUP(D31,OFFSET(pulldown_company,0,U31+X31,Z31,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S31" s="1">
-        <f t="shared" ref="S31:S32" ca="1" si="53">IFERROR(VLOOKUP(H31,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S31:S32" ca="1" si="54">IFERROR(VLOOKUP(H31,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T31" s="1">
         <v>2</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" ref="U31:U32" ca="1" si="54">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U31:U32" ca="1" si="55">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V32" ca="1" si="55">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V31:V32" ca="1" si="56">IFERROR(MATCH(T31,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31" ca="1" si="56">(V31-U31)+1</f>
+        <f t="shared" ref="W31" ca="1" si="57">(V31-U31)+1</f>
         <v>1</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" ref="X31:X32" ca="1" si="57">IFERROR(MATCH(A31,OFFSET(pulldown_level1,0,U31,1,W31),0)-1,0)</f>
+        <f t="shared" ref="X31:X32" ca="1" si="58">IFERROR(MATCH(A31,OFFSET(pulldown_level1,0,U31,1,W31),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y32" ca="1" si="58">IF(X31=0,1,COUNTA(OFFSET(pulldown_level2,0,U31+X31,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y31:Y32" ca="1" si="59">IF(X31=0,1,COUNTA(OFFSET(pulldown_level2,0,U31+X31,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" ref="Z31:Z32" ca="1" si="59">IF(X31=0,1,COUNTA(OFFSET(pulldown_company,0,U31+X31,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z31:Z32" ca="1" si="60">IF(X31=0,1,COUNTA(OFFSET(pulldown_company,0,U31+X31,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7036,42 +7041,42 @@
       <c r="O32" s="327"/>
       <c r="P32" s="328"/>
       <c r="Q32" s="1" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R32" s="1" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
+      <c r="R32" s="1" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
       <c r="S32" s="1">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v>1</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="55"/>
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="56"/>
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" ref="W32" ca="1" si="60">(V32-U32)+1</f>
+        <f t="shared" ref="W32" ca="1" si="61">(V32-U32)+1</f>
         <v>1</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v>1</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v>1</v>
       </c>
     </row>
@@ -7177,7 +7182,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="77"/>
       <c r="K36" s="286">
-        <f>IFERROR(ROUNDDOWN(G36*ROUNDDOWN(I36,4)*J36,0),"")</f>
+        <f t="shared" ref="K36:K48" si="62">IFERROR(ROUNDDOWN(G36*ROUNDDOWN(I36,4)*J36,0),"")</f>
         <v>0</v>
       </c>
       <c r="L36" s="287"/>
@@ -7186,42 +7191,42 @@
       <c r="O36" s="288"/>
       <c r="P36" s="289"/>
       <c r="Q36" s="1" t="str">
-        <f t="shared" ref="Q36:Q48" ca="1" si="61">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q36:Q48" ca="1" si="63">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R36" s="1" t="str">
-        <f t="shared" ref="R36:R48" ca="1" si="62">IFERROR(VLOOKUP(D36,OFFSET(pulldown_company,0,U36+X36,Z36,1),1,FALSE),"")</f>
+        <f t="shared" ref="R36:R48" ca="1" si="64">IFERROR(VLOOKUP(D36,OFFSET(pulldown_company,0,U36+X36,Z36,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S36" s="1">
-        <f t="shared" ref="S36:S48" ca="1" si="63">IFERROR(VLOOKUP(H36,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S36:S48" ca="1" si="65">IFERROR(VLOOKUP(H36,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T36" s="1">
         <v>3</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" ref="U36:U48" ca="1" si="64">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U36:U48" ca="1" si="66">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36:V48" ca="1" si="65">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V36:V48" ca="1" si="67">IFERROR(MATCH(T36,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" ref="W36:W48" ca="1" si="66">(V36-U36)+1</f>
+        <f t="shared" ref="W36:W48" ca="1" si="68">(V36-U36)+1</f>
         <v>1</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" ref="X36:X48" ca="1" si="67">IFERROR(MATCH(A36,OFFSET(pulldown_level1,0,U36,1,W36),0)-1,0)</f>
+        <f t="shared" ref="X36:X48" ca="1" si="69">IFERROR(MATCH(A36,OFFSET(pulldown_level1,0,U36,1,W36),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" ref="Y36:Y48" ca="1" si="68">IF(X36=0,1,COUNTA(OFFSET(pulldown_level2,0,U36+X36,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y36:Y48" ca="1" si="70">IF(X36=0,1,COUNTA(OFFSET(pulldown_level2,0,U36+X36,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" ref="Z36:Z48" ca="1" si="69">IF(X36=0,1,COUNTA(OFFSET(pulldown_company,0,U36+X36,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z36:Z48" ca="1" si="71">IF(X36=0,1,COUNTA(OFFSET(pulldown_company,0,U36+X36,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7239,7 +7244,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="77"/>
       <c r="K37" s="286">
-        <f>IFERROR(ROUNDDOWN(G37*ROUNDDOWN(I37,4)*J37,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L37" s="287"/>
@@ -7248,42 +7253,42 @@
       <c r="O37" s="288"/>
       <c r="P37" s="289"/>
       <c r="Q37" s="1" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="R37" s="1" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S37" s="1">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>1</v>
       </c>
       <c r="T37" s="1">
         <v>3</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="71"/>
         <v>1</v>
       </c>
     </row>
@@ -7305,7 +7310,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="77"/>
       <c r="K38" s="286">
-        <f>IFERROR(ROUNDDOWN(G38*ROUNDDOWN(I38,4)*J38,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L38" s="287"/>
@@ -7314,42 +7319,42 @@
       <c r="O38" s="288"/>
       <c r="P38" s="289"/>
       <c r="Q38" s="1" t="str">
-        <f t="shared" ref="Q38:Q39" ca="1" si="70">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q38:Q39" ca="1" si="72">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R38" s="1" t="str">
-        <f t="shared" ref="R38:R39" ca="1" si="71">IFERROR(VLOOKUP(D38,OFFSET(pulldown_company,0,U38+X38,Z38,1),1,FALSE),"")</f>
+        <f t="shared" ref="R38:R39" ca="1" si="73">IFERROR(VLOOKUP(D38,OFFSET(pulldown_company,0,U38+X38,Z38,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S38" s="1">
-        <f t="shared" ref="S38:S39" ca="1" si="72">IFERROR(VLOOKUP(H38,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S38:S39" ca="1" si="74">IFERROR(VLOOKUP(H38,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T38" s="1">
         <v>3</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" ref="U38:U39" ca="1" si="73">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U38:U39" ca="1" si="75">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" ref="V38:V39" ca="1" si="74">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V38:V39" ca="1" si="76">IFERROR(MATCH(T38,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" ref="W38:W39" ca="1" si="75">(V38-U38)+1</f>
+        <f t="shared" ref="W38:W39" ca="1" si="77">(V38-U38)+1</f>
         <v>1</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" ref="X38:X39" ca="1" si="76">IFERROR(MATCH(A38,OFFSET(pulldown_level1,0,U38,1,W38),0)-1,0)</f>
+        <f t="shared" ref="X38:X39" ca="1" si="78">IFERROR(MATCH(A38,OFFSET(pulldown_level1,0,U38,1,W38),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" ref="Y38:Y39" ca="1" si="77">IF(X38=0,1,COUNTA(OFFSET(pulldown_level2,0,U38+X38,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y38:Y39" ca="1" si="79">IF(X38=0,1,COUNTA(OFFSET(pulldown_level2,0,U38+X38,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" ref="Z38:Z39" ca="1" si="78">IF(X38=0,1,COUNTA(OFFSET(pulldown_company,0,U38+X38,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z38:Z39" ca="1" si="80">IF(X38=0,1,COUNTA(OFFSET(pulldown_company,0,U38+X38,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7371,7 +7376,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="77"/>
       <c r="K39" s="286">
-        <f>IFERROR(ROUNDDOWN(G39*ROUNDDOWN(I39,4)*J39,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L39" s="287"/>
@@ -7380,42 +7385,42 @@
       <c r="O39" s="288"/>
       <c r="P39" s="289"/>
       <c r="Q39" s="1" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="R39" s="1" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="S39" s="1">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="74"/>
         <v>1</v>
       </c>
       <c r="T39" s="1">
         <v>3</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>1</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="78"/>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>1</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -7437,7 +7442,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="77"/>
       <c r="K40" s="286">
-        <f>IFERROR(ROUNDDOWN(G40*ROUNDDOWN(I40,4)*J40,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L40" s="287"/>
@@ -7446,42 +7451,42 @@
       <c r="O40" s="288"/>
       <c r="P40" s="289"/>
       <c r="Q40" s="1" t="str">
-        <f t="shared" ref="Q40:Q46" ca="1" si="79">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q40:Q46" ca="1" si="81">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R40" s="1" t="str">
-        <f t="shared" ref="R40:R46" ca="1" si="80">IFERROR(VLOOKUP(D40,OFFSET(pulldown_company,0,U40+X40,Z40,1),1,FALSE),"")</f>
+        <f t="shared" ref="R40:R46" ca="1" si="82">IFERROR(VLOOKUP(D40,OFFSET(pulldown_company,0,U40+X40,Z40,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S40" s="1">
-        <f t="shared" ref="S40:S46" ca="1" si="81">IFERROR(VLOOKUP(H40,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S40:S46" ca="1" si="83">IFERROR(VLOOKUP(H40,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>3</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" ref="U40:U46" ca="1" si="82">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U40:U46" ca="1" si="84">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" ref="V40:V46" ca="1" si="83">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V40:V46" ca="1" si="85">IFERROR(MATCH(T40,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" ref="W40:W46" ca="1" si="84">(V40-U40)+1</f>
+        <f t="shared" ref="W40:W46" ca="1" si="86">(V40-U40)+1</f>
         <v>1</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" ref="X40:X46" ca="1" si="85">IFERROR(MATCH(A40,OFFSET(pulldown_level1,0,U40,1,W40),0)-1,0)</f>
+        <f t="shared" ref="X40:X46" ca="1" si="87">IFERROR(MATCH(A40,OFFSET(pulldown_level1,0,U40,1,W40),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" ref="Y40:Y46" ca="1" si="86">IF(X40=0,1,COUNTA(OFFSET(pulldown_level2,0,U40+X40,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y40:Y46" ca="1" si="88">IF(X40=0,1,COUNTA(OFFSET(pulldown_level2,0,U40+X40,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" ref="Z40:Z46" ca="1" si="87">IF(X40=0,1,COUNTA(OFFSET(pulldown_company,0,U40+X40,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z40:Z46" ca="1" si="89">IF(X40=0,1,COUNTA(OFFSET(pulldown_company,0,U40+X40,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7503,7 +7508,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="77"/>
       <c r="K41" s="286">
-        <f>IFERROR(ROUNDDOWN(G41*ROUNDDOWN(I41,4)*J41,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L41" s="287"/>
@@ -7512,42 +7517,42 @@
       <c r="O41" s="288"/>
       <c r="P41" s="289"/>
       <c r="Q41" s="1" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="R41" s="1" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1</v>
       </c>
       <c r="T41" s="1">
         <v>3</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="87"/>
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="88"/>
         <v>1</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>1</v>
       </c>
     </row>
@@ -7569,7 +7574,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="77"/>
       <c r="K42" s="286">
-        <f>IFERROR(ROUNDDOWN(G42*ROUNDDOWN(I42,4)*J42,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L42" s="287"/>
@@ -7578,42 +7583,42 @@
       <c r="O42" s="288"/>
       <c r="P42" s="289"/>
       <c r="Q42" s="1" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="R42" s="1" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S42" s="1">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>3</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="87"/>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="88"/>
         <v>1</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>1</v>
       </c>
     </row>
@@ -7635,7 +7640,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="77"/>
       <c r="K43" s="286">
-        <f>IFERROR(ROUNDDOWN(G43*ROUNDDOWN(I43,4)*J43,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L43" s="287"/>
@@ -7644,42 +7649,42 @@
       <c r="O43" s="288"/>
       <c r="P43" s="289"/>
       <c r="Q43" s="1" t="str">
-        <f t="shared" ref="Q43" ca="1" si="88">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q43" ca="1" si="90">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R43" s="1" t="str">
-        <f t="shared" ref="R43" ca="1" si="89">IFERROR(VLOOKUP(D43,OFFSET(pulldown_company,0,U43+X43,Z43,1),1,FALSE),"")</f>
+        <f t="shared" ref="R43" ca="1" si="91">IFERROR(VLOOKUP(D43,OFFSET(pulldown_company,0,U43+X43,Z43,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S43" s="1">
-        <f t="shared" ref="S43" ca="1" si="90">IFERROR(VLOOKUP(H43,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S43" ca="1" si="92">IFERROR(VLOOKUP(H43,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>3</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" ref="U43" ca="1" si="91">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U43" ca="1" si="93">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" ref="V43" ca="1" si="92">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V43" ca="1" si="94">IFERROR(MATCH(T43,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" ref="W43" ca="1" si="93">(V43-U43)+1</f>
+        <f t="shared" ref="W43" ca="1" si="95">(V43-U43)+1</f>
         <v>1</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" ref="X43" ca="1" si="94">IFERROR(MATCH(A43,OFFSET(pulldown_level1,0,U43,1,W43),0)-1,0)</f>
+        <f t="shared" ref="X43" ca="1" si="96">IFERROR(MATCH(A43,OFFSET(pulldown_level1,0,U43,1,W43),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" ref="Y43" ca="1" si="95">IF(X43=0,1,COUNTA(OFFSET(pulldown_level2,0,U43+X43,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y43" ca="1" si="97">IF(X43=0,1,COUNTA(OFFSET(pulldown_level2,0,U43+X43,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z43" s="1">
-        <f t="shared" ref="Z43" ca="1" si="96">IF(X43=0,1,COUNTA(OFFSET(pulldown_company,0,U43+X43,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z43" ca="1" si="98">IF(X43=0,1,COUNTA(OFFSET(pulldown_company,0,U43+X43,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7701,7 +7706,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="77"/>
       <c r="K44" s="286">
-        <f>IFERROR(ROUNDDOWN(G44*ROUNDDOWN(I44,4)*J44,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L44" s="287"/>
@@ -7710,42 +7715,42 @@
       <c r="O44" s="288"/>
       <c r="P44" s="289"/>
       <c r="Q44" s="1" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="R44" s="1" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S44" s="1">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1</v>
       </c>
       <c r="T44" s="1">
         <v>3</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="87"/>
         <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="88"/>
         <v>1</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>1</v>
       </c>
     </row>
@@ -7767,7 +7772,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="77"/>
       <c r="K45" s="286">
-        <f>IFERROR(ROUNDDOWN(G45*ROUNDDOWN(I45,4)*J45,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L45" s="287"/>
@@ -7776,42 +7781,42 @@
       <c r="O45" s="288"/>
       <c r="P45" s="289"/>
       <c r="Q45" s="1" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="R45" s="1" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S45" s="1">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="87"/>
         <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="88"/>
         <v>1</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>1</v>
       </c>
     </row>
@@ -7833,7 +7838,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="77"/>
       <c r="K46" s="286">
-        <f>IFERROR(ROUNDDOWN(G46*ROUNDDOWN(I46,4)*J46,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L46" s="287"/>
@@ -7842,42 +7847,42 @@
       <c r="O46" s="288"/>
       <c r="P46" s="289"/>
       <c r="Q46" s="1" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="R46" s="1" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="S46" s="1">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1</v>
       </c>
       <c r="T46" s="1">
         <v>3</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="87"/>
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="88"/>
         <v>1</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>1</v>
       </c>
     </row>
@@ -7899,7 +7904,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="77"/>
       <c r="K47" s="286">
-        <f>IFERROR(ROUNDDOWN(G47*ROUNDDOWN(I47,4)*J47,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L47" s="287"/>
@@ -7908,42 +7913,42 @@
       <c r="O47" s="288"/>
       <c r="P47" s="289"/>
       <c r="Q47" s="1" t="str">
-        <f t="shared" ref="Q47" ca="1" si="97">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q47" ca="1" si="99">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R47" s="1" t="str">
-        <f t="shared" ref="R47" ca="1" si="98">IFERROR(VLOOKUP(D47,OFFSET(pulldown_company,0,U47+X47,Z47,1),1,FALSE),"")</f>
+        <f t="shared" ref="R47" ca="1" si="100">IFERROR(VLOOKUP(D47,OFFSET(pulldown_company,0,U47+X47,Z47,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S47" s="1">
-        <f t="shared" ref="S47" ca="1" si="99">IFERROR(VLOOKUP(H47,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S47" ca="1" si="101">IFERROR(VLOOKUP(H47,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>3</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" ref="U47" ca="1" si="100">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U47" ca="1" si="102">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" ref="V47" ca="1" si="101">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V47" ca="1" si="103">IFERROR(MATCH(T47,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" ref="W47" ca="1" si="102">(V47-U47)+1</f>
+        <f t="shared" ref="W47" ca="1" si="104">(V47-U47)+1</f>
         <v>1</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" ref="X47" ca="1" si="103">IFERROR(MATCH(A47,OFFSET(pulldown_level1,0,U47,1,W47),0)-1,0)</f>
+        <f t="shared" ref="X47" ca="1" si="105">IFERROR(MATCH(A47,OFFSET(pulldown_level1,0,U47,1,W47),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" ref="Y47" ca="1" si="104">IF(X47=0,1,COUNTA(OFFSET(pulldown_level2,0,U47+X47,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y47" ca="1" si="106">IF(X47=0,1,COUNTA(OFFSET(pulldown_level2,0,U47+X47,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" ref="Z47" ca="1" si="105">IF(X47=0,1,COUNTA(OFFSET(pulldown_company,0,U47+X47,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z47" ca="1" si="107">IF(X47=0,1,COUNTA(OFFSET(pulldown_company,0,U47+X47,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7961,7 +7966,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="78"/>
       <c r="K48" s="286">
-        <f>IFERROR(ROUNDDOWN(G48*ROUNDDOWN(I48,4)*J48,0),"")</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L48" s="287"/>
@@ -7970,42 +7975,42 @@
       <c r="O48" s="307"/>
       <c r="P48" s="308"/>
       <c r="Q48" s="1" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="R48" s="1" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S48" s="1">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>2</v>
       </c>
       <c r="T48" s="1">
         <v>3</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="68"/>
         <v>1</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="70"/>
         <v>1</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="71"/>
         <v>1</v>
       </c>
     </row>
@@ -8106,7 +8111,7 @@
       <c r="I52" s="115"/>
       <c r="J52" s="116"/>
       <c r="K52" s="286">
-        <f>IFERROR(ROUNDDOWN(G52*ROUNDDOWN(I52,4)*J52,0),"")</f>
+        <f t="shared" ref="K52:K74" si="108">IFERROR(ROUNDDOWN(G52*ROUNDDOWN(I52,4)*J52,0),"")</f>
         <v>0</v>
       </c>
       <c r="L52" s="287"/>
@@ -8115,42 +8120,42 @@
       <c r="O52" s="288"/>
       <c r="P52" s="289"/>
       <c r="Q52" s="1" t="str">
-        <f t="shared" ref="Q52:Q76" ca="1" si="106">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q52:Q76" ca="1" si="109">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R52" s="1" t="str">
-        <f t="shared" ref="R52:R76" ca="1" si="107">IFERROR(VLOOKUP(D52,OFFSET(pulldown_company,0,U52+X52,Z52,1),1,FALSE),"")</f>
+        <f t="shared" ref="R52:R76" ca="1" si="110">IFERROR(VLOOKUP(D52,OFFSET(pulldown_company,0,U52+X52,Z52,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S52" s="1">
-        <f t="shared" ref="S52:S64" ca="1" si="108">IFERROR(VLOOKUP(H52,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S52:S64" ca="1" si="111">IFERROR(VLOOKUP(H52,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T52" s="1">
         <v>4</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:U64" ca="1" si="109">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U52:U64" ca="1" si="112">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" ref="V52:V64" ca="1" si="110">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V52:V64" ca="1" si="113">IFERROR(MATCH(T52,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" ref="W52:W76" ca="1" si="111">(V52-U52)+1</f>
+        <f t="shared" ref="W52:W76" ca="1" si="114">(V52-U52)+1</f>
         <v>1</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" ref="X52:X76" ca="1" si="112">IFERROR(MATCH(A52,OFFSET(pulldown_level1,0,U52,1,W52),0)-1,0)</f>
+        <f t="shared" ref="X52:X76" ca="1" si="115">IFERROR(MATCH(A52,OFFSET(pulldown_level1,0,U52,1,W52),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" ref="Y52:Y76" ca="1" si="113">IF(X52=0,1,COUNTA(OFFSET(pulldown_level2,0,U52+X52,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y52:Y76" ca="1" si="116">IF(X52=0,1,COUNTA(OFFSET(pulldown_level2,0,U52+X52,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z52" s="1">
-        <f t="shared" ref="Z52:Z64" ca="1" si="114">IF(X52=0,1,COUNTA(OFFSET(pulldown_company,0,U52+X52,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z52:Z64" ca="1" si="117">IF(X52=0,1,COUNTA(OFFSET(pulldown_company,0,U52+X52,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8168,7 +8173,7 @@
       <c r="I53" s="115"/>
       <c r="J53" s="116"/>
       <c r="K53" s="286">
-        <f>IFERROR(ROUNDDOWN(G53*ROUNDDOWN(I53,4)*J53,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L53" s="287"/>
@@ -8177,42 +8182,42 @@
       <c r="O53" s="288"/>
       <c r="P53" s="289"/>
       <c r="Q53" s="1" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="109"/>
         <v/>
       </c>
       <c r="R53" s="1" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="110"/>
         <v/>
       </c>
       <c r="S53" s="1">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="111"/>
         <v>2</v>
       </c>
       <c r="T53" s="1">
         <v>4</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" ca="1" si="109"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" ca="1" si="110"/>
+        <f t="shared" ca="1" si="113"/>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" ca="1" si="112"/>
+        <f t="shared" ca="1" si="115"/>
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" ca="1" si="113"/>
+        <f t="shared" ca="1" si="116"/>
         <v>1</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" ca="1" si="114"/>
+        <f t="shared" ca="1" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -8234,7 +8239,7 @@
       <c r="I54" s="115"/>
       <c r="J54" s="116"/>
       <c r="K54" s="286">
-        <f>IFERROR(ROUNDDOWN(G54*ROUNDDOWN(I54,4)*J54,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L54" s="287"/>
@@ -8243,42 +8248,42 @@
       <c r="O54" s="288"/>
       <c r="P54" s="289"/>
       <c r="Q54" s="1" t="str">
-        <f t="shared" ref="Q54:Q63" ca="1" si="115">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q54:Q63" ca="1" si="118">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R54" s="1" t="str">
-        <f t="shared" ref="R54:R63" ca="1" si="116">IFERROR(VLOOKUP(D54,OFFSET(pulldown_company,0,U54+X54,Z54,1),1,FALSE),"")</f>
+        <f t="shared" ref="R54:R63" ca="1" si="119">IFERROR(VLOOKUP(D54,OFFSET(pulldown_company,0,U54+X54,Z54,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S54" s="1">
-        <f t="shared" ref="S54:S63" ca="1" si="117">IFERROR(VLOOKUP(H54,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S54:S63" ca="1" si="120">IFERROR(VLOOKUP(H54,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T54" s="1">
         <v>4</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" ref="U54:U63" ca="1" si="118">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U54:U63" ca="1" si="121">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" ref="V54:V63" ca="1" si="119">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V54:V63" ca="1" si="122">IFERROR(MATCH(T54,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" ref="W54:W63" ca="1" si="120">(V54-U54)+1</f>
+        <f t="shared" ref="W54:W63" ca="1" si="123">(V54-U54)+1</f>
         <v>1</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" ref="X54:X63" ca="1" si="121">IFERROR(MATCH(A54,OFFSET(pulldown_level1,0,U54,1,W54),0)-1,0)</f>
+        <f t="shared" ref="X54:X63" ca="1" si="124">IFERROR(MATCH(A54,OFFSET(pulldown_level1,0,U54,1,W54),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" ref="Y54:Y63" ca="1" si="122">IF(X54=0,1,COUNTA(OFFSET(pulldown_level2,0,U54+X54,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y54:Y63" ca="1" si="125">IF(X54=0,1,COUNTA(OFFSET(pulldown_level2,0,U54+X54,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" ref="Z54:Z63" ca="1" si="123">IF(X54=0,1,COUNTA(OFFSET(pulldown_company,0,U54+X54,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z54:Z63" ca="1" si="126">IF(X54=0,1,COUNTA(OFFSET(pulldown_company,0,U54+X54,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8300,7 +8305,7 @@
       <c r="I55" s="115"/>
       <c r="J55" s="116"/>
       <c r="K55" s="286">
-        <f>IFERROR(ROUNDDOWN(G55*ROUNDDOWN(I55,4)*J55,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L55" s="287"/>
@@ -8309,42 +8314,42 @@
       <c r="O55" s="288"/>
       <c r="P55" s="289"/>
       <c r="Q55" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R55" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S55" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T55" s="1">
         <v>4</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8366,7 +8371,7 @@
       <c r="I56" s="115"/>
       <c r="J56" s="116"/>
       <c r="K56" s="286">
-        <f>IFERROR(ROUNDDOWN(G56*ROUNDDOWN(I56,4)*J56,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L56" s="287"/>
@@ -8375,42 +8380,42 @@
       <c r="O56" s="288"/>
       <c r="P56" s="289"/>
       <c r="Q56" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R56" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S56" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T56" s="1">
         <v>4</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z56" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8432,7 +8437,7 @@
       <c r="I57" s="115"/>
       <c r="J57" s="116"/>
       <c r="K57" s="286">
-        <f>IFERROR(ROUNDDOWN(G57*ROUNDDOWN(I57,4)*J57,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L57" s="287"/>
@@ -8441,42 +8446,42 @@
       <c r="O57" s="288"/>
       <c r="P57" s="289"/>
       <c r="Q57" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R57" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S57" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T57" s="1">
         <v>4</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8498,7 +8503,7 @@
       <c r="I58" s="115"/>
       <c r="J58" s="116"/>
       <c r="K58" s="286">
-        <f>IFERROR(ROUNDDOWN(G58*ROUNDDOWN(I58,4)*J58,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L58" s="287"/>
@@ -8507,42 +8512,42 @@
       <c r="O58" s="288"/>
       <c r="P58" s="289"/>
       <c r="Q58" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R58" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S58" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T58" s="1">
         <v>4</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z58" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8564,7 +8569,7 @@
       <c r="I59" s="115"/>
       <c r="J59" s="116"/>
       <c r="K59" s="286">
-        <f>IFERROR(ROUNDDOWN(G59*ROUNDDOWN(I59,4)*J59,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L59" s="287"/>
@@ -8573,42 +8578,42 @@
       <c r="O59" s="288"/>
       <c r="P59" s="289"/>
       <c r="Q59" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R59" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S59" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T59" s="1">
         <v>4</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8630,7 +8635,7 @@
       <c r="I60" s="115"/>
       <c r="J60" s="116"/>
       <c r="K60" s="286">
-        <f>IFERROR(ROUNDDOWN(G60*ROUNDDOWN(I60,4)*J60,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L60" s="287"/>
@@ -8639,42 +8644,42 @@
       <c r="O60" s="288"/>
       <c r="P60" s="289"/>
       <c r="Q60" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R60" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S60" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T60" s="1">
         <v>4</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8684,7 +8689,7 @@
       </c>
       <c r="B61" s="284"/>
       <c r="C61" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61" s="285"/>
       <c r="E61" s="284"/>
@@ -8696,7 +8701,7 @@
       <c r="I61" s="115"/>
       <c r="J61" s="116"/>
       <c r="K61" s="286">
-        <f>IFERROR(ROUNDDOWN(G61*ROUNDDOWN(I61,4)*J61,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L61" s="287"/>
@@ -8705,42 +8710,42 @@
       <c r="O61" s="288"/>
       <c r="P61" s="289"/>
       <c r="Q61" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R61" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S61" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T61" s="1">
         <v>4</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8750,7 +8755,7 @@
       </c>
       <c r="B62" s="284"/>
       <c r="C62" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" s="285"/>
       <c r="E62" s="284"/>
@@ -8762,7 +8767,7 @@
       <c r="I62" s="115"/>
       <c r="J62" s="116"/>
       <c r="K62" s="286">
-        <f>IFERROR(ROUNDDOWN(G62*ROUNDDOWN(I62,4)*J62,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L62" s="287"/>
@@ -8771,42 +8776,42 @@
       <c r="O62" s="288"/>
       <c r="P62" s="289"/>
       <c r="Q62" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R62" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S62" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T62" s="1">
         <v>4</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z62" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8816,7 +8821,7 @@
       </c>
       <c r="B63" s="284"/>
       <c r="C63" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D63" s="285"/>
       <c r="E63" s="284"/>
@@ -8828,7 +8833,7 @@
       <c r="I63" s="115"/>
       <c r="J63" s="116"/>
       <c r="K63" s="286">
-        <f>IFERROR(ROUNDDOWN(G63*ROUNDDOWN(I63,4)*J63,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L63" s="287"/>
@@ -8837,42 +8842,42 @@
       <c r="O63" s="288"/>
       <c r="P63" s="289"/>
       <c r="Q63" s="1" t="str">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="118"/>
         <v/>
       </c>
       <c r="R63" s="1" t="str">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="119"/>
         <v/>
       </c>
       <c r="S63" s="1">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2</v>
       </c>
       <c r="T63" s="1">
         <v>4</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="121"/>
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="122"/>
         <v>0</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="123"/>
         <v>1</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="124"/>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" ca="1" si="122"/>
+        <f t="shared" ca="1" si="125"/>
         <v>1</v>
       </c>
       <c r="Z63" s="1">
-        <f t="shared" ca="1" si="123"/>
+        <f t="shared" ca="1" si="126"/>
         <v>1</v>
       </c>
     </row>
@@ -8882,7 +8887,7 @@
       </c>
       <c r="B64" s="284"/>
       <c r="C64" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D64" s="285"/>
       <c r="E64" s="284"/>
@@ -8894,7 +8899,7 @@
       <c r="I64" s="115"/>
       <c r="J64" s="116"/>
       <c r="K64" s="286">
-        <f>IFERROR(ROUNDDOWN(G64*ROUNDDOWN(I64,4)*J64,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L64" s="287"/>
@@ -8903,42 +8908,42 @@
       <c r="O64" s="288"/>
       <c r="P64" s="289"/>
       <c r="Q64" s="1" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="109"/>
         <v/>
       </c>
       <c r="R64" s="1" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="110"/>
         <v/>
       </c>
       <c r="S64" s="1">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="111"/>
         <v>2</v>
       </c>
       <c r="T64" s="1">
         <v>4</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" ca="1" si="109"/>
+        <f t="shared" ca="1" si="112"/>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" ca="1" si="110"/>
+        <f t="shared" ca="1" si="113"/>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" ca="1" si="112"/>
+        <f t="shared" ca="1" si="115"/>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" ca="1" si="113"/>
+        <f t="shared" ca="1" si="116"/>
         <v>1</v>
       </c>
       <c r="Z64" s="1">
-        <f t="shared" ca="1" si="114"/>
+        <f t="shared" ca="1" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -8948,7 +8953,7 @@
       </c>
       <c r="B65" s="284"/>
       <c r="C65" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" s="285"/>
       <c r="E65" s="284"/>
@@ -8960,7 +8965,7 @@
       <c r="I65" s="115"/>
       <c r="J65" s="116"/>
       <c r="K65" s="286">
-        <f>IFERROR(ROUNDDOWN(G65*ROUNDDOWN(I65,4)*J65,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L65" s="287"/>
@@ -8969,42 +8974,42 @@
       <c r="O65" s="288"/>
       <c r="P65" s="289"/>
       <c r="Q65" s="1" t="str">
-        <f t="shared" ref="Q65:Q66" ca="1" si="124">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q65:Q66" ca="1" si="127">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R65" s="1" t="str">
-        <f t="shared" ref="R65:R66" ca="1" si="125">IFERROR(VLOOKUP(D65,OFFSET(pulldown_company,0,U65+X65,Z65,1),1,FALSE),"")</f>
+        <f t="shared" ref="R65:R66" ca="1" si="128">IFERROR(VLOOKUP(D65,OFFSET(pulldown_company,0,U65+X65,Z65,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S65" s="1">
-        <f t="shared" ref="S65:S66" ca="1" si="126">IFERROR(VLOOKUP(H65,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S65:S66" ca="1" si="129">IFERROR(VLOOKUP(H65,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T65" s="1">
         <v>4</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" ref="U65:U66" ca="1" si="127">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U65:U66" ca="1" si="130">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" ref="V65:V66" ca="1" si="128">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V65:V66" ca="1" si="131">IFERROR(MATCH(T65,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" ref="W65:W66" ca="1" si="129">(V65-U65)+1</f>
+        <f t="shared" ref="W65:W66" ca="1" si="132">(V65-U65)+1</f>
         <v>1</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" ref="X65:X66" ca="1" si="130">IFERROR(MATCH(A65,OFFSET(pulldown_level1,0,U65,1,W65),0)-1,0)</f>
+        <f t="shared" ref="X65:X66" ca="1" si="133">IFERROR(MATCH(A65,OFFSET(pulldown_level1,0,U65,1,W65),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" ref="Y65:Y66" ca="1" si="131">IF(X65=0,1,COUNTA(OFFSET(pulldown_level2,0,U65+X65,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y65:Y66" ca="1" si="134">IF(X65=0,1,COUNTA(OFFSET(pulldown_level2,0,U65+X65,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" ref="Z65:Z66" ca="1" si="132">IF(X65=0,1,COUNTA(OFFSET(pulldown_company,0,U65+X65,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z65:Z66" ca="1" si="135">IF(X65=0,1,COUNTA(OFFSET(pulldown_company,0,U65+X65,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9014,7 +9019,7 @@
       </c>
       <c r="B66" s="284"/>
       <c r="C66" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D66" s="285"/>
       <c r="E66" s="284"/>
@@ -9026,7 +9031,7 @@
       <c r="I66" s="115"/>
       <c r="J66" s="116"/>
       <c r="K66" s="286">
-        <f>IFERROR(ROUNDDOWN(G66*ROUNDDOWN(I66,4)*J66,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L66" s="287"/>
@@ -9035,42 +9040,42 @@
       <c r="O66" s="288"/>
       <c r="P66" s="289"/>
       <c r="Q66" s="1" t="str">
-        <f t="shared" ca="1" si="124"/>
+        <f t="shared" ca="1" si="127"/>
         <v/>
       </c>
       <c r="R66" s="1" t="str">
-        <f t="shared" ca="1" si="125"/>
+        <f t="shared" ca="1" si="128"/>
         <v/>
       </c>
       <c r="S66" s="1">
-        <f t="shared" ca="1" si="126"/>
+        <f t="shared" ca="1" si="129"/>
         <v>2</v>
       </c>
       <c r="T66" s="1">
         <v>4</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" ca="1" si="127"/>
+        <f t="shared" ca="1" si="130"/>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" ca="1" si="128"/>
+        <f t="shared" ca="1" si="131"/>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" ca="1" si="129"/>
+        <f t="shared" ca="1" si="132"/>
         <v>1</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" ca="1" si="130"/>
+        <f t="shared" ca="1" si="133"/>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" ca="1" si="131"/>
+        <f t="shared" ca="1" si="134"/>
         <v>1</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" ca="1" si="132"/>
+        <f t="shared" ca="1" si="135"/>
         <v>1</v>
       </c>
     </row>
@@ -9080,7 +9085,7 @@
       </c>
       <c r="B67" s="284"/>
       <c r="C67" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D67" s="285"/>
       <c r="E67" s="284"/>
@@ -9092,7 +9097,7 @@
       <c r="I67" s="115"/>
       <c r="J67" s="116"/>
       <c r="K67" s="286">
-        <f>IFERROR(ROUNDDOWN(G67*ROUNDDOWN(I67,4)*J67,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L67" s="287"/>
@@ -9101,42 +9106,42 @@
       <c r="O67" s="288"/>
       <c r="P67" s="289"/>
       <c r="Q67" s="1" t="str">
-        <f t="shared" ref="Q67:Q70" ca="1" si="133">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q67:Q70" ca="1" si="136">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R67" s="1" t="str">
-        <f t="shared" ref="R67:R70" ca="1" si="134">IFERROR(VLOOKUP(D67,OFFSET(pulldown_company,0,U67+X67,Z67,1),1,FALSE),"")</f>
+        <f t="shared" ref="R67:R70" ca="1" si="137">IFERROR(VLOOKUP(D67,OFFSET(pulldown_company,0,U67+X67,Z67,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S67" s="1">
-        <f t="shared" ref="S67:S70" ca="1" si="135">IFERROR(VLOOKUP(H67,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S67:S70" ca="1" si="138">IFERROR(VLOOKUP(H67,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T67" s="1">
         <v>4</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" ref="U67:U70" ca="1" si="136">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U67:U70" ca="1" si="139">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" ref="V67:V70" ca="1" si="137">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V67:V70" ca="1" si="140">IFERROR(MATCH(T67,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" ref="W67:W70" ca="1" si="138">(V67-U67)+1</f>
+        <f t="shared" ref="W67:W70" ca="1" si="141">(V67-U67)+1</f>
         <v>1</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" ref="X67:X70" ca="1" si="139">IFERROR(MATCH(A67,OFFSET(pulldown_level1,0,U67,1,W67),0)-1,0)</f>
+        <f t="shared" ref="X67:X70" ca="1" si="142">IFERROR(MATCH(A67,OFFSET(pulldown_level1,0,U67,1,W67),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" ref="Y67:Y70" ca="1" si="140">IF(X67=0,1,COUNTA(OFFSET(pulldown_level2,0,U67+X67,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y67:Y70" ca="1" si="143">IF(X67=0,1,COUNTA(OFFSET(pulldown_level2,0,U67+X67,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" ref="Z67:Z70" ca="1" si="141">IF(X67=0,1,COUNTA(OFFSET(pulldown_company,0,U67+X67,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z67:Z70" ca="1" si="144">IF(X67=0,1,COUNTA(OFFSET(pulldown_company,0,U67+X67,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9146,7 +9151,7 @@
       </c>
       <c r="B68" s="284"/>
       <c r="C68" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" s="285"/>
       <c r="E68" s="284"/>
@@ -9158,7 +9163,7 @@
       <c r="I68" s="115"/>
       <c r="J68" s="116"/>
       <c r="K68" s="286">
-        <f>IFERROR(ROUNDDOWN(G68*ROUNDDOWN(I68,4)*J68,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L68" s="287"/>
@@ -9167,42 +9172,42 @@
       <c r="O68" s="288"/>
       <c r="P68" s="289"/>
       <c r="Q68" s="1" t="str">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="136"/>
         <v/>
       </c>
       <c r="R68" s="1" t="str">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="137"/>
         <v/>
       </c>
       <c r="S68" s="1">
-        <f t="shared" ca="1" si="135"/>
+        <f t="shared" ca="1" si="138"/>
         <v>2</v>
       </c>
       <c r="T68" s="1">
         <v>4</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ca="1" si="136"/>
+        <f t="shared" ca="1" si="139"/>
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" ca="1" si="137"/>
+        <f t="shared" ca="1" si="140"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" ca="1" si="138"/>
+        <f t="shared" ca="1" si="141"/>
         <v>1</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" ca="1" si="139"/>
+        <f t="shared" ca="1" si="142"/>
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" ca="1" si="140"/>
+        <f t="shared" ca="1" si="143"/>
         <v>1</v>
       </c>
       <c r="Z68" s="1">
-        <f t="shared" ca="1" si="141"/>
+        <f t="shared" ca="1" si="144"/>
         <v>1</v>
       </c>
     </row>
@@ -9212,7 +9217,7 @@
       </c>
       <c r="B69" s="284"/>
       <c r="C69" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" s="285"/>
       <c r="E69" s="284"/>
@@ -9224,7 +9229,7 @@
       <c r="I69" s="115"/>
       <c r="J69" s="116"/>
       <c r="K69" s="286">
-        <f>IFERROR(ROUNDDOWN(G69*ROUNDDOWN(I69,4)*J69,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L69" s="287"/>
@@ -9233,42 +9238,42 @@
       <c r="O69" s="288"/>
       <c r="P69" s="289"/>
       <c r="Q69" s="1" t="str">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="136"/>
         <v/>
       </c>
       <c r="R69" s="1" t="str">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="137"/>
         <v/>
       </c>
       <c r="S69" s="1">
-        <f t="shared" ca="1" si="135"/>
+        <f t="shared" ca="1" si="138"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
         <v>4</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" ca="1" si="136"/>
+        <f t="shared" ca="1" si="139"/>
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" ca="1" si="137"/>
+        <f t="shared" ca="1" si="140"/>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" ca="1" si="138"/>
+        <f t="shared" ca="1" si="141"/>
         <v>1</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" ca="1" si="139"/>
+        <f t="shared" ca="1" si="142"/>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" ca="1" si="140"/>
+        <f t="shared" ca="1" si="143"/>
         <v>1</v>
       </c>
       <c r="Z69" s="1">
-        <f t="shared" ca="1" si="141"/>
+        <f t="shared" ca="1" si="144"/>
         <v>1</v>
       </c>
     </row>
@@ -9278,7 +9283,7 @@
       </c>
       <c r="B70" s="284"/>
       <c r="C70" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D70" s="285"/>
       <c r="E70" s="284"/>
@@ -9290,7 +9295,7 @@
       <c r="I70" s="115"/>
       <c r="J70" s="116"/>
       <c r="K70" s="286">
-        <f>IFERROR(ROUNDDOWN(G70*ROUNDDOWN(I70,4)*J70,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L70" s="287"/>
@@ -9299,42 +9304,42 @@
       <c r="O70" s="288"/>
       <c r="P70" s="289"/>
       <c r="Q70" s="1" t="str">
-        <f t="shared" ca="1" si="133"/>
+        <f t="shared" ca="1" si="136"/>
         <v/>
       </c>
       <c r="R70" s="1" t="str">
-        <f t="shared" ca="1" si="134"/>
+        <f t="shared" ca="1" si="137"/>
         <v/>
       </c>
       <c r="S70" s="1">
-        <f t="shared" ca="1" si="135"/>
+        <f t="shared" ca="1" si="138"/>
         <v>2</v>
       </c>
       <c r="T70" s="1">
         <v>4</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" ca="1" si="136"/>
+        <f t="shared" ca="1" si="139"/>
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" ca="1" si="137"/>
+        <f t="shared" ca="1" si="140"/>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ca="1" si="138"/>
+        <f t="shared" ca="1" si="141"/>
         <v>1</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" ca="1" si="139"/>
+        <f t="shared" ca="1" si="142"/>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" ca="1" si="140"/>
+        <f t="shared" ca="1" si="143"/>
         <v>1</v>
       </c>
       <c r="Z70" s="1">
-        <f t="shared" ca="1" si="141"/>
+        <f t="shared" ca="1" si="144"/>
         <v>1</v>
       </c>
     </row>
@@ -9344,7 +9349,7 @@
       </c>
       <c r="B71" s="284"/>
       <c r="C71" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D71" s="285"/>
       <c r="E71" s="284"/>
@@ -9356,7 +9361,7 @@
       <c r="I71" s="115"/>
       <c r="J71" s="116"/>
       <c r="K71" s="286">
-        <f>IFERROR(ROUNDDOWN(G71*ROUNDDOWN(I71,4)*J71,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L71" s="287"/>
@@ -9365,42 +9370,42 @@
       <c r="O71" s="288"/>
       <c r="P71" s="289"/>
       <c r="Q71" s="1" t="str">
-        <f t="shared" ref="Q71:Q72" ca="1" si="142">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q71:Q72" ca="1" si="145">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R71" s="1" t="str">
-        <f t="shared" ref="R71:R72" ca="1" si="143">IFERROR(VLOOKUP(D71,OFFSET(pulldown_company,0,U71+X71,Z71,1),1,FALSE),"")</f>
+        <f t="shared" ref="R71:R72" ca="1" si="146">IFERROR(VLOOKUP(D71,OFFSET(pulldown_company,0,U71+X71,Z71,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S71" s="1">
-        <f t="shared" ref="S71:S72" ca="1" si="144">IFERROR(VLOOKUP(H71,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S71:S72" ca="1" si="147">IFERROR(VLOOKUP(H71,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T71" s="1">
         <v>4</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:U72" ca="1" si="145">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U71:U72" ca="1" si="148">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" ref="V71:V72" ca="1" si="146">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V71:V72" ca="1" si="149">IFERROR(MATCH(T71,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" ref="W71:W72" ca="1" si="147">(V71-U71)+1</f>
+        <f t="shared" ref="W71:W72" ca="1" si="150">(V71-U71)+1</f>
         <v>1</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" ref="X71:X72" ca="1" si="148">IFERROR(MATCH(A71,OFFSET(pulldown_level1,0,U71,1,W71),0)-1,0)</f>
+        <f t="shared" ref="X71:X72" ca="1" si="151">IFERROR(MATCH(A71,OFFSET(pulldown_level1,0,U71,1,W71),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" ref="Y71:Y72" ca="1" si="149">IF(X71=0,1,COUNTA(OFFSET(pulldown_level2,0,U71+X71,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y71:Y72" ca="1" si="152">IF(X71=0,1,COUNTA(OFFSET(pulldown_level2,0,U71+X71,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z71" s="1">
-        <f t="shared" ref="Z71:Z72" ca="1" si="150">IF(X71=0,1,COUNTA(OFFSET(pulldown_company,0,U71+X71,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z71:Z72" ca="1" si="153">IF(X71=0,1,COUNTA(OFFSET(pulldown_company,0,U71+X71,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9410,7 +9415,7 @@
       </c>
       <c r="B72" s="284"/>
       <c r="C72" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D72" s="285"/>
       <c r="E72" s="284"/>
@@ -9422,7 +9427,7 @@
       <c r="I72" s="115"/>
       <c r="J72" s="116"/>
       <c r="K72" s="286">
-        <f>IFERROR(ROUNDDOWN(G72*ROUNDDOWN(I72,4)*J72,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L72" s="287"/>
@@ -9431,42 +9436,42 @@
       <c r="O72" s="288"/>
       <c r="P72" s="289"/>
       <c r="Q72" s="1" t="str">
-        <f t="shared" ca="1" si="142"/>
+        <f t="shared" ca="1" si="145"/>
         <v/>
       </c>
       <c r="R72" s="1" t="str">
-        <f t="shared" ca="1" si="143"/>
+        <f t="shared" ca="1" si="146"/>
         <v/>
       </c>
       <c r="S72" s="1">
-        <f t="shared" ca="1" si="144"/>
+        <f t="shared" ca="1" si="147"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
         <v>4</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" ca="1" si="145"/>
+        <f t="shared" ca="1" si="148"/>
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="149"/>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" ca="1" si="147"/>
+        <f t="shared" ca="1" si="150"/>
         <v>1</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" ca="1" si="148"/>
+        <f t="shared" ca="1" si="151"/>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" ca="1" si="149"/>
+        <f t="shared" ca="1" si="152"/>
         <v>1</v>
       </c>
       <c r="Z72" s="1">
-        <f t="shared" ca="1" si="150"/>
+        <f t="shared" ca="1" si="153"/>
         <v>1</v>
       </c>
     </row>
@@ -9476,7 +9481,7 @@
       </c>
       <c r="B73" s="284"/>
       <c r="C73" s="51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="285"/>
       <c r="E73" s="284"/>
@@ -9488,7 +9493,7 @@
       <c r="I73" s="115"/>
       <c r="J73" s="116"/>
       <c r="K73" s="286">
-        <f>IFERROR(ROUNDDOWN(G73*ROUNDDOWN(I73,4)*J73,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L73" s="287"/>
@@ -9497,42 +9502,42 @@
       <c r="O73" s="288"/>
       <c r="P73" s="289"/>
       <c r="Q73" s="1" t="str">
-        <f t="shared" ref="Q73" ca="1" si="151">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
+        <f t="shared" ref="Q73" ca="1" si="154">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="R73" s="1" t="str">
-        <f t="shared" ref="R73" ca="1" si="152">IFERROR(VLOOKUP(D73,OFFSET(pulldown_company,0,U73+X73,Z73,1),1,FALSE),"")</f>
+        <f t="shared" ref="R73" ca="1" si="155">IFERROR(VLOOKUP(D73,OFFSET(pulldown_company,0,U73+X73,Z73,1),1,FALSE),"")</f>
         <v/>
       </c>
       <c r="S73" s="1">
-        <f t="shared" ref="S73" ca="1" si="153">IFERROR(VLOOKUP(H73,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S73" ca="1" si="156">IFERROR(VLOOKUP(H73,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="T73" s="1">
         <v>4</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" ref="U73" ca="1" si="154">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U73" ca="1" si="157">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" ref="V73" ca="1" si="155">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V73" ca="1" si="158">IFERROR(MATCH(T73,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" ref="W73" ca="1" si="156">(V73-U73)+1</f>
+        <f t="shared" ref="W73" ca="1" si="159">(V73-U73)+1</f>
         <v>1</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" ref="X73" ca="1" si="157">IFERROR(MATCH(A73,OFFSET(pulldown_level1,0,U73,1,W73),0)-1,0)</f>
+        <f t="shared" ref="X73" ca="1" si="160">IFERROR(MATCH(A73,OFFSET(pulldown_level1,0,U73,1,W73),0)-1,0)</f>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" ref="Y73" ca="1" si="158">IF(X73=0,1,COUNTA(OFFSET(pulldown_level2,0,U73+X73,level2_max_count,1))+1)</f>
+        <f t="shared" ref="Y73" ca="1" si="161">IF(X73=0,1,COUNTA(OFFSET(pulldown_level2,0,U73+X73,level2_max_count,1))+1)</f>
         <v>1</v>
       </c>
       <c r="Z73" s="1">
-        <f t="shared" ref="Z73" ca="1" si="159">IF(X73=0,1,COUNTA(OFFSET(pulldown_company,0,U73+X73,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z73" ca="1" si="162">IF(X73=0,1,COUNTA(OFFSET(pulldown_company,0,U73+X73,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9550,7 +9555,7 @@
       <c r="I74" s="127"/>
       <c r="J74" s="128"/>
       <c r="K74" s="251">
-        <f>IFERROR(ROUNDDOWN(G74*ROUNDDOWN(I74,4)*J74,0),"")</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L74" s="252"/>
@@ -9559,42 +9564,42 @@
       <c r="O74" s="253"/>
       <c r="P74" s="254"/>
       <c r="Q74" s="1" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="109"/>
         <v/>
       </c>
       <c r="R74" s="1" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="110"/>
         <v/>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74:S76" ca="1" si="160">IFERROR(VLOOKUP(H74,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
+        <f t="shared" ref="S74:S76" ca="1" si="163">IFERROR(VLOOKUP(H74,OFFSET(JPYEN_display,0,0,num_of_monetary,2),2,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="T74" s="1">
         <v>4</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" ref="U74:U76" ca="1" si="161">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="U74:U76" ca="1" si="164">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),0)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74:V76" ca="1" si="162">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
+        <f t="shared" ref="V74:V76" ca="1" si="165">IFERROR(MATCH(T74,INDIRECT(CONCATENATE(ROW(pulldown_key_area),":",ROW(pulldown_key_area))),1)-COLUMN(pulldown_key_area),0)</f>
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" ca="1" si="112"/>
+        <f t="shared" ca="1" si="115"/>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" ca="1" si="113"/>
+        <f t="shared" ca="1" si="116"/>
         <v>1</v>
       </c>
       <c r="Z74" s="1">
-        <f t="shared" ref="Z74:Z76" ca="1" si="163">IF(X74=0,1,COUNTA(OFFSET(pulldown_company,0,U74+X74,company_max_count,1))+1)</f>
+        <f t="shared" ref="Z74:Z76" ca="1" si="166">IF(X74=0,1,COUNTA(OFFSET(pulldown_company,0,U74+X74,company_max_count,1))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9621,42 +9626,42 @@
       <c r="O75" s="262"/>
       <c r="P75" s="263"/>
       <c r="Q75" s="1" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="109"/>
         <v/>
       </c>
       <c r="R75" s="1" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="110"/>
         <v/>
       </c>
       <c r="S75" s="1">
-        <f t="shared" ca="1" si="160"/>
+        <f t="shared" ca="1" si="163"/>
         <v>1</v>
       </c>
       <c r="T75" s="1">
         <v>5</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" ca="1" si="161"/>
+        <f t="shared" ca="1" si="164"/>
         <v>15</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" ca="1" si="162"/>
+        <f t="shared" ca="1" si="165"/>
         <v>15</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" ca="1" si="112"/>
+        <f t="shared" ca="1" si="115"/>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" ca="1" si="113"/>
+        <f t="shared" ca="1" si="116"/>
         <v>1</v>
       </c>
       <c r="Z75" s="1">
-        <f t="shared" ca="1" si="163"/>
+        <f t="shared" ca="1" si="166"/>
         <v>1</v>
       </c>
     </row>
@@ -9683,42 +9688,42 @@
       <c r="O76" s="279"/>
       <c r="P76" s="280"/>
       <c r="Q76" s="1" t="str">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="109"/>
         <v/>
       </c>
       <c r="R76" s="1" t="str">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="110"/>
         <v/>
       </c>
       <c r="S76" s="1">
-        <f t="shared" ca="1" si="160"/>
+        <f t="shared" ca="1" si="163"/>
         <v>1</v>
       </c>
       <c r="T76" s="1">
         <v>5</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" ca="1" si="161"/>
+        <f t="shared" ca="1" si="164"/>
         <v>15</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" ca="1" si="162"/>
+        <f t="shared" ca="1" si="165"/>
         <v>15</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="114"/>
         <v>1</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" ca="1" si="112"/>
+        <f t="shared" ca="1" si="115"/>
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" ca="1" si="113"/>
+        <f t="shared" ca="1" si="116"/>
         <v>1</v>
       </c>
       <c r="Z76" s="1">
-        <f t="shared" ca="1" si="163"/>
+        <f t="shared" ca="1" si="166"/>
         <v>1</v>
       </c>
     </row>

--- a/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
+++ b/01_kidsweb/home/kids2/excel_tmp/workSheetTmp_DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\excel_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4608B-4FCB-4E36-920A-D1A8D86AF53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B84A6FD-A945-4A07-B0AE-72C4806D71DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="996" windowWidth="16968" windowHeight="11964" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver.43.1.6" sheetId="6" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="154">
   <si>
     <t>作成日</t>
   </si>
@@ -2131,6 +2131,59 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部材費合計の追加、各セルを上下中央揃えに設定
+ヘッダー項目名の変更、ヘッダー項目名を左寄せに設定</t>
+    <rPh sb="0" eb="2">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒダリヨ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2151,7 +2204,7 @@
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2251,6 +2304,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3522,7 +3582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4180,471 +4240,74 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="17" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
@@ -4676,12 +4339,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -4695,18 +4352,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="6" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4727,56 +4372,480 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="7" fillId="9" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="17" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5266,18 +5335,18 @@
       <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
       <c r="D2" s="78"/>
-      <c r="E2" s="253" t="s">
+      <c r="E2" s="318" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
       <c r="L2" s="79"/>
       <c r="M2" s="79"/>
       <c r="N2" s="79"/>
@@ -5292,19 +5361,19 @@
       <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="267"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="332"/>
       <c r="J3" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="267"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="332"/>
       <c r="O3" s="28" t="s">
         <v>26</v>
       </c>
@@ -5314,24 +5383,24 @@
       <c r="A4" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="255"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="320"/>
       <c r="D4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="256"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="259" t="s">
+      <c r="E4" s="321"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="260"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="259" t="s">
+      <c r="I4" s="325"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="260"/>
+      <c r="M4" s="325"/>
       <c r="N4" s="82"/>
       <c r="O4" s="81" t="s">
         <v>68</v>
@@ -5357,36 +5426,36 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A5" s="262"/>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="263"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="264"/>
+      <c r="A5" s="327"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="328"/>
+      <c r="F5" s="328"/>
+      <c r="G5" s="328"/>
+      <c r="H5" s="328"/>
+      <c r="I5" s="328"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="328"/>
+      <c r="P5" s="329"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="246"/>
+      <c r="B6" s="335"/>
       <c r="C6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="336" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="246"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="335"/>
       <c r="G6" s="85" t="s">
         <v>7</v>
       </c>
@@ -5399,18 +5468,18 @@
       <c r="J6" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="249" t="s">
+      <c r="K6" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="250"/>
+      <c r="L6" s="339"/>
       <c r="M6" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="242" t="s">
+      <c r="N6" s="340" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="243"/>
-      <c r="P6" s="244"/>
+      <c r="O6" s="341"/>
+      <c r="P6" s="342"/>
       <c r="Q6" s="55" t="s">
         <v>70</v>
       </c>
@@ -5443,27 +5512,27 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A7" s="207"/>
-      <c r="B7" s="208"/>
+      <c r="A7" s="343"/>
+      <c r="B7" s="344"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="211"/>
+      <c r="D7" s="345"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="347"/>
       <c r="G7" s="194"/>
       <c r="H7" s="91" t="s">
         <v>134</v>
       </c>
       <c r="I7" s="92"/>
       <c r="J7" s="93"/>
-      <c r="K7" s="212">
+      <c r="K7" s="316">
         <f>IFERROR(TRUNC(G7*TRUNC(I7,4)*J7,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="213"/>
+      <c r="L7" s="317"/>
       <c r="M7" s="94"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="216"/>
+      <c r="N7" s="348"/>
+      <c r="O7" s="349"/>
+      <c r="P7" s="350"/>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7:Q27" ca="1" si="0">IFERROR(VLOOKUP(C7,OFFSET(pulldown_level2,0,U7+X7,Y7,1),1,FALSE),"")</f>
         <v/>
@@ -5505,27 +5574,27 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A8" s="207"/>
-      <c r="B8" s="208"/>
+      <c r="A8" s="343"/>
+      <c r="B8" s="344"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="211"/>
+      <c r="D8" s="345"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="347"/>
       <c r="G8" s="194"/>
       <c r="H8" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="92"/>
       <c r="J8" s="93"/>
-      <c r="K8" s="212">
+      <c r="K8" s="316">
         <f t="shared" ref="K8:K27" si="9">IFERROR(TRUNC(G8*TRUNC(I8,4)*J8,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="213"/>
+      <c r="L8" s="317"/>
       <c r="M8" s="94"/>
-      <c r="N8" s="214"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="216"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="349"/>
+      <c r="P8" s="350"/>
       <c r="Q8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -5567,31 +5636,31 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="208"/>
+      <c r="B9" s="344"/>
       <c r="C9" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="347"/>
       <c r="G9" s="194"/>
       <c r="H9" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="92"/>
       <c r="J9" s="93"/>
-      <c r="K9" s="212">
+      <c r="K9" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L9" s="213"/>
+      <c r="L9" s="317"/>
       <c r="M9" s="94"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="216"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="349"/>
+      <c r="P9" s="350"/>
       <c r="Q9" s="1" t="str">
         <f t="shared" ref="Q9:Q11" ca="1" si="11">IFERROR(VLOOKUP(C9,OFFSET(pulldown_level2,0,U9+X9,Y9,1),1,FALSE),"")</f>
         <v/>
@@ -5633,31 +5702,31 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="208"/>
+      <c r="B10" s="344"/>
       <c r="C10" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
+      <c r="D10" s="345"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="347"/>
       <c r="G10" s="194"/>
       <c r="H10" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="92"/>
       <c r="J10" s="93"/>
-      <c r="K10" s="212">
+      <c r="K10" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L10" s="213"/>
+      <c r="L10" s="317"/>
       <c r="M10" s="94"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="216"/>
+      <c r="N10" s="348"/>
+      <c r="O10" s="349"/>
+      <c r="P10" s="350"/>
       <c r="Q10" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -5699,31 +5768,31 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="208"/>
+      <c r="B11" s="344"/>
       <c r="C11" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="347"/>
       <c r="G11" s="194"/>
       <c r="H11" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="93"/>
-      <c r="K11" s="212">
+      <c r="K11" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L11" s="213"/>
+      <c r="L11" s="317"/>
       <c r="M11" s="94"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="216"/>
+      <c r="N11" s="348"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="350"/>
       <c r="Q11" s="1" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -5765,31 +5834,31 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A12" s="207" t="s">
+      <c r="A12" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="208"/>
+      <c r="B12" s="344"/>
       <c r="C12" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
+      <c r="D12" s="345"/>
+      <c r="E12" s="346"/>
+      <c r="F12" s="347"/>
       <c r="G12" s="194"/>
       <c r="H12" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="92"/>
       <c r="J12" s="93"/>
-      <c r="K12" s="212">
+      <c r="K12" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L12" s="213"/>
+      <c r="L12" s="317"/>
       <c r="M12" s="94"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="216"/>
+      <c r="N12" s="348"/>
+      <c r="O12" s="349"/>
+      <c r="P12" s="350"/>
       <c r="Q12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -5831,31 +5900,31 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="208"/>
+      <c r="B13" s="344"/>
       <c r="C13" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
+      <c r="D13" s="345"/>
+      <c r="E13" s="346"/>
+      <c r="F13" s="347"/>
       <c r="G13" s="194"/>
       <c r="H13" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93"/>
-      <c r="K13" s="212">
+      <c r="K13" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L13" s="213"/>
+      <c r="L13" s="317"/>
       <c r="M13" s="94"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="216"/>
+      <c r="N13" s="348"/>
+      <c r="O13" s="349"/>
+      <c r="P13" s="350"/>
       <c r="Q13" s="1" t="str">
         <f t="shared" ref="Q13:Q14" ca="1" si="19">IFERROR(VLOOKUP(C13,OFFSET(pulldown_level2,0,U13+X13,Y13,1),1,FALSE),"")</f>
         <v/>
@@ -5897,31 +5966,31 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="208"/>
+      <c r="B14" s="344"/>
       <c r="C14" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="209"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="211"/>
+      <c r="D14" s="345"/>
+      <c r="E14" s="346"/>
+      <c r="F14" s="347"/>
       <c r="G14" s="194"/>
       <c r="H14" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="92"/>
       <c r="J14" s="93"/>
-      <c r="K14" s="212">
+      <c r="K14" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L14" s="213"/>
+      <c r="L14" s="317"/>
       <c r="M14" s="94"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="216"/>
+      <c r="N14" s="348"/>
+      <c r="O14" s="349"/>
+      <c r="P14" s="350"/>
       <c r="Q14" s="1" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
@@ -5963,31 +6032,31 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="208"/>
+      <c r="B15" s="344"/>
       <c r="C15" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="209"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="211"/>
+      <c r="D15" s="345"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="347"/>
       <c r="G15" s="194"/>
       <c r="H15" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="92"/>
       <c r="J15" s="93"/>
-      <c r="K15" s="212">
+      <c r="K15" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L15" s="213"/>
+      <c r="L15" s="317"/>
       <c r="M15" s="94"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="215"/>
-      <c r="P15" s="216"/>
+      <c r="N15" s="348"/>
+      <c r="O15" s="349"/>
+      <c r="P15" s="350"/>
       <c r="Q15" s="1" t="str">
         <f t="shared" ref="Q15:Q21" ca="1" si="27">IFERROR(VLOOKUP(C15,OFFSET(pulldown_level2,0,U15+X15,Y15,1),1,FALSE),"")</f>
         <v/>
@@ -6029,31 +6098,31 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="208"/>
+      <c r="B16" s="344"/>
       <c r="C16" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
+      <c r="D16" s="345"/>
+      <c r="E16" s="346"/>
+      <c r="F16" s="347"/>
       <c r="G16" s="194"/>
       <c r="H16" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="92"/>
       <c r="J16" s="93"/>
-      <c r="K16" s="212">
+      <c r="K16" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L16" s="213"/>
+      <c r="L16" s="317"/>
       <c r="M16" s="94"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="216"/>
+      <c r="N16" s="348"/>
+      <c r="O16" s="349"/>
+      <c r="P16" s="350"/>
       <c r="Q16" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -6095,31 +6164,31 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="208"/>
+      <c r="B17" s="344"/>
       <c r="C17" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="209"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
+      <c r="D17" s="345"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="347"/>
       <c r="G17" s="194"/>
       <c r="H17" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="92"/>
       <c r="J17" s="93"/>
-      <c r="K17" s="212">
+      <c r="K17" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L17" s="213"/>
+      <c r="L17" s="317"/>
       <c r="M17" s="94"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="215"/>
-      <c r="P17" s="216"/>
+      <c r="N17" s="348"/>
+      <c r="O17" s="349"/>
+      <c r="P17" s="350"/>
       <c r="Q17" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -6161,31 +6230,31 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="208"/>
+      <c r="B18" s="344"/>
       <c r="C18" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="211"/>
+      <c r="D18" s="345"/>
+      <c r="E18" s="346"/>
+      <c r="F18" s="347"/>
       <c r="G18" s="194"/>
       <c r="H18" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="92"/>
       <c r="J18" s="93"/>
-      <c r="K18" s="212">
+      <c r="K18" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L18" s="213"/>
+      <c r="L18" s="317"/>
       <c r="M18" s="94"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="215"/>
-      <c r="P18" s="216"/>
+      <c r="N18" s="348"/>
+      <c r="O18" s="349"/>
+      <c r="P18" s="350"/>
       <c r="Q18" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -6227,31 +6296,31 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A19" s="207" t="s">
+      <c r="A19" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="208"/>
+      <c r="B19" s="344"/>
       <c r="C19" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="211"/>
+      <c r="D19" s="345"/>
+      <c r="E19" s="346"/>
+      <c r="F19" s="347"/>
       <c r="G19" s="194"/>
       <c r="H19" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="92"/>
       <c r="J19" s="93"/>
-      <c r="K19" s="212">
+      <c r="K19" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L19" s="213"/>
+      <c r="L19" s="317"/>
       <c r="M19" s="94"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="216"/>
+      <c r="N19" s="348"/>
+      <c r="O19" s="349"/>
+      <c r="P19" s="350"/>
       <c r="Q19" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -6293,31 +6362,31 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="208"/>
+      <c r="B20" s="344"/>
       <c r="C20" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
+      <c r="D20" s="345"/>
+      <c r="E20" s="346"/>
+      <c r="F20" s="347"/>
       <c r="G20" s="194"/>
       <c r="H20" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="92"/>
       <c r="J20" s="93"/>
-      <c r="K20" s="212">
+      <c r="K20" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L20" s="213"/>
+      <c r="L20" s="317"/>
       <c r="M20" s="94"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="216"/>
+      <c r="N20" s="348"/>
+      <c r="O20" s="349"/>
+      <c r="P20" s="350"/>
       <c r="Q20" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -6359,31 +6428,31 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="208"/>
+      <c r="B21" s="344"/>
       <c r="C21" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
+      <c r="D21" s="345"/>
+      <c r="E21" s="346"/>
+      <c r="F21" s="347"/>
       <c r="G21" s="194"/>
       <c r="H21" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
-      <c r="K21" s="212">
+      <c r="K21" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L21" s="213"/>
+      <c r="L21" s="317"/>
       <c r="M21" s="94"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="216"/>
+      <c r="N21" s="348"/>
+      <c r="O21" s="349"/>
+      <c r="P21" s="350"/>
       <c r="Q21" s="1" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -6425,31 +6494,31 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A22" s="207" t="s">
+      <c r="A22" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="208"/>
+      <c r="B22" s="344"/>
       <c r="C22" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
+      <c r="D22" s="345"/>
+      <c r="E22" s="346"/>
+      <c r="F22" s="347"/>
       <c r="G22" s="194"/>
       <c r="H22" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="92"/>
       <c r="J22" s="93"/>
-      <c r="K22" s="212">
+      <c r="K22" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L22" s="213"/>
+      <c r="L22" s="317"/>
       <c r="M22" s="94"/>
-      <c r="N22" s="214"/>
-      <c r="O22" s="215"/>
-      <c r="P22" s="216"/>
+      <c r="N22" s="348"/>
+      <c r="O22" s="349"/>
+      <c r="P22" s="350"/>
       <c r="Q22" s="1" t="str">
         <f t="shared" ref="Q22:Q25" ca="1" si="35">IFERROR(VLOOKUP(C22,OFFSET(pulldown_level2,0,U22+X22,Y22,1),1,FALSE),"")</f>
         <v/>
@@ -6491,31 +6560,31 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A23" s="207" t="s">
+      <c r="A23" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="208"/>
+      <c r="B23" s="344"/>
       <c r="C23" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="209"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
+      <c r="D23" s="345"/>
+      <c r="E23" s="346"/>
+      <c r="F23" s="347"/>
       <c r="G23" s="194"/>
       <c r="H23" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="92"/>
       <c r="J23" s="93"/>
-      <c r="K23" s="212">
+      <c r="K23" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L23" s="213"/>
+      <c r="L23" s="317"/>
       <c r="M23" s="94"/>
-      <c r="N23" s="214"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="216"/>
+      <c r="N23" s="348"/>
+      <c r="O23" s="349"/>
+      <c r="P23" s="350"/>
       <c r="Q23" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -6557,31 +6626,31 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A24" s="207" t="s">
+      <c r="A24" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="208"/>
+      <c r="B24" s="344"/>
       <c r="C24" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="209"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
+      <c r="D24" s="345"/>
+      <c r="E24" s="346"/>
+      <c r="F24" s="347"/>
       <c r="G24" s="194"/>
       <c r="H24" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="92"/>
       <c r="J24" s="93"/>
-      <c r="K24" s="212">
+      <c r="K24" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L24" s="213"/>
+      <c r="L24" s="317"/>
       <c r="M24" s="94"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="216"/>
+      <c r="N24" s="348"/>
+      <c r="O24" s="349"/>
+      <c r="P24" s="350"/>
       <c r="Q24" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -6623,31 +6692,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="208"/>
+      <c r="B25" s="344"/>
       <c r="C25" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="209"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="211"/>
+      <c r="D25" s="345"/>
+      <c r="E25" s="346"/>
+      <c r="F25" s="347"/>
       <c r="G25" s="194"/>
       <c r="H25" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="92"/>
       <c r="J25" s="93"/>
-      <c r="K25" s="212">
+      <c r="K25" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L25" s="213"/>
+      <c r="L25" s="317"/>
       <c r="M25" s="94"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="215"/>
-      <c r="P25" s="216"/>
+      <c r="N25" s="348"/>
+      <c r="O25" s="349"/>
+      <c r="P25" s="350"/>
       <c r="Q25" s="1" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
@@ -6689,31 +6758,31 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.8" customHeight="1">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="208"/>
+      <c r="B26" s="344"/>
       <c r="C26" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="209"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="211"/>
+      <c r="D26" s="345"/>
+      <c r="E26" s="346"/>
+      <c r="F26" s="347"/>
       <c r="G26" s="194"/>
       <c r="H26" s="91" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="92"/>
       <c r="J26" s="93"/>
-      <c r="K26" s="212">
+      <c r="K26" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L26" s="213"/>
+      <c r="L26" s="317"/>
       <c r="M26" s="94"/>
-      <c r="N26" s="214"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="216"/>
+      <c r="N26" s="348"/>
+      <c r="O26" s="349"/>
+      <c r="P26" s="350"/>
       <c r="Q26" s="1" t="str">
         <f t="shared" ref="Q26" ca="1" si="43">IFERROR(VLOOKUP(C26,OFFSET(pulldown_level2,0,U26+X26,Y26,1),1,FALSE),"")</f>
         <v/>
@@ -6755,27 +6824,27 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A27" s="207"/>
-      <c r="B27" s="208"/>
+      <c r="A27" s="343"/>
+      <c r="B27" s="344"/>
       <c r="C27" s="95"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="211"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
+      <c r="F27" s="347"/>
       <c r="G27" s="195"/>
       <c r="H27" s="96" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="97"/>
       <c r="J27" s="98"/>
-      <c r="K27" s="212">
+      <c r="K27" s="316">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L27" s="213"/>
+      <c r="L27" s="317"/>
       <c r="M27" s="99"/>
-      <c r="N27" s="251"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="252"/>
+      <c r="N27" s="351"/>
+      <c r="O27" s="351"/>
+      <c r="P27" s="352"/>
       <c r="Q27" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -6817,66 +6886,66 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="364" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="226"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="227"/>
+      <c r="B28" s="365"/>
+      <c r="C28" s="365"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="366"/>
       <c r="G28" s="196">
         <f>SUM(G7:G27)</f>
         <v>0</v>
       </c>
       <c r="H28" s="100"/>
-      <c r="I28" s="228">
+      <c r="I28" s="367">
         <f>SUM(K7:K27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="229"/>
-      <c r="K28" s="229"/>
-      <c r="L28" s="230"/>
+      <c r="J28" s="368"/>
+      <c r="K28" s="368"/>
+      <c r="L28" s="369"/>
       <c r="M28" s="101"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="232"/>
+      <c r="N28" s="370"/>
+      <c r="O28" s="370"/>
+      <c r="P28" s="371"/>
       <c r="Q28" s="1">
         <f>IF(C28&lt;&gt;0,IF(A28=$G$96,VLOOKUP(C28,$G$98:$G$106,1,TRUE),IF(A28=$H$96,VLOOKUP(C28,$H$98:$H$108,1,TRUE),IF(A28=$I$96,VLOOKUP(C28,$I$98:$I$106,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A29" s="233"/>
-      <c r="B29" s="234"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="234"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="234"/>
-      <c r="P29" s="235"/>
+      <c r="A29" s="308"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="309"/>
+      <c r="L29" s="309"/>
+      <c r="M29" s="309"/>
+      <c r="N29" s="309"/>
+      <c r="O29" s="309"/>
+      <c r="P29" s="310"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="354"/>
       <c r="C30" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="238" t="s">
+      <c r="D30" s="355" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="239"/>
-      <c r="F30" s="237"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="354"/>
       <c r="G30" s="103" t="s">
         <v>7</v>
       </c>
@@ -6889,41 +6958,41 @@
       <c r="J30" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="240" t="s">
+      <c r="K30" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="241"/>
+      <c r="L30" s="358"/>
       <c r="M30" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="242" t="s">
+      <c r="N30" s="340" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="243"/>
-      <c r="P30" s="244"/>
+      <c r="O30" s="341"/>
+      <c r="P30" s="342"/>
     </row>
     <row r="31" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A31" s="217"/>
-      <c r="B31" s="218"/>
+      <c r="A31" s="359"/>
+      <c r="B31" s="360"/>
       <c r="C31" s="106"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="315"/>
       <c r="G31" s="197"/>
       <c r="H31" s="107" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="108"/>
       <c r="J31" s="93"/>
-      <c r="K31" s="212">
+      <c r="K31" s="316">
         <f>IFERROR(TRUNC(G31*TRUNC(I31,4)*J31,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="213"/>
+      <c r="L31" s="317"/>
       <c r="M31" s="94"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="223"/>
-      <c r="P31" s="224"/>
+      <c r="N31" s="361"/>
+      <c r="O31" s="362"/>
+      <c r="P31" s="363"/>
       <c r="Q31" s="1" t="str">
         <f t="shared" ref="Q31:Q32" ca="1" si="52">IFERROR(VLOOKUP(C31,OFFSET(pulldown_level2,0,U31+X31,Y31,1),1,FALSE),"")</f>
         <v/>
@@ -6965,27 +7034,27 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A32" s="282"/>
-      <c r="B32" s="283"/>
+      <c r="A32" s="311"/>
+      <c r="B32" s="312"/>
       <c r="C32" s="109"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="D32" s="313"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="315"/>
       <c r="G32" s="198"/>
       <c r="H32" s="110" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="111"/>
       <c r="J32" s="112"/>
-      <c r="K32" s="212">
+      <c r="K32" s="316">
         <f>IFERROR(TRUNC(G32*TRUNC(I32,4)*J32,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L32" s="213"/>
+      <c r="L32" s="317"/>
       <c r="M32" s="94"/>
-      <c r="N32" s="284"/>
-      <c r="O32" s="284"/>
-      <c r="P32" s="285"/>
+      <c r="N32" s="247"/>
+      <c r="O32" s="247"/>
+      <c r="P32" s="248"/>
       <c r="Q32" s="1" t="str">
         <f t="shared" ca="1" si="52"/>
         <v/>
@@ -7027,65 +7096,65 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="269" t="s">
+      <c r="A33" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="271"/>
+      <c r="B33" s="301"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="301"/>
+      <c r="F33" s="302"/>
       <c r="G33" s="199">
         <f>SUM(G31:G32)</f>
         <v>0</v>
       </c>
       <c r="H33" s="113"/>
-      <c r="I33" s="272">
+      <c r="I33" s="303">
         <f>SUM(K31:K32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="273"/>
-      <c r="K33" s="273"/>
-      <c r="L33" s="274"/>
+      <c r="J33" s="304"/>
+      <c r="K33" s="304"/>
+      <c r="L33" s="305"/>
       <c r="M33" s="114"/>
-      <c r="N33" s="275"/>
-      <c r="O33" s="275"/>
-      <c r="P33" s="276"/>
+      <c r="N33" s="306"/>
+      <c r="O33" s="306"/>
+      <c r="P33" s="307"/>
       <c r="Q33" s="1">
         <f>IF(C33&lt;&gt;0,IF(A33=$G$96,VLOOKUP(C33,$G$98:$G$106,1,TRUE),IF(A33=$H$96,VLOOKUP(C33,$H$98:$H$108,1,TRUE),IF(A33=$I$96,VLOOKUP(C33,$I$98:$I$106,1,TRUE),))),)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="6" customHeight="1" thickBot="1">
-      <c r="A34" s="233"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="234"/>
-      <c r="P34" s="235"/>
+      <c r="A34" s="308"/>
+      <c r="B34" s="309"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="309"/>
+      <c r="E34" s="309"/>
+      <c r="F34" s="309"/>
+      <c r="G34" s="309"/>
+      <c r="H34" s="309"/>
+      <c r="I34" s="309"/>
+      <c r="J34" s="309"/>
+      <c r="K34" s="309"/>
+      <c r="L34" s="309"/>
+      <c r="M34" s="309"/>
+      <c r="N34" s="309"/>
+      <c r="O34" s="309"/>
+      <c r="P34" s="310"/>
     </row>
     <row r="35" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="278"/>
+      <c r="B35" s="294"/>
       <c r="C35" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="278"/>
+      <c r="E35" s="294"/>
       <c r="F35" s="115" t="s">
         <v>16</v>
       </c>
@@ -7101,25 +7170,25 @@
       <c r="J35" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="279" t="s">
+      <c r="K35" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="278"/>
+      <c r="L35" s="294"/>
       <c r="M35" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="279" t="s">
+      <c r="N35" s="295" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="280"/>
-      <c r="P35" s="281"/>
+      <c r="O35" s="296"/>
+      <c r="P35" s="297"/>
     </row>
     <row r="36" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A36" s="200"/>
-      <c r="B36" s="201"/>
+      <c r="A36" s="288"/>
+      <c r="B36" s="289"/>
       <c r="C36" s="118"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="201"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="289"/>
       <c r="F36" s="119"/>
       <c r="G36" s="120"/>
       <c r="H36" s="121" t="s">
@@ -7127,15 +7196,15 @@
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
-      <c r="K36" s="203">
+      <c r="K36" s="245">
         <f>IFERROR(TRUNC(G36*TRUNC(I36,4)*J36,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="204"/>
+      <c r="L36" s="246"/>
       <c r="M36" s="94"/>
-      <c r="N36" s="205"/>
-      <c r="O36" s="205"/>
-      <c r="P36" s="206"/>
+      <c r="N36" s="291"/>
+      <c r="O36" s="291"/>
+      <c r="P36" s="292"/>
       <c r="Q36" s="1" t="str">
         <f t="shared" ref="Q36:Q48" ca="1" si="62">IFERROR(VLOOKUP(C36,OFFSET(pulldown_level2,0,U36+X36,Y36,1),1,FALSE),"")</f>
         <v/>
@@ -7177,11 +7246,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A37" s="200"/>
-      <c r="B37" s="201"/>
+      <c r="A37" s="288"/>
+      <c r="B37" s="289"/>
       <c r="C37" s="118"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="201"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="119"/>
       <c r="G37" s="120"/>
       <c r="H37" s="121" t="s">
@@ -7189,15 +7258,15 @@
       </c>
       <c r="I37" s="122"/>
       <c r="J37" s="123"/>
-      <c r="K37" s="203">
+      <c r="K37" s="245">
         <f t="shared" ref="K37:K48" si="71">IFERROR(TRUNC(G37*TRUNC(I37,4)*J37,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L37" s="204"/>
+      <c r="L37" s="246"/>
       <c r="M37" s="94"/>
-      <c r="N37" s="205"/>
-      <c r="O37" s="205"/>
-      <c r="P37" s="206"/>
+      <c r="N37" s="291"/>
+      <c r="O37" s="291"/>
+      <c r="P37" s="292"/>
       <c r="Q37" s="1" t="str">
         <f t="shared" ca="1" si="62"/>
         <v/>
@@ -7239,15 +7308,15 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A38" s="200" t="s">
+      <c r="A38" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="201"/>
+      <c r="B38" s="289"/>
       <c r="C38" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="201"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="119"/>
       <c r="G38" s="120"/>
       <c r="H38" s="121" t="s">
@@ -7255,15 +7324,15 @@
       </c>
       <c r="I38" s="122"/>
       <c r="J38" s="123"/>
-      <c r="K38" s="203">
+      <c r="K38" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L38" s="204"/>
+      <c r="L38" s="246"/>
       <c r="M38" s="94"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="205"/>
-      <c r="P38" s="206"/>
+      <c r="N38" s="291"/>
+      <c r="O38" s="291"/>
+      <c r="P38" s="292"/>
       <c r="Q38" s="1" t="str">
         <f t="shared" ref="Q38:Q39" ca="1" si="72">IFERROR(VLOOKUP(C38,OFFSET(pulldown_level2,0,U38+X38,Y38,1),1,FALSE),"")</f>
         <v/>
@@ -7305,15 +7374,15 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A39" s="200" t="s">
+      <c r="A39" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="201"/>
+      <c r="B39" s="289"/>
       <c r="C39" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="202"/>
-      <c r="E39" s="201"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="289"/>
       <c r="F39" s="119"/>
       <c r="G39" s="120"/>
       <c r="H39" s="121" t="s">
@@ -7321,15 +7390,15 @@
       </c>
       <c r="I39" s="122"/>
       <c r="J39" s="123"/>
-      <c r="K39" s="203">
+      <c r="K39" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L39" s="204"/>
+      <c r="L39" s="246"/>
       <c r="M39" s="94"/>
-      <c r="N39" s="205"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="206"/>
+      <c r="N39" s="291"/>
+      <c r="O39" s="291"/>
+      <c r="P39" s="292"/>
       <c r="Q39" s="1" t="str">
         <f t="shared" ca="1" si="72"/>
         <v/>
@@ -7371,15 +7440,15 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A40" s="200" t="s">
+      <c r="A40" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="201"/>
+      <c r="B40" s="289"/>
       <c r="C40" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="201"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="289"/>
       <c r="F40" s="119"/>
       <c r="G40" s="120"/>
       <c r="H40" s="121" t="s">
@@ -7387,15 +7456,15 @@
       </c>
       <c r="I40" s="122"/>
       <c r="J40" s="123"/>
-      <c r="K40" s="203">
+      <c r="K40" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L40" s="204"/>
+      <c r="L40" s="246"/>
       <c r="M40" s="94"/>
-      <c r="N40" s="205"/>
-      <c r="O40" s="205"/>
-      <c r="P40" s="206"/>
+      <c r="N40" s="291"/>
+      <c r="O40" s="291"/>
+      <c r="P40" s="292"/>
       <c r="Q40" s="1" t="str">
         <f t="shared" ref="Q40:Q46" ca="1" si="81">IFERROR(VLOOKUP(C40,OFFSET(pulldown_level2,0,U40+X40,Y40,1),1,FALSE),"")</f>
         <v/>
@@ -7437,15 +7506,15 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="201"/>
+      <c r="B41" s="289"/>
       <c r="C41" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="202"/>
-      <c r="E41" s="201"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="289"/>
       <c r="F41" s="119"/>
       <c r="G41" s="120"/>
       <c r="H41" s="121" t="s">
@@ -7453,15 +7522,15 @@
       </c>
       <c r="I41" s="122"/>
       <c r="J41" s="123"/>
-      <c r="K41" s="203">
+      <c r="K41" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L41" s="204"/>
+      <c r="L41" s="246"/>
       <c r="M41" s="94"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="206"/>
+      <c r="N41" s="291"/>
+      <c r="O41" s="291"/>
+      <c r="P41" s="292"/>
       <c r="Q41" s="1" t="str">
         <f t="shared" ca="1" si="81"/>
         <v/>
@@ -7503,15 +7572,15 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A42" s="200" t="s">
+      <c r="A42" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="201"/>
+      <c r="B42" s="289"/>
       <c r="C42" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="202"/>
-      <c r="E42" s="201"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="289"/>
       <c r="F42" s="119"/>
       <c r="G42" s="120"/>
       <c r="H42" s="121" t="s">
@@ -7519,15 +7588,15 @@
       </c>
       <c r="I42" s="122"/>
       <c r="J42" s="123"/>
-      <c r="K42" s="203">
+      <c r="K42" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L42" s="204"/>
+      <c r="L42" s="246"/>
       <c r="M42" s="94"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="205"/>
-      <c r="P42" s="206"/>
+      <c r="N42" s="291"/>
+      <c r="O42" s="291"/>
+      <c r="P42" s="292"/>
       <c r="Q42" s="1" t="str">
         <f t="shared" ca="1" si="81"/>
         <v/>
@@ -7569,15 +7638,15 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A43" s="200" t="s">
+      <c r="A43" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="201"/>
+      <c r="B43" s="289"/>
       <c r="C43" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="202"/>
-      <c r="E43" s="201"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="289"/>
       <c r="F43" s="119"/>
       <c r="G43" s="120"/>
       <c r="H43" s="121" t="s">
@@ -7585,15 +7654,15 @@
       </c>
       <c r="I43" s="122"/>
       <c r="J43" s="123"/>
-      <c r="K43" s="203">
+      <c r="K43" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L43" s="204"/>
+      <c r="L43" s="246"/>
       <c r="M43" s="94"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="206"/>
+      <c r="N43" s="291"/>
+      <c r="O43" s="291"/>
+      <c r="P43" s="292"/>
       <c r="Q43" s="1" t="str">
         <f t="shared" ref="Q43" ca="1" si="90">IFERROR(VLOOKUP(C43,OFFSET(pulldown_level2,0,U43+X43,Y43,1),1,FALSE),"")</f>
         <v/>
@@ -7635,15 +7704,15 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A44" s="200" t="s">
+      <c r="A44" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="201"/>
+      <c r="B44" s="289"/>
       <c r="C44" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="202"/>
-      <c r="E44" s="201"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="289"/>
       <c r="F44" s="119"/>
       <c r="G44" s="120"/>
       <c r="H44" s="121" t="s">
@@ -7651,15 +7720,15 @@
       </c>
       <c r="I44" s="122"/>
       <c r="J44" s="123"/>
-      <c r="K44" s="203">
+      <c r="K44" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L44" s="204"/>
+      <c r="L44" s="246"/>
       <c r="M44" s="94"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="206"/>
+      <c r="N44" s="291"/>
+      <c r="O44" s="291"/>
+      <c r="P44" s="292"/>
       <c r="Q44" s="1" t="str">
         <f t="shared" ca="1" si="81"/>
         <v/>
@@ -7701,15 +7770,15 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A45" s="200" t="s">
+      <c r="A45" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="201"/>
+      <c r="B45" s="289"/>
       <c r="C45" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="202"/>
-      <c r="E45" s="201"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="289"/>
       <c r="F45" s="119"/>
       <c r="G45" s="120"/>
       <c r="H45" s="121" t="s">
@@ -7717,15 +7786,15 @@
       </c>
       <c r="I45" s="122"/>
       <c r="J45" s="123"/>
-      <c r="K45" s="203">
+      <c r="K45" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L45" s="204"/>
+      <c r="L45" s="246"/>
       <c r="M45" s="94"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="206"/>
+      <c r="N45" s="291"/>
+      <c r="O45" s="291"/>
+      <c r="P45" s="292"/>
       <c r="Q45" s="1" t="str">
         <f t="shared" ca="1" si="81"/>
         <v/>
@@ -7767,15 +7836,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A46" s="200" t="s">
+      <c r="A46" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="201"/>
+      <c r="B46" s="289"/>
       <c r="C46" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="201"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="289"/>
       <c r="F46" s="119"/>
       <c r="G46" s="120"/>
       <c r="H46" s="121" t="s">
@@ -7783,15 +7852,15 @@
       </c>
       <c r="I46" s="122"/>
       <c r="J46" s="123"/>
-      <c r="K46" s="203">
+      <c r="K46" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L46" s="204"/>
+      <c r="L46" s="246"/>
       <c r="M46" s="94"/>
-      <c r="N46" s="205"/>
-      <c r="O46" s="205"/>
-      <c r="P46" s="206"/>
+      <c r="N46" s="291"/>
+      <c r="O46" s="291"/>
+      <c r="P46" s="292"/>
       <c r="Q46" s="1" t="str">
         <f t="shared" ca="1" si="81"/>
         <v/>
@@ -7833,15 +7902,15 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A47" s="200" t="s">
+      <c r="A47" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="201"/>
+      <c r="B47" s="289"/>
       <c r="C47" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="202"/>
-      <c r="E47" s="201"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="289"/>
       <c r="F47" s="119"/>
       <c r="G47" s="120"/>
       <c r="H47" s="121" t="s">
@@ -7849,15 +7918,15 @@
       </c>
       <c r="I47" s="122"/>
       <c r="J47" s="123"/>
-      <c r="K47" s="203">
+      <c r="K47" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L47" s="204"/>
+      <c r="L47" s="246"/>
       <c r="M47" s="94"/>
-      <c r="N47" s="205"/>
-      <c r="O47" s="205"/>
-      <c r="P47" s="206"/>
+      <c r="N47" s="291"/>
+      <c r="O47" s="291"/>
+      <c r="P47" s="292"/>
       <c r="Q47" s="1" t="str">
         <f t="shared" ref="Q47" ca="1" si="99">IFERROR(VLOOKUP(C47,OFFSET(pulldown_level2,0,U47+X47,Y47,1),1,FALSE),"")</f>
         <v/>
@@ -7899,11 +7968,11 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="200"/>
-      <c r="B48" s="201"/>
+      <c r="A48" s="288"/>
+      <c r="B48" s="289"/>
       <c r="C48" s="124"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="201"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="289"/>
       <c r="F48" s="125"/>
       <c r="G48" s="126"/>
       <c r="H48" s="127" t="s">
@@ -7911,11 +7980,11 @@
       </c>
       <c r="I48" s="111"/>
       <c r="J48" s="112"/>
-      <c r="K48" s="203">
+      <c r="K48" s="245">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="L48" s="204"/>
+      <c r="L48" s="246"/>
       <c r="M48" s="128"/>
       <c r="N48" s="298"/>
       <c r="O48" s="298"/>
@@ -7961,61 +8030,61 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="286" t="s">
+      <c r="A49" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="287"/>
-      <c r="C49" s="287"/>
-      <c r="D49" s="287"/>
-      <c r="E49" s="287"/>
-      <c r="F49" s="288"/>
+      <c r="B49" s="277"/>
+      <c r="C49" s="277"/>
+      <c r="D49" s="277"/>
+      <c r="E49" s="277"/>
+      <c r="F49" s="278"/>
       <c r="G49" s="129"/>
       <c r="H49" s="130"/>
-      <c r="I49" s="289">
+      <c r="I49" s="279">
         <f>SUM(K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="290"/>
-      <c r="K49" s="290"/>
-      <c r="L49" s="291"/>
+      <c r="J49" s="280"/>
+      <c r="K49" s="280"/>
+      <c r="L49" s="281"/>
       <c r="M49" s="131"/>
-      <c r="N49" s="292">
+      <c r="N49" s="282">
         <f>SUMIF(F36:F48,"&lt;&gt;"&amp;hdn_payoff_circle,K36:K48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="293"/>
-      <c r="P49" s="294"/>
+      <c r="O49" s="283"/>
+      <c r="P49" s="284"/>
     </row>
     <row r="50" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A50" s="295"/>
-      <c r="B50" s="296"/>
-      <c r="C50" s="296"/>
-      <c r="D50" s="296"/>
-      <c r="E50" s="296"/>
-      <c r="F50" s="296"/>
-      <c r="G50" s="296"/>
-      <c r="H50" s="296"/>
-      <c r="I50" s="296"/>
-      <c r="J50" s="296"/>
-      <c r="K50" s="296"/>
-      <c r="L50" s="296"/>
-      <c r="M50" s="296"/>
-      <c r="N50" s="296"/>
-      <c r="O50" s="296"/>
-      <c r="P50" s="297"/>
+      <c r="A50" s="285"/>
+      <c r="B50" s="286"/>
+      <c r="C50" s="286"/>
+      <c r="D50" s="286"/>
+      <c r="E50" s="286"/>
+      <c r="F50" s="286"/>
+      <c r="G50" s="286"/>
+      <c r="H50" s="286"/>
+      <c r="I50" s="286"/>
+      <c r="J50" s="286"/>
+      <c r="K50" s="286"/>
+      <c r="L50" s="286"/>
+      <c r="M50" s="286"/>
+      <c r="N50" s="286"/>
+      <c r="O50" s="286"/>
+      <c r="P50" s="287"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="277" t="s">
+      <c r="A51" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="278"/>
+      <c r="B51" s="294"/>
       <c r="C51" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="279" t="s">
+      <c r="D51" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="278"/>
+      <c r="E51" s="294"/>
       <c r="F51" s="132"/>
       <c r="G51" s="132" t="s">
         <v>17</v>
@@ -8029,26 +8098,26 @@
       <c r="J51" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="K51" s="279" t="s">
+      <c r="K51" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="278"/>
+      <c r="L51" s="294"/>
       <c r="M51" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="279" t="s">
+      <c r="N51" s="295" t="s">
         <v>46</v>
       </c>
-      <c r="O51" s="280"/>
-      <c r="P51" s="281"/>
+      <c r="O51" s="296"/>
+      <c r="P51" s="297"/>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A52" s="200"/>
-      <c r="B52" s="201"/>
+      <c r="A52" s="288"/>
+      <c r="B52" s="289"/>
       <c r="C52" s="118"/>
-      <c r="D52" s="202"/>
-      <c r="E52" s="201"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="289"/>
       <c r="F52" s="119"/>
       <c r="G52" s="133"/>
       <c r="H52" s="121" t="s">
@@ -8056,15 +8125,15 @@
       </c>
       <c r="I52" s="134"/>
       <c r="J52" s="135"/>
-      <c r="K52" s="203">
+      <c r="K52" s="245">
         <f>IFERROR(TRUNC(G52*TRUNC(I52,4)*J52,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L52" s="204"/>
+      <c r="L52" s="246"/>
       <c r="M52" s="94"/>
-      <c r="N52" s="205"/>
-      <c r="O52" s="205"/>
-      <c r="P52" s="206"/>
+      <c r="N52" s="291"/>
+      <c r="O52" s="291"/>
+      <c r="P52" s="292"/>
       <c r="Q52" s="1" t="str">
         <f t="shared" ref="Q52:Q76" ca="1" si="108">IFERROR(VLOOKUP(C52,OFFSET(pulldown_level2,0,U52+X52,Y52,1),1,FALSE),"")</f>
         <v/>
@@ -8106,11 +8175,11 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A53" s="200"/>
-      <c r="B53" s="201"/>
+      <c r="A53" s="288"/>
+      <c r="B53" s="289"/>
       <c r="C53" s="118"/>
-      <c r="D53" s="202"/>
-      <c r="E53" s="201"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="289"/>
       <c r="F53" s="119"/>
       <c r="G53" s="133"/>
       <c r="H53" s="121" t="s">
@@ -8118,15 +8187,15 @@
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="135"/>
-      <c r="K53" s="203">
+      <c r="K53" s="245">
         <f t="shared" ref="K53:K74" si="117">IFERROR(TRUNC(G53*TRUNC(I53,4)*J53,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L53" s="204"/>
+      <c r="L53" s="246"/>
       <c r="M53" s="94"/>
-      <c r="N53" s="205"/>
-      <c r="O53" s="205"/>
-      <c r="P53" s="206"/>
+      <c r="N53" s="291"/>
+      <c r="O53" s="291"/>
+      <c r="P53" s="292"/>
       <c r="Q53" s="1" t="str">
         <f t="shared" ca="1" si="108"/>
         <v/>
@@ -8168,15 +8237,15 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A54" s="200" t="s">
+      <c r="A54" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="201"/>
+      <c r="B54" s="289"/>
       <c r="C54" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="202"/>
-      <c r="E54" s="201"/>
+      <c r="D54" s="290"/>
+      <c r="E54" s="289"/>
       <c r="F54" s="119"/>
       <c r="G54" s="133"/>
       <c r="H54" s="121" t="s">
@@ -8184,15 +8253,15 @@
       </c>
       <c r="I54" s="134"/>
       <c r="J54" s="135"/>
-      <c r="K54" s="203">
+      <c r="K54" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L54" s="204"/>
+      <c r="L54" s="246"/>
       <c r="M54" s="94"/>
-      <c r="N54" s="205"/>
-      <c r="O54" s="205"/>
-      <c r="P54" s="206"/>
+      <c r="N54" s="291"/>
+      <c r="O54" s="291"/>
+      <c r="P54" s="292"/>
       <c r="Q54" s="1" t="str">
         <f t="shared" ref="Q54:Q63" ca="1" si="118">IFERROR(VLOOKUP(C54,OFFSET(pulldown_level2,0,U54+X54,Y54,1),1,FALSE),"")</f>
         <v/>
@@ -8234,15 +8303,15 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="201"/>
+      <c r="B55" s="289"/>
       <c r="C55" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="202"/>
-      <c r="E55" s="201"/>
+      <c r="D55" s="290"/>
+      <c r="E55" s="289"/>
       <c r="F55" s="119"/>
       <c r="G55" s="133"/>
       <c r="H55" s="121" t="s">
@@ -8250,15 +8319,15 @@
       </c>
       <c r="I55" s="134"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="203">
+      <c r="K55" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L55" s="204"/>
+      <c r="L55" s="246"/>
       <c r="M55" s="94"/>
-      <c r="N55" s="205"/>
-      <c r="O55" s="205"/>
-      <c r="P55" s="206"/>
+      <c r="N55" s="291"/>
+      <c r="O55" s="291"/>
+      <c r="P55" s="292"/>
       <c r="Q55" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8300,15 +8369,15 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A56" s="200" t="s">
+      <c r="A56" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="201"/>
+      <c r="B56" s="289"/>
       <c r="C56" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="202"/>
-      <c r="E56" s="201"/>
+      <c r="D56" s="290"/>
+      <c r="E56" s="289"/>
       <c r="F56" s="119"/>
       <c r="G56" s="133"/>
       <c r="H56" s="121" t="s">
@@ -8316,15 +8385,15 @@
       </c>
       <c r="I56" s="134"/>
       <c r="J56" s="135"/>
-      <c r="K56" s="203">
+      <c r="K56" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L56" s="204"/>
+      <c r="L56" s="246"/>
       <c r="M56" s="94"/>
-      <c r="N56" s="205"/>
-      <c r="O56" s="205"/>
-      <c r="P56" s="206"/>
+      <c r="N56" s="291"/>
+      <c r="O56" s="291"/>
+      <c r="P56" s="292"/>
       <c r="Q56" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8366,15 +8435,15 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A57" s="200" t="s">
+      <c r="A57" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="201"/>
+      <c r="B57" s="289"/>
       <c r="C57" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="202"/>
-      <c r="E57" s="201"/>
+      <c r="D57" s="290"/>
+      <c r="E57" s="289"/>
       <c r="F57" s="119"/>
       <c r="G57" s="133"/>
       <c r="H57" s="121" t="s">
@@ -8382,15 +8451,15 @@
       </c>
       <c r="I57" s="134"/>
       <c r="J57" s="135"/>
-      <c r="K57" s="203">
+      <c r="K57" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L57" s="204"/>
+      <c r="L57" s="246"/>
       <c r="M57" s="94"/>
-      <c r="N57" s="205"/>
-      <c r="O57" s="205"/>
-      <c r="P57" s="206"/>
+      <c r="N57" s="291"/>
+      <c r="O57" s="291"/>
+      <c r="P57" s="292"/>
       <c r="Q57" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8432,15 +8501,15 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A58" s="200" t="s">
+      <c r="A58" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="201"/>
+      <c r="B58" s="289"/>
       <c r="C58" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="202"/>
-      <c r="E58" s="201"/>
+      <c r="D58" s="290"/>
+      <c r="E58" s="289"/>
       <c r="F58" s="119"/>
       <c r="G58" s="133"/>
       <c r="H58" s="121" t="s">
@@ -8448,15 +8517,15 @@
       </c>
       <c r="I58" s="134"/>
       <c r="J58" s="135"/>
-      <c r="K58" s="203">
+      <c r="K58" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L58" s="204"/>
+      <c r="L58" s="246"/>
       <c r="M58" s="94"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="205"/>
-      <c r="P58" s="206"/>
+      <c r="N58" s="291"/>
+      <c r="O58" s="291"/>
+      <c r="P58" s="292"/>
       <c r="Q58" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8498,15 +8567,15 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A59" s="200" t="s">
+      <c r="A59" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="201"/>
+      <c r="B59" s="289"/>
       <c r="C59" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="202"/>
-      <c r="E59" s="201"/>
+      <c r="D59" s="290"/>
+      <c r="E59" s="289"/>
       <c r="F59" s="119"/>
       <c r="G59" s="133"/>
       <c r="H59" s="121" t="s">
@@ -8514,15 +8583,15 @@
       </c>
       <c r="I59" s="134"/>
       <c r="J59" s="135"/>
-      <c r="K59" s="203">
+      <c r="K59" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L59" s="204"/>
+      <c r="L59" s="246"/>
       <c r="M59" s="94"/>
-      <c r="N59" s="205"/>
-      <c r="O59" s="205"/>
-      <c r="P59" s="206"/>
+      <c r="N59" s="291"/>
+      <c r="O59" s="291"/>
+      <c r="P59" s="292"/>
       <c r="Q59" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8564,15 +8633,15 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A60" s="200" t="s">
+      <c r="A60" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="201"/>
+      <c r="B60" s="289"/>
       <c r="C60" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="202"/>
-      <c r="E60" s="201"/>
+      <c r="D60" s="290"/>
+      <c r="E60" s="289"/>
       <c r="F60" s="119"/>
       <c r="G60" s="133"/>
       <c r="H60" s="121" t="s">
@@ -8580,15 +8649,15 @@
       </c>
       <c r="I60" s="134"/>
       <c r="J60" s="135"/>
-      <c r="K60" s="203">
+      <c r="K60" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L60" s="204"/>
+      <c r="L60" s="246"/>
       <c r="M60" s="94"/>
-      <c r="N60" s="205"/>
-      <c r="O60" s="205"/>
-      <c r="P60" s="206"/>
+      <c r="N60" s="291"/>
+      <c r="O60" s="291"/>
+      <c r="P60" s="292"/>
       <c r="Q60" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8630,15 +8699,15 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A61" s="200" t="s">
+      <c r="A61" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="201"/>
+      <c r="B61" s="289"/>
       <c r="C61" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="202"/>
-      <c r="E61" s="201"/>
+      <c r="D61" s="290"/>
+      <c r="E61" s="289"/>
       <c r="F61" s="119"/>
       <c r="G61" s="133"/>
       <c r="H61" s="121" t="s">
@@ -8646,15 +8715,15 @@
       </c>
       <c r="I61" s="134"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="203">
+      <c r="K61" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L61" s="204"/>
+      <c r="L61" s="246"/>
       <c r="M61" s="94"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="205"/>
-      <c r="P61" s="206"/>
+      <c r="N61" s="291"/>
+      <c r="O61" s="291"/>
+      <c r="P61" s="292"/>
       <c r="Q61" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8696,15 +8765,15 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A62" s="200" t="s">
+      <c r="A62" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="201"/>
+      <c r="B62" s="289"/>
       <c r="C62" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="202"/>
-      <c r="E62" s="201"/>
+      <c r="D62" s="290"/>
+      <c r="E62" s="289"/>
       <c r="F62" s="119"/>
       <c r="G62" s="133"/>
       <c r="H62" s="121" t="s">
@@ -8712,15 +8781,15 @@
       </c>
       <c r="I62" s="134"/>
       <c r="J62" s="135"/>
-      <c r="K62" s="203">
+      <c r="K62" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L62" s="204"/>
+      <c r="L62" s="246"/>
       <c r="M62" s="94"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="205"/>
-      <c r="P62" s="206"/>
+      <c r="N62" s="291"/>
+      <c r="O62" s="291"/>
+      <c r="P62" s="292"/>
       <c r="Q62" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8762,15 +8831,15 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A63" s="200" t="s">
+      <c r="A63" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="201"/>
+      <c r="B63" s="289"/>
       <c r="C63" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="202"/>
-      <c r="E63" s="201"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="289"/>
       <c r="F63" s="119"/>
       <c r="G63" s="133"/>
       <c r="H63" s="121" t="s">
@@ -8778,15 +8847,15 @@
       </c>
       <c r="I63" s="134"/>
       <c r="J63" s="135"/>
-      <c r="K63" s="203">
+      <c r="K63" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L63" s="204"/>
+      <c r="L63" s="246"/>
       <c r="M63" s="94"/>
-      <c r="N63" s="205"/>
-      <c r="O63" s="205"/>
-      <c r="P63" s="206"/>
+      <c r="N63" s="291"/>
+      <c r="O63" s="291"/>
+      <c r="P63" s="292"/>
       <c r="Q63" s="1" t="str">
         <f t="shared" ca="1" si="118"/>
         <v/>
@@ -8828,15 +8897,15 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A64" s="200" t="s">
+      <c r="A64" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="201"/>
+      <c r="B64" s="289"/>
       <c r="C64" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="202"/>
-      <c r="E64" s="201"/>
+      <c r="D64" s="290"/>
+      <c r="E64" s="289"/>
       <c r="F64" s="119"/>
       <c r="G64" s="133"/>
       <c r="H64" s="121" t="s">
@@ -8844,15 +8913,15 @@
       </c>
       <c r="I64" s="134"/>
       <c r="J64" s="135"/>
-      <c r="K64" s="203">
+      <c r="K64" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L64" s="204"/>
+      <c r="L64" s="246"/>
       <c r="M64" s="94"/>
-      <c r="N64" s="205"/>
-      <c r="O64" s="205"/>
-      <c r="P64" s="206"/>
+      <c r="N64" s="291"/>
+      <c r="O64" s="291"/>
+      <c r="P64" s="292"/>
       <c r="Q64" s="1" t="str">
         <f t="shared" ca="1" si="108"/>
         <v/>
@@ -8894,15 +8963,15 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A65" s="200" t="s">
+      <c r="A65" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="201"/>
+      <c r="B65" s="289"/>
       <c r="C65" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="202"/>
-      <c r="E65" s="201"/>
+      <c r="D65" s="290"/>
+      <c r="E65" s="289"/>
       <c r="F65" s="119"/>
       <c r="G65" s="133"/>
       <c r="H65" s="121" t="s">
@@ -8910,15 +8979,15 @@
       </c>
       <c r="I65" s="134"/>
       <c r="J65" s="135"/>
-      <c r="K65" s="203">
+      <c r="K65" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L65" s="204"/>
+      <c r="L65" s="246"/>
       <c r="M65" s="94"/>
-      <c r="N65" s="205"/>
-      <c r="O65" s="205"/>
-      <c r="P65" s="206"/>
+      <c r="N65" s="291"/>
+      <c r="O65" s="291"/>
+      <c r="P65" s="292"/>
       <c r="Q65" s="1" t="str">
         <f t="shared" ref="Q65:Q66" ca="1" si="127">IFERROR(VLOOKUP(C65,OFFSET(pulldown_level2,0,U65+X65,Y65,1),1,FALSE),"")</f>
         <v/>
@@ -8960,15 +9029,15 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A66" s="200" t="s">
+      <c r="A66" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="201"/>
+      <c r="B66" s="289"/>
       <c r="C66" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="202"/>
-      <c r="E66" s="201"/>
+      <c r="D66" s="290"/>
+      <c r="E66" s="289"/>
       <c r="F66" s="119"/>
       <c r="G66" s="133"/>
       <c r="H66" s="121" t="s">
@@ -8976,15 +9045,15 @@
       </c>
       <c r="I66" s="134"/>
       <c r="J66" s="135"/>
-      <c r="K66" s="203">
+      <c r="K66" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L66" s="204"/>
+      <c r="L66" s="246"/>
       <c r="M66" s="94"/>
-      <c r="N66" s="205"/>
-      <c r="O66" s="205"/>
-      <c r="P66" s="206"/>
+      <c r="N66" s="291"/>
+      <c r="O66" s="291"/>
+      <c r="P66" s="292"/>
       <c r="Q66" s="1" t="str">
         <f t="shared" ca="1" si="127"/>
         <v/>
@@ -9026,15 +9095,15 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A67" s="200" t="s">
+      <c r="A67" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="201"/>
+      <c r="B67" s="289"/>
       <c r="C67" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="202"/>
-      <c r="E67" s="201"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="289"/>
       <c r="F67" s="119"/>
       <c r="G67" s="133"/>
       <c r="H67" s="121" t="s">
@@ -9042,15 +9111,15 @@
       </c>
       <c r="I67" s="134"/>
       <c r="J67" s="135"/>
-      <c r="K67" s="203">
+      <c r="K67" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L67" s="204"/>
+      <c r="L67" s="246"/>
       <c r="M67" s="94"/>
-      <c r="N67" s="205"/>
-      <c r="O67" s="205"/>
-      <c r="P67" s="206"/>
+      <c r="N67" s="291"/>
+      <c r="O67" s="291"/>
+      <c r="P67" s="292"/>
       <c r="Q67" s="1" t="str">
         <f t="shared" ref="Q67:Q70" ca="1" si="136">IFERROR(VLOOKUP(C67,OFFSET(pulldown_level2,0,U67+X67,Y67,1),1,FALSE),"")</f>
         <v/>
@@ -9092,15 +9161,15 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A68" s="200" t="s">
+      <c r="A68" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="201"/>
+      <c r="B68" s="289"/>
       <c r="C68" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="202"/>
-      <c r="E68" s="201"/>
+      <c r="D68" s="290"/>
+      <c r="E68" s="289"/>
       <c r="F68" s="119"/>
       <c r="G68" s="133"/>
       <c r="H68" s="121" t="s">
@@ -9108,15 +9177,15 @@
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="135"/>
-      <c r="K68" s="203">
+      <c r="K68" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L68" s="204"/>
+      <c r="L68" s="246"/>
       <c r="M68" s="94"/>
-      <c r="N68" s="205"/>
-      <c r="O68" s="205"/>
-      <c r="P68" s="206"/>
+      <c r="N68" s="291"/>
+      <c r="O68" s="291"/>
+      <c r="P68" s="292"/>
       <c r="Q68" s="1" t="str">
         <f t="shared" ca="1" si="136"/>
         <v/>
@@ -9158,15 +9227,15 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A69" s="200" t="s">
+      <c r="A69" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="201"/>
+      <c r="B69" s="289"/>
       <c r="C69" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="202"/>
-      <c r="E69" s="201"/>
+      <c r="D69" s="290"/>
+      <c r="E69" s="289"/>
       <c r="F69" s="119"/>
       <c r="G69" s="133"/>
       <c r="H69" s="121" t="s">
@@ -9174,15 +9243,15 @@
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="135"/>
-      <c r="K69" s="203">
+      <c r="K69" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L69" s="204"/>
+      <c r="L69" s="246"/>
       <c r="M69" s="94"/>
-      <c r="N69" s="205"/>
-      <c r="O69" s="205"/>
-      <c r="P69" s="206"/>
+      <c r="N69" s="291"/>
+      <c r="O69" s="291"/>
+      <c r="P69" s="292"/>
       <c r="Q69" s="1" t="str">
         <f t="shared" ca="1" si="136"/>
         <v/>
@@ -9224,15 +9293,15 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A70" s="200" t="s">
+      <c r="A70" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="201"/>
+      <c r="B70" s="289"/>
       <c r="C70" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="202"/>
-      <c r="E70" s="201"/>
+      <c r="D70" s="290"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="119"/>
       <c r="G70" s="133"/>
       <c r="H70" s="121" t="s">
@@ -9240,15 +9309,15 @@
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="135"/>
-      <c r="K70" s="203">
+      <c r="K70" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L70" s="204"/>
+      <c r="L70" s="246"/>
       <c r="M70" s="94"/>
-      <c r="N70" s="205"/>
-      <c r="O70" s="205"/>
-      <c r="P70" s="206"/>
+      <c r="N70" s="291"/>
+      <c r="O70" s="291"/>
+      <c r="P70" s="292"/>
       <c r="Q70" s="1" t="str">
         <f t="shared" ca="1" si="136"/>
         <v/>
@@ -9290,15 +9359,15 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A71" s="200" t="s">
+      <c r="A71" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="201"/>
+      <c r="B71" s="289"/>
       <c r="C71" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="202"/>
-      <c r="E71" s="201"/>
+      <c r="D71" s="290"/>
+      <c r="E71" s="289"/>
       <c r="F71" s="119"/>
       <c r="G71" s="133"/>
       <c r="H71" s="121" t="s">
@@ -9306,15 +9375,15 @@
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="135"/>
-      <c r="K71" s="203">
+      <c r="K71" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L71" s="204"/>
+      <c r="L71" s="246"/>
       <c r="M71" s="94"/>
-      <c r="N71" s="205"/>
-      <c r="O71" s="205"/>
-      <c r="P71" s="206"/>
+      <c r="N71" s="291"/>
+      <c r="O71" s="291"/>
+      <c r="P71" s="292"/>
       <c r="Q71" s="1" t="str">
         <f t="shared" ref="Q71:Q72" ca="1" si="145">IFERROR(VLOOKUP(C71,OFFSET(pulldown_level2,0,U71+X71,Y71,1),1,FALSE),"")</f>
         <v/>
@@ -9356,15 +9425,15 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A72" s="200" t="s">
+      <c r="A72" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="201"/>
+      <c r="B72" s="289"/>
       <c r="C72" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="202"/>
-      <c r="E72" s="201"/>
+      <c r="D72" s="290"/>
+      <c r="E72" s="289"/>
       <c r="F72" s="119"/>
       <c r="G72" s="133"/>
       <c r="H72" s="121" t="s">
@@ -9372,15 +9441,15 @@
       </c>
       <c r="I72" s="134"/>
       <c r="J72" s="135"/>
-      <c r="K72" s="203">
+      <c r="K72" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L72" s="204"/>
+      <c r="L72" s="246"/>
       <c r="M72" s="94"/>
-      <c r="N72" s="205"/>
-      <c r="O72" s="205"/>
-      <c r="P72" s="206"/>
+      <c r="N72" s="291"/>
+      <c r="O72" s="291"/>
+      <c r="P72" s="292"/>
       <c r="Q72" s="1" t="str">
         <f t="shared" ca="1" si="145"/>
         <v/>
@@ -9422,15 +9491,15 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A73" s="200" t="s">
+      <c r="A73" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="201"/>
+      <c r="B73" s="289"/>
       <c r="C73" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="202"/>
-      <c r="E73" s="201"/>
+      <c r="D73" s="290"/>
+      <c r="E73" s="289"/>
       <c r="F73" s="119"/>
       <c r="G73" s="133"/>
       <c r="H73" s="121" t="s">
@@ -9438,15 +9507,15 @@
       </c>
       <c r="I73" s="134"/>
       <c r="J73" s="135"/>
-      <c r="K73" s="203">
+      <c r="K73" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L73" s="204"/>
+      <c r="L73" s="246"/>
       <c r="M73" s="94"/>
-      <c r="N73" s="205"/>
-      <c r="O73" s="205"/>
-      <c r="P73" s="206"/>
+      <c r="N73" s="291"/>
+      <c r="O73" s="291"/>
+      <c r="P73" s="292"/>
       <c r="Q73" s="1" t="str">
         <f t="shared" ref="Q73" ca="1" si="154">IFERROR(VLOOKUP(C73,OFFSET(pulldown_level2,0,U73+X73,Y73,1),1,FALSE),"")</f>
         <v/>
@@ -9488,11 +9557,11 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A74" s="300"/>
-      <c r="B74" s="301"/>
+      <c r="A74" s="242"/>
+      <c r="B74" s="243"/>
       <c r="C74" s="136"/>
-      <c r="D74" s="302"/>
-      <c r="E74" s="301"/>
+      <c r="D74" s="244"/>
+      <c r="E74" s="243"/>
       <c r="F74" s="137"/>
       <c r="G74" s="138"/>
       <c r="H74" s="139" t="s">
@@ -9500,15 +9569,15 @@
       </c>
       <c r="I74" s="111"/>
       <c r="J74" s="112"/>
-      <c r="K74" s="203">
+      <c r="K74" s="245">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L74" s="204"/>
+      <c r="L74" s="246"/>
       <c r="M74" s="140"/>
-      <c r="N74" s="284"/>
-      <c r="O74" s="284"/>
-      <c r="P74" s="285"/>
+      <c r="N74" s="247"/>
+      <c r="O74" s="247"/>
+      <c r="P74" s="248"/>
       <c r="Q74" s="1" t="str">
         <f t="shared" ca="1" si="108"/>
         <v/>
@@ -9550,11 +9619,11 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A75" s="303"/>
-      <c r="B75" s="304"/>
+      <c r="A75" s="249"/>
+      <c r="B75" s="250"/>
       <c r="C75" s="141"/>
-      <c r="D75" s="305"/>
-      <c r="E75" s="306"/>
+      <c r="D75" s="251"/>
+      <c r="E75" s="252"/>
       <c r="F75" s="142"/>
       <c r="G75" s="143"/>
       <c r="H75" s="144" t="s">
@@ -9562,15 +9631,15 @@
       </c>
       <c r="I75" s="145"/>
       <c r="J75" s="146"/>
-      <c r="K75" s="307">
+      <c r="K75" s="253">
         <f>IFERROR(TRUNC(G75*IF(AND(LEFT(A75,4)="401:",LEFT(C75,2)="1:",F75&lt;&gt;""),IF(D75&lt;&gt;0&amp;G75&lt;&gt;0&amp;retailprice&lt;&gt;0,TRUNC(F75*retailprice,4),""),IF(AND(LEFT(A75,5)="1224:",LEFT(C75,2)="3:",F75&lt;&gt;""),TRUNC(F75*tariff_total,4),TRUNC(I75,4)))*J75,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L75" s="308"/>
+      <c r="L75" s="254"/>
       <c r="M75" s="147"/>
-      <c r="N75" s="309"/>
-      <c r="O75" s="310"/>
-      <c r="P75" s="311"/>
+      <c r="N75" s="255"/>
+      <c r="O75" s="256"/>
+      <c r="P75" s="257"/>
       <c r="Q75" s="1" t="str">
         <f t="shared" ca="1" si="108"/>
         <v/>
@@ -9612,11 +9681,11 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A76" s="320"/>
-      <c r="B76" s="321"/>
+      <c r="A76" s="266"/>
+      <c r="B76" s="267"/>
       <c r="C76" s="148"/>
-      <c r="D76" s="322"/>
-      <c r="E76" s="323"/>
+      <c r="D76" s="268"/>
+      <c r="E76" s="269"/>
       <c r="F76" s="149"/>
       <c r="G76" s="150"/>
       <c r="H76" s="151" t="s">
@@ -9624,15 +9693,15 @@
       </c>
       <c r="I76" s="152"/>
       <c r="J76" s="153"/>
-      <c r="K76" s="324">
+      <c r="K76" s="270">
         <f>IFERROR(TRUNC(G76*IF(AND(LEFT(A76,4)="401:",LEFT(C76,2)="1:",F76&lt;&gt;""),IF(D76&lt;&gt;0&amp;G76&lt;&gt;0&amp;retailprice&lt;&gt;0,TRUNC(F76*retailprice,4),""),IF(AND(LEFT(A76,5)="1224:",LEFT(C76,2)="3:",F76&lt;&gt;""),TRUNC(F76*tariff_total,4),TRUNC(I76,4)))*J76,0),"")</f>
         <v>0</v>
       </c>
-      <c r="L76" s="325"/>
+      <c r="L76" s="271"/>
       <c r="M76" s="154"/>
-      <c r="N76" s="326"/>
-      <c r="O76" s="327"/>
-      <c r="P76" s="328"/>
+      <c r="N76" s="272"/>
+      <c r="O76" s="273"/>
+      <c r="P76" s="274"/>
       <c r="Q76" s="1" t="str">
         <f t="shared" ca="1" si="108"/>
         <v/>
@@ -9674,84 +9743,84 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="286" t="s">
+      <c r="A77" s="276" t="s">
         <v>144</v>
       </c>
-      <c r="B77" s="287"/>
-      <c r="C77" s="287"/>
-      <c r="D77" s="287"/>
-      <c r="E77" s="287"/>
-      <c r="F77" s="288"/>
+      <c r="B77" s="277"/>
+      <c r="C77" s="277"/>
+      <c r="D77" s="277"/>
+      <c r="E77" s="277"/>
+      <c r="F77" s="278"/>
       <c r="G77" s="129"/>
       <c r="H77" s="130"/>
-      <c r="I77" s="289">
+      <c r="I77" s="279">
         <f>SUM(K52:K76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="290"/>
-      <c r="K77" s="290"/>
-      <c r="L77" s="291"/>
+      <c r="J77" s="280"/>
+      <c r="K77" s="280"/>
+      <c r="L77" s="281"/>
       <c r="M77" s="131"/>
-      <c r="N77" s="292"/>
-      <c r="O77" s="293"/>
-      <c r="P77" s="294"/>
+      <c r="N77" s="282"/>
+      <c r="O77" s="283"/>
+      <c r="P77" s="284"/>
     </row>
     <row r="78" spans="1:26" ht="8.25" customHeight="1" thickBot="1">
-      <c r="A78" s="295"/>
-      <c r="B78" s="296"/>
-      <c r="C78" s="296"/>
-      <c r="D78" s="296"/>
-      <c r="E78" s="296"/>
-      <c r="F78" s="296"/>
-      <c r="G78" s="296"/>
-      <c r="H78" s="296"/>
-      <c r="I78" s="296"/>
-      <c r="J78" s="296"/>
-      <c r="K78" s="296"/>
-      <c r="L78" s="296"/>
-      <c r="M78" s="296"/>
-      <c r="N78" s="296"/>
-      <c r="O78" s="296"/>
-      <c r="P78" s="297"/>
+      <c r="A78" s="285"/>
+      <c r="B78" s="286"/>
+      <c r="C78" s="286"/>
+      <c r="D78" s="286"/>
+      <c r="E78" s="286"/>
+      <c r="F78" s="286"/>
+      <c r="G78" s="286"/>
+      <c r="H78" s="286"/>
+      <c r="I78" s="286"/>
+      <c r="J78" s="286"/>
+      <c r="K78" s="286"/>
+      <c r="L78" s="286"/>
+      <c r="M78" s="286"/>
+      <c r="N78" s="286"/>
+      <c r="O78" s="286"/>
+      <c r="P78" s="287"/>
     </row>
     <row r="79" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A79" s="329" t="s">
+      <c r="A79" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="314"/>
+      <c r="B79" s="260"/>
       <c r="C79" s="155">
         <f>I28</f>
         <v>0</v>
       </c>
       <c r="D79" s="156"/>
-      <c r="E79" s="312" t="s">
+      <c r="E79" s="258" t="s">
         <v>148</v>
       </c>
-      <c r="F79" s="313"/>
-      <c r="G79" s="314"/>
-      <c r="H79" s="315">
+      <c r="F79" s="259"/>
+      <c r="G79" s="260"/>
+      <c r="H79" s="261">
         <f>I33</f>
         <v>0</v>
       </c>
-      <c r="I79" s="316"/>
+      <c r="I79" s="262"/>
       <c r="J79" s="157"/>
       <c r="K79" s="158"/>
-      <c r="L79" s="317" t="s">
+      <c r="L79" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="M79" s="318"/>
-      <c r="N79" s="319">
+      <c r="M79" s="264"/>
+      <c r="N79" s="265">
         <f>C79+H79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="316"/>
+      <c r="O79" s="262"/>
       <c r="P79" s="159"/>
     </row>
     <row r="80" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A80" s="361" t="s">
+      <c r="A80" s="210" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="362"/>
+      <c r="B80" s="211"/>
       <c r="C80" s="160">
         <f>C79-K85</f>
         <v>0</v>
@@ -9760,30 +9829,30 @@
         <f>IF(C79=0,0,C80/C79)</f>
         <v>0</v>
       </c>
-      <c r="E80" s="363" t="s">
+      <c r="E80" s="212" t="s">
         <v>147</v>
       </c>
-      <c r="F80" s="364"/>
-      <c r="G80" s="365"/>
-      <c r="H80" s="366">
+      <c r="F80" s="213"/>
+      <c r="G80" s="214"/>
+      <c r="H80" s="215">
         <f>H79-N49</f>
         <v>0</v>
       </c>
-      <c r="I80" s="367"/>
+      <c r="I80" s="216"/>
       <c r="J80" s="162"/>
       <c r="K80" s="161">
         <f>IF(H79=0,0,H80/H79)</f>
         <v>0</v>
       </c>
-      <c r="L80" s="363" t="s">
+      <c r="L80" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="M80" s="365"/>
-      <c r="N80" s="368">
+      <c r="M80" s="214"/>
+      <c r="N80" s="217">
         <f>C80+H80</f>
         <v>0</v>
       </c>
-      <c r="O80" s="367"/>
+      <c r="O80" s="216"/>
       <c r="P80" s="163">
         <f>IF(N79=0,0,N80/N79)</f>
         <v>0</v>
@@ -9800,16 +9869,16 @@
       <c r="H81" s="168"/>
       <c r="I81" s="168"/>
       <c r="J81" s="169"/>
-      <c r="K81" s="369" t="s">
+      <c r="K81" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="L81" s="370"/>
-      <c r="M81" s="371"/>
-      <c r="N81" s="339">
+      <c r="L81" s="219"/>
+      <c r="M81" s="220"/>
+      <c r="N81" s="221">
         <f>TRUNC((N79*P81),0)</f>
         <v>0</v>
       </c>
-      <c r="O81" s="340"/>
+      <c r="O81" s="222"/>
       <c r="P81" s="170">
         <v>6.08E-2</v>
       </c>
@@ -9825,32 +9894,32 @@
       <c r="H82" s="174"/>
       <c r="I82" s="175"/>
       <c r="J82" s="176"/>
-      <c r="K82" s="348" t="s">
+      <c r="K82" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="L82" s="355"/>
-      <c r="M82" s="349"/>
-      <c r="N82" s="346">
+      <c r="L82" s="201"/>
+      <c r="M82" s="202"/>
+      <c r="N82" s="203">
         <f>N80-N81</f>
         <v>0</v>
       </c>
-      <c r="O82" s="347"/>
+      <c r="O82" s="204"/>
       <c r="P82" s="177">
         <f>IF(N79=0,0,N82/N79)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A83" s="356" t="s">
+      <c r="A83" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="357"/>
-      <c r="C83" s="358" t="s">
+      <c r="B83" s="206"/>
+      <c r="C83" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="358"/>
-      <c r="E83" s="358"/>
-      <c r="F83" s="358"/>
+      <c r="D83" s="207"/>
+      <c r="E83" s="207"/>
+      <c r="F83" s="207"/>
       <c r="G83" s="178">
         <f>$P$4</f>
         <v>0</v>
@@ -9861,27 +9930,27 @@
         <v>0</v>
       </c>
       <c r="J83" s="180"/>
-      <c r="K83" s="359">
+      <c r="K83" s="208">
         <f>SUMIF(F52:F76,"&lt;&gt;"&amp;hdn_payoff_circle,K52:K76)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="359"/>
+      <c r="L83" s="208"/>
       <c r="M83" s="181"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
+      <c r="N83" s="209"/>
+      <c r="O83" s="209"/>
       <c r="P83" s="182"/>
     </row>
     <row r="84" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A84" s="336" t="s">
+      <c r="A84" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="337"/>
-      <c r="C84" s="338" t="s">
+      <c r="B84" s="230"/>
+      <c r="C84" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="338"/>
-      <c r="E84" s="338"/>
-      <c r="F84" s="338"/>
+      <c r="D84" s="231"/>
+      <c r="E84" s="231"/>
+      <c r="F84" s="231"/>
       <c r="G84" s="183">
         <f>$P$4</f>
         <v>0</v>
@@ -9892,27 +9961,27 @@
         <v>0</v>
       </c>
       <c r="J84" s="186"/>
-      <c r="K84" s="339">
+      <c r="K84" s="221">
         <f>SUMIF(F36:F76,hdn_payoff_circle,K36:K76)</f>
         <v>0</v>
       </c>
-      <c r="L84" s="340"/>
+      <c r="L84" s="222"/>
       <c r="M84" s="187"/>
-      <c r="N84" s="341"/>
-      <c r="O84" s="342"/>
+      <c r="N84" s="232"/>
+      <c r="O84" s="233"/>
       <c r="P84" s="188"/>
     </row>
     <row r="85" spans="1:25" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A85" s="343" t="s">
+      <c r="A85" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="344"/>
-      <c r="C85" s="345" t="s">
+      <c r="B85" s="235"/>
+      <c r="C85" s="236" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="345"/>
-      <c r="E85" s="345"/>
-      <c r="F85" s="345"/>
+      <c r="D85" s="236"/>
+      <c r="E85" s="236"/>
+      <c r="F85" s="236"/>
       <c r="G85" s="189">
         <f>$P$4</f>
         <v>0</v>
@@ -9923,60 +9992,60 @@
         <v>0</v>
       </c>
       <c r="J85" s="192"/>
-      <c r="K85" s="346">
+      <c r="K85" s="203">
         <f>SUM(K83:K84)</f>
         <v>0</v>
       </c>
-      <c r="L85" s="347"/>
-      <c r="M85" s="348" t="s">
+      <c r="L85" s="204"/>
+      <c r="M85" s="200" t="s">
         <v>152</v>
       </c>
-      <c r="N85" s="349"/>
-      <c r="O85" s="350">
+      <c r="N85" s="202"/>
+      <c r="O85" s="237">
         <f>N49</f>
         <v>0</v>
       </c>
-      <c r="P85" s="351"/>
+      <c r="P85" s="238"/>
     </row>
     <row r="86" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A86" s="333"/>
-      <c r="B86" s="333"/>
-      <c r="C86" s="333"/>
-      <c r="D86" s="333"/>
-      <c r="E86" s="333"/>
-      <c r="F86" s="333"/>
-      <c r="G86" s="333"/>
+      <c r="A86" s="226"/>
+      <c r="B86" s="226"/>
+      <c r="C86" s="226"/>
+      <c r="D86" s="226"/>
+      <c r="E86" s="226"/>
+      <c r="F86" s="226"/>
+      <c r="G86" s="226"/>
       <c r="H86" s="193"/>
-      <c r="I86" s="334" t="s">
+      <c r="I86" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="J86" s="334"/>
-      <c r="K86" s="334"/>
-      <c r="L86" s="334"/>
-      <c r="M86" s="334"/>
-      <c r="N86" s="334"/>
-      <c r="O86" s="334"/>
-      <c r="P86" s="334"/>
+      <c r="J86" s="227"/>
+      <c r="K86" s="227"/>
+      <c r="L86" s="227"/>
+      <c r="M86" s="227"/>
+      <c r="N86" s="227"/>
+      <c r="O86" s="227"/>
+      <c r="P86" s="227"/>
     </row>
     <row r="87" spans="1:25" ht="9" hidden="1" customHeight="1">
-      <c r="A87" s="335" t="s">
+      <c r="A87" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="335"/>
-      <c r="C87" s="335"/>
-      <c r="D87" s="335"/>
-      <c r="E87" s="335"/>
-      <c r="F87" s="335"/>
-      <c r="G87" s="335"/>
-      <c r="H87" s="335"/>
-      <c r="I87" s="335"/>
-      <c r="J87" s="335"/>
-      <c r="K87" s="335"/>
-      <c r="L87" s="335"/>
-      <c r="M87" s="335"/>
-      <c r="N87" s="335"/>
-      <c r="O87" s="335"/>
-      <c r="P87" s="335"/>
+      <c r="B87" s="228"/>
+      <c r="C87" s="228"/>
+      <c r="D87" s="228"/>
+      <c r="E87" s="228"/>
+      <c r="F87" s="228"/>
+      <c r="G87" s="228"/>
+      <c r="H87" s="228"/>
+      <c r="I87" s="228"/>
+      <c r="J87" s="228"/>
+      <c r="K87" s="228"/>
+      <c r="L87" s="228"/>
+      <c r="M87" s="228"/>
+      <c r="N87" s="228"/>
+      <c r="O87" s="228"/>
+      <c r="P87" s="228"/>
       <c r="Q87" s="35"/>
       <c r="R87" s="35"/>
       <c r="S87" s="35"/>
@@ -10193,7 +10262,7 @@
       <c r="X96" s="24"/>
     </row>
     <row r="97" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A97" s="352" t="s">
+      <c r="A97" s="239" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="6"/>
@@ -10215,7 +10284,7 @@
       <c r="U97" s="36"/>
     </row>
     <row r="98" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A98" s="353"/>
+      <c r="A98" s="240"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -10237,7 +10306,7 @@
       <c r="U98" s="36"/>
     </row>
     <row r="99" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A99" s="353"/>
+      <c r="A99" s="240"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -10259,7 +10328,7 @@
       <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A100" s="353"/>
+      <c r="A100" s="240"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -10281,7 +10350,7 @@
       <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:21" s="7" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A101" s="353"/>
+      <c r="A101" s="240"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -10302,7 +10371,7 @@
       </c>
     </row>
     <row r="102" spans="1:21" s="7" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A102" s="353"/>
+      <c r="A102" s="240"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -10321,7 +10390,7 @@
       <c r="Q102" s="6"/>
     </row>
     <row r="103" spans="1:21" s="7" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A103" s="353"/>
+      <c r="A103" s="240"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -10340,7 +10409,7 @@
       <c r="Q103" s="6"/>
     </row>
     <row r="104" spans="1:21" s="7" customFormat="1" ht="13.5" hidden="1" customHeight="1">
-      <c r="A104" s="353"/>
+      <c r="A104" s="240"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -10359,7 +10428,7 @@
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A105" s="353"/>
+      <c r="A105" s="240"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -10378,7 +10447,7 @@
       <c r="Q105" s="3"/>
     </row>
     <row r="106" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A106" s="353"/>
+      <c r="A106" s="240"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -10397,7 +10466,7 @@
       <c r="Q106" s="3"/>
     </row>
     <row r="107" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A107" s="353"/>
+      <c r="A107" s="240"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -10416,7 +10485,7 @@
       <c r="Q107" s="3"/>
     </row>
     <row r="108" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A108" s="353"/>
+      <c r="A108" s="240"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -10435,7 +10504,7 @@
       <c r="Q108" s="3"/>
     </row>
     <row r="109" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A109" s="353"/>
+      <c r="A109" s="240"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -10454,7 +10523,7 @@
       <c r="Q109" s="3"/>
     </row>
     <row r="110" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A110" s="353"/>
+      <c r="A110" s="240"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -10473,7 +10542,7 @@
       <c r="Q110" s="3"/>
     </row>
     <row r="111" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A111" s="353"/>
+      <c r="A111" s="240"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -10492,7 +10561,7 @@
       <c r="Q111" s="3"/>
     </row>
     <row r="112" spans="1:21" s="7" customFormat="1" hidden="1">
-      <c r="A112" s="353"/>
+      <c r="A112" s="240"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -10511,7 +10580,7 @@
       <c r="Q112" s="3"/>
     </row>
     <row r="113" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A113" s="353"/>
+      <c r="A113" s="240"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -10530,7 +10599,7 @@
       <c r="Q113" s="3"/>
     </row>
     <row r="114" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A114" s="353"/>
+      <c r="A114" s="240"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -10549,7 +10618,7 @@
       <c r="Q114" s="6"/>
     </row>
     <row r="115" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A115" s="353"/>
+      <c r="A115" s="240"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -10568,7 +10637,7 @@
       <c r="Q115" s="6"/>
     </row>
     <row r="116" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A116" s="353"/>
+      <c r="A116" s="240"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -10587,7 +10656,7 @@
       <c r="Q116" s="6"/>
     </row>
     <row r="117" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A117" s="353"/>
+      <c r="A117" s="240"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -10606,7 +10675,7 @@
       <c r="Q117" s="6"/>
     </row>
     <row r="118" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A118" s="353"/>
+      <c r="A118" s="240"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -10625,7 +10694,7 @@
       <c r="Q118" s="6"/>
     </row>
     <row r="119" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A119" s="353"/>
+      <c r="A119" s="240"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -10644,7 +10713,7 @@
       <c r="Q119" s="6"/>
     </row>
     <row r="120" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A120" s="353"/>
+      <c r="A120" s="240"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -10663,7 +10732,7 @@
       <c r="Q120" s="6"/>
     </row>
     <row r="121" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A121" s="353"/>
+      <c r="A121" s="240"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -10682,7 +10751,7 @@
       <c r="Q121" s="6"/>
     </row>
     <row r="122" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A122" s="353"/>
+      <c r="A122" s="240"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -10701,7 +10770,7 @@
       <c r="Q122" s="6"/>
     </row>
     <row r="123" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A123" s="353"/>
+      <c r="A123" s="240"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -10720,7 +10789,7 @@
       <c r="Q123" s="6"/>
     </row>
     <row r="124" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A124" s="353"/>
+      <c r="A124" s="240"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -10739,7 +10808,7 @@
       <c r="Q124" s="6"/>
     </row>
     <row r="125" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A125" s="353"/>
+      <c r="A125" s="240"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -10758,7 +10827,7 @@
       <c r="Q125" s="6"/>
     </row>
     <row r="126" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A126" s="353"/>
+      <c r="A126" s="240"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -10777,7 +10846,7 @@
       <c r="Q126" s="6"/>
     </row>
     <row r="127" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A127" s="354"/>
+      <c r="A127" s="241"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -10796,7 +10865,7 @@
       <c r="Q127" s="6"/>
     </row>
     <row r="128" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A128" s="330" t="s">
+      <c r="A128" s="223" t="s">
         <v>99</v>
       </c>
       <c r="B128" s="6"/>
@@ -10817,7 +10886,7 @@
       <c r="Q128" s="6"/>
     </row>
     <row r="129" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A129" s="331"/>
+      <c r="A129" s="224"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
@@ -10836,7 +10905,7 @@
       <c r="Q129" s="6"/>
     </row>
     <row r="130" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A130" s="331"/>
+      <c r="A130" s="224"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
@@ -10855,7 +10924,7 @@
       <c r="Q130" s="6"/>
     </row>
     <row r="131" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A131" s="331"/>
+      <c r="A131" s="224"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
@@ -10874,7 +10943,7 @@
       <c r="Q131" s="6"/>
     </row>
     <row r="132" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A132" s="331"/>
+      <c r="A132" s="224"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
@@ -10893,7 +10962,7 @@
       <c r="Q132" s="6"/>
     </row>
     <row r="133" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A133" s="331"/>
+      <c r="A133" s="224"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
@@ -10912,7 +10981,7 @@
       <c r="Q133" s="6"/>
     </row>
     <row r="134" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A134" s="331"/>
+      <c r="A134" s="224"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
@@ -10931,7 +11000,7 @@
       <c r="Q134" s="6"/>
     </row>
     <row r="135" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A135" s="331"/>
+      <c r="A135" s="224"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
@@ -10950,7 +11019,7 @@
       <c r="Q135" s="6"/>
     </row>
     <row r="136" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A136" s="331"/>
+      <c r="A136" s="224"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
@@ -10969,7 +11038,7 @@
       <c r="Q136" s="6"/>
     </row>
     <row r="137" spans="1:17" s="7" customFormat="1" hidden="1">
-      <c r="A137" s="331"/>
+      <c r="A137" s="224"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
@@ -10988,7 +11057,7 @@
       <c r="Q137" s="6"/>
     </row>
     <row r="138" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A138" s="331"/>
+      <c r="A138" s="224"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
@@ -11007,7 +11076,7 @@
       <c r="Q138" s="6"/>
     </row>
     <row r="139" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A139" s="331"/>
+      <c r="A139" s="224"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
@@ -11026,7 +11095,7 @@
       <c r="Q139" s="6"/>
     </row>
     <row r="140" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A140" s="331"/>
+      <c r="A140" s="224"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
@@ -11045,7 +11114,7 @@
       <c r="Q140" s="6"/>
     </row>
     <row r="141" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A141" s="331"/>
+      <c r="A141" s="224"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
@@ -11064,7 +11133,7 @@
       <c r="Q141" s="6"/>
     </row>
     <row r="142" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A142" s="331"/>
+      <c r="A142" s="224"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
@@ -11083,7 +11152,7 @@
       <c r="Q142" s="6"/>
     </row>
     <row r="143" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A143" s="331"/>
+      <c r="A143" s="224"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
@@ -11102,7 +11171,7 @@
       <c r="Q143" s="6"/>
     </row>
     <row r="144" spans="1:17" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A144" s="331"/>
+      <c r="A144" s="224"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
@@ -11121,7 +11190,7 @@
       <c r="Q144" s="6"/>
     </row>
     <row r="145" spans="1:20" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A145" s="331"/>
+      <c r="A145" s="224"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
@@ -11140,7 +11209,7 @@
       <c r="Q145" s="6"/>
     </row>
     <row r="146" spans="1:20" s="7" customFormat="1" hidden="1">
-      <c r="A146" s="331"/>
+      <c r="A146" s="224"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
@@ -11159,7 +11228,7 @@
       <c r="Q146" s="6"/>
     </row>
     <row r="147" spans="1:20" s="7" customFormat="1" hidden="1">
-      <c r="A147" s="331"/>
+      <c r="A147" s="224"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
@@ -11178,7 +11247,7 @@
       <c r="Q147" s="6"/>
     </row>
     <row r="148" spans="1:20" s="7" customFormat="1" hidden="1">
-      <c r="A148" s="331"/>
+      <c r="A148" s="224"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -11197,7 +11266,7 @@
       <c r="Q148" s="6"/>
     </row>
     <row r="149" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A149" s="331"/>
+      <c r="A149" s="224"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -11216,7 +11285,7 @@
       <c r="Q149" s="6"/>
     </row>
     <row r="150" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A150" s="331"/>
+      <c r="A150" s="224"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
       <c r="D150" s="44"/>
@@ -11238,7 +11307,7 @@
       <c r="T150" s="39"/>
     </row>
     <row r="151" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A151" s="331"/>
+      <c r="A151" s="224"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
       <c r="D151" s="44"/>
@@ -11260,7 +11329,7 @@
       <c r="T151" s="39"/>
     </row>
     <row r="152" spans="1:20" s="7" customFormat="1" ht="13.2" hidden="1">
-      <c r="A152" s="331"/>
+      <c r="A152" s="224"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
@@ -11282,7 +11351,7 @@
       <c r="T152" s="39"/>
     </row>
     <row r="153" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A153" s="331"/>
+      <c r="A153" s="224"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
       <c r="D153" s="44"/>
@@ -11304,7 +11373,7 @@
       <c r="T153" s="39"/>
     </row>
     <row r="154" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A154" s="331"/>
+      <c r="A154" s="224"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
       <c r="D154" s="44"/>
@@ -11326,7 +11395,7 @@
       <c r="T154" s="39"/>
     </row>
     <row r="155" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A155" s="331"/>
+      <c r="A155" s="224"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
@@ -11348,7 +11417,7 @@
       <c r="T155" s="39"/>
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A156" s="331"/>
+      <c r="A156" s="224"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
@@ -11370,7 +11439,7 @@
       <c r="T156" s="39"/>
     </row>
     <row r="157" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A157" s="331"/>
+      <c r="A157" s="224"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
       <c r="D157" s="44"/>
@@ -11392,7 +11461,7 @@
       <c r="T157" s="39"/>
     </row>
     <row r="158" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A158" s="331"/>
+      <c r="A158" s="224"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
       <c r="D158" s="44"/>
@@ -11414,7 +11483,7 @@
       <c r="T158" s="39"/>
     </row>
     <row r="159" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A159" s="331"/>
+      <c r="A159" s="224"/>
       <c r="B159" s="44"/>
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
@@ -11436,7 +11505,7 @@
       <c r="T159" s="39"/>
     </row>
     <row r="160" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A160" s="331"/>
+      <c r="A160" s="224"/>
       <c r="B160" s="44"/>
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
@@ -11458,7 +11527,7 @@
       <c r="T160" s="39"/>
     </row>
     <row r="161" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A161" s="331"/>
+      <c r="A161" s="224"/>
       <c r="B161" s="44"/>
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
@@ -11480,7 +11549,7 @@
       <c r="T161" s="39"/>
     </row>
     <row r="162" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A162" s="331"/>
+      <c r="A162" s="224"/>
       <c r="B162" s="44"/>
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
@@ -11502,7 +11571,7 @@
       <c r="T162" s="39"/>
     </row>
     <row r="163" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A163" s="331"/>
+      <c r="A163" s="224"/>
       <c r="B163" s="44"/>
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
@@ -11524,7 +11593,7 @@
       <c r="T163" s="39"/>
     </row>
     <row r="164" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A164" s="331"/>
+      <c r="A164" s="224"/>
       <c r="B164" s="44"/>
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
@@ -11546,7 +11615,7 @@
       <c r="T164" s="39"/>
     </row>
     <row r="165" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A165" s="331"/>
+      <c r="A165" s="224"/>
       <c r="B165" s="44"/>
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
@@ -11568,7 +11637,7 @@
       <c r="T165" s="39"/>
     </row>
     <row r="166" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A166" s="331"/>
+      <c r="A166" s="224"/>
       <c r="B166" s="44"/>
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
@@ -11590,7 +11659,7 @@
       <c r="T166" s="39"/>
     </row>
     <row r="167" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A167" s="331"/>
+      <c r="A167" s="224"/>
       <c r="B167" s="44"/>
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
@@ -11612,7 +11681,7 @@
       <c r="T167" s="39"/>
     </row>
     <row r="168" spans="1:20" s="7" customFormat="1" ht="12" hidden="1">
-      <c r="A168" s="332"/>
+      <c r="A168" s="225"/>
       <c r="B168" s="44"/>
       <c r="C168" s="63"/>
       <c r="D168" s="63"/>
@@ -12134,54 +12203,252 @@
     <sortCondition ref="H193:H195"/>
   </sortState>
   <mergeCells count="318">
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="A128:A168"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="I86:P86"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="A97:A127"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="K36:L36"/>
@@ -12206,252 +12473,54 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A128:A168"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="I86:P86"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="A97:A127"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="13">
@@ -12501,7 +12570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
@@ -12560,7 +12629,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="67">
-        <f t="shared" ref="A3:A45" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A46" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="68">
@@ -13284,6 +13353,21 @@
       <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
+    </row>
+    <row r="46" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A46" s="372">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="373">
+        <v>44034</v>
+      </c>
+      <c r="C46" s="374" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="372"/>
+      <c r="E46" s="372"/>
+      <c r="F46" s="372"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
